--- a/howell13.xlsx
+++ b/howell13.xlsx
@@ -520,7 +520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Sep 04, 2025.</t>
+          <t>For public domain. No rights reserved. Generated on Sep 10, 2025.</t>
         </is>
       </c>
     </row>
@@ -695,12 +695,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH53</t>
+          <t>PH97</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH75</t>
+          <t>PH86</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -714,12 +714,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH95</t>
+          <t>PH82</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH48</t>
+          <t>PH46</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH56</t>
+          <t>PH40</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PH45</t>
+          <t>PH92</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -752,12 +752,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH33</t>
+          <t>PH45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PH21</t>
+          <t>PH97</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -771,12 +771,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH63</t>
+          <t>PH25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH79</t>
+          <t>PH87</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -790,12 +790,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PH42</t>
+          <t>PH66</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PH82</t>
+          <t>PH95</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -809,12 +809,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PH87</t>
+          <t>PH85</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PH90</t>
+          <t>PH96</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -828,12 +828,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PH57</t>
+          <t>PH66</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PH22</t>
+          <t>PH86</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -847,12 +847,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PH79</t>
+          <t>PH56</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PH96</t>
+          <t>PH25</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -866,12 +866,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PH89</t>
+          <t>PH34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PH76</t>
+          <t>PH39</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -885,12 +885,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PH15</t>
+          <t>PH84</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PH48</t>
+          <t>PH86</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -904,12 +904,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PH12</t>
+          <t>PH21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PH25</t>
+          <t>PH62</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -923,12 +923,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>PH25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>PH46</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>PH83</t>
         </is>
       </c>
       <c r="D14" s="4">

--- a/howell13.xlsx
+++ b/howell13.xlsx
@@ -536,7 +536,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Jan 14, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Jan 18, 2026.</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH80</t>
+          <t>PH63</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH19</t>
+          <t>PH78</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -730,12 +730,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH82</t>
+          <t>PH69</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH72</t>
+          <t>PH99</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -749,12 +749,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH77</t>
+          <t>PH19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PH64</t>
+          <t>PH30</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -768,12 +768,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH85</t>
+          <t>PH86</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PH33</t>
+          <t>PH19</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -787,12 +787,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH12</t>
+          <t>PH67</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH57</t>
+          <t>PH47</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -806,12 +806,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PH44</t>
+          <t>PH84</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PH58</t>
+          <t>PH78</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -825,12 +825,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PH14</t>
+          <t>PH82</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PH90</t>
+          <t>PH17</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -844,12 +844,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PH55</t>
+          <t>PH67</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PH42</t>
+          <t>PH20</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -863,12 +863,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PH57</t>
+          <t>PH84</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PH71</t>
+          <t>PH58</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -882,12 +882,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PH34</t>
+          <t>PH23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PH15</t>
+          <t>PH12</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -901,12 +901,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PH56</t>
+          <t>PH94</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PH24</t>
+          <t>PH49</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -920,12 +920,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PH52</t>
+          <t>PH82</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PH22</t>
+          <t>PH16</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -939,12 +939,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PH39</t>
+          <t>PH28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PH44</t>
+          <t>PH57</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -1867,23 +1867,23 @@
         </is>
       </c>
       <c r="G10">
-        <f>'By Round'!G3</f>
+        <f>'By Round'!G2</f>
         <v/>
       </c>
       <c r="H10">
-        <f>'By Round'!H3</f>
+        <f>'By Round'!H2</f>
         <v/>
       </c>
       <c r="I10">
-        <f>'By Round'!I3</f>
+        <f>'By Round'!I2</f>
         <v/>
       </c>
       <c r="J10">
-        <f>'By Round'!J3</f>
+        <f>'By Round'!J2</f>
         <v/>
       </c>
       <c r="K10">
-        <f>'By Round'!K3</f>
+        <f>'By Round'!K2</f>
         <v/>
       </c>
       <c r="L10" s="11">
@@ -1974,23 +1974,23 @@
         </is>
       </c>
       <c r="G11">
-        <f>'By Round'!G43</f>
+        <f>'By Round'!G42</f>
         <v/>
       </c>
       <c r="H11">
-        <f>'By Round'!H43</f>
+        <f>'By Round'!H42</f>
         <v/>
       </c>
       <c r="I11">
-        <f>'By Round'!I43</f>
+        <f>'By Round'!I42</f>
         <v/>
       </c>
       <c r="J11">
-        <f>'By Round'!J43</f>
+        <f>'By Round'!J42</f>
         <v/>
       </c>
       <c r="K11">
-        <f>'By Round'!K43</f>
+        <f>'By Round'!K42</f>
         <v/>
       </c>
       <c r="L11" s="11">
@@ -2081,23 +2081,23 @@
         </is>
       </c>
       <c r="G12">
-        <f>'By Round'!G55</f>
+        <f>'By Round'!G54</f>
         <v/>
       </c>
       <c r="H12">
-        <f>'By Round'!H55</f>
+        <f>'By Round'!H54</f>
         <v/>
       </c>
       <c r="I12">
-        <f>'By Round'!I55</f>
+        <f>'By Round'!I54</f>
         <v/>
       </c>
       <c r="J12">
-        <f>'By Round'!J55</f>
+        <f>'By Round'!J54</f>
         <v/>
       </c>
       <c r="K12">
-        <f>'By Round'!K55</f>
+        <f>'By Round'!K54</f>
         <v/>
       </c>
       <c r="L12" s="11">
@@ -2188,23 +2188,23 @@
         </is>
       </c>
       <c r="G13">
-        <f>'By Round'!G67</f>
+        <f>'By Round'!G66</f>
         <v/>
       </c>
       <c r="H13">
-        <f>'By Round'!H67</f>
+        <f>'By Round'!H66</f>
         <v/>
       </c>
       <c r="I13">
-        <f>'By Round'!I67</f>
+        <f>'By Round'!I66</f>
         <v/>
       </c>
       <c r="J13">
-        <f>'By Round'!J67</f>
+        <f>'By Round'!J66</f>
         <v/>
       </c>
       <c r="K13">
-        <f>'By Round'!K67</f>
+        <f>'By Round'!K66</f>
         <v/>
       </c>
       <c r="L13" s="11">
@@ -2295,23 +2295,23 @@
         </is>
       </c>
       <c r="G14">
-        <f>'By Round'!G135</f>
+        <f>'By Round'!G134</f>
         <v/>
       </c>
       <c r="H14">
-        <f>'By Round'!H135</f>
+        <f>'By Round'!H134</f>
         <v/>
       </c>
       <c r="I14">
-        <f>'By Round'!I135</f>
+        <f>'By Round'!I134</f>
         <v/>
       </c>
       <c r="J14">
-        <f>'By Round'!J135</f>
+        <f>'By Round'!J134</f>
         <v/>
       </c>
       <c r="K14">
-        <f>'By Round'!K135</f>
+        <f>'By Round'!K134</f>
         <v/>
       </c>
       <c r="L14" s="11">
@@ -2402,23 +2402,23 @@
         </is>
       </c>
       <c r="G15">
-        <f>'By Round'!G147</f>
+        <f>'By Round'!G146</f>
         <v/>
       </c>
       <c r="H15">
-        <f>'By Round'!H147</f>
+        <f>'By Round'!H146</f>
         <v/>
       </c>
       <c r="I15">
-        <f>'By Round'!I147</f>
+        <f>'By Round'!I146</f>
         <v/>
       </c>
       <c r="J15">
-        <f>'By Round'!J147</f>
+        <f>'By Round'!J146</f>
         <v/>
       </c>
       <c r="K15">
-        <f>'By Round'!K147</f>
+        <f>'By Round'!K146</f>
         <v/>
       </c>
       <c r="L15" s="11">
@@ -2509,23 +2509,23 @@
         </is>
       </c>
       <c r="G16">
-        <f>'By Round'!G159</f>
+        <f>'By Round'!G158</f>
         <v/>
       </c>
       <c r="H16">
-        <f>'By Round'!H159</f>
+        <f>'By Round'!H158</f>
         <v/>
       </c>
       <c r="I16">
-        <f>'By Round'!I159</f>
+        <f>'By Round'!I158</f>
         <v/>
       </c>
       <c r="J16">
-        <f>'By Round'!J159</f>
+        <f>'By Round'!J158</f>
         <v/>
       </c>
       <c r="K16">
-        <f>'By Round'!K159</f>
+        <f>'By Round'!K158</f>
         <v/>
       </c>
       <c r="L16" s="11">
@@ -3371,23 +3371,23 @@
         </is>
       </c>
       <c r="G24">
-        <f>'By Round'!G17</f>
+        <f>'By Round'!G16</f>
         <v/>
       </c>
       <c r="H24">
-        <f>'By Round'!H17</f>
+        <f>'By Round'!H16</f>
         <v/>
       </c>
       <c r="I24">
-        <f>'By Round'!I17</f>
+        <f>'By Round'!I16</f>
         <v/>
       </c>
       <c r="J24">
-        <f>'By Round'!J17</f>
+        <f>'By Round'!J16</f>
         <v/>
       </c>
       <c r="K24">
-        <f>'By Round'!K17</f>
+        <f>'By Round'!K16</f>
         <v/>
       </c>
       <c r="L24" s="11">
@@ -3478,23 +3478,23 @@
         </is>
       </c>
       <c r="G25">
-        <f>'By Round'!G57</f>
+        <f>'By Round'!G56</f>
         <v/>
       </c>
       <c r="H25">
-        <f>'By Round'!H57</f>
+        <f>'By Round'!H56</f>
         <v/>
       </c>
       <c r="I25">
-        <f>'By Round'!I57</f>
+        <f>'By Round'!I56</f>
         <v/>
       </c>
       <c r="J25">
-        <f>'By Round'!J57</f>
+        <f>'By Round'!J56</f>
         <v/>
       </c>
       <c r="K25">
-        <f>'By Round'!K57</f>
+        <f>'By Round'!K56</f>
         <v/>
       </c>
       <c r="L25" s="11">
@@ -3585,23 +3585,23 @@
         </is>
       </c>
       <c r="G26">
-        <f>'By Round'!G69</f>
+        <f>'By Round'!G68</f>
         <v/>
       </c>
       <c r="H26">
-        <f>'By Round'!H69</f>
+        <f>'By Round'!H68</f>
         <v/>
       </c>
       <c r="I26">
-        <f>'By Round'!I69</f>
+        <f>'By Round'!I68</f>
         <v/>
       </c>
       <c r="J26">
-        <f>'By Round'!J69</f>
+        <f>'By Round'!J68</f>
         <v/>
       </c>
       <c r="K26">
-        <f>'By Round'!K69</f>
+        <f>'By Round'!K68</f>
         <v/>
       </c>
       <c r="L26" s="11">
@@ -3692,23 +3692,23 @@
         </is>
       </c>
       <c r="G27">
-        <f>'By Round'!G81</f>
+        <f>'By Round'!G80</f>
         <v/>
       </c>
       <c r="H27">
-        <f>'By Round'!H81</f>
+        <f>'By Round'!H80</f>
         <v/>
       </c>
       <c r="I27">
-        <f>'By Round'!I81</f>
+        <f>'By Round'!I80</f>
         <v/>
       </c>
       <c r="J27">
-        <f>'By Round'!J81</f>
+        <f>'By Round'!J80</f>
         <v/>
       </c>
       <c r="K27">
-        <f>'By Round'!K81</f>
+        <f>'By Round'!K80</f>
         <v/>
       </c>
       <c r="L27" s="11">
@@ -3799,23 +3799,23 @@
         </is>
       </c>
       <c r="G28">
-        <f>'By Round'!G149</f>
+        <f>'By Round'!G148</f>
         <v/>
       </c>
       <c r="H28">
-        <f>'By Round'!H149</f>
+        <f>'By Round'!H148</f>
         <v/>
       </c>
       <c r="I28">
-        <f>'By Round'!I149</f>
+        <f>'By Round'!I148</f>
         <v/>
       </c>
       <c r="J28">
-        <f>'By Round'!J149</f>
+        <f>'By Round'!J148</f>
         <v/>
       </c>
       <c r="K28">
-        <f>'By Round'!K149</f>
+        <f>'By Round'!K148</f>
         <v/>
       </c>
       <c r="L28" s="11">
@@ -3906,23 +3906,23 @@
         </is>
       </c>
       <c r="G29">
-        <f>'By Round'!G161</f>
+        <f>'By Round'!G160</f>
         <v/>
       </c>
       <c r="H29">
-        <f>'By Round'!H161</f>
+        <f>'By Round'!H160</f>
         <v/>
       </c>
       <c r="I29">
-        <f>'By Round'!I161</f>
+        <f>'By Round'!I160</f>
         <v/>
       </c>
       <c r="J29">
-        <f>'By Round'!J161</f>
+        <f>'By Round'!J160</f>
         <v/>
       </c>
       <c r="K29">
-        <f>'By Round'!K161</f>
+        <f>'By Round'!K160</f>
         <v/>
       </c>
       <c r="L29" s="11">
@@ -4013,23 +4013,23 @@
         </is>
       </c>
       <c r="G30">
-        <f>'By Round'!G173</f>
+        <f>'By Round'!G172</f>
         <v/>
       </c>
       <c r="H30">
-        <f>'By Round'!H173</f>
+        <f>'By Round'!H172</f>
         <v/>
       </c>
       <c r="I30">
-        <f>'By Round'!I173</f>
+        <f>'By Round'!I172</f>
         <v/>
       </c>
       <c r="J30">
-        <f>'By Round'!J173</f>
+        <f>'By Round'!J172</f>
         <v/>
       </c>
       <c r="K30">
-        <f>'By Round'!K173</f>
+        <f>'By Round'!K172</f>
         <v/>
       </c>
       <c r="L30" s="11">
@@ -4875,23 +4875,23 @@
         </is>
       </c>
       <c r="G38">
-        <f>'By Round'!G5</f>
+        <f>'By Round'!G4</f>
         <v/>
       </c>
       <c r="H38">
-        <f>'By Round'!H5</f>
+        <f>'By Round'!H4</f>
         <v/>
       </c>
       <c r="I38">
-        <f>'By Round'!I5</f>
+        <f>'By Round'!I4</f>
         <v/>
       </c>
       <c r="J38">
-        <f>'By Round'!J5</f>
+        <f>'By Round'!J4</f>
         <v/>
       </c>
       <c r="K38">
-        <f>'By Round'!K5</f>
+        <f>'By Round'!K4</f>
         <v/>
       </c>
       <c r="L38" s="11">
@@ -4982,23 +4982,23 @@
         </is>
       </c>
       <c r="G39">
-        <f>'By Round'!G31</f>
+        <f>'By Round'!G30</f>
         <v/>
       </c>
       <c r="H39">
-        <f>'By Round'!H31</f>
+        <f>'By Round'!H30</f>
         <v/>
       </c>
       <c r="I39">
-        <f>'By Round'!I31</f>
+        <f>'By Round'!I30</f>
         <v/>
       </c>
       <c r="J39">
-        <f>'By Round'!J31</f>
+        <f>'By Round'!J30</f>
         <v/>
       </c>
       <c r="K39">
-        <f>'By Round'!K31</f>
+        <f>'By Round'!K30</f>
         <v/>
       </c>
       <c r="L39" s="11">
@@ -5089,23 +5089,23 @@
         </is>
       </c>
       <c r="G40">
-        <f>'By Round'!G71</f>
+        <f>'By Round'!G70</f>
         <v/>
       </c>
       <c r="H40">
-        <f>'By Round'!H71</f>
+        <f>'By Round'!H70</f>
         <v/>
       </c>
       <c r="I40">
-        <f>'By Round'!I71</f>
+        <f>'By Round'!I70</f>
         <v/>
       </c>
       <c r="J40">
-        <f>'By Round'!J71</f>
+        <f>'By Round'!J70</f>
         <v/>
       </c>
       <c r="K40">
-        <f>'By Round'!K71</f>
+        <f>'By Round'!K70</f>
         <v/>
       </c>
       <c r="L40" s="11">
@@ -5196,23 +5196,23 @@
         </is>
       </c>
       <c r="G41">
-        <f>'By Round'!G83</f>
+        <f>'By Round'!G82</f>
         <v/>
       </c>
       <c r="H41">
-        <f>'By Round'!H83</f>
+        <f>'By Round'!H82</f>
         <v/>
       </c>
       <c r="I41">
-        <f>'By Round'!I83</f>
+        <f>'By Round'!I82</f>
         <v/>
       </c>
       <c r="J41">
-        <f>'By Round'!J83</f>
+        <f>'By Round'!J82</f>
         <v/>
       </c>
       <c r="K41">
-        <f>'By Round'!K83</f>
+        <f>'By Round'!K82</f>
         <v/>
       </c>
       <c r="L41" s="11">
@@ -5303,23 +5303,23 @@
         </is>
       </c>
       <c r="G42">
-        <f>'By Round'!G95</f>
+        <f>'By Round'!G94</f>
         <v/>
       </c>
       <c r="H42">
-        <f>'By Round'!H95</f>
+        <f>'By Round'!H94</f>
         <v/>
       </c>
       <c r="I42">
-        <f>'By Round'!I95</f>
+        <f>'By Round'!I94</f>
         <v/>
       </c>
       <c r="J42">
-        <f>'By Round'!J95</f>
+        <f>'By Round'!J94</f>
         <v/>
       </c>
       <c r="K42">
-        <f>'By Round'!K95</f>
+        <f>'By Round'!K94</f>
         <v/>
       </c>
       <c r="L42" s="11">
@@ -5410,23 +5410,23 @@
         </is>
       </c>
       <c r="G43">
-        <f>'By Round'!G163</f>
+        <f>'By Round'!G162</f>
         <v/>
       </c>
       <c r="H43">
-        <f>'By Round'!H163</f>
+        <f>'By Round'!H162</f>
         <v/>
       </c>
       <c r="I43">
-        <f>'By Round'!I163</f>
+        <f>'By Round'!I162</f>
         <v/>
       </c>
       <c r="J43">
-        <f>'By Round'!J163</f>
+        <f>'By Round'!J162</f>
         <v/>
       </c>
       <c r="K43">
-        <f>'By Round'!K163</f>
+        <f>'By Round'!K162</f>
         <v/>
       </c>
       <c r="L43" s="11">
@@ -5517,23 +5517,23 @@
         </is>
       </c>
       <c r="G44">
-        <f>'By Round'!G175</f>
+        <f>'By Round'!G174</f>
         <v/>
       </c>
       <c r="H44">
-        <f>'By Round'!H175</f>
+        <f>'By Round'!H174</f>
         <v/>
       </c>
       <c r="I44">
-        <f>'By Round'!I175</f>
+        <f>'By Round'!I174</f>
         <v/>
       </c>
       <c r="J44">
-        <f>'By Round'!J175</f>
+        <f>'By Round'!J174</f>
         <v/>
       </c>
       <c r="K44">
-        <f>'By Round'!K175</f>
+        <f>'By Round'!K174</f>
         <v/>
       </c>
       <c r="L44" s="11">
@@ -6379,23 +6379,23 @@
         </is>
       </c>
       <c r="G52">
-        <f>'By Round'!G7</f>
+        <f>'By Round'!G6</f>
         <v/>
       </c>
       <c r="H52">
-        <f>'By Round'!H7</f>
+        <f>'By Round'!H6</f>
         <v/>
       </c>
       <c r="I52">
-        <f>'By Round'!I7</f>
+        <f>'By Round'!I6</f>
         <v/>
       </c>
       <c r="J52">
-        <f>'By Round'!J7</f>
+        <f>'By Round'!J6</f>
         <v/>
       </c>
       <c r="K52">
-        <f>'By Round'!K7</f>
+        <f>'By Round'!K6</f>
         <v/>
       </c>
       <c r="L52" s="11">
@@ -6486,23 +6486,23 @@
         </is>
       </c>
       <c r="G53">
-        <f>'By Round'!G19</f>
+        <f>'By Round'!G18</f>
         <v/>
       </c>
       <c r="H53">
-        <f>'By Round'!H19</f>
+        <f>'By Round'!H18</f>
         <v/>
       </c>
       <c r="I53">
-        <f>'By Round'!I19</f>
+        <f>'By Round'!I18</f>
         <v/>
       </c>
       <c r="J53">
-        <f>'By Round'!J19</f>
+        <f>'By Round'!J18</f>
         <v/>
       </c>
       <c r="K53">
-        <f>'By Round'!K19</f>
+        <f>'By Round'!K18</f>
         <v/>
       </c>
       <c r="L53" s="11">
@@ -6593,23 +6593,23 @@
         </is>
       </c>
       <c r="G54">
-        <f>'By Round'!G45</f>
+        <f>'By Round'!G44</f>
         <v/>
       </c>
       <c r="H54">
-        <f>'By Round'!H45</f>
+        <f>'By Round'!H44</f>
         <v/>
       </c>
       <c r="I54">
-        <f>'By Round'!I45</f>
+        <f>'By Round'!I44</f>
         <v/>
       </c>
       <c r="J54">
-        <f>'By Round'!J45</f>
+        <f>'By Round'!J44</f>
         <v/>
       </c>
       <c r="K54">
-        <f>'By Round'!K45</f>
+        <f>'By Round'!K44</f>
         <v/>
       </c>
       <c r="L54" s="11">
@@ -6700,23 +6700,23 @@
         </is>
       </c>
       <c r="G55">
-        <f>'By Round'!G85</f>
+        <f>'By Round'!G84</f>
         <v/>
       </c>
       <c r="H55">
-        <f>'By Round'!H85</f>
+        <f>'By Round'!H84</f>
         <v/>
       </c>
       <c r="I55">
-        <f>'By Round'!I85</f>
+        <f>'By Round'!I84</f>
         <v/>
       </c>
       <c r="J55">
-        <f>'By Round'!J85</f>
+        <f>'By Round'!J84</f>
         <v/>
       </c>
       <c r="K55">
-        <f>'By Round'!K85</f>
+        <f>'By Round'!K84</f>
         <v/>
       </c>
       <c r="L55" s="11">
@@ -6807,23 +6807,23 @@
         </is>
       </c>
       <c r="G56">
-        <f>'By Round'!G97</f>
+        <f>'By Round'!G96</f>
         <v/>
       </c>
       <c r="H56">
-        <f>'By Round'!H97</f>
+        <f>'By Round'!H96</f>
         <v/>
       </c>
       <c r="I56">
-        <f>'By Round'!I97</f>
+        <f>'By Round'!I96</f>
         <v/>
       </c>
       <c r="J56">
-        <f>'By Round'!J97</f>
+        <f>'By Round'!J96</f>
         <v/>
       </c>
       <c r="K56">
-        <f>'By Round'!K97</f>
+        <f>'By Round'!K96</f>
         <v/>
       </c>
       <c r="L56" s="11">
@@ -6914,23 +6914,23 @@
         </is>
       </c>
       <c r="G57">
-        <f>'By Round'!G109</f>
+        <f>'By Round'!G108</f>
         <v/>
       </c>
       <c r="H57">
-        <f>'By Round'!H109</f>
+        <f>'By Round'!H108</f>
         <v/>
       </c>
       <c r="I57">
-        <f>'By Round'!I109</f>
+        <f>'By Round'!I108</f>
         <v/>
       </c>
       <c r="J57">
-        <f>'By Round'!J109</f>
+        <f>'By Round'!J108</f>
         <v/>
       </c>
       <c r="K57">
-        <f>'By Round'!K109</f>
+        <f>'By Round'!K108</f>
         <v/>
       </c>
       <c r="L57" s="11">
@@ -7021,23 +7021,23 @@
         </is>
       </c>
       <c r="G58">
-        <f>'By Round'!G177</f>
+        <f>'By Round'!G176</f>
         <v/>
       </c>
       <c r="H58">
-        <f>'By Round'!H177</f>
+        <f>'By Round'!H176</f>
         <v/>
       </c>
       <c r="I58">
-        <f>'By Round'!I177</f>
+        <f>'By Round'!I176</f>
         <v/>
       </c>
       <c r="J58">
-        <f>'By Round'!J177</f>
+        <f>'By Round'!J176</f>
         <v/>
       </c>
       <c r="K58">
-        <f>'By Round'!K177</f>
+        <f>'By Round'!K176</f>
         <v/>
       </c>
       <c r="L58" s="11">
@@ -7883,23 +7883,23 @@
         </is>
       </c>
       <c r="G66">
-        <f>'By Round'!G9</f>
+        <f>'By Round'!G8</f>
         <v/>
       </c>
       <c r="H66">
-        <f>'By Round'!H9</f>
+        <f>'By Round'!H8</f>
         <v/>
       </c>
       <c r="I66">
-        <f>'By Round'!I9</f>
+        <f>'By Round'!I8</f>
         <v/>
       </c>
       <c r="J66">
-        <f>'By Round'!J9</f>
+        <f>'By Round'!J8</f>
         <v/>
       </c>
       <c r="K66">
-        <f>'By Round'!K9</f>
+        <f>'By Round'!K8</f>
         <v/>
       </c>
       <c r="L66" s="11">
@@ -7990,23 +7990,23 @@
         </is>
       </c>
       <c r="G67">
-        <f>'By Round'!G21</f>
+        <f>'By Round'!G20</f>
         <v/>
       </c>
       <c r="H67">
-        <f>'By Round'!H21</f>
+        <f>'By Round'!H20</f>
         <v/>
       </c>
       <c r="I67">
-        <f>'By Round'!I21</f>
+        <f>'By Round'!I20</f>
         <v/>
       </c>
       <c r="J67">
-        <f>'By Round'!J21</f>
+        <f>'By Round'!J20</f>
         <v/>
       </c>
       <c r="K67">
-        <f>'By Round'!K21</f>
+        <f>'By Round'!K20</f>
         <v/>
       </c>
       <c r="L67" s="11">
@@ -8097,23 +8097,23 @@
         </is>
       </c>
       <c r="G68">
-        <f>'By Round'!G33</f>
+        <f>'By Round'!G32</f>
         <v/>
       </c>
       <c r="H68">
-        <f>'By Round'!H33</f>
+        <f>'By Round'!H32</f>
         <v/>
       </c>
       <c r="I68">
-        <f>'By Round'!I33</f>
+        <f>'By Round'!I32</f>
         <v/>
       </c>
       <c r="J68">
-        <f>'By Round'!J33</f>
+        <f>'By Round'!J32</f>
         <v/>
       </c>
       <c r="K68">
-        <f>'By Round'!K33</f>
+        <f>'By Round'!K32</f>
         <v/>
       </c>
       <c r="L68" s="11">
@@ -8204,23 +8204,23 @@
         </is>
       </c>
       <c r="G69">
-        <f>'By Round'!G59</f>
+        <f>'By Round'!G58</f>
         <v/>
       </c>
       <c r="H69">
-        <f>'By Round'!H59</f>
+        <f>'By Round'!H58</f>
         <v/>
       </c>
       <c r="I69">
-        <f>'By Round'!I59</f>
+        <f>'By Round'!I58</f>
         <v/>
       </c>
       <c r="J69">
-        <f>'By Round'!J59</f>
+        <f>'By Round'!J58</f>
         <v/>
       </c>
       <c r="K69">
-        <f>'By Round'!K59</f>
+        <f>'By Round'!K58</f>
         <v/>
       </c>
       <c r="L69" s="11">
@@ -8311,23 +8311,23 @@
         </is>
       </c>
       <c r="G70">
-        <f>'By Round'!G99</f>
+        <f>'By Round'!G98</f>
         <v/>
       </c>
       <c r="H70">
-        <f>'By Round'!H99</f>
+        <f>'By Round'!H98</f>
         <v/>
       </c>
       <c r="I70">
-        <f>'By Round'!I99</f>
+        <f>'By Round'!I98</f>
         <v/>
       </c>
       <c r="J70">
-        <f>'By Round'!J99</f>
+        <f>'By Round'!J98</f>
         <v/>
       </c>
       <c r="K70">
-        <f>'By Round'!K99</f>
+        <f>'By Round'!K98</f>
         <v/>
       </c>
       <c r="L70" s="11">
@@ -8418,23 +8418,23 @@
         </is>
       </c>
       <c r="G71">
-        <f>'By Round'!G111</f>
+        <f>'By Round'!G110</f>
         <v/>
       </c>
       <c r="H71">
-        <f>'By Round'!H111</f>
+        <f>'By Round'!H110</f>
         <v/>
       </c>
       <c r="I71">
-        <f>'By Round'!I111</f>
+        <f>'By Round'!I110</f>
         <v/>
       </c>
       <c r="J71">
-        <f>'By Round'!J111</f>
+        <f>'By Round'!J110</f>
         <v/>
       </c>
       <c r="K71">
-        <f>'By Round'!K111</f>
+        <f>'By Round'!K110</f>
         <v/>
       </c>
       <c r="L71" s="11">
@@ -8525,23 +8525,23 @@
         </is>
       </c>
       <c r="G72">
-        <f>'By Round'!G123</f>
+        <f>'By Round'!G122</f>
         <v/>
       </c>
       <c r="H72">
-        <f>'By Round'!H123</f>
+        <f>'By Round'!H122</f>
         <v/>
       </c>
       <c r="I72">
-        <f>'By Round'!I123</f>
+        <f>'By Round'!I122</f>
         <v/>
       </c>
       <c r="J72">
-        <f>'By Round'!J123</f>
+        <f>'By Round'!J122</f>
         <v/>
       </c>
       <c r="K72">
-        <f>'By Round'!K123</f>
+        <f>'By Round'!K122</f>
         <v/>
       </c>
       <c r="L72" s="11">
@@ -9387,23 +9387,23 @@
         </is>
       </c>
       <c r="G80">
-        <f>'By Round'!G23</f>
+        <f>'By Round'!G22</f>
         <v/>
       </c>
       <c r="H80">
-        <f>'By Round'!H23</f>
+        <f>'By Round'!H22</f>
         <v/>
       </c>
       <c r="I80">
-        <f>'By Round'!I23</f>
+        <f>'By Round'!I22</f>
         <v/>
       </c>
       <c r="J80">
-        <f>'By Round'!J23</f>
+        <f>'By Round'!J22</f>
         <v/>
       </c>
       <c r="K80">
-        <f>'By Round'!K23</f>
+        <f>'By Round'!K22</f>
         <v/>
       </c>
       <c r="L80" s="11">
@@ -9494,23 +9494,23 @@
         </is>
       </c>
       <c r="G81">
-        <f>'By Round'!G35</f>
+        <f>'By Round'!G34</f>
         <v/>
       </c>
       <c r="H81">
-        <f>'By Round'!H35</f>
+        <f>'By Round'!H34</f>
         <v/>
       </c>
       <c r="I81">
-        <f>'By Round'!I35</f>
+        <f>'By Round'!I34</f>
         <v/>
       </c>
       <c r="J81">
-        <f>'By Round'!J35</f>
+        <f>'By Round'!J34</f>
         <v/>
       </c>
       <c r="K81">
-        <f>'By Round'!K35</f>
+        <f>'By Round'!K34</f>
         <v/>
       </c>
       <c r="L81" s="11">
@@ -9601,23 +9601,23 @@
         </is>
       </c>
       <c r="G82">
-        <f>'By Round'!G47</f>
+        <f>'By Round'!G46</f>
         <v/>
       </c>
       <c r="H82">
-        <f>'By Round'!H47</f>
+        <f>'By Round'!H46</f>
         <v/>
       </c>
       <c r="I82">
-        <f>'By Round'!I47</f>
+        <f>'By Round'!I46</f>
         <v/>
       </c>
       <c r="J82">
-        <f>'By Round'!J47</f>
+        <f>'By Round'!J46</f>
         <v/>
       </c>
       <c r="K82">
-        <f>'By Round'!K47</f>
+        <f>'By Round'!K46</f>
         <v/>
       </c>
       <c r="L82" s="11">
@@ -9708,23 +9708,23 @@
         </is>
       </c>
       <c r="G83">
-        <f>'By Round'!G73</f>
+        <f>'By Round'!G72</f>
         <v/>
       </c>
       <c r="H83">
-        <f>'By Round'!H73</f>
+        <f>'By Round'!H72</f>
         <v/>
       </c>
       <c r="I83">
-        <f>'By Round'!I73</f>
+        <f>'By Round'!I72</f>
         <v/>
       </c>
       <c r="J83">
-        <f>'By Round'!J73</f>
+        <f>'By Round'!J72</f>
         <v/>
       </c>
       <c r="K83">
-        <f>'By Round'!K73</f>
+        <f>'By Round'!K72</f>
         <v/>
       </c>
       <c r="L83" s="11">
@@ -9815,23 +9815,23 @@
         </is>
       </c>
       <c r="G84">
-        <f>'By Round'!G113</f>
+        <f>'By Round'!G112</f>
         <v/>
       </c>
       <c r="H84">
-        <f>'By Round'!H113</f>
+        <f>'By Round'!H112</f>
         <v/>
       </c>
       <c r="I84">
-        <f>'By Round'!I113</f>
+        <f>'By Round'!I112</f>
         <v/>
       </c>
       <c r="J84">
-        <f>'By Round'!J113</f>
+        <f>'By Round'!J112</f>
         <v/>
       </c>
       <c r="K84">
-        <f>'By Round'!K113</f>
+        <f>'By Round'!K112</f>
         <v/>
       </c>
       <c r="L84" s="11">
@@ -9922,23 +9922,23 @@
         </is>
       </c>
       <c r="G85">
-        <f>'By Round'!G125</f>
+        <f>'By Round'!G124</f>
         <v/>
       </c>
       <c r="H85">
-        <f>'By Round'!H125</f>
+        <f>'By Round'!H124</f>
         <v/>
       </c>
       <c r="I85">
-        <f>'By Round'!I125</f>
+        <f>'By Round'!I124</f>
         <v/>
       </c>
       <c r="J85">
-        <f>'By Round'!J125</f>
+        <f>'By Round'!J124</f>
         <v/>
       </c>
       <c r="K85">
-        <f>'By Round'!K125</f>
+        <f>'By Round'!K124</f>
         <v/>
       </c>
       <c r="L85" s="11">
@@ -10029,23 +10029,23 @@
         </is>
       </c>
       <c r="G86">
-        <f>'By Round'!G137</f>
+        <f>'By Round'!G136</f>
         <v/>
       </c>
       <c r="H86">
-        <f>'By Round'!H137</f>
+        <f>'By Round'!H136</f>
         <v/>
       </c>
       <c r="I86">
-        <f>'By Round'!I137</f>
+        <f>'By Round'!I136</f>
         <v/>
       </c>
       <c r="J86">
-        <f>'By Round'!J137</f>
+        <f>'By Round'!J136</f>
         <v/>
       </c>
       <c r="K86">
-        <f>'By Round'!K137</f>
+        <f>'By Round'!K136</f>
         <v/>
       </c>
       <c r="L86" s="11">
@@ -10891,23 +10891,23 @@
         </is>
       </c>
       <c r="G94">
-        <f>'By Round'!G37</f>
+        <f>'By Round'!G36</f>
         <v/>
       </c>
       <c r="H94">
-        <f>'By Round'!H37</f>
+        <f>'By Round'!H36</f>
         <v/>
       </c>
       <c r="I94">
-        <f>'By Round'!I37</f>
+        <f>'By Round'!I36</f>
         <v/>
       </c>
       <c r="J94">
-        <f>'By Round'!J37</f>
+        <f>'By Round'!J36</f>
         <v/>
       </c>
       <c r="K94">
-        <f>'By Round'!K37</f>
+        <f>'By Round'!K36</f>
         <v/>
       </c>
       <c r="L94" s="11">
@@ -10998,23 +10998,23 @@
         </is>
       </c>
       <c r="G95">
-        <f>'By Round'!G49</f>
+        <f>'By Round'!G48</f>
         <v/>
       </c>
       <c r="H95">
-        <f>'By Round'!H49</f>
+        <f>'By Round'!H48</f>
         <v/>
       </c>
       <c r="I95">
-        <f>'By Round'!I49</f>
+        <f>'By Round'!I48</f>
         <v/>
       </c>
       <c r="J95">
-        <f>'By Round'!J49</f>
+        <f>'By Round'!J48</f>
         <v/>
       </c>
       <c r="K95">
-        <f>'By Round'!K49</f>
+        <f>'By Round'!K48</f>
         <v/>
       </c>
       <c r="L95" s="11">
@@ -11105,23 +11105,23 @@
         </is>
       </c>
       <c r="G96">
-        <f>'By Round'!G61</f>
+        <f>'By Round'!G60</f>
         <v/>
       </c>
       <c r="H96">
-        <f>'By Round'!H61</f>
+        <f>'By Round'!H60</f>
         <v/>
       </c>
       <c r="I96">
-        <f>'By Round'!I61</f>
+        <f>'By Round'!I60</f>
         <v/>
       </c>
       <c r="J96">
-        <f>'By Round'!J61</f>
+        <f>'By Round'!J60</f>
         <v/>
       </c>
       <c r="K96">
-        <f>'By Round'!K61</f>
+        <f>'By Round'!K60</f>
         <v/>
       </c>
       <c r="L96" s="11">
@@ -11212,23 +11212,23 @@
         </is>
       </c>
       <c r="G97">
-        <f>'By Round'!G87</f>
+        <f>'By Round'!G86</f>
         <v/>
       </c>
       <c r="H97">
-        <f>'By Round'!H87</f>
+        <f>'By Round'!H86</f>
         <v/>
       </c>
       <c r="I97">
-        <f>'By Round'!I87</f>
+        <f>'By Round'!I86</f>
         <v/>
       </c>
       <c r="J97">
-        <f>'By Round'!J87</f>
+        <f>'By Round'!J86</f>
         <v/>
       </c>
       <c r="K97">
-        <f>'By Round'!K87</f>
+        <f>'By Round'!K86</f>
         <v/>
       </c>
       <c r="L97" s="11">
@@ -11319,23 +11319,23 @@
         </is>
       </c>
       <c r="G98">
-        <f>'By Round'!G127</f>
+        <f>'By Round'!G126</f>
         <v/>
       </c>
       <c r="H98">
-        <f>'By Round'!H127</f>
+        <f>'By Round'!H126</f>
         <v/>
       </c>
       <c r="I98">
-        <f>'By Round'!I127</f>
+        <f>'By Round'!I126</f>
         <v/>
       </c>
       <c r="J98">
-        <f>'By Round'!J127</f>
+        <f>'By Round'!J126</f>
         <v/>
       </c>
       <c r="K98">
-        <f>'By Round'!K127</f>
+        <f>'By Round'!K126</f>
         <v/>
       </c>
       <c r="L98" s="11">
@@ -11426,23 +11426,23 @@
         </is>
       </c>
       <c r="G99">
-        <f>'By Round'!G139</f>
+        <f>'By Round'!G138</f>
         <v/>
       </c>
       <c r="H99">
-        <f>'By Round'!H139</f>
+        <f>'By Round'!H138</f>
         <v/>
       </c>
       <c r="I99">
-        <f>'By Round'!I139</f>
+        <f>'By Round'!I138</f>
         <v/>
       </c>
       <c r="J99">
-        <f>'By Round'!J139</f>
+        <f>'By Round'!J138</f>
         <v/>
       </c>
       <c r="K99">
-        <f>'By Round'!K139</f>
+        <f>'By Round'!K138</f>
         <v/>
       </c>
       <c r="L99" s="11">
@@ -11533,23 +11533,23 @@
         </is>
       </c>
       <c r="G100">
-        <f>'By Round'!G151</f>
+        <f>'By Round'!G150</f>
         <v/>
       </c>
       <c r="H100">
-        <f>'By Round'!H151</f>
+        <f>'By Round'!H150</f>
         <v/>
       </c>
       <c r="I100">
-        <f>'By Round'!I151</f>
+        <f>'By Round'!I150</f>
         <v/>
       </c>
       <c r="J100">
-        <f>'By Round'!J151</f>
+        <f>'By Round'!J150</f>
         <v/>
       </c>
       <c r="K100">
-        <f>'By Round'!K151</f>
+        <f>'By Round'!K150</f>
         <v/>
       </c>
       <c r="L100" s="11">
@@ -12395,23 +12395,23 @@
         </is>
       </c>
       <c r="G108">
-        <f>'By Round'!G51</f>
+        <f>'By Round'!G50</f>
         <v/>
       </c>
       <c r="H108">
-        <f>'By Round'!H51</f>
+        <f>'By Round'!H50</f>
         <v/>
       </c>
       <c r="I108">
-        <f>'By Round'!I51</f>
+        <f>'By Round'!I50</f>
         <v/>
       </c>
       <c r="J108">
-        <f>'By Round'!J51</f>
+        <f>'By Round'!J50</f>
         <v/>
       </c>
       <c r="K108">
-        <f>'By Round'!K51</f>
+        <f>'By Round'!K50</f>
         <v/>
       </c>
       <c r="L108" s="11">
@@ -12502,23 +12502,23 @@
         </is>
       </c>
       <c r="G109">
-        <f>'By Round'!G63</f>
+        <f>'By Round'!G62</f>
         <v/>
       </c>
       <c r="H109">
-        <f>'By Round'!H63</f>
+        <f>'By Round'!H62</f>
         <v/>
       </c>
       <c r="I109">
-        <f>'By Round'!I63</f>
+        <f>'By Round'!I62</f>
         <v/>
       </c>
       <c r="J109">
-        <f>'By Round'!J63</f>
+        <f>'By Round'!J62</f>
         <v/>
       </c>
       <c r="K109">
-        <f>'By Round'!K63</f>
+        <f>'By Round'!K62</f>
         <v/>
       </c>
       <c r="L109" s="11">
@@ -12609,23 +12609,23 @@
         </is>
       </c>
       <c r="G110">
-        <f>'By Round'!G75</f>
+        <f>'By Round'!G74</f>
         <v/>
       </c>
       <c r="H110">
-        <f>'By Round'!H75</f>
+        <f>'By Round'!H74</f>
         <v/>
       </c>
       <c r="I110">
-        <f>'By Round'!I75</f>
+        <f>'By Round'!I74</f>
         <v/>
       </c>
       <c r="J110">
-        <f>'By Round'!J75</f>
+        <f>'By Round'!J74</f>
         <v/>
       </c>
       <c r="K110">
-        <f>'By Round'!K75</f>
+        <f>'By Round'!K74</f>
         <v/>
       </c>
       <c r="L110" s="11">
@@ -12716,23 +12716,23 @@
         </is>
       </c>
       <c r="G111">
-        <f>'By Round'!G101</f>
+        <f>'By Round'!G100</f>
         <v/>
       </c>
       <c r="H111">
-        <f>'By Round'!H101</f>
+        <f>'By Round'!H100</f>
         <v/>
       </c>
       <c r="I111">
-        <f>'By Round'!I101</f>
+        <f>'By Round'!I100</f>
         <v/>
       </c>
       <c r="J111">
-        <f>'By Round'!J101</f>
+        <f>'By Round'!J100</f>
         <v/>
       </c>
       <c r="K111">
-        <f>'By Round'!K101</f>
+        <f>'By Round'!K100</f>
         <v/>
       </c>
       <c r="L111" s="11">
@@ -12823,23 +12823,23 @@
         </is>
       </c>
       <c r="G112">
-        <f>'By Round'!G141</f>
+        <f>'By Round'!G140</f>
         <v/>
       </c>
       <c r="H112">
-        <f>'By Round'!H141</f>
+        <f>'By Round'!H140</f>
         <v/>
       </c>
       <c r="I112">
-        <f>'By Round'!I141</f>
+        <f>'By Round'!I140</f>
         <v/>
       </c>
       <c r="J112">
-        <f>'By Round'!J141</f>
+        <f>'By Round'!J140</f>
         <v/>
       </c>
       <c r="K112">
-        <f>'By Round'!K141</f>
+        <f>'By Round'!K140</f>
         <v/>
       </c>
       <c r="L112" s="11">
@@ -12930,23 +12930,23 @@
         </is>
       </c>
       <c r="G113">
-        <f>'By Round'!G153</f>
+        <f>'By Round'!G152</f>
         <v/>
       </c>
       <c r="H113">
-        <f>'By Round'!H153</f>
+        <f>'By Round'!H152</f>
         <v/>
       </c>
       <c r="I113">
-        <f>'By Round'!I153</f>
+        <f>'By Round'!I152</f>
         <v/>
       </c>
       <c r="J113">
-        <f>'By Round'!J153</f>
+        <f>'By Round'!J152</f>
         <v/>
       </c>
       <c r="K113">
-        <f>'By Round'!K153</f>
+        <f>'By Round'!K152</f>
         <v/>
       </c>
       <c r="L113" s="11">
@@ -13037,23 +13037,23 @@
         </is>
       </c>
       <c r="G114">
-        <f>'By Round'!G165</f>
+        <f>'By Round'!G164</f>
         <v/>
       </c>
       <c r="H114">
-        <f>'By Round'!H165</f>
+        <f>'By Round'!H164</f>
         <v/>
       </c>
       <c r="I114">
-        <f>'By Round'!I165</f>
+        <f>'By Round'!I164</f>
         <v/>
       </c>
       <c r="J114">
-        <f>'By Round'!J165</f>
+        <f>'By Round'!J164</f>
         <v/>
       </c>
       <c r="K114">
-        <f>'By Round'!K165</f>
+        <f>'By Round'!K164</f>
         <v/>
       </c>
       <c r="L114" s="11">
@@ -13899,23 +13899,23 @@
         </is>
       </c>
       <c r="G122">
-        <f>'By Round'!G65</f>
+        <f>'By Round'!G64</f>
         <v/>
       </c>
       <c r="H122">
-        <f>'By Round'!H65</f>
+        <f>'By Round'!H64</f>
         <v/>
       </c>
       <c r="I122">
-        <f>'By Round'!I65</f>
+        <f>'By Round'!I64</f>
         <v/>
       </c>
       <c r="J122">
-        <f>'By Round'!J65</f>
+        <f>'By Round'!J64</f>
         <v/>
       </c>
       <c r="K122">
-        <f>'By Round'!K65</f>
+        <f>'By Round'!K64</f>
         <v/>
       </c>
       <c r="L122" s="11">
@@ -14006,23 +14006,23 @@
         </is>
       </c>
       <c r="G123">
-        <f>'By Round'!G77</f>
+        <f>'By Round'!G76</f>
         <v/>
       </c>
       <c r="H123">
-        <f>'By Round'!H77</f>
+        <f>'By Round'!H76</f>
         <v/>
       </c>
       <c r="I123">
-        <f>'By Round'!I77</f>
+        <f>'By Round'!I76</f>
         <v/>
       </c>
       <c r="J123">
-        <f>'By Round'!J77</f>
+        <f>'By Round'!J76</f>
         <v/>
       </c>
       <c r="K123">
-        <f>'By Round'!K77</f>
+        <f>'By Round'!K76</f>
         <v/>
       </c>
       <c r="L123" s="11">
@@ -14113,23 +14113,23 @@
         </is>
       </c>
       <c r="G124">
-        <f>'By Round'!G89</f>
+        <f>'By Round'!G88</f>
         <v/>
       </c>
       <c r="H124">
-        <f>'By Round'!H89</f>
+        <f>'By Round'!H88</f>
         <v/>
       </c>
       <c r="I124">
-        <f>'By Round'!I89</f>
+        <f>'By Round'!I88</f>
         <v/>
       </c>
       <c r="J124">
-        <f>'By Round'!J89</f>
+        <f>'By Round'!J88</f>
         <v/>
       </c>
       <c r="K124">
-        <f>'By Round'!K89</f>
+        <f>'By Round'!K88</f>
         <v/>
       </c>
       <c r="L124" s="11">
@@ -14220,23 +14220,23 @@
         </is>
       </c>
       <c r="G125">
-        <f>'By Round'!G115</f>
+        <f>'By Round'!G114</f>
         <v/>
       </c>
       <c r="H125">
-        <f>'By Round'!H115</f>
+        <f>'By Round'!H114</f>
         <v/>
       </c>
       <c r="I125">
-        <f>'By Round'!I115</f>
+        <f>'By Round'!I114</f>
         <v/>
       </c>
       <c r="J125">
-        <f>'By Round'!J115</f>
+        <f>'By Round'!J114</f>
         <v/>
       </c>
       <c r="K125">
-        <f>'By Round'!K115</f>
+        <f>'By Round'!K114</f>
         <v/>
       </c>
       <c r="L125" s="11">
@@ -14327,23 +14327,23 @@
         </is>
       </c>
       <c r="G126">
-        <f>'By Round'!G155</f>
+        <f>'By Round'!G154</f>
         <v/>
       </c>
       <c r="H126">
-        <f>'By Round'!H155</f>
+        <f>'By Round'!H154</f>
         <v/>
       </c>
       <c r="I126">
-        <f>'By Round'!I155</f>
+        <f>'By Round'!I154</f>
         <v/>
       </c>
       <c r="J126">
-        <f>'By Round'!J155</f>
+        <f>'By Round'!J154</f>
         <v/>
       </c>
       <c r="K126">
-        <f>'By Round'!K155</f>
+        <f>'By Round'!K154</f>
         <v/>
       </c>
       <c r="L126" s="11">
@@ -14434,23 +14434,23 @@
         </is>
       </c>
       <c r="G127">
-        <f>'By Round'!G167</f>
+        <f>'By Round'!G166</f>
         <v/>
       </c>
       <c r="H127">
-        <f>'By Round'!H167</f>
+        <f>'By Round'!H166</f>
         <v/>
       </c>
       <c r="I127">
-        <f>'By Round'!I167</f>
+        <f>'By Round'!I166</f>
         <v/>
       </c>
       <c r="J127">
-        <f>'By Round'!J167</f>
+        <f>'By Round'!J166</f>
         <v/>
       </c>
       <c r="K127">
-        <f>'By Round'!K167</f>
+        <f>'By Round'!K166</f>
         <v/>
       </c>
       <c r="L127" s="11">
@@ -14541,23 +14541,23 @@
         </is>
       </c>
       <c r="G128">
-        <f>'By Round'!G179</f>
+        <f>'By Round'!G178</f>
         <v/>
       </c>
       <c r="H128">
-        <f>'By Round'!H179</f>
+        <f>'By Round'!H178</f>
         <v/>
       </c>
       <c r="I128">
-        <f>'By Round'!I179</f>
+        <f>'By Round'!I178</f>
         <v/>
       </c>
       <c r="J128">
-        <f>'By Round'!J179</f>
+        <f>'By Round'!J178</f>
         <v/>
       </c>
       <c r="K128">
-        <f>'By Round'!K179</f>
+        <f>'By Round'!K178</f>
         <v/>
       </c>
       <c r="L128" s="11">
@@ -15403,23 +15403,23 @@
         </is>
       </c>
       <c r="G136">
-        <f>'By Round'!G11</f>
+        <f>'By Round'!G10</f>
         <v/>
       </c>
       <c r="H136">
-        <f>'By Round'!H11</f>
+        <f>'By Round'!H10</f>
         <v/>
       </c>
       <c r="I136">
-        <f>'By Round'!I11</f>
+        <f>'By Round'!I10</f>
         <v/>
       </c>
       <c r="J136">
-        <f>'By Round'!J11</f>
+        <f>'By Round'!J10</f>
         <v/>
       </c>
       <c r="K136">
-        <f>'By Round'!K11</f>
+        <f>'By Round'!K10</f>
         <v/>
       </c>
       <c r="L136" s="11">
@@ -15510,23 +15510,23 @@
         </is>
       </c>
       <c r="G137">
-        <f>'By Round'!G79</f>
+        <f>'By Round'!G78</f>
         <v/>
       </c>
       <c r="H137">
-        <f>'By Round'!H79</f>
+        <f>'By Round'!H78</f>
         <v/>
       </c>
       <c r="I137">
-        <f>'By Round'!I79</f>
+        <f>'By Round'!I78</f>
         <v/>
       </c>
       <c r="J137">
-        <f>'By Round'!J79</f>
+        <f>'By Round'!J78</f>
         <v/>
       </c>
       <c r="K137">
-        <f>'By Round'!K79</f>
+        <f>'By Round'!K78</f>
         <v/>
       </c>
       <c r="L137" s="11">
@@ -15617,23 +15617,23 @@
         </is>
       </c>
       <c r="G138">
-        <f>'By Round'!G91</f>
+        <f>'By Round'!G90</f>
         <v/>
       </c>
       <c r="H138">
-        <f>'By Round'!H91</f>
+        <f>'By Round'!H90</f>
         <v/>
       </c>
       <c r="I138">
-        <f>'By Round'!I91</f>
+        <f>'By Round'!I90</f>
         <v/>
       </c>
       <c r="J138">
-        <f>'By Round'!J91</f>
+        <f>'By Round'!J90</f>
         <v/>
       </c>
       <c r="K138">
-        <f>'By Round'!K91</f>
+        <f>'By Round'!K90</f>
         <v/>
       </c>
       <c r="L138" s="11">
@@ -15724,23 +15724,23 @@
         </is>
       </c>
       <c r="G139">
-        <f>'By Round'!G103</f>
+        <f>'By Round'!G102</f>
         <v/>
       </c>
       <c r="H139">
-        <f>'By Round'!H103</f>
+        <f>'By Round'!H102</f>
         <v/>
       </c>
       <c r="I139">
-        <f>'By Round'!I103</f>
+        <f>'By Round'!I102</f>
         <v/>
       </c>
       <c r="J139">
-        <f>'By Round'!J103</f>
+        <f>'By Round'!J102</f>
         <v/>
       </c>
       <c r="K139">
-        <f>'By Round'!K103</f>
+        <f>'By Round'!K102</f>
         <v/>
       </c>
       <c r="L139" s="11">
@@ -15831,23 +15831,23 @@
         </is>
       </c>
       <c r="G140">
-        <f>'By Round'!G129</f>
+        <f>'By Round'!G128</f>
         <v/>
       </c>
       <c r="H140">
-        <f>'By Round'!H129</f>
+        <f>'By Round'!H128</f>
         <v/>
       </c>
       <c r="I140">
-        <f>'By Round'!I129</f>
+        <f>'By Round'!I128</f>
         <v/>
       </c>
       <c r="J140">
-        <f>'By Round'!J129</f>
+        <f>'By Round'!J128</f>
         <v/>
       </c>
       <c r="K140">
-        <f>'By Round'!K129</f>
+        <f>'By Round'!K128</f>
         <v/>
       </c>
       <c r="L140" s="11">
@@ -15938,23 +15938,23 @@
         </is>
       </c>
       <c r="G141">
-        <f>'By Round'!G169</f>
+        <f>'By Round'!G168</f>
         <v/>
       </c>
       <c r="H141">
-        <f>'By Round'!H169</f>
+        <f>'By Round'!H168</f>
         <v/>
       </c>
       <c r="I141">
-        <f>'By Round'!I169</f>
+        <f>'By Round'!I168</f>
         <v/>
       </c>
       <c r="J141">
-        <f>'By Round'!J169</f>
+        <f>'By Round'!J168</f>
         <v/>
       </c>
       <c r="K141">
-        <f>'By Round'!K169</f>
+        <f>'By Round'!K168</f>
         <v/>
       </c>
       <c r="L141" s="11">
@@ -16045,23 +16045,23 @@
         </is>
       </c>
       <c r="G142">
-        <f>'By Round'!G181</f>
+        <f>'By Round'!G180</f>
         <v/>
       </c>
       <c r="H142">
-        <f>'By Round'!H181</f>
+        <f>'By Round'!H180</f>
         <v/>
       </c>
       <c r="I142">
-        <f>'By Round'!I181</f>
+        <f>'By Round'!I180</f>
         <v/>
       </c>
       <c r="J142">
-        <f>'By Round'!J181</f>
+        <f>'By Round'!J180</f>
         <v/>
       </c>
       <c r="K142">
-        <f>'By Round'!K181</f>
+        <f>'By Round'!K180</f>
         <v/>
       </c>
       <c r="L142" s="11">
@@ -16907,23 +16907,23 @@
         </is>
       </c>
       <c r="G150">
-        <f>'By Round'!G13</f>
+        <f>'By Round'!G12</f>
         <v/>
       </c>
       <c r="H150">
-        <f>'By Round'!H13</f>
+        <f>'By Round'!H12</f>
         <v/>
       </c>
       <c r="I150">
-        <f>'By Round'!I13</f>
+        <f>'By Round'!I12</f>
         <v/>
       </c>
       <c r="J150">
-        <f>'By Round'!J13</f>
+        <f>'By Round'!J12</f>
         <v/>
       </c>
       <c r="K150">
-        <f>'By Round'!K13</f>
+        <f>'By Round'!K12</f>
         <v/>
       </c>
       <c r="L150" s="11">
@@ -17014,23 +17014,23 @@
         </is>
       </c>
       <c r="G151">
-        <f>'By Round'!G25</f>
+        <f>'By Round'!G24</f>
         <v/>
       </c>
       <c r="H151">
-        <f>'By Round'!H25</f>
+        <f>'By Round'!H24</f>
         <v/>
       </c>
       <c r="I151">
-        <f>'By Round'!I25</f>
+        <f>'By Round'!I24</f>
         <v/>
       </c>
       <c r="J151">
-        <f>'By Round'!J25</f>
+        <f>'By Round'!J24</f>
         <v/>
       </c>
       <c r="K151">
-        <f>'By Round'!K25</f>
+        <f>'By Round'!K24</f>
         <v/>
       </c>
       <c r="L151" s="11">
@@ -17121,23 +17121,23 @@
         </is>
       </c>
       <c r="G152">
-        <f>'By Round'!G93</f>
+        <f>'By Round'!G92</f>
         <v/>
       </c>
       <c r="H152">
-        <f>'By Round'!H93</f>
+        <f>'By Round'!H92</f>
         <v/>
       </c>
       <c r="I152">
-        <f>'By Round'!I93</f>
+        <f>'By Round'!I92</f>
         <v/>
       </c>
       <c r="J152">
-        <f>'By Round'!J93</f>
+        <f>'By Round'!J92</f>
         <v/>
       </c>
       <c r="K152">
-        <f>'By Round'!K93</f>
+        <f>'By Round'!K92</f>
         <v/>
       </c>
       <c r="L152" s="11">
@@ -17228,23 +17228,23 @@
         </is>
       </c>
       <c r="G153">
-        <f>'By Round'!G105</f>
+        <f>'By Round'!G104</f>
         <v/>
       </c>
       <c r="H153">
-        <f>'By Round'!H105</f>
+        <f>'By Round'!H104</f>
         <v/>
       </c>
       <c r="I153">
-        <f>'By Round'!I105</f>
+        <f>'By Round'!I104</f>
         <v/>
       </c>
       <c r="J153">
-        <f>'By Round'!J105</f>
+        <f>'By Round'!J104</f>
         <v/>
       </c>
       <c r="K153">
-        <f>'By Round'!K105</f>
+        <f>'By Round'!K104</f>
         <v/>
       </c>
       <c r="L153" s="11">
@@ -17335,23 +17335,23 @@
         </is>
       </c>
       <c r="G154">
-        <f>'By Round'!G117</f>
+        <f>'By Round'!G116</f>
         <v/>
       </c>
       <c r="H154">
-        <f>'By Round'!H117</f>
+        <f>'By Round'!H116</f>
         <v/>
       </c>
       <c r="I154">
-        <f>'By Round'!I117</f>
+        <f>'By Round'!I116</f>
         <v/>
       </c>
       <c r="J154">
-        <f>'By Round'!J117</f>
+        <f>'By Round'!J116</f>
         <v/>
       </c>
       <c r="K154">
-        <f>'By Round'!K117</f>
+        <f>'By Round'!K116</f>
         <v/>
       </c>
       <c r="L154" s="11">
@@ -17442,23 +17442,23 @@
         </is>
       </c>
       <c r="G155">
-        <f>'By Round'!G143</f>
+        <f>'By Round'!G142</f>
         <v/>
       </c>
       <c r="H155">
-        <f>'By Round'!H143</f>
+        <f>'By Round'!H142</f>
         <v/>
       </c>
       <c r="I155">
-        <f>'By Round'!I143</f>
+        <f>'By Round'!I142</f>
         <v/>
       </c>
       <c r="J155">
-        <f>'By Round'!J143</f>
+        <f>'By Round'!J142</f>
         <v/>
       </c>
       <c r="K155">
-        <f>'By Round'!K143</f>
+        <f>'By Round'!K142</f>
         <v/>
       </c>
       <c r="L155" s="11">
@@ -17549,23 +17549,23 @@
         </is>
       </c>
       <c r="G156">
-        <f>'By Round'!G183</f>
+        <f>'By Round'!G182</f>
         <v/>
       </c>
       <c r="H156">
-        <f>'By Round'!H183</f>
+        <f>'By Round'!H182</f>
         <v/>
       </c>
       <c r="I156">
-        <f>'By Round'!I183</f>
+        <f>'By Round'!I182</f>
         <v/>
       </c>
       <c r="J156">
-        <f>'By Round'!J183</f>
+        <f>'By Round'!J182</f>
         <v/>
       </c>
       <c r="K156">
-        <f>'By Round'!K183</f>
+        <f>'By Round'!K182</f>
         <v/>
       </c>
       <c r="L156" s="11">
@@ -18411,23 +18411,23 @@
         </is>
       </c>
       <c r="G164">
-        <f>'By Round'!G15</f>
+        <f>'By Round'!G14</f>
         <v/>
       </c>
       <c r="H164">
-        <f>'By Round'!H15</f>
+        <f>'By Round'!H14</f>
         <v/>
       </c>
       <c r="I164">
-        <f>'By Round'!I15</f>
+        <f>'By Round'!I14</f>
         <v/>
       </c>
       <c r="J164">
-        <f>'By Round'!J15</f>
+        <f>'By Round'!J14</f>
         <v/>
       </c>
       <c r="K164">
-        <f>'By Round'!K15</f>
+        <f>'By Round'!K14</f>
         <v/>
       </c>
       <c r="L164" s="11">
@@ -18518,23 +18518,23 @@
         </is>
       </c>
       <c r="G165">
-        <f>'By Round'!G27</f>
+        <f>'By Round'!G26</f>
         <v/>
       </c>
       <c r="H165">
-        <f>'By Round'!H27</f>
+        <f>'By Round'!H26</f>
         <v/>
       </c>
       <c r="I165">
-        <f>'By Round'!I27</f>
+        <f>'By Round'!I26</f>
         <v/>
       </c>
       <c r="J165">
-        <f>'By Round'!J27</f>
+        <f>'By Round'!J26</f>
         <v/>
       </c>
       <c r="K165">
-        <f>'By Round'!K27</f>
+        <f>'By Round'!K26</f>
         <v/>
       </c>
       <c r="L165" s="11">
@@ -18625,23 +18625,23 @@
         </is>
       </c>
       <c r="G166">
-        <f>'By Round'!G39</f>
+        <f>'By Round'!G38</f>
         <v/>
       </c>
       <c r="H166">
-        <f>'By Round'!H39</f>
+        <f>'By Round'!H38</f>
         <v/>
       </c>
       <c r="I166">
-        <f>'By Round'!I39</f>
+        <f>'By Round'!I38</f>
         <v/>
       </c>
       <c r="J166">
-        <f>'By Round'!J39</f>
+        <f>'By Round'!J38</f>
         <v/>
       </c>
       <c r="K166">
-        <f>'By Round'!K39</f>
+        <f>'By Round'!K38</f>
         <v/>
       </c>
       <c r="L166" s="11">
@@ -18732,23 +18732,23 @@
         </is>
       </c>
       <c r="G167">
-        <f>'By Round'!G107</f>
+        <f>'By Round'!G106</f>
         <v/>
       </c>
       <c r="H167">
-        <f>'By Round'!H107</f>
+        <f>'By Round'!H106</f>
         <v/>
       </c>
       <c r="I167">
-        <f>'By Round'!I107</f>
+        <f>'By Round'!I106</f>
         <v/>
       </c>
       <c r="J167">
-        <f>'By Round'!J107</f>
+        <f>'By Round'!J106</f>
         <v/>
       </c>
       <c r="K167">
-        <f>'By Round'!K107</f>
+        <f>'By Round'!K106</f>
         <v/>
       </c>
       <c r="L167" s="11">
@@ -18839,23 +18839,23 @@
         </is>
       </c>
       <c r="G168">
-        <f>'By Round'!G119</f>
+        <f>'By Round'!G118</f>
         <v/>
       </c>
       <c r="H168">
-        <f>'By Round'!H119</f>
+        <f>'By Round'!H118</f>
         <v/>
       </c>
       <c r="I168">
-        <f>'By Round'!I119</f>
+        <f>'By Round'!I118</f>
         <v/>
       </c>
       <c r="J168">
-        <f>'By Round'!J119</f>
+        <f>'By Round'!J118</f>
         <v/>
       </c>
       <c r="K168">
-        <f>'By Round'!K119</f>
+        <f>'By Round'!K118</f>
         <v/>
       </c>
       <c r="L168" s="11">
@@ -18946,23 +18946,23 @@
         </is>
       </c>
       <c r="G169">
-        <f>'By Round'!G131</f>
+        <f>'By Round'!G130</f>
         <v/>
       </c>
       <c r="H169">
-        <f>'By Round'!H131</f>
+        <f>'By Round'!H130</f>
         <v/>
       </c>
       <c r="I169">
-        <f>'By Round'!I131</f>
+        <f>'By Round'!I130</f>
         <v/>
       </c>
       <c r="J169">
-        <f>'By Round'!J131</f>
+        <f>'By Round'!J130</f>
         <v/>
       </c>
       <c r="K169">
-        <f>'By Round'!K131</f>
+        <f>'By Round'!K130</f>
         <v/>
       </c>
       <c r="L169" s="11">
@@ -19053,23 +19053,23 @@
         </is>
       </c>
       <c r="G170">
-        <f>'By Round'!G157</f>
+        <f>'By Round'!G156</f>
         <v/>
       </c>
       <c r="H170">
-        <f>'By Round'!H157</f>
+        <f>'By Round'!H156</f>
         <v/>
       </c>
       <c r="I170">
-        <f>'By Round'!I157</f>
+        <f>'By Round'!I156</f>
         <v/>
       </c>
       <c r="J170">
-        <f>'By Round'!J157</f>
+        <f>'By Round'!J156</f>
         <v/>
       </c>
       <c r="K170">
-        <f>'By Round'!K157</f>
+        <f>'By Round'!K156</f>
         <v/>
       </c>
       <c r="L170" s="11">
@@ -19915,23 +19915,23 @@
         </is>
       </c>
       <c r="G178">
-        <f>'By Round'!G29</f>
+        <f>'By Round'!G28</f>
         <v/>
       </c>
       <c r="H178">
-        <f>'By Round'!H29</f>
+        <f>'By Round'!H28</f>
         <v/>
       </c>
       <c r="I178">
-        <f>'By Round'!I29</f>
+        <f>'By Round'!I28</f>
         <v/>
       </c>
       <c r="J178">
-        <f>'By Round'!J29</f>
+        <f>'By Round'!J28</f>
         <v/>
       </c>
       <c r="K178">
-        <f>'By Round'!K29</f>
+        <f>'By Round'!K28</f>
         <v/>
       </c>
       <c r="L178" s="11">
@@ -20022,23 +20022,23 @@
         </is>
       </c>
       <c r="G179">
-        <f>'By Round'!G41</f>
+        <f>'By Round'!G40</f>
         <v/>
       </c>
       <c r="H179">
-        <f>'By Round'!H41</f>
+        <f>'By Round'!H40</f>
         <v/>
       </c>
       <c r="I179">
-        <f>'By Round'!I41</f>
+        <f>'By Round'!I40</f>
         <v/>
       </c>
       <c r="J179">
-        <f>'By Round'!J41</f>
+        <f>'By Round'!J40</f>
         <v/>
       </c>
       <c r="K179">
-        <f>'By Round'!K41</f>
+        <f>'By Round'!K40</f>
         <v/>
       </c>
       <c r="L179" s="11">
@@ -20129,23 +20129,23 @@
         </is>
       </c>
       <c r="G180">
-        <f>'By Round'!G53</f>
+        <f>'By Round'!G52</f>
         <v/>
       </c>
       <c r="H180">
-        <f>'By Round'!H53</f>
+        <f>'By Round'!H52</f>
         <v/>
       </c>
       <c r="I180">
-        <f>'By Round'!I53</f>
+        <f>'By Round'!I52</f>
         <v/>
       </c>
       <c r="J180">
-        <f>'By Round'!J53</f>
+        <f>'By Round'!J52</f>
         <v/>
       </c>
       <c r="K180">
-        <f>'By Round'!K53</f>
+        <f>'By Round'!K52</f>
         <v/>
       </c>
       <c r="L180" s="11">
@@ -20236,23 +20236,23 @@
         </is>
       </c>
       <c r="G181">
-        <f>'By Round'!G121</f>
+        <f>'By Round'!G120</f>
         <v/>
       </c>
       <c r="H181">
-        <f>'By Round'!H121</f>
+        <f>'By Round'!H120</f>
         <v/>
       </c>
       <c r="I181">
-        <f>'By Round'!I121</f>
+        <f>'By Round'!I120</f>
         <v/>
       </c>
       <c r="J181">
-        <f>'By Round'!J121</f>
+        <f>'By Round'!J120</f>
         <v/>
       </c>
       <c r="K181">
-        <f>'By Round'!K121</f>
+        <f>'By Round'!K120</f>
         <v/>
       </c>
       <c r="L181" s="11">
@@ -20343,23 +20343,23 @@
         </is>
       </c>
       <c r="G182">
-        <f>'By Round'!G133</f>
+        <f>'By Round'!G132</f>
         <v/>
       </c>
       <c r="H182">
-        <f>'By Round'!H133</f>
+        <f>'By Round'!H132</f>
         <v/>
       </c>
       <c r="I182">
-        <f>'By Round'!I133</f>
+        <f>'By Round'!I132</f>
         <v/>
       </c>
       <c r="J182">
-        <f>'By Round'!J133</f>
+        <f>'By Round'!J132</f>
         <v/>
       </c>
       <c r="K182">
-        <f>'By Round'!K133</f>
+        <f>'By Round'!K132</f>
         <v/>
       </c>
       <c r="L182" s="11">
@@ -20450,23 +20450,23 @@
         </is>
       </c>
       <c r="G183">
-        <f>'By Round'!G145</f>
+        <f>'By Round'!G144</f>
         <v/>
       </c>
       <c r="H183">
-        <f>'By Round'!H145</f>
+        <f>'By Round'!H144</f>
         <v/>
       </c>
       <c r="I183">
-        <f>'By Round'!I145</f>
+        <f>'By Round'!I144</f>
         <v/>
       </c>
       <c r="J183">
-        <f>'By Round'!J145</f>
+        <f>'By Round'!J144</f>
         <v/>
       </c>
       <c r="K183">
-        <f>'By Round'!K145</f>
+        <f>'By Round'!K144</f>
         <v/>
       </c>
       <c r="L183" s="11">
@@ -20557,23 +20557,23 @@
         </is>
       </c>
       <c r="G184">
-        <f>'By Round'!G171</f>
+        <f>'By Round'!G170</f>
         <v/>
       </c>
       <c r="H184">
-        <f>'By Round'!H171</f>
+        <f>'By Round'!H170</f>
         <v/>
       </c>
       <c r="I184">
-        <f>'By Round'!I171</f>
+        <f>'By Round'!I170</f>
         <v/>
       </c>
       <c r="J184">
-        <f>'By Round'!J171</f>
+        <f>'By Round'!J170</f>
         <v/>
       </c>
       <c r="K184">
-        <f>'By Round'!K171</f>
+        <f>'By Round'!K170</f>
         <v/>
       </c>
       <c r="L184" s="11">
@@ -24420,6 +24420,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="C1" s="3" t="inlineStr">

--- a/howell13.xlsx
+++ b/howell13.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 01, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 02, 2026.</t>
         </is>
       </c>
     </row>
@@ -652,12 +652,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Name 51</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -675,12 +675,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Name 75</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -698,12 +698,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -721,12 +721,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Name 41</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Name 20</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Name 28</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -744,12 +744,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 50</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -767,12 +767,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Name 63</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -790,12 +790,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Name 23</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Name 87</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Name 47</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -813,12 +813,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 89</t>
+          <t>Name 49</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -836,12 +836,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 63</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 57</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -859,12 +859,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 59</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 48</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -882,12 +882,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 41</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 56</t>
+          <t>Name 55</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -905,12 +905,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 48</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 15</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -928,12 +928,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 82</t>
+          <t>Name 57</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 16</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="D14" s="4">

--- a/howell13.xlsx
+++ b/howell13.xlsx
@@ -7,13 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tournament" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Roster" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="By Board" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="By Round" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Traveler Template" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="IMP Table" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Scoring Table" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Roster" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="By Board" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="By Round" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="IMP Table" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Scoring Table" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23,12 +21,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="#0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#0.00"/>
     <numFmt numFmtId="166" formatCode="#0.0"/>
     <numFmt numFmtId="167" formatCode="#0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,10 +52,6 @@
       <i val="1"/>
       <color rgb="00FF0000"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="22"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -99,35 +93,21 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -148,13 +128,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -521,93 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>For public domain. No rights reserved. Generated on Feb 02, 2026.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Howell Arrangement (IMP &amp; MP)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Pairs</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Tables</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Rounds</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Boards per round</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Total Boards to play</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,486 +509,547 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Pair #</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Player 1</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Player 2</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>For public domain. No rights reserved. Generated on Feb 04, 2026.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Howell Tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Pairs</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Tables</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Rounds</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Boards per round</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Total Boards to play</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Pairs</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>IMP</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Name 80</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Name 90</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Name 78</t>
+        </is>
+      </c>
+      <c r="D10" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=1",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=1",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E10" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=1",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=1",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Name 48</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Name 43</t>
+        </is>
+      </c>
+      <c r="D11" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=2",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=2",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E11" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=2",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=2",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Name 18</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Name 35</t>
+        </is>
+      </c>
+      <c r="D12" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=3",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=3",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E12" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=3",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=3",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Name 20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Name 24</t>
+        </is>
+      </c>
+      <c r="D13" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=4",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=4",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E13" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=4",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=4",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Name 77</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Name 56</t>
+        </is>
+      </c>
+      <c r="D14" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=5",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=5",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E14" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=5",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=5",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Name 84</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Name 24</t>
+        </is>
+      </c>
+      <c r="D15" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=6",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=6",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E15" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=6",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=6",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Name 13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Name 86</t>
+        </is>
+      </c>
+      <c r="D16" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=7",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=7",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E16" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=7",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=7",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Name 38</t>
         </is>
       </c>
-      <c r="D2" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=1",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=1",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-      <c r="E2" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=1",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=1",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Name 61</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Name 17</t>
-        </is>
-      </c>
-      <c r="D3" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=2",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=2",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-      <c r="E3" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=2",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=2",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Name 20</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Name 27</t>
-        </is>
-      </c>
-      <c r="D4" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=3",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=3",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-      <c r="E4" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=3",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=3",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Name 41</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Name 20</t>
-        </is>
-      </c>
-      <c r="D5" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=4",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=4",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-      <c r="E5" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=4",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=4",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Name 40</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Name 50</t>
-        </is>
-      </c>
-      <c r="D6" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=5",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=5",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-      <c r="E6" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=5",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=5",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Name 24</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Name 80</t>
-        </is>
-      </c>
-      <c r="D7" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=6",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=6",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-      <c r="E7" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=6",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=6",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Name 23</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Name 87</t>
-        </is>
-      </c>
-      <c r="D8" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=7",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=7",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-      <c r="E8" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=7",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=7",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Name 61</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Name 49</t>
-        </is>
-      </c>
-      <c r="D9" s="4">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Name 31</t>
+        </is>
+      </c>
+      <c r="D17" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=8",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=8",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E17" s="5">
         <f>SUMIF('By Board'!$D$3:$D$170,"=8",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=8",'By Board'!$M$3:$M$170)</f>
         <v/>
       </c>
-      <c r="E9" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=8",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=8",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name 25</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Name 57</t>
-        </is>
-      </c>
-      <c r="D10" s="4">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Name 55</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Name 47</t>
+        </is>
+      </c>
+      <c r="D18" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=9",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=9",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E18" s="5">
         <f>SUMIF('By Board'!$D$3:$D$170,"=9",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=9",'By Board'!$M$3:$M$170)</f>
         <v/>
       </c>
-      <c r="E10" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=9",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=9",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Name 21</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Name 15</t>
+        </is>
+      </c>
+      <c r="D19" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=10",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=10",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E19" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=10",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=10",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Name 38</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Name 36</t>
+        </is>
+      </c>
+      <c r="D20" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=11",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=11",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E20" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=11",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=11",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Name 26</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Name 88</t>
+        </is>
+      </c>
+      <c r="D21" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=12",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=12",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E21" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=12",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=12",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Name 79</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Name 33</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Name 48</t>
-        </is>
-      </c>
-      <c r="D11" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=10",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=10",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-      <c r="E11" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=10",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=10",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Name 41</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Name 55</t>
-        </is>
-      </c>
-      <c r="D12" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=11",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=11",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-      <c r="E12" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=11",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=11",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Name 48</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Name 17</t>
-        </is>
-      </c>
-      <c r="D13" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=12",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=12",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-      <c r="E13" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=12",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=12",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Name 57</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Name 61</t>
-        </is>
-      </c>
-      <c r="D14" s="4">
+      <c r="D22" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=13",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=13",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E22" s="5">
         <f>SUMIF('By Board'!$D$3:$D$170,"=13",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=13",'By Board'!$M$3:$M$170)</f>
         <v/>
       </c>
-      <c r="E14" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=13",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=13",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="6">
-        <f>SUM(D2:D14)</f>
-        <v/>
-      </c>
-      <c r="E15" s="7">
-        <f>AVERAGE(E2:E14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Array Formula below, remove single quote</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="D23" s="6">
+        <f>AVERAGE(D10:D22)</f>
+        <v/>
+      </c>
+      <c r="E23" s="7">
+        <f>SUM(E10:E22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>To sort, remove single quote below</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>IMP Ranking</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>'=SORT(A2:E14,4,-1)</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="8" t="n"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="8" t="n"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="8" t="n"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="8" t="n"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="8" t="n"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="8" t="n"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="8" t="n"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="8" t="n"/>
-    </row>
     <row r="27">
-      <c r="D27" s="4" t="n"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>'=SORT(A10:E22,4,-1)</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n"/>
       <c r="E27" s="8" t="n"/>
     </row>
     <row r="28">
-      <c r="D28" s="4" t="n"/>
+      <c r="D28" s="5" t="n"/>
       <c r="E28" s="8" t="n"/>
     </row>
     <row r="29">
-      <c r="D29" s="4" t="n"/>
+      <c r="D29" s="5" t="n"/>
       <c r="E29" s="8" t="n"/>
     </row>
     <row r="30">
-      <c r="D30" s="4" t="n"/>
+      <c r="D30" s="5" t="n"/>
       <c r="E30" s="8" t="n"/>
     </row>
     <row r="31">
-      <c r="D31" s="4" t="n"/>
+      <c r="D31" s="5" t="n"/>
       <c r="E31" s="8" t="n"/>
     </row>
+    <row r="32">
+      <c r="D32" s="5" t="n"/>
+      <c r="E32" s="8" t="n"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="5" t="n"/>
+      <c r="E33" s="8" t="n"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="5" t="n"/>
+      <c r="E34" s="8" t="n"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="5" t="n"/>
+      <c r="E35" s="8" t="n"/>
+    </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="D36" s="5" t="n"/>
+      <c r="E36" s="8" t="n"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="5" t="n"/>
+      <c r="E37" s="8" t="n"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="5" t="n"/>
+      <c r="E38" s="8" t="n"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="5" t="n"/>
+      <c r="E39" s="8" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>MP Ranking</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>'=SORT(A2:E14,5,-1)</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="n"/>
-      <c r="E37" s="8" t="n"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="4" t="n"/>
-      <c r="E38" s="8" t="n"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="4" t="n"/>
-      <c r="E39" s="8" t="n"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="4" t="n"/>
-      <c r="E40" s="8" t="n"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="4" t="n"/>
-      <c r="E41" s="8" t="n"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="4" t="n"/>
-      <c r="E42" s="8" t="n"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="4" t="n"/>
-      <c r="E43" s="8" t="n"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="4" t="n"/>
-      <c r="E44" s="8" t="n"/>
-    </row>
     <row r="45">
-      <c r="D45" s="4" t="n"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>'=SORT(A10:E22,5,-1)</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n"/>
       <c r="E45" s="8" t="n"/>
     </row>
     <row r="46">
-      <c r="D46" s="4" t="n"/>
+      <c r="D46" s="5" t="n"/>
       <c r="E46" s="8" t="n"/>
     </row>
     <row r="47">
-      <c r="D47" s="4" t="n"/>
+      <c r="D47" s="5" t="n"/>
       <c r="E47" s="8" t="n"/>
     </row>
     <row r="48">
-      <c r="D48" s="4" t="n"/>
+      <c r="D48" s="5" t="n"/>
       <c r="E48" s="8" t="n"/>
     </row>
     <row r="49">
-      <c r="D49" s="4" t="n"/>
+      <c r="D49" s="5" t="n"/>
       <c r="E49" s="8" t="n"/>
     </row>
+    <row r="50">
+      <c r="D50" s="5" t="n"/>
+      <c r="E50" s="8" t="n"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="5" t="n"/>
+      <c r="E51" s="8" t="n"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="5" t="n"/>
+      <c r="E52" s="8" t="n"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="5" t="n"/>
+      <c r="E53" s="8" t="n"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="5" t="n"/>
+      <c r="E54" s="8" t="n"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="5" t="n"/>
+      <c r="E55" s="8" t="n"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="5" t="n"/>
+      <c r="E56" s="8" t="n"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="5" t="n"/>
+      <c r="E57" s="8" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A36:E36"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1154,57 +1104,57 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1214,27 +1164,27 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1244,7 +1194,7 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1254,7 +1204,7 @@
           <t>NS MP Scores</t>
         </is>
       </c>
-      <c r="Z2" s="3" t="inlineStr">
+      <c r="Z2" s="2" t="inlineStr">
         <is>
           <t>EW MP Scores</t>
         </is>
@@ -1264,7 +1214,7 @@
           <t>NS IMP Pair-wise</t>
         </is>
       </c>
-      <c r="AL2" s="3" t="inlineStr">
+      <c r="AL2" s="2" t="inlineStr">
         <is>
           <t>EW IMP Pair-wise</t>
         </is>
@@ -1331,11 +1281,11 @@
         <f>IF(COUNT(Z3:AE3)&gt;0,Q3/COUNT(Z3:AE3),0.5)</f>
         <v/>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="5">
         <f>SUM(T3:Y3)</f>
         <v/>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="5">
         <f>SUM(Z3:AE3)</f>
         <v/>
       </c>
@@ -1502,11 +1452,11 @@
         <f>IF(COUNT(Z4:AE4)&gt;0,Q4/COUNT(Z4:AE4),0.5)</f>
         <v/>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="5">
         <f>SUM(T4:Y4)</f>
         <v/>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="5">
         <f>SUM(Z4:AE4)</f>
         <v/>
       </c>
@@ -1673,11 +1623,11 @@
         <f>IF(COUNT(Z5:AE5)&gt;0,Q5/COUNT(Z5:AE5),0.5)</f>
         <v/>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="5">
         <f>SUM(T5:Y5)</f>
         <v/>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="5">
         <f>SUM(Z5:AE5)</f>
         <v/>
       </c>
@@ -1844,11 +1794,11 @@
         <f>IF(COUNT(Z6:AE6)&gt;0,Q6/COUNT(Z6:AE6),0.5)</f>
         <v/>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="5">
         <f>SUM(T6:Y6)</f>
         <v/>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="5">
         <f>SUM(Z6:AE6)</f>
         <v/>
       </c>
@@ -2015,11 +1965,11 @@
         <f>IF(COUNT(Z7:AE7)&gt;0,Q7/COUNT(Z7:AE7),0.5)</f>
         <v/>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="5">
         <f>SUM(T7:Y7)</f>
         <v/>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="5">
         <f>SUM(Z7:AE7)</f>
         <v/>
       </c>
@@ -2186,11 +2136,11 @@
         <f>IF(COUNT(Z8:AE8)&gt;0,Q8/COUNT(Z8:AE8),0.5)</f>
         <v/>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="5">
         <f>SUM(T8:Y8)</f>
         <v/>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="5">
         <f>SUM(Z8:AE8)</f>
         <v/>
       </c>
@@ -2532,11 +2482,11 @@
         <f>IF(COUNT(Z10:AE10)&gt;0,Q10/COUNT(Z10:AE10),0.5)</f>
         <v/>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="5">
         <f>SUM(T10:Y10)</f>
         <v/>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="5">
         <f>SUM(Z10:AE10)</f>
         <v/>
       </c>
@@ -2703,11 +2653,11 @@
         <f>IF(COUNT(Z11:AE11)&gt;0,Q11/COUNT(Z11:AE11),0.5)</f>
         <v/>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="5">
         <f>SUM(T11:Y11)</f>
         <v/>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="5">
         <f>SUM(Z11:AE11)</f>
         <v/>
       </c>
@@ -2874,11 +2824,11 @@
         <f>IF(COUNT(Z12:AE12)&gt;0,Q12/COUNT(Z12:AE12),0.5)</f>
         <v/>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="5">
         <f>SUM(T12:Y12)</f>
         <v/>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="5">
         <f>SUM(Z12:AE12)</f>
         <v/>
       </c>
@@ -3045,11 +2995,11 @@
         <f>IF(COUNT(Z13:AE13)&gt;0,Q13/COUNT(Z13:AE13),0.5)</f>
         <v/>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="5">
         <f>SUM(T13:Y13)</f>
         <v/>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="5">
         <f>SUM(Z13:AE13)</f>
         <v/>
       </c>
@@ -3216,11 +3166,11 @@
         <f>IF(COUNT(Z14:AE14)&gt;0,Q14/COUNT(Z14:AE14),0.5)</f>
         <v/>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="5">
         <f>SUM(T14:Y14)</f>
         <v/>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="5">
         <f>SUM(Z14:AE14)</f>
         <v/>
       </c>
@@ -3387,11 +3337,11 @@
         <f>IF(COUNT(Z15:AE15)&gt;0,Q15/COUNT(Z15:AE15),0.5)</f>
         <v/>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="5">
         <f>SUM(T15:Y15)</f>
         <v/>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="5">
         <f>SUM(Z15:AE15)</f>
         <v/>
       </c>
@@ -3733,11 +3683,11 @@
         <f>IF(COUNT(Z17:AE17)&gt;0,Q17/COUNT(Z17:AE17),0.5)</f>
         <v/>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="5">
         <f>SUM(T17:Y17)</f>
         <v/>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="5">
         <f>SUM(Z17:AE17)</f>
         <v/>
       </c>
@@ -3904,11 +3854,11 @@
         <f>IF(COUNT(Z18:AE18)&gt;0,Q18/COUNT(Z18:AE18),0.5)</f>
         <v/>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="5">
         <f>SUM(T18:Y18)</f>
         <v/>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="5">
         <f>SUM(Z18:AE18)</f>
         <v/>
       </c>
@@ -4075,11 +4025,11 @@
         <f>IF(COUNT(Z19:AE19)&gt;0,Q19/COUNT(Z19:AE19),0.5)</f>
         <v/>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="5">
         <f>SUM(T19:Y19)</f>
         <v/>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="5">
         <f>SUM(Z19:AE19)</f>
         <v/>
       </c>
@@ -4246,11 +4196,11 @@
         <f>IF(COUNT(Z20:AE20)&gt;0,Q20/COUNT(Z20:AE20),0.5)</f>
         <v/>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="5">
         <f>SUM(T20:Y20)</f>
         <v/>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="5">
         <f>SUM(Z20:AE20)</f>
         <v/>
       </c>
@@ -4417,11 +4367,11 @@
         <f>IF(COUNT(Z21:AE21)&gt;0,Q21/COUNT(Z21:AE21),0.5)</f>
         <v/>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="5">
         <f>SUM(T21:Y21)</f>
         <v/>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="5">
         <f>SUM(Z21:AE21)</f>
         <v/>
       </c>
@@ -4588,11 +4538,11 @@
         <f>IF(COUNT(Z22:AE22)&gt;0,Q22/COUNT(Z22:AE22),0.5)</f>
         <v/>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="5">
         <f>SUM(T22:Y22)</f>
         <v/>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="5">
         <f>SUM(Z22:AE22)</f>
         <v/>
       </c>
@@ -4934,11 +4884,11 @@
         <f>IF(COUNT(Z24:AE24)&gt;0,Q24/COUNT(Z24:AE24),0.5)</f>
         <v/>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="5">
         <f>SUM(T24:Y24)</f>
         <v/>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="5">
         <f>SUM(Z24:AE24)</f>
         <v/>
       </c>
@@ -5105,11 +5055,11 @@
         <f>IF(COUNT(Z25:AE25)&gt;0,Q25/COUNT(Z25:AE25),0.5)</f>
         <v/>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="5">
         <f>SUM(T25:Y25)</f>
         <v/>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="5">
         <f>SUM(Z25:AE25)</f>
         <v/>
       </c>
@@ -5276,11 +5226,11 @@
         <f>IF(COUNT(Z26:AE26)&gt;0,Q26/COUNT(Z26:AE26),0.5)</f>
         <v/>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="5">
         <f>SUM(T26:Y26)</f>
         <v/>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="5">
         <f>SUM(Z26:AE26)</f>
         <v/>
       </c>
@@ -5447,11 +5397,11 @@
         <f>IF(COUNT(Z27:AE27)&gt;0,Q27/COUNT(Z27:AE27),0.5)</f>
         <v/>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="5">
         <f>SUM(T27:Y27)</f>
         <v/>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="5">
         <f>SUM(Z27:AE27)</f>
         <v/>
       </c>
@@ -5618,11 +5568,11 @@
         <f>IF(COUNT(Z28:AE28)&gt;0,Q28/COUNT(Z28:AE28),0.5)</f>
         <v/>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="5">
         <f>SUM(T28:Y28)</f>
         <v/>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="5">
         <f>SUM(Z28:AE28)</f>
         <v/>
       </c>
@@ -5789,11 +5739,11 @@
         <f>IF(COUNT(Z29:AE29)&gt;0,Q29/COUNT(Z29:AE29),0.5)</f>
         <v/>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="5">
         <f>SUM(T29:Y29)</f>
         <v/>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="5">
         <f>SUM(Z29:AE29)</f>
         <v/>
       </c>
@@ -6135,11 +6085,11 @@
         <f>IF(COUNT(Z31:AE31)&gt;0,Q31/COUNT(Z31:AE31),0.5)</f>
         <v/>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="5">
         <f>SUM(T31:Y31)</f>
         <v/>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="5">
         <f>SUM(Z31:AE31)</f>
         <v/>
       </c>
@@ -6306,11 +6256,11 @@
         <f>IF(COUNT(Z32:AE32)&gt;0,Q32/COUNT(Z32:AE32),0.5)</f>
         <v/>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="5">
         <f>SUM(T32:Y32)</f>
         <v/>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="5">
         <f>SUM(Z32:AE32)</f>
         <v/>
       </c>
@@ -6477,11 +6427,11 @@
         <f>IF(COUNT(Z33:AE33)&gt;0,Q33/COUNT(Z33:AE33),0.5)</f>
         <v/>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="5">
         <f>SUM(T33:Y33)</f>
         <v/>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="5">
         <f>SUM(Z33:AE33)</f>
         <v/>
       </c>
@@ -6648,11 +6598,11 @@
         <f>IF(COUNT(Z34:AE34)&gt;0,Q34/COUNT(Z34:AE34),0.5)</f>
         <v/>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="5">
         <f>SUM(T34:Y34)</f>
         <v/>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="5">
         <f>SUM(Z34:AE34)</f>
         <v/>
       </c>
@@ -6819,11 +6769,11 @@
         <f>IF(COUNT(Z35:AE35)&gt;0,Q35/COUNT(Z35:AE35),0.5)</f>
         <v/>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="5">
         <f>SUM(T35:Y35)</f>
         <v/>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="5">
         <f>SUM(Z35:AE35)</f>
         <v/>
       </c>
@@ -6990,11 +6940,11 @@
         <f>IF(COUNT(Z36:AE36)&gt;0,Q36/COUNT(Z36:AE36),0.5)</f>
         <v/>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="5">
         <f>SUM(T36:Y36)</f>
         <v/>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="5">
         <f>SUM(Z36:AE36)</f>
         <v/>
       </c>
@@ -7336,11 +7286,11 @@
         <f>IF(COUNT(Z38:AE38)&gt;0,Q38/COUNT(Z38:AE38),0.5)</f>
         <v/>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="5">
         <f>SUM(T38:Y38)</f>
         <v/>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="5">
         <f>SUM(Z38:AE38)</f>
         <v/>
       </c>
@@ -7507,11 +7457,11 @@
         <f>IF(COUNT(Z39:AE39)&gt;0,Q39/COUNT(Z39:AE39),0.5)</f>
         <v/>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="5">
         <f>SUM(T39:Y39)</f>
         <v/>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="5">
         <f>SUM(Z39:AE39)</f>
         <v/>
       </c>
@@ -7678,11 +7628,11 @@
         <f>IF(COUNT(Z40:AE40)&gt;0,Q40/COUNT(Z40:AE40),0.5)</f>
         <v/>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="5">
         <f>SUM(T40:Y40)</f>
         <v/>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="5">
         <f>SUM(Z40:AE40)</f>
         <v/>
       </c>
@@ -7849,11 +7799,11 @@
         <f>IF(COUNT(Z41:AE41)&gt;0,Q41/COUNT(Z41:AE41),0.5)</f>
         <v/>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="5">
         <f>SUM(T41:Y41)</f>
         <v/>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q41" s="5">
         <f>SUM(Z41:AE41)</f>
         <v/>
       </c>
@@ -8020,11 +7970,11 @@
         <f>IF(COUNT(Z42:AE42)&gt;0,Q42/COUNT(Z42:AE42),0.5)</f>
         <v/>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="5">
         <f>SUM(T42:Y42)</f>
         <v/>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q42" s="5">
         <f>SUM(Z42:AE42)</f>
         <v/>
       </c>
@@ -8191,11 +8141,11 @@
         <f>IF(COUNT(Z43:AE43)&gt;0,Q43/COUNT(Z43:AE43),0.5)</f>
         <v/>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="5">
         <f>SUM(T43:Y43)</f>
         <v/>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43" s="5">
         <f>SUM(Z43:AE43)</f>
         <v/>
       </c>
@@ -8537,11 +8487,11 @@
         <f>IF(COUNT(Z45:AE45)&gt;0,Q45/COUNT(Z45:AE45),0.5)</f>
         <v/>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="5">
         <f>SUM(T45:Y45)</f>
         <v/>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45" s="5">
         <f>SUM(Z45:AE45)</f>
         <v/>
       </c>
@@ -8708,11 +8658,11 @@
         <f>IF(COUNT(Z46:AE46)&gt;0,Q46/COUNT(Z46:AE46),0.5)</f>
         <v/>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="5">
         <f>SUM(T46:Y46)</f>
         <v/>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q46" s="5">
         <f>SUM(Z46:AE46)</f>
         <v/>
       </c>
@@ -8879,11 +8829,11 @@
         <f>IF(COUNT(Z47:AE47)&gt;0,Q47/COUNT(Z47:AE47),0.5)</f>
         <v/>
       </c>
-      <c r="P47" s="4">
+      <c r="P47" s="5">
         <f>SUM(T47:Y47)</f>
         <v/>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="5">
         <f>SUM(Z47:AE47)</f>
         <v/>
       </c>
@@ -9050,11 +9000,11 @@
         <f>IF(COUNT(Z48:AE48)&gt;0,Q48/COUNT(Z48:AE48),0.5)</f>
         <v/>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="5">
         <f>SUM(T48:Y48)</f>
         <v/>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q48" s="5">
         <f>SUM(Z48:AE48)</f>
         <v/>
       </c>
@@ -9221,11 +9171,11 @@
         <f>IF(COUNT(Z49:AE49)&gt;0,Q49/COUNT(Z49:AE49),0.5)</f>
         <v/>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="5">
         <f>SUM(T49:Y49)</f>
         <v/>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q49" s="5">
         <f>SUM(Z49:AE49)</f>
         <v/>
       </c>
@@ -9392,11 +9342,11 @@
         <f>IF(COUNT(Z50:AE50)&gt;0,Q50/COUNT(Z50:AE50),0.5)</f>
         <v/>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="5">
         <f>SUM(T50:Y50)</f>
         <v/>
       </c>
-      <c r="Q50" s="4">
+      <c r="Q50" s="5">
         <f>SUM(Z50:AE50)</f>
         <v/>
       </c>
@@ -9738,11 +9688,11 @@
         <f>IF(COUNT(Z52:AE52)&gt;0,Q52/COUNT(Z52:AE52),0.5)</f>
         <v/>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="5">
         <f>SUM(T52:Y52)</f>
         <v/>
       </c>
-      <c r="Q52" s="4">
+      <c r="Q52" s="5">
         <f>SUM(Z52:AE52)</f>
         <v/>
       </c>
@@ -9909,11 +9859,11 @@
         <f>IF(COUNT(Z53:AE53)&gt;0,Q53/COUNT(Z53:AE53),0.5)</f>
         <v/>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="5">
         <f>SUM(T53:Y53)</f>
         <v/>
       </c>
-      <c r="Q53" s="4">
+      <c r="Q53" s="5">
         <f>SUM(Z53:AE53)</f>
         <v/>
       </c>
@@ -10080,11 +10030,11 @@
         <f>IF(COUNT(Z54:AE54)&gt;0,Q54/COUNT(Z54:AE54),0.5)</f>
         <v/>
       </c>
-      <c r="P54" s="4">
+      <c r="P54" s="5">
         <f>SUM(T54:Y54)</f>
         <v/>
       </c>
-      <c r="Q54" s="4">
+      <c r="Q54" s="5">
         <f>SUM(Z54:AE54)</f>
         <v/>
       </c>
@@ -10251,11 +10201,11 @@
         <f>IF(COUNT(Z55:AE55)&gt;0,Q55/COUNT(Z55:AE55),0.5)</f>
         <v/>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="5">
         <f>SUM(T55:Y55)</f>
         <v/>
       </c>
-      <c r="Q55" s="4">
+      <c r="Q55" s="5">
         <f>SUM(Z55:AE55)</f>
         <v/>
       </c>
@@ -10422,11 +10372,11 @@
         <f>IF(COUNT(Z56:AE56)&gt;0,Q56/COUNT(Z56:AE56),0.5)</f>
         <v/>
       </c>
-      <c r="P56" s="4">
+      <c r="P56" s="5">
         <f>SUM(T56:Y56)</f>
         <v/>
       </c>
-      <c r="Q56" s="4">
+      <c r="Q56" s="5">
         <f>SUM(Z56:AE56)</f>
         <v/>
       </c>
@@ -10593,11 +10543,11 @@
         <f>IF(COUNT(Z57:AE57)&gt;0,Q57/COUNT(Z57:AE57),0.5)</f>
         <v/>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="5">
         <f>SUM(T57:Y57)</f>
         <v/>
       </c>
-      <c r="Q57" s="4">
+      <c r="Q57" s="5">
         <f>SUM(Z57:AE57)</f>
         <v/>
       </c>
@@ -10939,11 +10889,11 @@
         <f>IF(COUNT(Z59:AE59)&gt;0,Q59/COUNT(Z59:AE59),0.5)</f>
         <v/>
       </c>
-      <c r="P59" s="4">
+      <c r="P59" s="5">
         <f>SUM(T59:Y59)</f>
         <v/>
       </c>
-      <c r="Q59" s="4">
+      <c r="Q59" s="5">
         <f>SUM(Z59:AE59)</f>
         <v/>
       </c>
@@ -11110,11 +11060,11 @@
         <f>IF(COUNT(Z60:AE60)&gt;0,Q60/COUNT(Z60:AE60),0.5)</f>
         <v/>
       </c>
-      <c r="P60" s="4">
+      <c r="P60" s="5">
         <f>SUM(T60:Y60)</f>
         <v/>
       </c>
-      <c r="Q60" s="4">
+      <c r="Q60" s="5">
         <f>SUM(Z60:AE60)</f>
         <v/>
       </c>
@@ -11281,11 +11231,11 @@
         <f>IF(COUNT(Z61:AE61)&gt;0,Q61/COUNT(Z61:AE61),0.5)</f>
         <v/>
       </c>
-      <c r="P61" s="4">
+      <c r="P61" s="5">
         <f>SUM(T61:Y61)</f>
         <v/>
       </c>
-      <c r="Q61" s="4">
+      <c r="Q61" s="5">
         <f>SUM(Z61:AE61)</f>
         <v/>
       </c>
@@ -11452,11 +11402,11 @@
         <f>IF(COUNT(Z62:AE62)&gt;0,Q62/COUNT(Z62:AE62),0.5)</f>
         <v/>
       </c>
-      <c r="P62" s="4">
+      <c r="P62" s="5">
         <f>SUM(T62:Y62)</f>
         <v/>
       </c>
-      <c r="Q62" s="4">
+      <c r="Q62" s="5">
         <f>SUM(Z62:AE62)</f>
         <v/>
       </c>
@@ -11623,11 +11573,11 @@
         <f>IF(COUNT(Z63:AE63)&gt;0,Q63/COUNT(Z63:AE63),0.5)</f>
         <v/>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="5">
         <f>SUM(T63:Y63)</f>
         <v/>
       </c>
-      <c r="Q63" s="4">
+      <c r="Q63" s="5">
         <f>SUM(Z63:AE63)</f>
         <v/>
       </c>
@@ -11794,11 +11744,11 @@
         <f>IF(COUNT(Z64:AE64)&gt;0,Q64/COUNT(Z64:AE64),0.5)</f>
         <v/>
       </c>
-      <c r="P64" s="4">
+      <c r="P64" s="5">
         <f>SUM(T64:Y64)</f>
         <v/>
       </c>
-      <c r="Q64" s="4">
+      <c r="Q64" s="5">
         <f>SUM(Z64:AE64)</f>
         <v/>
       </c>
@@ -12140,11 +12090,11 @@
         <f>IF(COUNT(Z66:AE66)&gt;0,Q66/COUNT(Z66:AE66),0.5)</f>
         <v/>
       </c>
-      <c r="P66" s="4">
+      <c r="P66" s="5">
         <f>SUM(T66:Y66)</f>
         <v/>
       </c>
-      <c r="Q66" s="4">
+      <c r="Q66" s="5">
         <f>SUM(Z66:AE66)</f>
         <v/>
       </c>
@@ -12311,11 +12261,11 @@
         <f>IF(COUNT(Z67:AE67)&gt;0,Q67/COUNT(Z67:AE67),0.5)</f>
         <v/>
       </c>
-      <c r="P67" s="4">
+      <c r="P67" s="5">
         <f>SUM(T67:Y67)</f>
         <v/>
       </c>
-      <c r="Q67" s="4">
+      <c r="Q67" s="5">
         <f>SUM(Z67:AE67)</f>
         <v/>
       </c>
@@ -12482,11 +12432,11 @@
         <f>IF(COUNT(Z68:AE68)&gt;0,Q68/COUNT(Z68:AE68),0.5)</f>
         <v/>
       </c>
-      <c r="P68" s="4">
+      <c r="P68" s="5">
         <f>SUM(T68:Y68)</f>
         <v/>
       </c>
-      <c r="Q68" s="4">
+      <c r="Q68" s="5">
         <f>SUM(Z68:AE68)</f>
         <v/>
       </c>
@@ -12653,11 +12603,11 @@
         <f>IF(COUNT(Z69:AE69)&gt;0,Q69/COUNT(Z69:AE69),0.5)</f>
         <v/>
       </c>
-      <c r="P69" s="4">
+      <c r="P69" s="5">
         <f>SUM(T69:Y69)</f>
         <v/>
       </c>
-      <c r="Q69" s="4">
+      <c r="Q69" s="5">
         <f>SUM(Z69:AE69)</f>
         <v/>
       </c>
@@ -12824,11 +12774,11 @@
         <f>IF(COUNT(Z70:AE70)&gt;0,Q70/COUNT(Z70:AE70),0.5)</f>
         <v/>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="5">
         <f>SUM(T70:Y70)</f>
         <v/>
       </c>
-      <c r="Q70" s="4">
+      <c r="Q70" s="5">
         <f>SUM(Z70:AE70)</f>
         <v/>
       </c>
@@ -12995,11 +12945,11 @@
         <f>IF(COUNT(Z71:AE71)&gt;0,Q71/COUNT(Z71:AE71),0.5)</f>
         <v/>
       </c>
-      <c r="P71" s="4">
+      <c r="P71" s="5">
         <f>SUM(T71:Y71)</f>
         <v/>
       </c>
-      <c r="Q71" s="4">
+      <c r="Q71" s="5">
         <f>SUM(Z71:AE71)</f>
         <v/>
       </c>
@@ -13341,11 +13291,11 @@
         <f>IF(COUNT(Z73:AE73)&gt;0,Q73/COUNT(Z73:AE73),0.5)</f>
         <v/>
       </c>
-      <c r="P73" s="4">
+      <c r="P73" s="5">
         <f>SUM(T73:Y73)</f>
         <v/>
       </c>
-      <c r="Q73" s="4">
+      <c r="Q73" s="5">
         <f>SUM(Z73:AE73)</f>
         <v/>
       </c>
@@ -13512,11 +13462,11 @@
         <f>IF(COUNT(Z74:AE74)&gt;0,Q74/COUNT(Z74:AE74),0.5)</f>
         <v/>
       </c>
-      <c r="P74" s="4">
+      <c r="P74" s="5">
         <f>SUM(T74:Y74)</f>
         <v/>
       </c>
-      <c r="Q74" s="4">
+      <c r="Q74" s="5">
         <f>SUM(Z74:AE74)</f>
         <v/>
       </c>
@@ -13683,11 +13633,11 @@
         <f>IF(COUNT(Z75:AE75)&gt;0,Q75/COUNT(Z75:AE75),0.5)</f>
         <v/>
       </c>
-      <c r="P75" s="4">
+      <c r="P75" s="5">
         <f>SUM(T75:Y75)</f>
         <v/>
       </c>
-      <c r="Q75" s="4">
+      <c r="Q75" s="5">
         <f>SUM(Z75:AE75)</f>
         <v/>
       </c>
@@ -13854,11 +13804,11 @@
         <f>IF(COUNT(Z76:AE76)&gt;0,Q76/COUNT(Z76:AE76),0.5)</f>
         <v/>
       </c>
-      <c r="P76" s="4">
+      <c r="P76" s="5">
         <f>SUM(T76:Y76)</f>
         <v/>
       </c>
-      <c r="Q76" s="4">
+      <c r="Q76" s="5">
         <f>SUM(Z76:AE76)</f>
         <v/>
       </c>
@@ -14025,11 +13975,11 @@
         <f>IF(COUNT(Z77:AE77)&gt;0,Q77/COUNT(Z77:AE77),0.5)</f>
         <v/>
       </c>
-      <c r="P77" s="4">
+      <c r="P77" s="5">
         <f>SUM(T77:Y77)</f>
         <v/>
       </c>
-      <c r="Q77" s="4">
+      <c r="Q77" s="5">
         <f>SUM(Z77:AE77)</f>
         <v/>
       </c>
@@ -14196,11 +14146,11 @@
         <f>IF(COUNT(Z78:AE78)&gt;0,Q78/COUNT(Z78:AE78),0.5)</f>
         <v/>
       </c>
-      <c r="P78" s="4">
+      <c r="P78" s="5">
         <f>SUM(T78:Y78)</f>
         <v/>
       </c>
-      <c r="Q78" s="4">
+      <c r="Q78" s="5">
         <f>SUM(Z78:AE78)</f>
         <v/>
       </c>
@@ -14542,11 +14492,11 @@
         <f>IF(COUNT(Z80:AE80)&gt;0,Q80/COUNT(Z80:AE80),0.5)</f>
         <v/>
       </c>
-      <c r="P80" s="4">
+      <c r="P80" s="5">
         <f>SUM(T80:Y80)</f>
         <v/>
       </c>
-      <c r="Q80" s="4">
+      <c r="Q80" s="5">
         <f>SUM(Z80:AE80)</f>
         <v/>
       </c>
@@ -14713,11 +14663,11 @@
         <f>IF(COUNT(Z81:AE81)&gt;0,Q81/COUNT(Z81:AE81),0.5)</f>
         <v/>
       </c>
-      <c r="P81" s="4">
+      <c r="P81" s="5">
         <f>SUM(T81:Y81)</f>
         <v/>
       </c>
-      <c r="Q81" s="4">
+      <c r="Q81" s="5">
         <f>SUM(Z81:AE81)</f>
         <v/>
       </c>
@@ -14884,11 +14834,11 @@
         <f>IF(COUNT(Z82:AE82)&gt;0,Q82/COUNT(Z82:AE82),0.5)</f>
         <v/>
       </c>
-      <c r="P82" s="4">
+      <c r="P82" s="5">
         <f>SUM(T82:Y82)</f>
         <v/>
       </c>
-      <c r="Q82" s="4">
+      <c r="Q82" s="5">
         <f>SUM(Z82:AE82)</f>
         <v/>
       </c>
@@ -15055,11 +15005,11 @@
         <f>IF(COUNT(Z83:AE83)&gt;0,Q83/COUNT(Z83:AE83),0.5)</f>
         <v/>
       </c>
-      <c r="P83" s="4">
+      <c r="P83" s="5">
         <f>SUM(T83:Y83)</f>
         <v/>
       </c>
-      <c r="Q83" s="4">
+      <c r="Q83" s="5">
         <f>SUM(Z83:AE83)</f>
         <v/>
       </c>
@@ -15226,11 +15176,11 @@
         <f>IF(COUNT(Z84:AE84)&gt;0,Q84/COUNT(Z84:AE84),0.5)</f>
         <v/>
       </c>
-      <c r="P84" s="4">
+      <c r="P84" s="5">
         <f>SUM(T84:Y84)</f>
         <v/>
       </c>
-      <c r="Q84" s="4">
+      <c r="Q84" s="5">
         <f>SUM(Z84:AE84)</f>
         <v/>
       </c>
@@ -15397,11 +15347,11 @@
         <f>IF(COUNT(Z85:AE85)&gt;0,Q85/COUNT(Z85:AE85),0.5)</f>
         <v/>
       </c>
-      <c r="P85" s="4">
+      <c r="P85" s="5">
         <f>SUM(T85:Y85)</f>
         <v/>
       </c>
-      <c r="Q85" s="4">
+      <c r="Q85" s="5">
         <f>SUM(Z85:AE85)</f>
         <v/>
       </c>
@@ -15743,11 +15693,11 @@
         <f>IF(COUNT(Z87:AE87)&gt;0,Q87/COUNT(Z87:AE87),0.5)</f>
         <v/>
       </c>
-      <c r="P87" s="4">
+      <c r="P87" s="5">
         <f>SUM(T87:Y87)</f>
         <v/>
       </c>
-      <c r="Q87" s="4">
+      <c r="Q87" s="5">
         <f>SUM(Z87:AE87)</f>
         <v/>
       </c>
@@ -15914,11 +15864,11 @@
         <f>IF(COUNT(Z88:AE88)&gt;0,Q88/COUNT(Z88:AE88),0.5)</f>
         <v/>
       </c>
-      <c r="P88" s="4">
+      <c r="P88" s="5">
         <f>SUM(T88:Y88)</f>
         <v/>
       </c>
-      <c r="Q88" s="4">
+      <c r="Q88" s="5">
         <f>SUM(Z88:AE88)</f>
         <v/>
       </c>
@@ -16085,11 +16035,11 @@
         <f>IF(COUNT(Z89:AE89)&gt;0,Q89/COUNT(Z89:AE89),0.5)</f>
         <v/>
       </c>
-      <c r="P89" s="4">
+      <c r="P89" s="5">
         <f>SUM(T89:Y89)</f>
         <v/>
       </c>
-      <c r="Q89" s="4">
+      <c r="Q89" s="5">
         <f>SUM(Z89:AE89)</f>
         <v/>
       </c>
@@ -16256,11 +16206,11 @@
         <f>IF(COUNT(Z90:AE90)&gt;0,Q90/COUNT(Z90:AE90),0.5)</f>
         <v/>
       </c>
-      <c r="P90" s="4">
+      <c r="P90" s="5">
         <f>SUM(T90:Y90)</f>
         <v/>
       </c>
-      <c r="Q90" s="4">
+      <c r="Q90" s="5">
         <f>SUM(Z90:AE90)</f>
         <v/>
       </c>
@@ -16427,11 +16377,11 @@
         <f>IF(COUNT(Z91:AE91)&gt;0,Q91/COUNT(Z91:AE91),0.5)</f>
         <v/>
       </c>
-      <c r="P91" s="4">
+      <c r="P91" s="5">
         <f>SUM(T91:Y91)</f>
         <v/>
       </c>
-      <c r="Q91" s="4">
+      <c r="Q91" s="5">
         <f>SUM(Z91:AE91)</f>
         <v/>
       </c>
@@ -16598,11 +16548,11 @@
         <f>IF(COUNT(Z92:AE92)&gt;0,Q92/COUNT(Z92:AE92),0.5)</f>
         <v/>
       </c>
-      <c r="P92" s="4">
+      <c r="P92" s="5">
         <f>SUM(T92:Y92)</f>
         <v/>
       </c>
-      <c r="Q92" s="4">
+      <c r="Q92" s="5">
         <f>SUM(Z92:AE92)</f>
         <v/>
       </c>
@@ -16944,11 +16894,11 @@
         <f>IF(COUNT(Z94:AE94)&gt;0,Q94/COUNT(Z94:AE94),0.5)</f>
         <v/>
       </c>
-      <c r="P94" s="4">
+      <c r="P94" s="5">
         <f>SUM(T94:Y94)</f>
         <v/>
       </c>
-      <c r="Q94" s="4">
+      <c r="Q94" s="5">
         <f>SUM(Z94:AE94)</f>
         <v/>
       </c>
@@ -17115,11 +17065,11 @@
         <f>IF(COUNT(Z95:AE95)&gt;0,Q95/COUNT(Z95:AE95),0.5)</f>
         <v/>
       </c>
-      <c r="P95" s="4">
+      <c r="P95" s="5">
         <f>SUM(T95:Y95)</f>
         <v/>
       </c>
-      <c r="Q95" s="4">
+      <c r="Q95" s="5">
         <f>SUM(Z95:AE95)</f>
         <v/>
       </c>
@@ -17286,11 +17236,11 @@
         <f>IF(COUNT(Z96:AE96)&gt;0,Q96/COUNT(Z96:AE96),0.5)</f>
         <v/>
       </c>
-      <c r="P96" s="4">
+      <c r="P96" s="5">
         <f>SUM(T96:Y96)</f>
         <v/>
       </c>
-      <c r="Q96" s="4">
+      <c r="Q96" s="5">
         <f>SUM(Z96:AE96)</f>
         <v/>
       </c>
@@ -17457,11 +17407,11 @@
         <f>IF(COUNT(Z97:AE97)&gt;0,Q97/COUNT(Z97:AE97),0.5)</f>
         <v/>
       </c>
-      <c r="P97" s="4">
+      <c r="P97" s="5">
         <f>SUM(T97:Y97)</f>
         <v/>
       </c>
-      <c r="Q97" s="4">
+      <c r="Q97" s="5">
         <f>SUM(Z97:AE97)</f>
         <v/>
       </c>
@@ -17628,11 +17578,11 @@
         <f>IF(COUNT(Z98:AE98)&gt;0,Q98/COUNT(Z98:AE98),0.5)</f>
         <v/>
       </c>
-      <c r="P98" s="4">
+      <c r="P98" s="5">
         <f>SUM(T98:Y98)</f>
         <v/>
       </c>
-      <c r="Q98" s="4">
+      <c r="Q98" s="5">
         <f>SUM(Z98:AE98)</f>
         <v/>
       </c>
@@ -17799,11 +17749,11 @@
         <f>IF(COUNT(Z99:AE99)&gt;0,Q99/COUNT(Z99:AE99),0.5)</f>
         <v/>
       </c>
-      <c r="P99" s="4">
+      <c r="P99" s="5">
         <f>SUM(T99:Y99)</f>
         <v/>
       </c>
-      <c r="Q99" s="4">
+      <c r="Q99" s="5">
         <f>SUM(Z99:AE99)</f>
         <v/>
       </c>
@@ -18145,11 +18095,11 @@
         <f>IF(COUNT(Z101:AE101)&gt;0,Q101/COUNT(Z101:AE101),0.5)</f>
         <v/>
       </c>
-      <c r="P101" s="4">
+      <c r="P101" s="5">
         <f>SUM(T101:Y101)</f>
         <v/>
       </c>
-      <c r="Q101" s="4">
+      <c r="Q101" s="5">
         <f>SUM(Z101:AE101)</f>
         <v/>
       </c>
@@ -18316,11 +18266,11 @@
         <f>IF(COUNT(Z102:AE102)&gt;0,Q102/COUNT(Z102:AE102),0.5)</f>
         <v/>
       </c>
-      <c r="P102" s="4">
+      <c r="P102" s="5">
         <f>SUM(T102:Y102)</f>
         <v/>
       </c>
-      <c r="Q102" s="4">
+      <c r="Q102" s="5">
         <f>SUM(Z102:AE102)</f>
         <v/>
       </c>
@@ -18487,11 +18437,11 @@
         <f>IF(COUNT(Z103:AE103)&gt;0,Q103/COUNT(Z103:AE103),0.5)</f>
         <v/>
       </c>
-      <c r="P103" s="4">
+      <c r="P103" s="5">
         <f>SUM(T103:Y103)</f>
         <v/>
       </c>
-      <c r="Q103" s="4">
+      <c r="Q103" s="5">
         <f>SUM(Z103:AE103)</f>
         <v/>
       </c>
@@ -18658,11 +18608,11 @@
         <f>IF(COUNT(Z104:AE104)&gt;0,Q104/COUNT(Z104:AE104),0.5)</f>
         <v/>
       </c>
-      <c r="P104" s="4">
+      <c r="P104" s="5">
         <f>SUM(T104:Y104)</f>
         <v/>
       </c>
-      <c r="Q104" s="4">
+      <c r="Q104" s="5">
         <f>SUM(Z104:AE104)</f>
         <v/>
       </c>
@@ -18829,11 +18779,11 @@
         <f>IF(COUNT(Z105:AE105)&gt;0,Q105/COUNT(Z105:AE105),0.5)</f>
         <v/>
       </c>
-      <c r="P105" s="4">
+      <c r="P105" s="5">
         <f>SUM(T105:Y105)</f>
         <v/>
       </c>
-      <c r="Q105" s="4">
+      <c r="Q105" s="5">
         <f>SUM(Z105:AE105)</f>
         <v/>
       </c>
@@ -19000,11 +18950,11 @@
         <f>IF(COUNT(Z106:AE106)&gt;0,Q106/COUNT(Z106:AE106),0.5)</f>
         <v/>
       </c>
-      <c r="P106" s="4">
+      <c r="P106" s="5">
         <f>SUM(T106:Y106)</f>
         <v/>
       </c>
-      <c r="Q106" s="4">
+      <c r="Q106" s="5">
         <f>SUM(Z106:AE106)</f>
         <v/>
       </c>
@@ -19346,11 +19296,11 @@
         <f>IF(COUNT(Z108:AE108)&gt;0,Q108/COUNT(Z108:AE108),0.5)</f>
         <v/>
       </c>
-      <c r="P108" s="4">
+      <c r="P108" s="5">
         <f>SUM(T108:Y108)</f>
         <v/>
       </c>
-      <c r="Q108" s="4">
+      <c r="Q108" s="5">
         <f>SUM(Z108:AE108)</f>
         <v/>
       </c>
@@ -19517,11 +19467,11 @@
         <f>IF(COUNT(Z109:AE109)&gt;0,Q109/COUNT(Z109:AE109),0.5)</f>
         <v/>
       </c>
-      <c r="P109" s="4">
+      <c r="P109" s="5">
         <f>SUM(T109:Y109)</f>
         <v/>
       </c>
-      <c r="Q109" s="4">
+      <c r="Q109" s="5">
         <f>SUM(Z109:AE109)</f>
         <v/>
       </c>
@@ -19688,11 +19638,11 @@
         <f>IF(COUNT(Z110:AE110)&gt;0,Q110/COUNT(Z110:AE110),0.5)</f>
         <v/>
       </c>
-      <c r="P110" s="4">
+      <c r="P110" s="5">
         <f>SUM(T110:Y110)</f>
         <v/>
       </c>
-      <c r="Q110" s="4">
+      <c r="Q110" s="5">
         <f>SUM(Z110:AE110)</f>
         <v/>
       </c>
@@ -19859,11 +19809,11 @@
         <f>IF(COUNT(Z111:AE111)&gt;0,Q111/COUNT(Z111:AE111),0.5)</f>
         <v/>
       </c>
-      <c r="P111" s="4">
+      <c r="P111" s="5">
         <f>SUM(T111:Y111)</f>
         <v/>
       </c>
-      <c r="Q111" s="4">
+      <c r="Q111" s="5">
         <f>SUM(Z111:AE111)</f>
         <v/>
       </c>
@@ -20030,11 +19980,11 @@
         <f>IF(COUNT(Z112:AE112)&gt;0,Q112/COUNT(Z112:AE112),0.5)</f>
         <v/>
       </c>
-      <c r="P112" s="4">
+      <c r="P112" s="5">
         <f>SUM(T112:Y112)</f>
         <v/>
       </c>
-      <c r="Q112" s="4">
+      <c r="Q112" s="5">
         <f>SUM(Z112:AE112)</f>
         <v/>
       </c>
@@ -20201,11 +20151,11 @@
         <f>IF(COUNT(Z113:AE113)&gt;0,Q113/COUNT(Z113:AE113),0.5)</f>
         <v/>
       </c>
-      <c r="P113" s="4">
+      <c r="P113" s="5">
         <f>SUM(T113:Y113)</f>
         <v/>
       </c>
-      <c r="Q113" s="4">
+      <c r="Q113" s="5">
         <f>SUM(Z113:AE113)</f>
         <v/>
       </c>
@@ -20547,11 +20497,11 @@
         <f>IF(COUNT(Z115:AE115)&gt;0,Q115/COUNT(Z115:AE115),0.5)</f>
         <v/>
       </c>
-      <c r="P115" s="4">
+      <c r="P115" s="5">
         <f>SUM(T115:Y115)</f>
         <v/>
       </c>
-      <c r="Q115" s="4">
+      <c r="Q115" s="5">
         <f>SUM(Z115:AE115)</f>
         <v/>
       </c>
@@ -20718,11 +20668,11 @@
         <f>IF(COUNT(Z116:AE116)&gt;0,Q116/COUNT(Z116:AE116),0.5)</f>
         <v/>
       </c>
-      <c r="P116" s="4">
+      <c r="P116" s="5">
         <f>SUM(T116:Y116)</f>
         <v/>
       </c>
-      <c r="Q116" s="4">
+      <c r="Q116" s="5">
         <f>SUM(Z116:AE116)</f>
         <v/>
       </c>
@@ -20889,11 +20839,11 @@
         <f>IF(COUNT(Z117:AE117)&gt;0,Q117/COUNT(Z117:AE117),0.5)</f>
         <v/>
       </c>
-      <c r="P117" s="4">
+      <c r="P117" s="5">
         <f>SUM(T117:Y117)</f>
         <v/>
       </c>
-      <c r="Q117" s="4">
+      <c r="Q117" s="5">
         <f>SUM(Z117:AE117)</f>
         <v/>
       </c>
@@ -21060,11 +21010,11 @@
         <f>IF(COUNT(Z118:AE118)&gt;0,Q118/COUNT(Z118:AE118),0.5)</f>
         <v/>
       </c>
-      <c r="P118" s="4">
+      <c r="P118" s="5">
         <f>SUM(T118:Y118)</f>
         <v/>
       </c>
-      <c r="Q118" s="4">
+      <c r="Q118" s="5">
         <f>SUM(Z118:AE118)</f>
         <v/>
       </c>
@@ -21231,11 +21181,11 @@
         <f>IF(COUNT(Z119:AE119)&gt;0,Q119/COUNT(Z119:AE119),0.5)</f>
         <v/>
       </c>
-      <c r="P119" s="4">
+      <c r="P119" s="5">
         <f>SUM(T119:Y119)</f>
         <v/>
       </c>
-      <c r="Q119" s="4">
+      <c r="Q119" s="5">
         <f>SUM(Z119:AE119)</f>
         <v/>
       </c>
@@ -21402,11 +21352,11 @@
         <f>IF(COUNT(Z120:AE120)&gt;0,Q120/COUNT(Z120:AE120),0.5)</f>
         <v/>
       </c>
-      <c r="P120" s="4">
+      <c r="P120" s="5">
         <f>SUM(T120:Y120)</f>
         <v/>
       </c>
-      <c r="Q120" s="4">
+      <c r="Q120" s="5">
         <f>SUM(Z120:AE120)</f>
         <v/>
       </c>
@@ -21748,11 +21698,11 @@
         <f>IF(COUNT(Z122:AE122)&gt;0,Q122/COUNT(Z122:AE122),0.5)</f>
         <v/>
       </c>
-      <c r="P122" s="4">
+      <c r="P122" s="5">
         <f>SUM(T122:Y122)</f>
         <v/>
       </c>
-      <c r="Q122" s="4">
+      <c r="Q122" s="5">
         <f>SUM(Z122:AE122)</f>
         <v/>
       </c>
@@ -21919,11 +21869,11 @@
         <f>IF(COUNT(Z123:AE123)&gt;0,Q123/COUNT(Z123:AE123),0.5)</f>
         <v/>
       </c>
-      <c r="P123" s="4">
+      <c r="P123" s="5">
         <f>SUM(T123:Y123)</f>
         <v/>
       </c>
-      <c r="Q123" s="4">
+      <c r="Q123" s="5">
         <f>SUM(Z123:AE123)</f>
         <v/>
       </c>
@@ -22090,11 +22040,11 @@
         <f>IF(COUNT(Z124:AE124)&gt;0,Q124/COUNT(Z124:AE124),0.5)</f>
         <v/>
       </c>
-      <c r="P124" s="4">
+      <c r="P124" s="5">
         <f>SUM(T124:Y124)</f>
         <v/>
       </c>
-      <c r="Q124" s="4">
+      <c r="Q124" s="5">
         <f>SUM(Z124:AE124)</f>
         <v/>
       </c>
@@ -22261,11 +22211,11 @@
         <f>IF(COUNT(Z125:AE125)&gt;0,Q125/COUNT(Z125:AE125),0.5)</f>
         <v/>
       </c>
-      <c r="P125" s="4">
+      <c r="P125" s="5">
         <f>SUM(T125:Y125)</f>
         <v/>
       </c>
-      <c r="Q125" s="4">
+      <c r="Q125" s="5">
         <f>SUM(Z125:AE125)</f>
         <v/>
       </c>
@@ -22432,11 +22382,11 @@
         <f>IF(COUNT(Z126:AE126)&gt;0,Q126/COUNT(Z126:AE126),0.5)</f>
         <v/>
       </c>
-      <c r="P126" s="4">
+      <c r="P126" s="5">
         <f>SUM(T126:Y126)</f>
         <v/>
       </c>
-      <c r="Q126" s="4">
+      <c r="Q126" s="5">
         <f>SUM(Z126:AE126)</f>
         <v/>
       </c>
@@ -22603,11 +22553,11 @@
         <f>IF(COUNT(Z127:AE127)&gt;0,Q127/COUNT(Z127:AE127),0.5)</f>
         <v/>
       </c>
-      <c r="P127" s="4">
+      <c r="P127" s="5">
         <f>SUM(T127:Y127)</f>
         <v/>
       </c>
-      <c r="Q127" s="4">
+      <c r="Q127" s="5">
         <f>SUM(Z127:AE127)</f>
         <v/>
       </c>
@@ -22949,11 +22899,11 @@
         <f>IF(COUNT(Z129:AE129)&gt;0,Q129/COUNT(Z129:AE129),0.5)</f>
         <v/>
       </c>
-      <c r="P129" s="4">
+      <c r="P129" s="5">
         <f>SUM(T129:Y129)</f>
         <v/>
       </c>
-      <c r="Q129" s="4">
+      <c r="Q129" s="5">
         <f>SUM(Z129:AE129)</f>
         <v/>
       </c>
@@ -23120,11 +23070,11 @@
         <f>IF(COUNT(Z130:AE130)&gt;0,Q130/COUNT(Z130:AE130),0.5)</f>
         <v/>
       </c>
-      <c r="P130" s="4">
+      <c r="P130" s="5">
         <f>SUM(T130:Y130)</f>
         <v/>
       </c>
-      <c r="Q130" s="4">
+      <c r="Q130" s="5">
         <f>SUM(Z130:AE130)</f>
         <v/>
       </c>
@@ -23291,11 +23241,11 @@
         <f>IF(COUNT(Z131:AE131)&gt;0,Q131/COUNT(Z131:AE131),0.5)</f>
         <v/>
       </c>
-      <c r="P131" s="4">
+      <c r="P131" s="5">
         <f>SUM(T131:Y131)</f>
         <v/>
       </c>
-      <c r="Q131" s="4">
+      <c r="Q131" s="5">
         <f>SUM(Z131:AE131)</f>
         <v/>
       </c>
@@ -23462,11 +23412,11 @@
         <f>IF(COUNT(Z132:AE132)&gt;0,Q132/COUNT(Z132:AE132),0.5)</f>
         <v/>
       </c>
-      <c r="P132" s="4">
+      <c r="P132" s="5">
         <f>SUM(T132:Y132)</f>
         <v/>
       </c>
-      <c r="Q132" s="4">
+      <c r="Q132" s="5">
         <f>SUM(Z132:AE132)</f>
         <v/>
       </c>
@@ -23633,11 +23583,11 @@
         <f>IF(COUNT(Z133:AE133)&gt;0,Q133/COUNT(Z133:AE133),0.5)</f>
         <v/>
       </c>
-      <c r="P133" s="4">
+      <c r="P133" s="5">
         <f>SUM(T133:Y133)</f>
         <v/>
       </c>
-      <c r="Q133" s="4">
+      <c r="Q133" s="5">
         <f>SUM(Z133:AE133)</f>
         <v/>
       </c>
@@ -23804,11 +23754,11 @@
         <f>IF(COUNT(Z134:AE134)&gt;0,Q134/COUNT(Z134:AE134),0.5)</f>
         <v/>
       </c>
-      <c r="P134" s="4">
+      <c r="P134" s="5">
         <f>SUM(T134:Y134)</f>
         <v/>
       </c>
-      <c r="Q134" s="4">
+      <c r="Q134" s="5">
         <f>SUM(Z134:AE134)</f>
         <v/>
       </c>
@@ -24150,11 +24100,11 @@
         <f>IF(COUNT(Z136:AE136)&gt;0,Q136/COUNT(Z136:AE136),0.5)</f>
         <v/>
       </c>
-      <c r="P136" s="4">
+      <c r="P136" s="5">
         <f>SUM(T136:Y136)</f>
         <v/>
       </c>
-      <c r="Q136" s="4">
+      <c r="Q136" s="5">
         <f>SUM(Z136:AE136)</f>
         <v/>
       </c>
@@ -24321,11 +24271,11 @@
         <f>IF(COUNT(Z137:AE137)&gt;0,Q137/COUNT(Z137:AE137),0.5)</f>
         <v/>
       </c>
-      <c r="P137" s="4">
+      <c r="P137" s="5">
         <f>SUM(T137:Y137)</f>
         <v/>
       </c>
-      <c r="Q137" s="4">
+      <c r="Q137" s="5">
         <f>SUM(Z137:AE137)</f>
         <v/>
       </c>
@@ -24492,11 +24442,11 @@
         <f>IF(COUNT(Z138:AE138)&gt;0,Q138/COUNT(Z138:AE138),0.5)</f>
         <v/>
       </c>
-      <c r="P138" s="4">
+      <c r="P138" s="5">
         <f>SUM(T138:Y138)</f>
         <v/>
       </c>
-      <c r="Q138" s="4">
+      <c r="Q138" s="5">
         <f>SUM(Z138:AE138)</f>
         <v/>
       </c>
@@ -24663,11 +24613,11 @@
         <f>IF(COUNT(Z139:AE139)&gt;0,Q139/COUNT(Z139:AE139),0.5)</f>
         <v/>
       </c>
-      <c r="P139" s="4">
+      <c r="P139" s="5">
         <f>SUM(T139:Y139)</f>
         <v/>
       </c>
-      <c r="Q139" s="4">
+      <c r="Q139" s="5">
         <f>SUM(Z139:AE139)</f>
         <v/>
       </c>
@@ -24834,11 +24784,11 @@
         <f>IF(COUNT(Z140:AE140)&gt;0,Q140/COUNT(Z140:AE140),0.5)</f>
         <v/>
       </c>
-      <c r="P140" s="4">
+      <c r="P140" s="5">
         <f>SUM(T140:Y140)</f>
         <v/>
       </c>
-      <c r="Q140" s="4">
+      <c r="Q140" s="5">
         <f>SUM(Z140:AE140)</f>
         <v/>
       </c>
@@ -25005,11 +24955,11 @@
         <f>IF(COUNT(Z141:AE141)&gt;0,Q141/COUNT(Z141:AE141),0.5)</f>
         <v/>
       </c>
-      <c r="P141" s="4">
+      <c r="P141" s="5">
         <f>SUM(T141:Y141)</f>
         <v/>
       </c>
-      <c r="Q141" s="4">
+      <c r="Q141" s="5">
         <f>SUM(Z141:AE141)</f>
         <v/>
       </c>
@@ -25351,11 +25301,11 @@
         <f>IF(COUNT(Z143:AE143)&gt;0,Q143/COUNT(Z143:AE143),0.5)</f>
         <v/>
       </c>
-      <c r="P143" s="4">
+      <c r="P143" s="5">
         <f>SUM(T143:Y143)</f>
         <v/>
       </c>
-      <c r="Q143" s="4">
+      <c r="Q143" s="5">
         <f>SUM(Z143:AE143)</f>
         <v/>
       </c>
@@ -25522,11 +25472,11 @@
         <f>IF(COUNT(Z144:AE144)&gt;0,Q144/COUNT(Z144:AE144),0.5)</f>
         <v/>
       </c>
-      <c r="P144" s="4">
+      <c r="P144" s="5">
         <f>SUM(T144:Y144)</f>
         <v/>
       </c>
-      <c r="Q144" s="4">
+      <c r="Q144" s="5">
         <f>SUM(Z144:AE144)</f>
         <v/>
       </c>
@@ -25693,11 +25643,11 @@
         <f>IF(COUNT(Z145:AE145)&gt;0,Q145/COUNT(Z145:AE145),0.5)</f>
         <v/>
       </c>
-      <c r="P145" s="4">
+      <c r="P145" s="5">
         <f>SUM(T145:Y145)</f>
         <v/>
       </c>
-      <c r="Q145" s="4">
+      <c r="Q145" s="5">
         <f>SUM(Z145:AE145)</f>
         <v/>
       </c>
@@ -25864,11 +25814,11 @@
         <f>IF(COUNT(Z146:AE146)&gt;0,Q146/COUNT(Z146:AE146),0.5)</f>
         <v/>
       </c>
-      <c r="P146" s="4">
+      <c r="P146" s="5">
         <f>SUM(T146:Y146)</f>
         <v/>
       </c>
-      <c r="Q146" s="4">
+      <c r="Q146" s="5">
         <f>SUM(Z146:AE146)</f>
         <v/>
       </c>
@@ -26035,11 +25985,11 @@
         <f>IF(COUNT(Z147:AE147)&gt;0,Q147/COUNT(Z147:AE147),0.5)</f>
         <v/>
       </c>
-      <c r="P147" s="4">
+      <c r="P147" s="5">
         <f>SUM(T147:Y147)</f>
         <v/>
       </c>
-      <c r="Q147" s="4">
+      <c r="Q147" s="5">
         <f>SUM(Z147:AE147)</f>
         <v/>
       </c>
@@ -26206,11 +26156,11 @@
         <f>IF(COUNT(Z148:AE148)&gt;0,Q148/COUNT(Z148:AE148),0.5)</f>
         <v/>
       </c>
-      <c r="P148" s="4">
+      <c r="P148" s="5">
         <f>SUM(T148:Y148)</f>
         <v/>
       </c>
-      <c r="Q148" s="4">
+      <c r="Q148" s="5">
         <f>SUM(Z148:AE148)</f>
         <v/>
       </c>
@@ -26552,11 +26502,11 @@
         <f>IF(COUNT(Z150:AE150)&gt;0,Q150/COUNT(Z150:AE150),0.5)</f>
         <v/>
       </c>
-      <c r="P150" s="4">
+      <c r="P150" s="5">
         <f>SUM(T150:Y150)</f>
         <v/>
       </c>
-      <c r="Q150" s="4">
+      <c r="Q150" s="5">
         <f>SUM(Z150:AE150)</f>
         <v/>
       </c>
@@ -26723,11 +26673,11 @@
         <f>IF(COUNT(Z151:AE151)&gt;0,Q151/COUNT(Z151:AE151),0.5)</f>
         <v/>
       </c>
-      <c r="P151" s="4">
+      <c r="P151" s="5">
         <f>SUM(T151:Y151)</f>
         <v/>
       </c>
-      <c r="Q151" s="4">
+      <c r="Q151" s="5">
         <f>SUM(Z151:AE151)</f>
         <v/>
       </c>
@@ -26894,11 +26844,11 @@
         <f>IF(COUNT(Z152:AE152)&gt;0,Q152/COUNT(Z152:AE152),0.5)</f>
         <v/>
       </c>
-      <c r="P152" s="4">
+      <c r="P152" s="5">
         <f>SUM(T152:Y152)</f>
         <v/>
       </c>
-      <c r="Q152" s="4">
+      <c r="Q152" s="5">
         <f>SUM(Z152:AE152)</f>
         <v/>
       </c>
@@ -27065,11 +27015,11 @@
         <f>IF(COUNT(Z153:AE153)&gt;0,Q153/COUNT(Z153:AE153),0.5)</f>
         <v/>
       </c>
-      <c r="P153" s="4">
+      <c r="P153" s="5">
         <f>SUM(T153:Y153)</f>
         <v/>
       </c>
-      <c r="Q153" s="4">
+      <c r="Q153" s="5">
         <f>SUM(Z153:AE153)</f>
         <v/>
       </c>
@@ -27236,11 +27186,11 @@
         <f>IF(COUNT(Z154:AE154)&gt;0,Q154/COUNT(Z154:AE154),0.5)</f>
         <v/>
       </c>
-      <c r="P154" s="4">
+      <c r="P154" s="5">
         <f>SUM(T154:Y154)</f>
         <v/>
       </c>
-      <c r="Q154" s="4">
+      <c r="Q154" s="5">
         <f>SUM(Z154:AE154)</f>
         <v/>
       </c>
@@ -27407,11 +27357,11 @@
         <f>IF(COUNT(Z155:AE155)&gt;0,Q155/COUNT(Z155:AE155),0.5)</f>
         <v/>
       </c>
-      <c r="P155" s="4">
+      <c r="P155" s="5">
         <f>SUM(T155:Y155)</f>
         <v/>
       </c>
-      <c r="Q155" s="4">
+      <c r="Q155" s="5">
         <f>SUM(Z155:AE155)</f>
         <v/>
       </c>
@@ -27753,11 +27703,11 @@
         <f>IF(COUNT(Z157:AE157)&gt;0,Q157/COUNT(Z157:AE157),0.5)</f>
         <v/>
       </c>
-      <c r="P157" s="4">
+      <c r="P157" s="5">
         <f>SUM(T157:Y157)</f>
         <v/>
       </c>
-      <c r="Q157" s="4">
+      <c r="Q157" s="5">
         <f>SUM(Z157:AE157)</f>
         <v/>
       </c>
@@ -27924,11 +27874,11 @@
         <f>IF(COUNT(Z158:AE158)&gt;0,Q158/COUNT(Z158:AE158),0.5)</f>
         <v/>
       </c>
-      <c r="P158" s="4">
+      <c r="P158" s="5">
         <f>SUM(T158:Y158)</f>
         <v/>
       </c>
-      <c r="Q158" s="4">
+      <c r="Q158" s="5">
         <f>SUM(Z158:AE158)</f>
         <v/>
       </c>
@@ -28095,11 +28045,11 @@
         <f>IF(COUNT(Z159:AE159)&gt;0,Q159/COUNT(Z159:AE159),0.5)</f>
         <v/>
       </c>
-      <c r="P159" s="4">
+      <c r="P159" s="5">
         <f>SUM(T159:Y159)</f>
         <v/>
       </c>
-      <c r="Q159" s="4">
+      <c r="Q159" s="5">
         <f>SUM(Z159:AE159)</f>
         <v/>
       </c>
@@ -28266,11 +28216,11 @@
         <f>IF(COUNT(Z160:AE160)&gt;0,Q160/COUNT(Z160:AE160),0.5)</f>
         <v/>
       </c>
-      <c r="P160" s="4">
+      <c r="P160" s="5">
         <f>SUM(T160:Y160)</f>
         <v/>
       </c>
-      <c r="Q160" s="4">
+      <c r="Q160" s="5">
         <f>SUM(Z160:AE160)</f>
         <v/>
       </c>
@@ -28437,11 +28387,11 @@
         <f>IF(COUNT(Z161:AE161)&gt;0,Q161/COUNT(Z161:AE161),0.5)</f>
         <v/>
       </c>
-      <c r="P161" s="4">
+      <c r="P161" s="5">
         <f>SUM(T161:Y161)</f>
         <v/>
       </c>
-      <c r="Q161" s="4">
+      <c r="Q161" s="5">
         <f>SUM(Z161:AE161)</f>
         <v/>
       </c>
@@ -28608,11 +28558,11 @@
         <f>IF(COUNT(Z162:AE162)&gt;0,Q162/COUNT(Z162:AE162),0.5)</f>
         <v/>
       </c>
-      <c r="P162" s="4">
+      <c r="P162" s="5">
         <f>SUM(T162:Y162)</f>
         <v/>
       </c>
-      <c r="Q162" s="4">
+      <c r="Q162" s="5">
         <f>SUM(Z162:AE162)</f>
         <v/>
       </c>
@@ -28954,11 +28904,11 @@
         <f>IF(COUNT(Z164:AE164)&gt;0,Q164/COUNT(Z164:AE164),0.5)</f>
         <v/>
       </c>
-      <c r="P164" s="4">
+      <c r="P164" s="5">
         <f>SUM(T164:Y164)</f>
         <v/>
       </c>
-      <c r="Q164" s="4">
+      <c r="Q164" s="5">
         <f>SUM(Z164:AE164)</f>
         <v/>
       </c>
@@ -29125,11 +29075,11 @@
         <f>IF(COUNT(Z165:AE165)&gt;0,Q165/COUNT(Z165:AE165),0.5)</f>
         <v/>
       </c>
-      <c r="P165" s="4">
+      <c r="P165" s="5">
         <f>SUM(T165:Y165)</f>
         <v/>
       </c>
-      <c r="Q165" s="4">
+      <c r="Q165" s="5">
         <f>SUM(Z165:AE165)</f>
         <v/>
       </c>
@@ -29296,11 +29246,11 @@
         <f>IF(COUNT(Z166:AE166)&gt;0,Q166/COUNT(Z166:AE166),0.5)</f>
         <v/>
       </c>
-      <c r="P166" s="4">
+      <c r="P166" s="5">
         <f>SUM(T166:Y166)</f>
         <v/>
       </c>
-      <c r="Q166" s="4">
+      <c r="Q166" s="5">
         <f>SUM(Z166:AE166)</f>
         <v/>
       </c>
@@ -29467,11 +29417,11 @@
         <f>IF(COUNT(Z167:AE167)&gt;0,Q167/COUNT(Z167:AE167),0.5)</f>
         <v/>
       </c>
-      <c r="P167" s="4">
+      <c r="P167" s="5">
         <f>SUM(T167:Y167)</f>
         <v/>
       </c>
-      <c r="Q167" s="4">
+      <c r="Q167" s="5">
         <f>SUM(Z167:AE167)</f>
         <v/>
       </c>
@@ -29638,11 +29588,11 @@
         <f>IF(COUNT(Z168:AE168)&gt;0,Q168/COUNT(Z168:AE168),0.5)</f>
         <v/>
       </c>
-      <c r="P168" s="4">
+      <c r="P168" s="5">
         <f>SUM(T168:Y168)</f>
         <v/>
       </c>
-      <c r="Q168" s="4">
+      <c r="Q168" s="5">
         <f>SUM(Z168:AE168)</f>
         <v/>
       </c>
@@ -29809,11 +29759,11 @@
         <f>IF(COUNT(Z169:AE169)&gt;0,Q169/COUNT(Z169:AE169),0.5)</f>
         <v/>
       </c>
-      <c r="P169" s="4">
+      <c r="P169" s="5">
         <f>SUM(T169:Y169)</f>
         <v/>
       </c>
-      <c r="Q169" s="4">
+      <c r="Q169" s="5">
         <f>SUM(Z169:AE169)</f>
         <v/>
       </c>
@@ -30155,11 +30105,11 @@
         <f>IF(COUNT(Z171:AE171)&gt;0,Q171/COUNT(Z171:AE171),0.5)</f>
         <v/>
       </c>
-      <c r="P171" s="4">
+      <c r="P171" s="5">
         <f>SUM(T171:Y171)</f>
         <v/>
       </c>
-      <c r="Q171" s="4">
+      <c r="Q171" s="5">
         <f>SUM(Z171:AE171)</f>
         <v/>
       </c>
@@ -30326,11 +30276,11 @@
         <f>IF(COUNT(Z172:AE172)&gt;0,Q172/COUNT(Z172:AE172),0.5)</f>
         <v/>
       </c>
-      <c r="P172" s="4">
+      <c r="P172" s="5">
         <f>SUM(T172:Y172)</f>
         <v/>
       </c>
-      <c r="Q172" s="4">
+      <c r="Q172" s="5">
         <f>SUM(Z172:AE172)</f>
         <v/>
       </c>
@@ -30497,11 +30447,11 @@
         <f>IF(COUNT(Z173:AE173)&gt;0,Q173/COUNT(Z173:AE173),0.5)</f>
         <v/>
       </c>
-      <c r="P173" s="4">
+      <c r="P173" s="5">
         <f>SUM(T173:Y173)</f>
         <v/>
       </c>
-      <c r="Q173" s="4">
+      <c r="Q173" s="5">
         <f>SUM(Z173:AE173)</f>
         <v/>
       </c>
@@ -30668,11 +30618,11 @@
         <f>IF(COUNT(Z174:AE174)&gt;0,Q174/COUNT(Z174:AE174),0.5)</f>
         <v/>
       </c>
-      <c r="P174" s="4">
+      <c r="P174" s="5">
         <f>SUM(T174:Y174)</f>
         <v/>
       </c>
-      <c r="Q174" s="4">
+      <c r="Q174" s="5">
         <f>SUM(Z174:AE174)</f>
         <v/>
       </c>
@@ -30839,11 +30789,11 @@
         <f>IF(COUNT(Z175:AE175)&gt;0,Q175/COUNT(Z175:AE175),0.5)</f>
         <v/>
       </c>
-      <c r="P175" s="4">
+      <c r="P175" s="5">
         <f>SUM(T175:Y175)</f>
         <v/>
       </c>
-      <c r="Q175" s="4">
+      <c r="Q175" s="5">
         <f>SUM(Z175:AE175)</f>
         <v/>
       </c>
@@ -31010,11 +30960,11 @@
         <f>IF(COUNT(Z176:AE176)&gt;0,Q176/COUNT(Z176:AE176),0.5)</f>
         <v/>
       </c>
-      <c r="P176" s="4">
+      <c r="P176" s="5">
         <f>SUM(T176:Y176)</f>
         <v/>
       </c>
-      <c r="Q176" s="4">
+      <c r="Q176" s="5">
         <f>SUM(Z176:AE176)</f>
         <v/>
       </c>
@@ -31356,11 +31306,11 @@
         <f>IF(COUNT(Z178:AE178)&gt;0,Q178/COUNT(Z178:AE178),0.5)</f>
         <v/>
       </c>
-      <c r="P178" s="4">
+      <c r="P178" s="5">
         <f>SUM(T178:Y178)</f>
         <v/>
       </c>
-      <c r="Q178" s="4">
+      <c r="Q178" s="5">
         <f>SUM(Z178:AE178)</f>
         <v/>
       </c>
@@ -31527,11 +31477,11 @@
         <f>IF(COUNT(Z179:AE179)&gt;0,Q179/COUNT(Z179:AE179),0.5)</f>
         <v/>
       </c>
-      <c r="P179" s="4">
+      <c r="P179" s="5">
         <f>SUM(T179:Y179)</f>
         <v/>
       </c>
-      <c r="Q179" s="4">
+      <c r="Q179" s="5">
         <f>SUM(Z179:AE179)</f>
         <v/>
       </c>
@@ -31698,11 +31648,11 @@
         <f>IF(COUNT(Z180:AE180)&gt;0,Q180/COUNT(Z180:AE180),0.5)</f>
         <v/>
       </c>
-      <c r="P180" s="4">
+      <c r="P180" s="5">
         <f>SUM(T180:Y180)</f>
         <v/>
       </c>
-      <c r="Q180" s="4">
+      <c r="Q180" s="5">
         <f>SUM(Z180:AE180)</f>
         <v/>
       </c>
@@ -31869,11 +31819,11 @@
         <f>IF(COUNT(Z181:AE181)&gt;0,Q181/COUNT(Z181:AE181),0.5)</f>
         <v/>
       </c>
-      <c r="P181" s="4">
+      <c r="P181" s="5">
         <f>SUM(T181:Y181)</f>
         <v/>
       </c>
-      <c r="Q181" s="4">
+      <c r="Q181" s="5">
         <f>SUM(Z181:AE181)</f>
         <v/>
       </c>
@@ -32040,11 +31990,11 @@
         <f>IF(COUNT(Z182:AE182)&gt;0,Q182/COUNT(Z182:AE182),0.5)</f>
         <v/>
       </c>
-      <c r="P182" s="4">
+      <c r="P182" s="5">
         <f>SUM(T182:Y182)</f>
         <v/>
       </c>
-      <c r="Q182" s="4">
+      <c r="Q182" s="5">
         <f>SUM(Z182:AE182)</f>
         <v/>
       </c>
@@ -32211,11 +32161,11 @@
         <f>IF(COUNT(Z183:AE183)&gt;0,Q183/COUNT(Z183:AE183),0.5)</f>
         <v/>
       </c>
-      <c r="P183" s="4">
+      <c r="P183" s="5">
         <f>SUM(T183:Y183)</f>
         <v/>
       </c>
-      <c r="Q183" s="4">
+      <c r="Q183" s="5">
         <f>SUM(Z183:AE183)</f>
         <v/>
       </c>
@@ -32514,7 +32464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32532,64 +32482,64 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Scores</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -36022,232 +35972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="22" t="inlineStr">
-        <is>
-          <t>Board #</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>By</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="24" t="n"/>
-      <c r="D4" s="24" t="n"/>
-      <c r="E4" s="24" t="n"/>
-      <c r="F4" s="24" t="n"/>
-      <c r="G4" s="24" t="n"/>
-      <c r="H4" s="24" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24" t="n"/>
-      <c r="C5" s="24" t="n"/>
-      <c r="D5" s="24" t="n"/>
-      <c r="E5" s="24" t="n"/>
-      <c r="F5" s="24" t="n"/>
-      <c r="G5" s="24" t="n"/>
-      <c r="H5" s="24" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="24" t="n"/>
-      <c r="C6" s="24" t="n"/>
-      <c r="D6" s="24" t="n"/>
-      <c r="E6" s="24" t="n"/>
-      <c r="F6" s="24" t="n"/>
-      <c r="G6" s="24" t="n"/>
-      <c r="H6" s="24" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24" t="n"/>
-      <c r="C7" s="24" t="n"/>
-      <c r="D7" s="24" t="n"/>
-      <c r="E7" s="24" t="n"/>
-      <c r="F7" s="24" t="n"/>
-      <c r="G7" s="24" t="n"/>
-      <c r="H7" s="24" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="24" t="n"/>
-      <c r="C8" s="24" t="n"/>
-      <c r="D8" s="24" t="n"/>
-      <c r="E8" s="24" t="n"/>
-      <c r="F8" s="24" t="n"/>
-      <c r="G8" s="24" t="n"/>
-      <c r="H8" s="24" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="24" t="n"/>
-      <c r="C9" s="24" t="n"/>
-      <c r="D9" s="24" t="n"/>
-      <c r="E9" s="24" t="n"/>
-      <c r="F9" s="24" t="n"/>
-      <c r="G9" s="24" t="n"/>
-      <c r="H9" s="24" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="23" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24" t="n"/>
-      <c r="C10" s="24" t="n"/>
-      <c r="D10" s="24" t="n"/>
-      <c r="E10" s="24" t="n"/>
-      <c r="F10" s="24" t="n"/>
-      <c r="G10" s="24" t="n"/>
-      <c r="H10" s="24" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="24" t="n"/>
-      <c r="C11" s="24" t="n"/>
-      <c r="D11" s="24" t="n"/>
-      <c r="E11" s="24" t="n"/>
-      <c r="F11" s="24" t="n"/>
-      <c r="G11" s="24" t="n"/>
-      <c r="H11" s="24" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="23" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" s="24" t="n"/>
-      <c r="C12" s="24" t="n"/>
-      <c r="D12" s="24" t="n"/>
-      <c r="E12" s="24" t="n"/>
-      <c r="F12" s="24" t="n"/>
-      <c r="G12" s="24" t="n"/>
-      <c r="H12" s="24" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" s="24" t="n"/>
-      <c r="C13" s="24" t="n"/>
-      <c r="D13" s="24" t="n"/>
-      <c r="E13" s="24" t="n"/>
-      <c r="F13" s="24" t="n"/>
-      <c r="G13" s="24" t="n"/>
-      <c r="H13" s="24" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="23" t="n">
-        <v>11</v>
-      </c>
-      <c r="B14" s="24" t="n"/>
-      <c r="C14" s="24" t="n"/>
-      <c r="D14" s="24" t="n"/>
-      <c r="E14" s="24" t="n"/>
-      <c r="F14" s="24" t="n"/>
-      <c r="G14" s="24" t="n"/>
-      <c r="H14" s="24" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="23" t="n">
-        <v>12</v>
-      </c>
-      <c r="B15" s="24" t="n"/>
-      <c r="C15" s="24" t="n"/>
-      <c r="D15" s="24" t="n"/>
-      <c r="E15" s="24" t="n"/>
-      <c r="F15" s="24" t="n"/>
-      <c r="G15" s="24" t="n"/>
-      <c r="H15" s="24" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36262,17 +35987,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>From</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>IMP</t>
         </is>
@@ -36558,7 +36283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36576,90 +36301,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Not Vulnerable</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Vulnerable</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Not Vulnerable</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Vulnerable</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Made</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr"/>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>Down by</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr"/>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr"/>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>1 D/C</t>
         </is>
@@ -36667,22 +36392,22 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="n">
+      <c r="C3" s="22" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="E3" s="25" t="n">
+      <c r="E3" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="F3" s="25" t="n">
+      <c r="F3" s="22" t="n">
         <v>70</v>
       </c>
-      <c r="G3" s="25" t="n">
+      <c r="G3" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="H3" s="25" t="n">
+      <c r="H3" s="22" t="n">
         <v>230</v>
       </c>
       <c r="J3" t="n">
@@ -36713,22 +36438,22 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="F4" s="25" t="n">
+      <c r="F4" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G4" s="25" t="n">
+      <c r="G4" s="22" t="n">
         <v>340</v>
       </c>
-      <c r="H4" s="25" t="n">
+      <c r="H4" s="22" t="n">
         <v>630</v>
       </c>
       <c r="J4" t="n">
@@ -36763,22 +36488,22 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D5" s="25" t="n">
+      <c r="D5" s="22" t="n">
         <v>340</v>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="F5" s="25" t="n">
+      <c r="F5" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G5" s="25" t="n">
+      <c r="G5" s="22" t="n">
         <v>540</v>
       </c>
-      <c r="H5" s="25" t="n">
+      <c r="H5" s="22" t="n">
         <v>1030</v>
       </c>
       <c r="J5" t="n">
@@ -36813,22 +36538,22 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="22" t="n">
         <v>440</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="22" t="n">
         <v>830</v>
       </c>
-      <c r="F6" s="25" t="n">
+      <c r="F6" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G6" s="25" t="n">
+      <c r="G6" s="22" t="n">
         <v>740</v>
       </c>
-      <c r="H6" s="25" t="n">
+      <c r="H6" s="22" t="n">
         <v>1430</v>
       </c>
       <c r="J6" t="n">
@@ -36863,22 +36588,22 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="25" t="n">
+      <c r="C7" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="22" t="n">
         <v>540</v>
       </c>
-      <c r="E7" s="25" t="n">
+      <c r="E7" s="22" t="n">
         <v>1030</v>
       </c>
-      <c r="F7" s="25" t="n">
+      <c r="F7" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G7" s="25" t="n">
+      <c r="G7" s="22" t="n">
         <v>940</v>
       </c>
-      <c r="H7" s="25" t="n">
+      <c r="H7" s="22" t="n">
         <v>1830</v>
       </c>
       <c r="J7" t="n">
@@ -36913,22 +36638,22 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="22" t="n">
         <v>1230</v>
       </c>
-      <c r="F8" s="25" t="n">
+      <c r="F8" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="22" t="n">
         <v>1140</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="22" t="n">
         <v>2230</v>
       </c>
       <c r="J8" t="n">
@@ -36963,22 +36688,22 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="25" t="n">
+      <c r="C9" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D9" s="25" t="n">
+      <c r="D9" s="22" t="n">
         <v>740</v>
       </c>
-      <c r="E9" s="25" t="n">
+      <c r="E9" s="22" t="n">
         <v>1430</v>
       </c>
-      <c r="F9" s="25" t="n">
+      <c r="F9" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G9" s="25" t="n">
+      <c r="G9" s="22" t="n">
         <v>1340</v>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="22" t="n">
         <v>2630</v>
       </c>
       <c r="J9" t="n">
@@ -37010,7 +36735,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>1 H/S</t>
         </is>
@@ -37018,22 +36743,22 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="22" t="n">
         <v>160</v>
       </c>
-      <c r="E10" s="25" t="n">
+      <c r="E10" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="F10" s="25" t="n">
+      <c r="F10" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="G10" s="25" t="n">
+      <c r="G10" s="22" t="n">
         <v>160</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="22" t="n">
         <v>720</v>
       </c>
       <c r="J10" t="n">
@@ -37068,22 +36793,22 @@
       <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="25" t="n">
+      <c r="C11" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="E11" s="25" t="n">
+      <c r="E11" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="F11" s="25" t="n">
+      <c r="F11" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G11" s="25" t="n">
+      <c r="G11" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="22" t="n">
         <v>1120</v>
       </c>
       <c r="J11" t="n">
@@ -37118,22 +36843,22 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="25" t="n">
+      <c r="C12" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D12" s="25" t="n">
+      <c r="D12" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="E12" s="25" t="n">
+      <c r="E12" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F12" s="25" t="n">
+      <c r="F12" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G12" s="25" t="n">
+      <c r="G12" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="H12" s="22" t="n">
         <v>1520</v>
       </c>
       <c r="J12" t="n">
@@ -37168,22 +36893,22 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="25" t="n">
+      <c r="C13" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="E13" s="25" t="n">
+      <c r="E13" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F13" s="25" t="n">
+      <c r="F13" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G13" s="25" t="n">
+      <c r="G13" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="22" t="n">
         <v>1920</v>
       </c>
       <c r="J13" t="n">
@@ -37218,22 +36943,22 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="E14" s="25" t="n">
+      <c r="E14" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F14" s="25" t="n">
+      <c r="F14" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="22" t="n">
         <v>2320</v>
       </c>
       <c r="J14" t="n">
@@ -37268,22 +36993,22 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="25" t="n">
+      <c r="C15" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="E15" s="25" t="n">
+      <c r="E15" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="F15" s="25" t="n">
+      <c r="F15" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G15" s="25" t="n">
+      <c r="G15" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="H15" s="22" t="n">
         <v>2720</v>
       </c>
       <c r="J15" t="n">
@@ -37318,27 +37043,27 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="25" t="n">
+      <c r="C16" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D16" s="25" t="n">
+      <c r="D16" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="E16" s="25" t="n">
+      <c r="E16" s="22" t="n">
         <v>1720</v>
       </c>
-      <c r="F16" s="25" t="n">
+      <c r="F16" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G16" s="25" t="n">
+      <c r="G16" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="H16" s="25" t="n">
+      <c r="H16" s="22" t="n">
         <v>3120</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>1 NT</t>
         </is>
@@ -37346,22 +37071,22 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="25" t="n">
+      <c r="C17" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D17" s="25" t="n">
+      <c r="D17" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="E17" s="25" t="n">
+      <c r="E17" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="F17" s="25" t="n">
+      <c r="F17" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G17" s="25" t="n">
+      <c r="G17" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="H17" s="25" t="n">
+      <c r="H17" s="22" t="n">
         <v>760</v>
       </c>
     </row>
@@ -37369,22 +37094,22 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="25" t="n">
+      <c r="C18" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="D18" s="25" t="n">
+      <c r="D18" s="22" t="n">
         <v>280</v>
       </c>
-      <c r="E18" s="25" t="n">
+      <c r="E18" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F18" s="25" t="n">
+      <c r="F18" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="G18" s="25" t="n">
+      <c r="G18" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="H18" s="25" t="n">
+      <c r="H18" s="22" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -37392,22 +37117,22 @@
       <c r="B19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="25" t="n">
+      <c r="C19" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D19" s="25" t="n">
+      <c r="D19" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="E19" s="25" t="n">
+      <c r="E19" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F19" s="25" t="n">
+      <c r="F19" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G19" s="25" t="n">
+      <c r="G19" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="H19" s="25" t="n">
+      <c r="H19" s="22" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -37415,22 +37140,22 @@
       <c r="B20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="25" t="n">
+      <c r="C20" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="D20" s="25" t="n">
+      <c r="D20" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="E20" s="25" t="n">
+      <c r="E20" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F20" s="25" t="n">
+      <c r="F20" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="G20" s="25" t="n">
+      <c r="G20" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="25" t="n">
+      <c r="H20" s="22" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -37438,22 +37163,22 @@
       <c r="B21" t="n">
         <v>5</v>
       </c>
-      <c r="C21" s="25" t="n">
+      <c r="C21" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="D21" s="25" t="n">
+      <c r="D21" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="E21" s="25" t="n">
+      <c r="E21" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F21" s="25" t="n">
+      <c r="F21" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="G21" s="25" t="n">
+      <c r="G21" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="H21" s="25" t="n">
+      <c r="H21" s="22" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -37461,22 +37186,22 @@
       <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="D22" s="25" t="n">
+      <c r="D22" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="E22" s="25" t="n">
+      <c r="E22" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F22" s="25" t="n">
+      <c r="F22" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="G22" s="25" t="n">
+      <c r="G22" s="22" t="n">
         <v>1180</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="22" t="n">
         <v>2760</v>
       </c>
     </row>
@@ -37484,27 +37209,27 @@
       <c r="B23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" s="25" t="n">
+      <c r="C23" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="D23" s="25" t="n">
+      <c r="D23" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="E23" s="25" t="n">
+      <c r="E23" s="22" t="n">
         <v>1760</v>
       </c>
-      <c r="F23" s="25" t="n">
+      <c r="F23" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="G23" s="25" t="n">
+      <c r="G23" s="22" t="n">
         <v>1380</v>
       </c>
-      <c r="H23" s="25" t="n">
+      <c r="H23" s="22" t="n">
         <v>3160</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>2 D/C</t>
         </is>
@@ -37512,22 +37237,22 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="25" t="n">
+      <c r="C24" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D24" s="25" t="n">
+      <c r="D24" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="E24" s="25" t="n">
+      <c r="E24" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="F24" s="25" t="n">
+      <c r="F24" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G24" s="25" t="n">
+      <c r="G24" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="H24" s="25" t="n">
+      <c r="H24" s="22" t="n">
         <v>760</v>
       </c>
     </row>
@@ -37535,22 +37260,22 @@
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="25" t="n">
+      <c r="C25" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D25" s="25" t="n">
+      <c r="D25" s="22" t="n">
         <v>280</v>
       </c>
-      <c r="E25" s="25" t="n">
+      <c r="E25" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F25" s="25" t="n">
+      <c r="F25" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G25" s="25" t="n">
+      <c r="G25" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="H25" s="25" t="n">
+      <c r="H25" s="22" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -37558,22 +37283,22 @@
       <c r="B26" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="25" t="n">
+      <c r="C26" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D26" s="25" t="n">
+      <c r="D26" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="E26" s="25" t="n">
+      <c r="E26" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F26" s="25" t="n">
+      <c r="F26" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G26" s="25" t="n">
+      <c r="G26" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="H26" s="25" t="n">
+      <c r="H26" s="22" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -37581,22 +37306,22 @@
       <c r="B27" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="25" t="n">
+      <c r="C27" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D27" s="25" t="n">
+      <c r="D27" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="E27" s="25" t="n">
+      <c r="E27" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F27" s="25" t="n">
+      <c r="F27" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G27" s="25" t="n">
+      <c r="G27" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="H27" s="25" t="n">
+      <c r="H27" s="22" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -37604,22 +37329,22 @@
       <c r="B28" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="25" t="n">
+      <c r="C28" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D28" s="25" t="n">
+      <c r="D28" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="E28" s="25" t="n">
+      <c r="E28" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F28" s="25" t="n">
+      <c r="F28" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G28" s="25" t="n">
+      <c r="G28" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="H28" s="25" t="n">
+      <c r="H28" s="22" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -37627,27 +37352,27 @@
       <c r="B29" t="n">
         <v>6</v>
       </c>
-      <c r="C29" s="25" t="n">
+      <c r="C29" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D29" s="25" t="n">
+      <c r="D29" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="E29" s="25" t="n">
+      <c r="E29" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F29" s="25" t="n">
+      <c r="F29" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G29" s="25" t="n">
+      <c r="G29" s="22" t="n">
         <v>1180</v>
       </c>
-      <c r="H29" s="25" t="n">
+      <c r="H29" s="22" t="n">
         <v>2760</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>2 H/S</t>
         </is>
@@ -37655,22 +37380,22 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="25" t="n">
+      <c r="C30" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D30" s="25" t="n">
+      <c r="D30" s="22" t="n">
         <v>470</v>
       </c>
-      <c r="E30" s="25" t="n">
+      <c r="E30" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="F30" s="25" t="n">
+      <c r="F30" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G30" s="25" t="n">
+      <c r="G30" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="H30" s="25" t="n">
+      <c r="H30" s="22" t="n">
         <v>840</v>
       </c>
     </row>
@@ -37678,22 +37403,22 @@
       <c r="B31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="25" t="n">
+      <c r="C31" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D31" s="25" t="n">
+      <c r="D31" s="22" t="n">
         <v>570</v>
       </c>
-      <c r="E31" s="25" t="n">
+      <c r="E31" s="22" t="n">
         <v>840</v>
       </c>
-      <c r="F31" s="25" t="n">
+      <c r="F31" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G31" s="25" t="n">
+      <c r="G31" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H31" s="25" t="n">
+      <c r="H31" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -37701,22 +37426,22 @@
       <c r="B32" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="25" t="n">
+      <c r="C32" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D32" s="25" t="n">
+      <c r="D32" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E32" s="25" t="n">
+      <c r="E32" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F32" s="25" t="n">
+      <c r="F32" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G32" s="25" t="n">
+      <c r="G32" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H32" s="25" t="n">
+      <c r="H32" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -37724,22 +37449,22 @@
       <c r="B33" t="n">
         <v>4</v>
       </c>
-      <c r="C33" s="25" t="n">
+      <c r="C33" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D33" s="25" t="n">
+      <c r="D33" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E33" s="25" t="n">
+      <c r="E33" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F33" s="25" t="n">
+      <c r="F33" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G33" s="25" t="n">
+      <c r="G33" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H33" s="25" t="n">
+      <c r="H33" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -37747,22 +37472,22 @@
       <c r="B34" t="n">
         <v>5</v>
       </c>
-      <c r="C34" s="25" t="n">
+      <c r="C34" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D34" s="25" t="n">
+      <c r="D34" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E34" s="25" t="n">
+      <c r="E34" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F34" s="25" t="n">
+      <c r="F34" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G34" s="25" t="n">
+      <c r="G34" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="H34" s="25" t="n">
+      <c r="H34" s="22" t="n">
         <v>2440</v>
       </c>
     </row>
@@ -37770,27 +37495,27 @@
       <c r="B35" t="n">
         <v>6</v>
       </c>
-      <c r="C35" s="25" t="n">
+      <c r="C35" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D35" s="25" t="n">
+      <c r="D35" s="22" t="n">
         <v>970</v>
       </c>
-      <c r="E35" s="25" t="n">
+      <c r="E35" s="22" t="n">
         <v>1640</v>
       </c>
-      <c r="F35" s="25" t="n">
+      <c r="F35" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G35" s="25" t="n">
+      <c r="G35" s="22" t="n">
         <v>1670</v>
       </c>
-      <c r="H35" s="25" t="n">
+      <c r="H35" s="22" t="n">
         <v>2840</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>2 NT</t>
         </is>
@@ -37798,22 +37523,22 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="25" t="n">
+      <c r="C36" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="D36" s="25" t="n">
+      <c r="D36" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="E36" s="25" t="n">
+      <c r="E36" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="F36" s="25" t="n">
+      <c r="F36" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="G36" s="25" t="n">
+      <c r="G36" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="H36" s="25" t="n">
+      <c r="H36" s="22" t="n">
         <v>880</v>
       </c>
     </row>
@@ -37821,22 +37546,22 @@
       <c r="B37" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="25" t="n">
+      <c r="C37" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D37" s="25" t="n">
+      <c r="D37" s="22" t="n">
         <v>590</v>
       </c>
-      <c r="E37" s="25" t="n">
+      <c r="E37" s="22" t="n">
         <v>880</v>
       </c>
-      <c r="F37" s="25" t="n">
+      <c r="F37" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G37" s="25" t="n">
+      <c r="G37" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="H37" s="25" t="n">
+      <c r="H37" s="22" t="n">
         <v>1280</v>
       </c>
     </row>
@@ -37844,22 +37569,22 @@
       <c r="B38" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="25" t="n">
+      <c r="C38" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="D38" s="25" t="n">
+      <c r="D38" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="E38" s="25" t="n">
+      <c r="E38" s="22" t="n">
         <v>1080</v>
       </c>
-      <c r="F38" s="25" t="n">
+      <c r="F38" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="G38" s="25" t="n">
+      <c r="G38" s="22" t="n">
         <v>1090</v>
       </c>
-      <c r="H38" s="25" t="n">
+      <c r="H38" s="22" t="n">
         <v>1680</v>
       </c>
     </row>
@@ -37867,22 +37592,22 @@
       <c r="B39" t="n">
         <v>4</v>
       </c>
-      <c r="C39" s="25" t="n">
+      <c r="C39" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="D39" s="25" t="n">
+      <c r="D39" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="E39" s="25" t="n">
+      <c r="E39" s="22" t="n">
         <v>1280</v>
       </c>
-      <c r="F39" s="25" t="n">
+      <c r="F39" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="G39" s="25" t="n">
+      <c r="G39" s="22" t="n">
         <v>1290</v>
       </c>
-      <c r="H39" s="25" t="n">
+      <c r="H39" s="22" t="n">
         <v>2080</v>
       </c>
     </row>
@@ -37890,22 +37615,22 @@
       <c r="B40" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="25" t="n">
+      <c r="C40" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="D40" s="25" t="n">
+      <c r="D40" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="E40" s="25" t="n">
+      <c r="E40" s="22" t="n">
         <v>1480</v>
       </c>
-      <c r="F40" s="25" t="n">
+      <c r="F40" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="G40" s="25" t="n">
+      <c r="G40" s="22" t="n">
         <v>1490</v>
       </c>
-      <c r="H40" s="25" t="n">
+      <c r="H40" s="22" t="n">
         <v>2480</v>
       </c>
     </row>
@@ -37913,27 +37638,27 @@
       <c r="B41" t="n">
         <v>6</v>
       </c>
-      <c r="C41" s="25" t="n">
+      <c r="C41" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="D41" s="25" t="n">
+      <c r="D41" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="E41" s="25" t="n">
+      <c r="E41" s="22" t="n">
         <v>1680</v>
       </c>
-      <c r="F41" s="25" t="n">
+      <c r="F41" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="G41" s="25" t="n">
+      <c r="G41" s="22" t="n">
         <v>1690</v>
       </c>
-      <c r="H41" s="25" t="n">
+      <c r="H41" s="22" t="n">
         <v>2880</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>3 D/C</t>
         </is>
@@ -37941,22 +37666,22 @@
       <c r="B42" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="25" t="n">
+      <c r="C42" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D42" s="25" t="n">
+      <c r="D42" s="22" t="n">
         <v>470</v>
       </c>
-      <c r="E42" s="25" t="n">
+      <c r="E42" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="F42" s="25" t="n">
+      <c r="F42" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G42" s="25" t="n">
+      <c r="G42" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="H42" s="25" t="n">
+      <c r="H42" s="22" t="n">
         <v>840</v>
       </c>
     </row>
@@ -37964,22 +37689,22 @@
       <c r="B43" t="n">
         <v>2</v>
       </c>
-      <c r="C43" s="25" t="n">
+      <c r="C43" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D43" s="25" t="n">
+      <c r="D43" s="22" t="n">
         <v>570</v>
       </c>
-      <c r="E43" s="25" t="n">
+      <c r="E43" s="22" t="n">
         <v>840</v>
       </c>
-      <c r="F43" s="25" t="n">
+      <c r="F43" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G43" s="25" t="n">
+      <c r="G43" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H43" s="25" t="n">
+      <c r="H43" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -37987,22 +37712,22 @@
       <c r="B44" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="25" t="n">
+      <c r="C44" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D44" s="25" t="n">
+      <c r="D44" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E44" s="25" t="n">
+      <c r="E44" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F44" s="25" t="n">
+      <c r="F44" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G44" s="25" t="n">
+      <c r="G44" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H44" s="25" t="n">
+      <c r="H44" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -38010,22 +37735,22 @@
       <c r="B45" t="n">
         <v>4</v>
       </c>
-      <c r="C45" s="25" t="n">
+      <c r="C45" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D45" s="25" t="n">
+      <c r="D45" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E45" s="25" t="n">
+      <c r="E45" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F45" s="25" t="n">
+      <c r="F45" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G45" s="25" t="n">
+      <c r="G45" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H45" s="25" t="n">
+      <c r="H45" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -38033,27 +37758,27 @@
       <c r="B46" t="n">
         <v>5</v>
       </c>
-      <c r="C46" s="25" t="n">
+      <c r="C46" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D46" s="25" t="n">
+      <c r="D46" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E46" s="25" t="n">
+      <c r="E46" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F46" s="25" t="n">
+      <c r="F46" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G46" s="25" t="n">
+      <c r="G46" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="H46" s="25" t="n">
+      <c r="H46" s="22" t="n">
         <v>2440</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>3 H/S</t>
         </is>
@@ -38061,22 +37786,22 @@
       <c r="B47" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="25" t="n">
+      <c r="C47" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D47" s="25" t="n">
+      <c r="D47" s="22" t="n">
         <v>530</v>
       </c>
-      <c r="E47" s="25" t="n">
+      <c r="E47" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F47" s="25" t="n">
+      <c r="F47" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G47" s="25" t="n">
+      <c r="G47" s="22" t="n">
         <v>730</v>
       </c>
-      <c r="H47" s="25" t="n">
+      <c r="H47" s="22" t="n">
         <v>960</v>
       </c>
     </row>
@@ -38084,22 +37809,22 @@
       <c r="B48" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="25" t="n">
+      <c r="C48" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D48" s="25" t="n">
+      <c r="D48" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="E48" s="25" t="n">
+      <c r="E48" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F48" s="25" t="n">
+      <c r="F48" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G48" s="25" t="n">
+      <c r="G48" s="22" t="n">
         <v>930</v>
       </c>
-      <c r="H48" s="25" t="n">
+      <c r="H48" s="22" t="n">
         <v>1360</v>
       </c>
     </row>
@@ -38107,22 +37832,22 @@
       <c r="B49" t="n">
         <v>3</v>
       </c>
-      <c r="C49" s="25" t="n">
+      <c r="C49" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D49" s="25" t="n">
+      <c r="D49" s="22" t="n">
         <v>730</v>
       </c>
-      <c r="E49" s="25" t="n">
+      <c r="E49" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F49" s="25" t="n">
+      <c r="F49" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G49" s="25" t="n">
+      <c r="G49" s="22" t="n">
         <v>1130</v>
       </c>
-      <c r="H49" s="25" t="n">
+      <c r="H49" s="22" t="n">
         <v>1760</v>
       </c>
     </row>
@@ -38130,22 +37855,22 @@
       <c r="B50" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="25" t="n">
+      <c r="C50" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D50" s="25" t="n">
+      <c r="D50" s="22" t="n">
         <v>830</v>
       </c>
-      <c r="E50" s="25" t="n">
+      <c r="E50" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F50" s="25" t="n">
+      <c r="F50" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G50" s="25" t="n">
+      <c r="G50" s="22" t="n">
         <v>1330</v>
       </c>
-      <c r="H50" s="25" t="n">
+      <c r="H50" s="22" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -38153,27 +37878,27 @@
       <c r="B51" t="n">
         <v>5</v>
       </c>
-      <c r="C51" s="25" t="n">
+      <c r="C51" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D51" s="25" t="n">
+      <c r="D51" s="22" t="n">
         <v>930</v>
       </c>
-      <c r="E51" s="25" t="n">
+      <c r="E51" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F51" s="25" t="n">
+      <c r="F51" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G51" s="25" t="n">
+      <c r="G51" s="22" t="n">
         <v>1530</v>
       </c>
-      <c r="H51" s="25" t="n">
+      <c r="H51" s="22" t="n">
         <v>2560</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>3 NT</t>
         </is>
@@ -38181,22 +37906,22 @@
       <c r="B52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="25" t="n">
+      <c r="C52" s="22" t="n">
         <v>400</v>
       </c>
-      <c r="D52" s="25" t="n">
+      <c r="D52" s="22" t="n">
         <v>550</v>
       </c>
-      <c r="E52" s="25" t="n">
+      <c r="E52" s="22" t="n">
         <v>800</v>
       </c>
-      <c r="F52" s="25" t="n">
+      <c r="F52" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="G52" s="25" t="n">
+      <c r="G52" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="H52" s="25" t="n">
+      <c r="H52" s="22" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -38204,22 +37929,22 @@
       <c r="B53" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="25" t="n">
+      <c r="C53" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="D53" s="25" t="n">
+      <c r="D53" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E53" s="25" t="n">
+      <c r="E53" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F53" s="25" t="n">
+      <c r="F53" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="G53" s="25" t="n">
+      <c r="G53" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="H53" s="25" t="n">
+      <c r="H53" s="22" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -38227,22 +37952,22 @@
       <c r="B54" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="25" t="n">
+      <c r="C54" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D54" s="25" t="n">
+      <c r="D54" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E54" s="25" t="n">
+      <c r="E54" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F54" s="25" t="n">
+      <c r="F54" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G54" s="25" t="n">
+      <c r="G54" s="22" t="n">
         <v>1150</v>
       </c>
-      <c r="H54" s="25" t="n">
+      <c r="H54" s="22" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -38250,22 +37975,22 @@
       <c r="B55" t="n">
         <v>4</v>
       </c>
-      <c r="C55" s="25" t="n">
+      <c r="C55" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D55" s="25" t="n">
+      <c r="D55" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="E55" s="25" t="n">
+      <c r="E55" s="22" t="n">
         <v>1400</v>
       </c>
-      <c r="F55" s="25" t="n">
+      <c r="F55" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G55" s="25" t="n">
+      <c r="G55" s="22" t="n">
         <v>1350</v>
       </c>
-      <c r="H55" s="25" t="n">
+      <c r="H55" s="22" t="n">
         <v>2200</v>
       </c>
     </row>
@@ -38273,27 +37998,27 @@
       <c r="B56" t="n">
         <v>5</v>
       </c>
-      <c r="C56" s="25" t="n">
+      <c r="C56" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D56" s="25" t="n">
+      <c r="D56" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="E56" s="25" t="n">
+      <c r="E56" s="22" t="n">
         <v>1600</v>
       </c>
-      <c r="F56" s="25" t="n">
+      <c r="F56" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G56" s="25" t="n">
+      <c r="G56" s="22" t="n">
         <v>1550</v>
       </c>
-      <c r="H56" s="25" t="n">
+      <c r="H56" s="22" t="n">
         <v>2600</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>4 D/C</t>
         </is>
@@ -38301,22 +38026,22 @@
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" s="25" t="n">
+      <c r="C57" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D57" s="25" t="n">
+      <c r="D57" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="E57" s="25" t="n">
+      <c r="E57" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="F57" s="25" t="n">
+      <c r="F57" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G57" s="25" t="n">
+      <c r="G57" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="H57" s="25" t="n">
+      <c r="H57" s="22" t="n">
         <v>920</v>
       </c>
     </row>
@@ -38324,22 +38049,22 @@
       <c r="B58" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="25" t="n">
+      <c r="C58" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D58" s="25" t="n">
+      <c r="D58" s="22" t="n">
         <v>610</v>
       </c>
-      <c r="E58" s="25" t="n">
+      <c r="E58" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F58" s="25" t="n">
+      <c r="F58" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G58" s="25" t="n">
+      <c r="G58" s="22" t="n">
         <v>910</v>
       </c>
-      <c r="H58" s="25" t="n">
+      <c r="H58" s="22" t="n">
         <v>1320</v>
       </c>
     </row>
@@ -38347,22 +38072,22 @@
       <c r="B59" t="n">
         <v>3</v>
       </c>
-      <c r="C59" s="25" t="n">
+      <c r="C59" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D59" s="25" t="n">
+      <c r="D59" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="E59" s="25" t="n">
+      <c r="E59" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F59" s="25" t="n">
+      <c r="F59" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G59" s="25" t="n">
+      <c r="G59" s="22" t="n">
         <v>1110</v>
       </c>
-      <c r="H59" s="25" t="n">
+      <c r="H59" s="22" t="n">
         <v>1720</v>
       </c>
     </row>
@@ -38370,27 +38095,27 @@
       <c r="B60" t="n">
         <v>4</v>
       </c>
-      <c r="C60" s="25" t="n">
+      <c r="C60" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D60" s="25" t="n">
+      <c r="D60" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="E60" s="25" t="n">
+      <c r="E60" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F60" s="25" t="n">
+      <c r="F60" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G60" s="25" t="n">
+      <c r="G60" s="22" t="n">
         <v>1310</v>
       </c>
-      <c r="H60" s="25" t="n">
+      <c r="H60" s="22" t="n">
         <v>2120</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>4 H/S</t>
         </is>
@@ -38398,22 +38123,22 @@
       <c r="B61" t="n">
         <v>1</v>
       </c>
-      <c r="C61" s="25" t="n">
+      <c r="C61" s="22" t="n">
         <v>420</v>
       </c>
-      <c r="D61" s="25" t="n">
+      <c r="D61" s="22" t="n">
         <v>590</v>
       </c>
-      <c r="E61" s="25" t="n">
+      <c r="E61" s="22" t="n">
         <v>880</v>
       </c>
-      <c r="F61" s="25" t="n">
+      <c r="F61" s="22" t="n">
         <v>620</v>
       </c>
-      <c r="G61" s="25" t="n">
+      <c r="G61" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="H61" s="25" t="n">
+      <c r="H61" s="22" t="n">
         <v>1080</v>
       </c>
     </row>
@@ -38421,22 +38146,22 @@
       <c r="B62" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="25" t="n">
+      <c r="C62" s="22" t="n">
         <v>450</v>
       </c>
-      <c r="D62" s="25" t="n">
+      <c r="D62" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="E62" s="25" t="n">
+      <c r="E62" s="22" t="n">
         <v>1080</v>
       </c>
-      <c r="F62" s="25" t="n">
+      <c r="F62" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="G62" s="25" t="n">
+      <c r="G62" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="H62" s="25" t="n">
+      <c r="H62" s="22" t="n">
         <v>1480</v>
       </c>
     </row>
@@ -38444,22 +38169,22 @@
       <c r="B63" t="n">
         <v>3</v>
       </c>
-      <c r="C63" s="25" t="n">
+      <c r="C63" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="D63" s="25" t="n">
+      <c r="D63" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="E63" s="25" t="n">
+      <c r="E63" s="22" t="n">
         <v>1280</v>
       </c>
-      <c r="F63" s="25" t="n">
+      <c r="F63" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="G63" s="25" t="n">
+      <c r="G63" s="22" t="n">
         <v>1190</v>
       </c>
-      <c r="H63" s="25" t="n">
+      <c r="H63" s="22" t="n">
         <v>1880</v>
       </c>
     </row>
@@ -38467,27 +38192,27 @@
       <c r="B64" t="n">
         <v>4</v>
       </c>
-      <c r="C64" s="25" t="n">
+      <c r="C64" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="D64" s="25" t="n">
+      <c r="D64" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="E64" s="25" t="n">
+      <c r="E64" s="22" t="n">
         <v>1480</v>
       </c>
-      <c r="F64" s="25" t="n">
+      <c r="F64" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="G64" s="25" t="n">
+      <c r="G64" s="22" t="n">
         <v>1390</v>
       </c>
-      <c r="H64" s="25" t="n">
+      <c r="H64" s="22" t="n">
         <v>2280</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>4 NT</t>
         </is>
@@ -38495,22 +38220,22 @@
       <c r="B65" t="n">
         <v>1</v>
       </c>
-      <c r="C65" s="25" t="n">
+      <c r="C65" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="D65" s="25" t="n">
+      <c r="D65" s="22" t="n">
         <v>610</v>
       </c>
-      <c r="E65" s="25" t="n">
+      <c r="E65" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F65" s="25" t="n">
+      <c r="F65" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="G65" s="25" t="n">
+      <c r="G65" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="H65" s="25" t="n">
+      <c r="H65" s="22" t="n">
         <v>1120</v>
       </c>
     </row>
@@ -38518,22 +38243,22 @@
       <c r="B66" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="25" t="n">
+      <c r="C66" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D66" s="25" t="n">
+      <c r="D66" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="E66" s="25" t="n">
+      <c r="E66" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F66" s="25" t="n">
+      <c r="F66" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G66" s="25" t="n">
+      <c r="G66" s="22" t="n">
         <v>1010</v>
       </c>
-      <c r="H66" s="25" t="n">
+      <c r="H66" s="22" t="n">
         <v>1520</v>
       </c>
     </row>
@@ -38541,22 +38266,22 @@
       <c r="B67" t="n">
         <v>3</v>
       </c>
-      <c r="C67" s="25" t="n">
+      <c r="C67" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D67" s="25" t="n">
+      <c r="D67" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="E67" s="25" t="n">
+      <c r="E67" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F67" s="25" t="n">
+      <c r="F67" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G67" s="25" t="n">
+      <c r="G67" s="22" t="n">
         <v>1210</v>
       </c>
-      <c r="H67" s="25" t="n">
+      <c r="H67" s="22" t="n">
         <v>1920</v>
       </c>
     </row>
@@ -38564,27 +38289,27 @@
       <c r="B68" t="n">
         <v>4</v>
       </c>
-      <c r="C68" s="25" t="n">
+      <c r="C68" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D68" s="25" t="n">
+      <c r="D68" s="22" t="n">
         <v>910</v>
       </c>
-      <c r="E68" s="25" t="n">
+      <c r="E68" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="F68" s="25" t="n">
+      <c r="F68" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G68" s="25" t="n">
+      <c r="G68" s="22" t="n">
         <v>1410</v>
       </c>
-      <c r="H68" s="25" t="n">
+      <c r="H68" s="22" t="n">
         <v>2320</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>5 D/C</t>
         </is>
@@ -38592,22 +38317,22 @@
       <c r="B69" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="25" t="n">
+      <c r="C69" s="22" t="n">
         <v>400</v>
       </c>
-      <c r="D69" s="25" t="n">
+      <c r="D69" s="22" t="n">
         <v>550</v>
       </c>
-      <c r="E69" s="25" t="n">
+      <c r="E69" s="22" t="n">
         <v>800</v>
       </c>
-      <c r="F69" s="25" t="n">
+      <c r="F69" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="G69" s="25" t="n">
+      <c r="G69" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="H69" s="25" t="n">
+      <c r="H69" s="22" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -38615,22 +38340,22 @@
       <c r="B70" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="25" t="n">
+      <c r="C70" s="22" t="n">
         <v>420</v>
       </c>
-      <c r="D70" s="25" t="n">
+      <c r="D70" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E70" s="25" t="n">
+      <c r="E70" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F70" s="25" t="n">
+      <c r="F70" s="22" t="n">
         <v>620</v>
       </c>
-      <c r="G70" s="25" t="n">
+      <c r="G70" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="H70" s="25" t="n">
+      <c r="H70" s="22" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -38638,27 +38363,27 @@
       <c r="B71" t="n">
         <v>3</v>
       </c>
-      <c r="C71" s="25" t="n">
+      <c r="C71" s="22" t="n">
         <v>440</v>
       </c>
-      <c r="D71" s="25" t="n">
+      <c r="D71" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E71" s="25" t="n">
+      <c r="E71" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F71" s="25" t="n">
+      <c r="F71" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="G71" s="25" t="n">
+      <c r="G71" s="22" t="n">
         <v>1150</v>
       </c>
-      <c r="H71" s="25" t="n">
+      <c r="H71" s="22" t="n">
         <v>1800</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>5 H/S</t>
         </is>
@@ -38666,22 +38391,22 @@
       <c r="B72" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="25" t="n">
+      <c r="C72" s="22" t="n">
         <v>450</v>
       </c>
-      <c r="D72" s="25" t="n">
+      <c r="D72" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E72" s="25" t="n">
+      <c r="E72" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F72" s="25" t="n">
+      <c r="F72" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="G72" s="25" t="n">
+      <c r="G72" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="H72" s="25" t="n">
+      <c r="H72" s="22" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -38689,22 +38414,22 @@
       <c r="B73" t="n">
         <v>2</v>
       </c>
-      <c r="C73" s="25" t="n">
+      <c r="C73" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="D73" s="25" t="n">
+      <c r="D73" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E73" s="25" t="n">
+      <c r="E73" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F73" s="25" t="n">
+      <c r="F73" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="G73" s="25" t="n">
+      <c r="G73" s="22" t="n">
         <v>1050</v>
       </c>
-      <c r="H73" s="25" t="n">
+      <c r="H73" s="22" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -38712,27 +38437,27 @@
       <c r="B74" t="n">
         <v>3</v>
       </c>
-      <c r="C74" s="25" t="n">
+      <c r="C74" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="D74" s="25" t="n">
+      <c r="D74" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="E74" s="25" t="n">
+      <c r="E74" s="22" t="n">
         <v>1400</v>
       </c>
-      <c r="F74" s="25" t="n">
+      <c r="F74" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="G74" s="25" t="n">
+      <c r="G74" s="22" t="n">
         <v>1250</v>
       </c>
-      <c r="H74" s="25" t="n">
+      <c r="H74" s="22" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>5 NT</t>
         </is>
@@ -38740,22 +38465,22 @@
       <c r="B75" t="n">
         <v>1</v>
       </c>
-      <c r="C75" s="25" t="n">
+      <c r="C75" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D75" s="25" t="n">
+      <c r="D75" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E75" s="25" t="n">
+      <c r="E75" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F75" s="25" t="n">
+      <c r="F75" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G75" s="25" t="n">
+      <c r="G75" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H75" s="25" t="n">
+      <c r="H75" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -38763,22 +38488,22 @@
       <c r="B76" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="25" t="n">
+      <c r="C76" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D76" s="25" t="n">
+      <c r="D76" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E76" s="25" t="n">
+      <c r="E76" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F76" s="25" t="n">
+      <c r="F76" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G76" s="25" t="n">
+      <c r="G76" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H76" s="25" t="n">
+      <c r="H76" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -38786,27 +38511,27 @@
       <c r="B77" t="n">
         <v>3</v>
       </c>
-      <c r="C77" s="25" t="n">
+      <c r="C77" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D77" s="25" t="n">
+      <c r="D77" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E77" s="25" t="n">
+      <c r="E77" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F77" s="25" t="n">
+      <c r="F77" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G77" s="25" t="n">
+      <c r="G77" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H77" s="25" t="n">
+      <c r="H77" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>6 D/C</t>
         </is>
@@ -38814,22 +38539,22 @@
       <c r="B78" t="n">
         <v>1</v>
       </c>
-      <c r="C78" s="25" t="n">
+      <c r="C78" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="D78" s="25" t="n">
+      <c r="D78" s="22" t="n">
         <v>1090</v>
       </c>
-      <c r="E78" s="25" t="n">
+      <c r="E78" s="22" t="n">
         <v>1380</v>
       </c>
-      <c r="F78" s="25" t="n">
+      <c r="F78" s="22" t="n">
         <v>1370</v>
       </c>
-      <c r="G78" s="25" t="n">
+      <c r="G78" s="22" t="n">
         <v>1540</v>
       </c>
-      <c r="H78" s="25" t="n">
+      <c r="H78" s="22" t="n">
         <v>1830</v>
       </c>
     </row>
@@ -38837,27 +38562,27 @@
       <c r="B79" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="25" t="n">
+      <c r="C79" s="22" t="n">
         <v>940</v>
       </c>
-      <c r="D79" s="25" t="n">
+      <c r="D79" s="22" t="n">
         <v>1190</v>
       </c>
-      <c r="E79" s="25" t="n">
+      <c r="E79" s="22" t="n">
         <v>1580</v>
       </c>
-      <c r="F79" s="25" t="n">
+      <c r="F79" s="22" t="n">
         <v>1390</v>
       </c>
-      <c r="G79" s="25" t="n">
+      <c r="G79" s="22" t="n">
         <v>1740</v>
       </c>
-      <c r="H79" s="25" t="n">
+      <c r="H79" s="22" t="n">
         <v>2230</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>6 H/S</t>
         </is>
@@ -38865,22 +38590,22 @@
       <c r="B80" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="25" t="n">
+      <c r="C80" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="D80" s="25" t="n">
+      <c r="D80" s="22" t="n">
         <v>1210</v>
       </c>
-      <c r="E80" s="25" t="n">
+      <c r="E80" s="22" t="n">
         <v>1620</v>
       </c>
-      <c r="F80" s="25" t="n">
+      <c r="F80" s="22" t="n">
         <v>1430</v>
       </c>
-      <c r="G80" s="25" t="n">
+      <c r="G80" s="22" t="n">
         <v>1660</v>
       </c>
-      <c r="H80" s="25" t="n">
+      <c r="H80" s="22" t="n">
         <v>2070</v>
       </c>
     </row>
@@ -38888,27 +38613,27 @@
       <c r="B81" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="25" t="n">
+      <c r="C81" s="22" t="n">
         <v>1010</v>
       </c>
-      <c r="D81" s="25" t="n">
+      <c r="D81" s="22" t="n">
         <v>1310</v>
       </c>
-      <c r="E81" s="25" t="n">
+      <c r="E81" s="22" t="n">
         <v>1820</v>
       </c>
-      <c r="F81" s="25" t="n">
+      <c r="F81" s="22" t="n">
         <v>1460</v>
       </c>
-      <c r="G81" s="25" t="n">
+      <c r="G81" s="22" t="n">
         <v>1860</v>
       </c>
-      <c r="H81" s="25" t="n">
+      <c r="H81" s="22" t="n">
         <v>2470</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>6 NT</t>
         </is>
@@ -38916,22 +38641,22 @@
       <c r="B82" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="25" t="n">
+      <c r="C82" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="D82" s="25" t="n">
+      <c r="D82" s="22" t="n">
         <v>1230</v>
       </c>
-      <c r="E82" s="25" t="n">
+      <c r="E82" s="22" t="n">
         <v>1660</v>
       </c>
-      <c r="F82" s="25" t="n">
+      <c r="F82" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="G82" s="25" t="n">
+      <c r="G82" s="22" t="n">
         <v>1680</v>
       </c>
-      <c r="H82" s="25" t="n">
+      <c r="H82" s="22" t="n">
         <v>2110</v>
       </c>
     </row>
@@ -38939,27 +38664,27 @@
       <c r="B83" t="n">
         <v>2</v>
       </c>
-      <c r="C83" s="25" t="n">
+      <c r="C83" s="22" t="n">
         <v>1020</v>
       </c>
-      <c r="D83" s="25" t="n">
+      <c r="D83" s="22" t="n">
         <v>1330</v>
       </c>
-      <c r="E83" s="25" t="n">
+      <c r="E83" s="22" t="n">
         <v>1860</v>
       </c>
-      <c r="F83" s="25" t="n">
+      <c r="F83" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="G83" s="25" t="n">
+      <c r="G83" s="22" t="n">
         <v>1880</v>
       </c>
-      <c r="H83" s="25" t="n">
+      <c r="H83" s="22" t="n">
         <v>2510</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>7 D/C</t>
         </is>
@@ -38967,27 +38692,27 @@
       <c r="B84" t="n">
         <v>1</v>
       </c>
-      <c r="C84" s="25" t="n">
+      <c r="C84" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="D84" s="25" t="n">
+      <c r="D84" s="22" t="n">
         <v>1630</v>
       </c>
-      <c r="E84" s="25" t="n">
+      <c r="E84" s="22" t="n">
         <v>1960</v>
       </c>
-      <c r="F84" s="25" t="n">
+      <c r="F84" s="22" t="n">
         <v>2140</v>
       </c>
-      <c r="G84" s="25" t="n">
+      <c r="G84" s="22" t="n">
         <v>2330</v>
       </c>
-      <c r="H84" s="25" t="n">
+      <c r="H84" s="22" t="n">
         <v>2660</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>7 H/S</t>
         </is>
@@ -38995,27 +38720,27 @@
       <c r="B85" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="25" t="n">
+      <c r="C85" s="22" t="n">
         <v>1510</v>
       </c>
-      <c r="D85" s="25" t="n">
+      <c r="D85" s="22" t="n">
         <v>1770</v>
       </c>
-      <c r="E85" s="25" t="n">
+      <c r="E85" s="22" t="n">
         <v>2240</v>
       </c>
-      <c r="F85" s="25" t="n">
+      <c r="F85" s="22" t="n">
         <v>2210</v>
       </c>
-      <c r="G85" s="25" t="n">
+      <c r="G85" s="22" t="n">
         <v>2470</v>
       </c>
-      <c r="H85" s="25" t="n">
+      <c r="H85" s="22" t="n">
         <v>2940</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>7 NT</t>
         </is>
@@ -39023,22 +38748,22 @@
       <c r="B86" t="n">
         <v>1</v>
       </c>
-      <c r="C86" s="25" t="n">
+      <c r="C86" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="D86" s="25" t="n">
+      <c r="D86" s="22" t="n">
         <v>1790</v>
       </c>
-      <c r="E86" s="25" t="n">
+      <c r="E86" s="22" t="n">
         <v>2280</v>
       </c>
-      <c r="F86" s="25" t="n">
+      <c r="F86" s="22" t="n">
         <v>2220</v>
       </c>
-      <c r="G86" s="25" t="n">
+      <c r="G86" s="22" t="n">
         <v>2490</v>
       </c>
-      <c r="H86" s="25" t="n">
+      <c r="H86" s="22" t="n">
         <v>2980</v>
       </c>
     </row>

--- a/howell13.xlsx
+++ b/howell13.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 04, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 05, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 90</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 78</t>
+          <t>Name 44</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 85</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 84</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 74</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 56</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 75</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 13</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -802,12 +802,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 15</t>
+          <t>Name 60</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -830,7 +830,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="D20" s="4">
@@ -848,12 +848,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Name 26</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 35</t>
         </is>
       </c>
       <c r="D21" s="4">
@@ -871,7 +871,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">

--- a/howell13.xlsx
+++ b/howell13.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 05, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 06, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 44</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 80</t>
+          <t>Name 72</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 85</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 80</t>
+          <t>Name 55</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 74</t>
+          <t>Name 41</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 48</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 62</t>
+          <t>Name 48</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 75</t>
+          <t>Name 18</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 71</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 70</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 54</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 26</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 79</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -802,12 +802,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 65</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 60</t>
+          <t>Name 77</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -825,12 +825,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 12</t>
         </is>
       </c>
       <c r="D20" s="4">
@@ -848,12 +848,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 85</t>
         </is>
       </c>
       <c r="D21" s="4">
@@ -871,12 +871,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="D22" s="4">
@@ -32470,7 +32470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32482,3491 +32482,3606 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Round</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Table</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Board</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Vul</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>By</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
           <t>Scores</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Table</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="A2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="16" t="n"/>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="G3" s="15" t="n"/>
+      <c r="H3" s="15" t="n"/>
+      <c r="I3" s="15" t="n"/>
+      <c r="J3" s="15" t="n"/>
+      <c r="K3" s="15" t="n"/>
+      <c r="L3" s="15" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="16" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Board</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Vul</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>By</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="G5" s="15" t="n"/>
+      <c r="H5" s="15" t="n"/>
+      <c r="I5" s="15" t="n"/>
+      <c r="J5" s="15" t="n"/>
+      <c r="K5" s="15" t="n"/>
+      <c r="L5" s="15" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="16" t="n"/>
+      <c r="C7" s="16" t="n"/>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" s="15" t="n"/>
+      <c r="H7" s="15" t="n"/>
+      <c r="I7" s="15" t="n"/>
+      <c r="J7" s="15" t="n"/>
+      <c r="K7" s="15" t="n"/>
+      <c r="L7" s="15" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="16" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G9" s="15" t="n"/>
+      <c r="H9" s="15" t="n"/>
+      <c r="I9" s="15" t="n"/>
+      <c r="J9" s="15" t="n"/>
+      <c r="K9" s="15" t="n"/>
+      <c r="L9" s="15" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="16" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G11" s="15" t="n"/>
+      <c r="H11" s="15" t="n"/>
+      <c r="I11" s="15" t="n"/>
+      <c r="J11" s="15" t="n"/>
+      <c r="K11" s="15" t="n"/>
+      <c r="L11" s="15" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="16" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F13" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="n">
+      <c r="G13" s="15" t="n"/>
+      <c r="H13" s="15" t="n"/>
+      <c r="I13" s="15" t="n"/>
+      <c r="J13" s="15" t="n"/>
+      <c r="K13" s="15" t="n"/>
+      <c r="L13" s="15" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="n"/>
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="16" t="n"/>
+      <c r="D15" s="16" t="n"/>
+      <c r="E15" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F15" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G15" s="15" t="n"/>
+      <c r="H15" s="15" t="n"/>
+      <c r="I15" s="15" t="n"/>
+      <c r="J15" s="15" t="n"/>
+      <c r="K15" s="15" t="n"/>
+      <c r="L15" s="15" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="C16" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G17" s="15" t="n"/>
+      <c r="H17" s="15" t="n"/>
+      <c r="I17" s="15" t="n"/>
+      <c r="J17" s="15" t="n"/>
+      <c r="K17" s="15" t="n"/>
+      <c r="L17" s="15" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G19" s="15" t="n"/>
+      <c r="H19" s="15" t="n"/>
+      <c r="I19" s="15" t="n"/>
+      <c r="J19" s="15" t="n"/>
+      <c r="K19" s="15" t="n"/>
+      <c r="L19" s="15" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="16" t="n"/>
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G21" s="15" t="n"/>
+      <c r="H21" s="15" t="n"/>
+      <c r="I21" s="15" t="n"/>
+      <c r="J21" s="15" t="n"/>
+      <c r="K21" s="15" t="n"/>
+      <c r="L21" s="15" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F22" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="16" t="n"/>
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F23" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G23" s="15" t="n"/>
+      <c r="H23" s="15" t="n"/>
+      <c r="I23" s="15" t="n"/>
+      <c r="J23" s="15" t="n"/>
+      <c r="K23" s="15" t="n"/>
+      <c r="L23" s="15" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="n">
+      <c r="E24" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F24" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="16" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F25" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G25" s="15" t="n"/>
+      <c r="H25" s="15" t="n"/>
+      <c r="I25" s="15" t="n"/>
+      <c r="J25" s="15" t="n"/>
+      <c r="K25" s="15" t="n"/>
+      <c r="L25" s="15" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F26" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="16" t="n"/>
+      <c r="D27" s="16" t="n"/>
+      <c r="E27" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F27" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G27" s="15" t="n"/>
+      <c r="H27" s="15" t="n"/>
+      <c r="I27" s="15" t="n"/>
+      <c r="J27" s="15" t="n"/>
+      <c r="K27" s="15" t="n"/>
+      <c r="L27" s="15" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="F28" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="F29" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G29" s="15" t="n"/>
+      <c r="H29" s="15" t="n"/>
+      <c r="I29" s="15" t="n"/>
+      <c r="J29" s="15" t="n"/>
+      <c r="K29" s="15" t="n"/>
+      <c r="L29" s="15" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="C30" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D30" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="16" t="n"/>
+      <c r="C31" s="16" t="n"/>
+      <c r="D31" s="16" t="n"/>
+      <c r="E31" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G31" s="15" t="n"/>
+      <c r="H31" s="15" t="n"/>
+      <c r="I31" s="15" t="n"/>
+      <c r="J31" s="15" t="n"/>
+      <c r="K31" s="15" t="n"/>
+      <c r="L31" s="15" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F32" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="16" t="n"/>
+      <c r="C33" s="16" t="n"/>
+      <c r="D33" s="16" t="n"/>
+      <c r="E33" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G33" s="15" t="n"/>
+      <c r="H33" s="15" t="n"/>
+      <c r="I33" s="15" t="n"/>
+      <c r="J33" s="15" t="n"/>
+      <c r="K33" s="15" t="n"/>
+      <c r="L33" s="15" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F34" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="16" t="n"/>
+      <c r="C35" s="16" t="n"/>
+      <c r="D35" s="16" t="n"/>
+      <c r="E35" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G35" s="15" t="n"/>
+      <c r="H35" s="15" t="n"/>
+      <c r="I35" s="15" t="n"/>
+      <c r="J35" s="15" t="n"/>
+      <c r="K35" s="15" t="n"/>
+      <c r="L35" s="15" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D36" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E36" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="16" t="n"/>
+      <c r="C37" s="16" t="n"/>
+      <c r="D37" s="16" t="n"/>
+      <c r="E37" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F37" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G37" s="15" t="n"/>
+      <c r="H37" s="15" t="n"/>
+      <c r="I37" s="15" t="n"/>
+      <c r="J37" s="15" t="n"/>
+      <c r="K37" s="15" t="n"/>
+      <c r="L37" s="15" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F38" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="16" t="n"/>
+      <c r="C39" s="16" t="n"/>
+      <c r="D39" s="16" t="n"/>
+      <c r="E39" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F39" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G39" s="15" t="n"/>
+      <c r="H39" s="15" t="n"/>
+      <c r="I39" s="15" t="n"/>
+      <c r="J39" s="15" t="n"/>
+      <c r="K39" s="15" t="n"/>
+      <c r="L39" s="15" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D40" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="E40" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="F40" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="F41" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G41" s="15" t="n"/>
+      <c r="H41" s="15" t="n"/>
+      <c r="I41" s="15" t="n"/>
+      <c r="J41" s="15" t="n"/>
+      <c r="K41" s="15" t="n"/>
+      <c r="L41" s="15" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D42" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E42" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="16" t="n"/>
-      <c r="C4" s="16" t="n"/>
-      <c r="D4" s="16" t="n"/>
-      <c r="E4" s="16" t="n">
+    <row r="43">
+      <c r="A43" s="15" t="n"/>
+      <c r="B43" s="16" t="n"/>
+      <c r="C43" s="16" t="n"/>
+      <c r="D43" s="16" t="n"/>
+      <c r="E43" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="inlineStr">
+      <c r="F43" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G4" s="15" t="n"/>
-      <c r="H4" s="15" t="n"/>
-      <c r="I4" s="15" t="n"/>
-      <c r="J4" s="15" t="n"/>
-      <c r="K4" s="15" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="11" t="n">
+      <c r="G43" s="15" t="n"/>
+      <c r="H43" s="15" t="n"/>
+      <c r="I43" s="15" t="n"/>
+      <c r="J43" s="15" t="n"/>
+      <c r="K43" s="15" t="n"/>
+      <c r="L43" s="15" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D44" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F44" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="16" t="n"/>
+      <c r="C45" s="16" t="n"/>
+      <c r="D45" s="16" t="n"/>
+      <c r="E45" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F45" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G45" s="15" t="n"/>
+      <c r="H45" s="15" t="n"/>
+      <c r="I45" s="15" t="n"/>
+      <c r="J45" s="15" t="n"/>
+      <c r="K45" s="15" t="n"/>
+      <c r="L45" s="15" t="n"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C46" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D46" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E46" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F46" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="16" t="n"/>
+      <c r="C47" s="16" t="n"/>
+      <c r="D47" s="16" t="n"/>
+      <c r="E47" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F47" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G47" s="15" t="n"/>
+      <c r="H47" s="15" t="n"/>
+      <c r="I47" s="15" t="n"/>
+      <c r="J47" s="15" t="n"/>
+      <c r="K47" s="15" t="n"/>
+      <c r="L47" s="15" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D48" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F48" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="16" t="n"/>
+      <c r="C49" s="16" t="n"/>
+      <c r="D49" s="16" t="n"/>
+      <c r="E49" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F49" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G49" s="15" t="n"/>
+      <c r="H49" s="15" t="n"/>
+      <c r="I49" s="15" t="n"/>
+      <c r="J49" s="15" t="n"/>
+      <c r="K49" s="15" t="n"/>
+      <c r="L49" s="15" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D50" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F50" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="16" t="n"/>
+      <c r="C51" s="16" t="n"/>
+      <c r="D51" s="16" t="n"/>
+      <c r="E51" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F51" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G51" s="15" t="n"/>
+      <c r="H51" s="15" t="n"/>
+      <c r="I51" s="15" t="n"/>
+      <c r="J51" s="15" t="n"/>
+      <c r="K51" s="15" t="n"/>
+      <c r="L51" s="15" t="n"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D52" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="F52" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="16" t="n"/>
+      <c r="C53" s="16" t="n"/>
+      <c r="D53" s="16" t="n"/>
+      <c r="E53" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="F53" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G53" s="15" t="n"/>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" s="15" t="n"/>
+      <c r="J53" s="15" t="n"/>
+      <c r="K53" s="15" t="n"/>
+      <c r="L53" s="15" t="n"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D54" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="16" t="n"/>
+      <c r="C55" s="16" t="n"/>
+      <c r="D55" s="16" t="n"/>
+      <c r="E55" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G55" s="15" t="n"/>
+      <c r="H55" s="15" t="n"/>
+      <c r="I55" s="15" t="n"/>
+      <c r="J55" s="15" t="n"/>
+      <c r="K55" s="15" t="n"/>
+      <c r="L55" s="15" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C56" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D56" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E56" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="15" t="n"/>
+      <c r="B57" s="16" t="n"/>
+      <c r="C57" s="16" t="n"/>
+      <c r="D57" s="16" t="n"/>
+      <c r="E57" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G57" s="15" t="n"/>
+      <c r="H57" s="15" t="n"/>
+      <c r="I57" s="15" t="n"/>
+      <c r="J57" s="15" t="n"/>
+      <c r="K57" s="15" t="n"/>
+      <c r="L57" s="15" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="B58" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D58" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F58" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="16" t="n"/>
+      <c r="C59" s="16" t="n"/>
+      <c r="D59" s="16" t="n"/>
+      <c r="E59" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G59" s="15" t="n"/>
+      <c r="H59" s="15" t="n"/>
+      <c r="I59" s="15" t="n"/>
+      <c r="J59" s="15" t="n"/>
+      <c r="K59" s="15" t="n"/>
+      <c r="L59" s="15" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D60" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F60" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="16" t="n"/>
+      <c r="C61" s="16" t="n"/>
+      <c r="D61" s="16" t="n"/>
+      <c r="E61" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F61" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G61" s="15" t="n"/>
+      <c r="H61" s="15" t="n"/>
+      <c r="I61" s="15" t="n"/>
+      <c r="J61" s="15" t="n"/>
+      <c r="K61" s="15" t="n"/>
+      <c r="L61" s="15" t="n"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D62" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E62" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F62" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="16" t="n"/>
-      <c r="C6" s="16" t="n"/>
-      <c r="D6" s="16" t="n"/>
-      <c r="E6" s="16" t="n">
+    <row r="63">
+      <c r="B63" s="16" t="n"/>
+      <c r="C63" s="16" t="n"/>
+      <c r="D63" s="16" t="n"/>
+      <c r="E63" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F63" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G63" s="15" t="n"/>
+      <c r="H63" s="15" t="n"/>
+      <c r="I63" s="15" t="n"/>
+      <c r="J63" s="15" t="n"/>
+      <c r="K63" s="15" t="n"/>
+      <c r="L63" s="15" t="n"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C64" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D64" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F64" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="16" t="n"/>
+      <c r="C65" s="16" t="n"/>
+      <c r="D65" s="16" t="n"/>
+      <c r="E65" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F65" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G65" s="15" t="n"/>
+      <c r="H65" s="15" t="n"/>
+      <c r="I65" s="15" t="n"/>
+      <c r="J65" s="15" t="n"/>
+      <c r="K65" s="15" t="n"/>
+      <c r="L65" s="15" t="n"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D66" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="16" t="n"/>
+      <c r="C67" s="16" t="n"/>
+      <c r="D67" s="16" t="n"/>
+      <c r="E67" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G67" s="15" t="n"/>
+      <c r="H67" s="15" t="n"/>
+      <c r="I67" s="15" t="n"/>
+      <c r="J67" s="15" t="n"/>
+      <c r="K67" s="15" t="n"/>
+      <c r="L67" s="15" t="n"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="16" t="inlineStr">
+      <c r="C68" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D68" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G6" s="15" t="n"/>
-      <c r="H6" s="15" t="n"/>
-      <c r="I6" s="15" t="n"/>
-      <c r="J6" s="15" t="n"/>
-      <c r="K6" s="15" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="11" t="n">
+    </row>
+    <row r="69">
+      <c r="B69" s="16" t="n"/>
+      <c r="C69" s="16" t="n"/>
+      <c r="D69" s="16" t="n"/>
+      <c r="E69" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F69" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G69" s="15" t="n"/>
+      <c r="H69" s="15" t="n"/>
+      <c r="I69" s="15" t="n"/>
+      <c r="J69" s="15" t="n"/>
+      <c r="K69" s="15" t="n"/>
+      <c r="L69" s="15" t="n"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C70" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D70" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E70" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F70" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="15" t="n"/>
+      <c r="B71" s="16" t="n"/>
+      <c r="C71" s="16" t="n"/>
+      <c r="D71" s="16" t="n"/>
+      <c r="E71" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F71" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G71" s="15" t="n"/>
+      <c r="H71" s="15" t="n"/>
+      <c r="I71" s="15" t="n"/>
+      <c r="J71" s="15" t="n"/>
+      <c r="K71" s="15" t="n"/>
+      <c r="L71" s="15" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B72" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D72" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E72" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F72" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="16" t="n"/>
+      <c r="C73" s="16" t="n"/>
+      <c r="D73" s="16" t="n"/>
+      <c r="E73" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F73" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G73" s="15" t="n"/>
+      <c r="H73" s="15" t="n"/>
+      <c r="I73" s="15" t="n"/>
+      <c r="J73" s="15" t="n"/>
+      <c r="K73" s="15" t="n"/>
+      <c r="L73" s="15" t="n"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D74" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F74" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="16" t="n"/>
+      <c r="C75" s="16" t="n"/>
+      <c r="D75" s="16" t="n"/>
+      <c r="E75" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F75" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G75" s="15" t="n"/>
+      <c r="H75" s="15" t="n"/>
+      <c r="I75" s="15" t="n"/>
+      <c r="J75" s="15" t="n"/>
+      <c r="K75" s="15" t="n"/>
+      <c r="L75" s="15" t="n"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C76" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D76" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E76" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F76" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="16" t="n"/>
+      <c r="C77" s="16" t="n"/>
+      <c r="D77" s="16" t="n"/>
+      <c r="E77" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F77" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G77" s="15" t="n"/>
+      <c r="H77" s="15" t="n"/>
+      <c r="I77" s="15" t="n"/>
+      <c r="J77" s="15" t="n"/>
+      <c r="K77" s="15" t="n"/>
+      <c r="L77" s="15" t="n"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F78" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="16" t="n"/>
+      <c r="C79" s="16" t="n"/>
+      <c r="D79" s="16" t="n"/>
+      <c r="E79" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F79" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G79" s="15" t="n"/>
+      <c r="H79" s="15" t="n"/>
+      <c r="I79" s="15" t="n"/>
+      <c r="J79" s="15" t="n"/>
+      <c r="K79" s="15" t="n"/>
+      <c r="L79" s="15" t="n"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C80" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D80" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="16" t="n"/>
+      <c r="C81" s="16" t="n"/>
+      <c r="D81" s="16" t="n"/>
+      <c r="E81" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G81" s="15" t="n"/>
+      <c r="H81" s="15" t="n"/>
+      <c r="I81" s="15" t="n"/>
+      <c r="J81" s="15" t="n"/>
+      <c r="K81" s="15" t="n"/>
+      <c r="L81" s="15" t="n"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C82" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D82" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E82" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="16" t="n"/>
+      <c r="C83" s="16" t="n"/>
+      <c r="D83" s="16" t="n"/>
+      <c r="E83" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F83" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G83" s="15" t="n"/>
+      <c r="H83" s="15" t="n"/>
+      <c r="I83" s="15" t="n"/>
+      <c r="J83" s="15" t="n"/>
+      <c r="K83" s="15" t="n"/>
+      <c r="L83" s="15" t="n"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C84" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D84" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E84" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F84" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="15" t="n"/>
+      <c r="B85" s="16" t="n"/>
+      <c r="C85" s="16" t="n"/>
+      <c r="D85" s="16" t="n"/>
+      <c r="E85" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F85" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G85" s="15" t="n"/>
+      <c r="H85" s="15" t="n"/>
+      <c r="I85" s="15" t="n"/>
+      <c r="J85" s="15" t="n"/>
+      <c r="K85" s="15" t="n"/>
+      <c r="L85" s="15" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B86" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D86" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E86" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F86" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="16" t="n"/>
+      <c r="C87" s="16" t="n"/>
+      <c r="D87" s="16" t="n"/>
+      <c r="E87" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F87" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G87" s="15" t="n"/>
+      <c r="H87" s="15" t="n"/>
+      <c r="I87" s="15" t="n"/>
+      <c r="J87" s="15" t="n"/>
+      <c r="K87" s="15" t="n"/>
+      <c r="L87" s="15" t="n"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="C88" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D88" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E88" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F88" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="16" t="n"/>
+      <c r="C89" s="16" t="n"/>
+      <c r="D89" s="16" t="n"/>
+      <c r="E89" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F89" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G89" s="15" t="n"/>
+      <c r="H89" s="15" t="n"/>
+      <c r="I89" s="15" t="n"/>
+      <c r="J89" s="15" t="n"/>
+      <c r="K89" s="15" t="n"/>
+      <c r="L89" s="15" t="n"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D90" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E90" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F90" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="16" t="n"/>
+      <c r="C91" s="16" t="n"/>
+      <c r="D91" s="16" t="n"/>
+      <c r="E91" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F91" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G91" s="15" t="n"/>
+      <c r="H91" s="15" t="n"/>
+      <c r="I91" s="15" t="n"/>
+      <c r="J91" s="15" t="n"/>
+      <c r="K91" s="15" t="n"/>
+      <c r="L91" s="15" t="n"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C92" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E92" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F92" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="16" t="n"/>
+      <c r="C93" s="16" t="n"/>
+      <c r="D93" s="16" t="n"/>
+      <c r="E93" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F93" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G93" s="15" t="n"/>
+      <c r="H93" s="15" t="n"/>
+      <c r="I93" s="15" t="n"/>
+      <c r="J93" s="15" t="n"/>
+      <c r="K93" s="15" t="n"/>
+      <c r="L93" s="15" t="n"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C94" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D94" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E94" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F94" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="16" t="n"/>
+      <c r="C95" s="16" t="n"/>
+      <c r="D95" s="16" t="n"/>
+      <c r="E95" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F95" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G95" s="15" t="n"/>
+      <c r="H95" s="15" t="n"/>
+      <c r="I95" s="15" t="n"/>
+      <c r="J95" s="15" t="n"/>
+      <c r="K95" s="15" t="n"/>
+      <c r="L95" s="15" t="n"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C96" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="F96" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="16" t="n"/>
-      <c r="C8" s="16" t="n"/>
-      <c r="D8" s="16" t="n"/>
-      <c r="E8" s="16" t="n">
+    <row r="97">
+      <c r="B97" s="16" t="n"/>
+      <c r="C97" s="16" t="n"/>
+      <c r="D97" s="16" t="n"/>
+      <c r="E97" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F8" s="16" t="inlineStr">
+      <c r="F97" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G8" s="15" t="n"/>
-      <c r="H8" s="15" t="n"/>
-      <c r="I8" s="15" t="n"/>
-      <c r="J8" s="15" t="n"/>
-      <c r="K8" s="15" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="11" t="n">
+      <c r="G97" s="15" t="n"/>
+      <c r="H97" s="15" t="n"/>
+      <c r="I97" s="15" t="n"/>
+      <c r="J97" s="15" t="n"/>
+      <c r="K97" s="15" t="n"/>
+      <c r="L97" s="15" t="n"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C98" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D98" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E98" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F98" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="15" t="n"/>
+      <c r="B99" s="16" t="n"/>
+      <c r="C99" s="16" t="n"/>
+      <c r="D99" s="16" t="n"/>
+      <c r="E99" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F99" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G99" s="15" t="n"/>
+      <c r="H99" s="15" t="n"/>
+      <c r="I99" s="15" t="n"/>
+      <c r="J99" s="15" t="n"/>
+      <c r="K99" s="15" t="n"/>
+      <c r="L99" s="15" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B100" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D100" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E100" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F100" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="16" t="n"/>
+      <c r="C101" s="16" t="n"/>
+      <c r="D101" s="16" t="n"/>
+      <c r="E101" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F101" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G101" s="15" t="n"/>
+      <c r="H101" s="15" t="n"/>
+      <c r="I101" s="15" t="n"/>
+      <c r="J101" s="15" t="n"/>
+      <c r="K101" s="15" t="n"/>
+      <c r="L101" s="15" t="n"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C102" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D102" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="E102" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F102" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="16" t="n"/>
+      <c r="C103" s="16" t="n"/>
+      <c r="D103" s="16" t="n"/>
+      <c r="E103" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F103" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G103" s="15" t="n"/>
+      <c r="H103" s="15" t="n"/>
+      <c r="I103" s="15" t="n"/>
+      <c r="J103" s="15" t="n"/>
+      <c r="K103" s="15" t="n"/>
+      <c r="L103" s="15" t="n"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D104" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E104" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F104" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="16" t="n"/>
+      <c r="C105" s="16" t="n"/>
+      <c r="D105" s="16" t="n"/>
+      <c r="E105" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F105" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G105" s="15" t="n"/>
+      <c r="H105" s="15" t="n"/>
+      <c r="I105" s="15" t="n"/>
+      <c r="J105" s="15" t="n"/>
+      <c r="K105" s="15" t="n"/>
+      <c r="L105" s="15" t="n"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C106" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E106" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F106" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="16" t="n"/>
+      <c r="C107" s="16" t="n"/>
+      <c r="D107" s="16" t="n"/>
+      <c r="E107" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F107" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G107" s="15" t="n"/>
+      <c r="H107" s="15" t="n"/>
+      <c r="I107" s="15" t="n"/>
+      <c r="J107" s="15" t="n"/>
+      <c r="K107" s="15" t="n"/>
+      <c r="L107" s="15" t="n"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C108" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D108" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E108" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F108" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="16" t="n"/>
+      <c r="C109" s="16" t="n"/>
+      <c r="D109" s="16" t="n"/>
+      <c r="E109" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F109" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G109" s="15" t="n"/>
+      <c r="H109" s="15" t="n"/>
+      <c r="I109" s="15" t="n"/>
+      <c r="J109" s="15" t="n"/>
+      <c r="K109" s="15" t="n"/>
+      <c r="L109" s="15" t="n"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C110" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E110" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F110" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="16" t="n"/>
+      <c r="C111" s="16" t="n"/>
+      <c r="D111" s="16" t="n"/>
+      <c r="E111" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F111" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G111" s="15" t="n"/>
+      <c r="H111" s="15" t="n"/>
+      <c r="I111" s="15" t="n"/>
+      <c r="J111" s="15" t="n"/>
+      <c r="K111" s="15" t="n"/>
+      <c r="L111" s="15" t="n"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C112" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="D112" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F112" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="15" t="n"/>
+      <c r="B113" s="16" t="n"/>
+      <c r="C113" s="16" t="n"/>
+      <c r="D113" s="16" t="n"/>
+      <c r="E113" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F113" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G113" s="15" t="n"/>
+      <c r="H113" s="15" t="n"/>
+      <c r="I113" s="15" t="n"/>
+      <c r="J113" s="15" t="n"/>
+      <c r="K113" s="15" t="n"/>
+      <c r="L113" s="15" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="B114" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D114" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E114" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F114" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="16" t="n"/>
+      <c r="C115" s="16" t="n"/>
+      <c r="D115" s="16" t="n"/>
+      <c r="E115" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F115" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G115" s="15" t="n"/>
+      <c r="H115" s="15" t="n"/>
+      <c r="I115" s="15" t="n"/>
+      <c r="J115" s="15" t="n"/>
+      <c r="K115" s="15" t="n"/>
+      <c r="L115" s="15" t="n"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C116" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D116" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E116" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F116" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="16" t="n"/>
+      <c r="C117" s="16" t="n"/>
+      <c r="D117" s="16" t="n"/>
+      <c r="E117" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F117" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="16" t="n"/>
-      <c r="C10" s="16" t="n"/>
-      <c r="D10" s="16" t="n"/>
-      <c r="E10" s="16" t="n">
+      <c r="G117" s="15" t="n"/>
+      <c r="H117" s="15" t="n"/>
+      <c r="I117" s="15" t="n"/>
+      <c r="J117" s="15" t="n"/>
+      <c r="K117" s="15" t="n"/>
+      <c r="L117" s="15" t="n"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="F10" s="16" t="inlineStr">
+      <c r="D118" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E118" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F118" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G10" s="15" t="n"/>
-      <c r="H10" s="15" t="n"/>
-      <c r="I10" s="15" t="n"/>
-      <c r="J10" s="15" t="n"/>
-      <c r="K10" s="15" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="11" t="n">
+    </row>
+    <row r="119">
+      <c r="B119" s="16" t="n"/>
+      <c r="C119" s="16" t="n"/>
+      <c r="D119" s="16" t="n"/>
+      <c r="E119" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F119" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G119" s="15" t="n"/>
+      <c r="H119" s="15" t="n"/>
+      <c r="I119" s="15" t="n"/>
+      <c r="J119" s="15" t="n"/>
+      <c r="K119" s="15" t="n"/>
+      <c r="L119" s="15" t="n"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C120" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D120" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E120" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="F120" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="16" t="n"/>
+      <c r="C121" s="16" t="n"/>
+      <c r="D121" s="16" t="n"/>
+      <c r="E121" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="F121" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G121" s="15" t="n"/>
+      <c r="H121" s="15" t="n"/>
+      <c r="I121" s="15" t="n"/>
+      <c r="J121" s="15" t="n"/>
+      <c r="K121" s="15" t="n"/>
+      <c r="L121" s="15" t="n"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C122" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E122" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F122" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="16" t="n"/>
+      <c r="C123" s="16" t="n"/>
+      <c r="D123" s="16" t="n"/>
+      <c r="E123" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F123" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G123" s="15" t="n"/>
+      <c r="H123" s="15" t="n"/>
+      <c r="I123" s="15" t="n"/>
+      <c r="J123" s="15" t="n"/>
+      <c r="K123" s="15" t="n"/>
+      <c r="L123" s="15" t="n"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="C124" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D124" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E124" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F124" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="16" t="n"/>
+      <c r="C125" s="16" t="n"/>
+      <c r="D125" s="16" t="n"/>
+      <c r="E125" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F125" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G125" s="15" t="n"/>
+      <c r="H125" s="15" t="n"/>
+      <c r="I125" s="15" t="n"/>
+      <c r="J125" s="15" t="n"/>
+      <c r="K125" s="15" t="n"/>
+      <c r="L125" s="15" t="n"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C126" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D126" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E126" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="F126" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="15" t="n"/>
+      <c r="B127" s="16" t="n"/>
+      <c r="C127" s="16" t="n"/>
+      <c r="D127" s="16" t="n"/>
+      <c r="E127" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F127" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G127" s="15" t="n"/>
+      <c r="H127" s="15" t="n"/>
+      <c r="I127" s="15" t="n"/>
+      <c r="J127" s="15" t="n"/>
+      <c r="K127" s="15" t="n"/>
+      <c r="L127" s="15" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B128" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D128" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E128" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F11" s="11" t="inlineStr">
+      <c r="F128" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="16" t="n"/>
-      <c r="C12" s="16" t="n"/>
-      <c r="D12" s="16" t="n"/>
-      <c r="E12" s="16" t="n">
+    <row r="129">
+      <c r="B129" s="16" t="n"/>
+      <c r="C129" s="16" t="n"/>
+      <c r="D129" s="16" t="n"/>
+      <c r="E129" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F12" s="16" t="inlineStr">
+      <c r="F129" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G12" s="15" t="n"/>
-      <c r="H12" s="15" t="n"/>
-      <c r="I12" s="15" t="n"/>
-      <c r="J12" s="15" t="n"/>
-      <c r="K12" s="15" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="11" t="n">
+      <c r="G129" s="15" t="n"/>
+      <c r="H129" s="15" t="n"/>
+      <c r="I129" s="15" t="n"/>
+      <c r="J129" s="15" t="n"/>
+      <c r="K129" s="15" t="n"/>
+      <c r="L129" s="15" t="n"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C130" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="E130" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F130" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="16" t="n"/>
+      <c r="C131" s="16" t="n"/>
+      <c r="D131" s="16" t="n"/>
+      <c r="E131" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F131" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G131" s="15" t="n"/>
+      <c r="H131" s="15" t="n"/>
+      <c r="I131" s="15" t="n"/>
+      <c r="J131" s="15" t="n"/>
+      <c r="K131" s="15" t="n"/>
+      <c r="L131" s="15" t="n"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D132" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E132" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="F132" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" s="16" t="n"/>
+      <c r="C133" s="16" t="n"/>
+      <c r="D133" s="16" t="n"/>
+      <c r="E133" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="F133" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G133" s="15" t="n"/>
+      <c r="H133" s="15" t="n"/>
+      <c r="I133" s="15" t="n"/>
+      <c r="J133" s="15" t="n"/>
+      <c r="K133" s="15" t="n"/>
+      <c r="L133" s="15" t="n"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C134" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D134" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E134" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="16" t="n"/>
+      <c r="C135" s="16" t="n"/>
+      <c r="D135" s="16" t="n"/>
+      <c r="E135" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F135" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G135" s="15" t="n"/>
+      <c r="H135" s="15" t="n"/>
+      <c r="I135" s="15" t="n"/>
+      <c r="J135" s="15" t="n"/>
+      <c r="K135" s="15" t="n"/>
+      <c r="L135" s="15" t="n"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C136" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E136" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F136" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" s="16" t="n"/>
+      <c r="C137" s="16" t="n"/>
+      <c r="D137" s="16" t="n"/>
+      <c r="E137" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F137" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G137" s="15" t="n"/>
+      <c r="H137" s="15" t="n"/>
+      <c r="I137" s="15" t="n"/>
+      <c r="J137" s="15" t="n"/>
+      <c r="K137" s="15" t="n"/>
+      <c r="L137" s="15" t="n"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C138" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D138" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="E138" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F138" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="16" t="n"/>
+      <c r="C139" s="16" t="n"/>
+      <c r="D139" s="16" t="n"/>
+      <c r="E139" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F139" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G139" s="15" t="n"/>
+      <c r="H139" s="15" t="n"/>
+      <c r="I139" s="15" t="n"/>
+      <c r="J139" s="15" t="n"/>
+      <c r="K139" s="15" t="n"/>
+      <c r="L139" s="15" t="n"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C140" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D140" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E140" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F140" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="15" t="n"/>
+      <c r="B141" s="16" t="n"/>
+      <c r="C141" s="16" t="n"/>
+      <c r="D141" s="16" t="n"/>
+      <c r="E141" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F141" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G141" s="15" t="n"/>
+      <c r="H141" s="15" t="n"/>
+      <c r="I141" s="15" t="n"/>
+      <c r="J141" s="15" t="n"/>
+      <c r="K141" s="15" t="n"/>
+      <c r="L141" s="15" t="n"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B142" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D142" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E142" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F142" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" s="16" t="n"/>
+      <c r="C143" s="16" t="n"/>
+      <c r="D143" s="16" t="n"/>
+      <c r="E143" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F143" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G143" s="15" t="n"/>
+      <c r="H143" s="15" t="n"/>
+      <c r="I143" s="15" t="n"/>
+      <c r="J143" s="15" t="n"/>
+      <c r="K143" s="15" t="n"/>
+      <c r="L143" s="15" t="n"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C144" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D144" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E144" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="F144" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" s="16" t="n"/>
+      <c r="C145" s="16" t="n"/>
+      <c r="D145" s="16" t="n"/>
+      <c r="E145" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="F145" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G145" s="15" t="n"/>
+      <c r="H145" s="15" t="n"/>
+      <c r="I145" s="15" t="n"/>
+      <c r="J145" s="15" t="n"/>
+      <c r="K145" s="15" t="n"/>
+      <c r="L145" s="15" t="n"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C146" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="D146" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E146" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" s="16" t="n"/>
+      <c r="C147" s="16" t="n"/>
+      <c r="D147" s="16" t="n"/>
+      <c r="E147" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F147" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G147" s="15" t="n"/>
+      <c r="H147" s="15" t="n"/>
+      <c r="I147" s="15" t="n"/>
+      <c r="J147" s="15" t="n"/>
+      <c r="K147" s="15" t="n"/>
+      <c r="L147" s="15" t="n"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C148" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D148" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E148" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F148" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" s="16" t="n"/>
+      <c r="C149" s="16" t="n"/>
+      <c r="D149" s="16" t="n"/>
+      <c r="E149" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F149" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G149" s="15" t="n"/>
+      <c r="H149" s="15" t="n"/>
+      <c r="I149" s="15" t="n"/>
+      <c r="J149" s="15" t="n"/>
+      <c r="K149" s="15" t="n"/>
+      <c r="L149" s="15" t="n"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C150" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D150" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E150" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F150" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" s="16" t="n"/>
+      <c r="C151" s="16" t="n"/>
+      <c r="D151" s="16" t="n"/>
+      <c r="E151" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F151" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G151" s="15" t="n"/>
+      <c r="H151" s="15" t="n"/>
+      <c r="I151" s="15" t="n"/>
+      <c r="J151" s="15" t="n"/>
+      <c r="K151" s="15" t="n"/>
+      <c r="L151" s="15" t="n"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C152" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D152" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E152" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F152" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" s="16" t="n"/>
+      <c r="C153" s="16" t="n"/>
+      <c r="D153" s="16" t="n"/>
+      <c r="E153" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F153" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G153" s="15" t="n"/>
+      <c r="H153" s="15" t="n"/>
+      <c r="I153" s="15" t="n"/>
+      <c r="J153" s="15" t="n"/>
+      <c r="K153" s="15" t="n"/>
+      <c r="L153" s="15" t="n"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C154" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E154" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F154" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="15" t="n"/>
+      <c r="B155" s="16" t="n"/>
+      <c r="C155" s="16" t="n"/>
+      <c r="D155" s="16" t="n"/>
+      <c r="E155" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F155" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G155" s="15" t="n"/>
+      <c r="H155" s="15" t="n"/>
+      <c r="I155" s="15" t="n"/>
+      <c r="J155" s="15" t="n"/>
+      <c r="K155" s="15" t="n"/>
+      <c r="L155" s="15" t="n"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B156" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D156" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E156" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F156" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" s="16" t="n"/>
+      <c r="C157" s="16" t="n"/>
+      <c r="D157" s="16" t="n"/>
+      <c r="E157" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F157" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G157" s="15" t="n"/>
+      <c r="H157" s="15" t="n"/>
+      <c r="I157" s="15" t="n"/>
+      <c r="J157" s="15" t="n"/>
+      <c r="K157" s="15" t="n"/>
+      <c r="L157" s="15" t="n"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C158" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D158" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E158" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" s="16" t="n"/>
+      <c r="C159" s="16" t="n"/>
+      <c r="D159" s="16" t="n"/>
+      <c r="E159" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F159" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G159" s="15" t="n"/>
+      <c r="H159" s="15" t="n"/>
+      <c r="I159" s="15" t="n"/>
+      <c r="J159" s="15" t="n"/>
+      <c r="K159" s="15" t="n"/>
+      <c r="L159" s="15" t="n"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C160" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D160" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F160" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="16" t="n"/>
+      <c r="C161" s="16" t="n"/>
+      <c r="D161" s="16" t="n"/>
+      <c r="E161" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F161" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G161" s="15" t="n"/>
+      <c r="H161" s="15" t="n"/>
+      <c r="I161" s="15" t="n"/>
+      <c r="J161" s="15" t="n"/>
+      <c r="K161" s="15" t="n"/>
+      <c r="L161" s="15" t="n"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C162" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D162" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E162" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F162" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="16" t="n"/>
+      <c r="C163" s="16" t="n"/>
+      <c r="D163" s="16" t="n"/>
+      <c r="E163" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F163" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G163" s="15" t="n"/>
+      <c r="H163" s="15" t="n"/>
+      <c r="I163" s="15" t="n"/>
+      <c r="J163" s="15" t="n"/>
+      <c r="K163" s="15" t="n"/>
+      <c r="L163" s="15" t="n"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C164" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D164" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E164" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F164" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="16" t="n"/>
+      <c r="C165" s="16" t="n"/>
+      <c r="D165" s="16" t="n"/>
+      <c r="E165" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F165" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G165" s="15" t="n"/>
+      <c r="H165" s="15" t="n"/>
+      <c r="I165" s="15" t="n"/>
+      <c r="J165" s="15" t="n"/>
+      <c r="K165" s="15" t="n"/>
+      <c r="L165" s="15" t="n"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C166" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D166" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E166" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F166" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="16" t="n"/>
+      <c r="C167" s="16" t="n"/>
+      <c r="D167" s="16" t="n"/>
+      <c r="E167" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F167" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G167" s="15" t="n"/>
+      <c r="H167" s="15" t="n"/>
+      <c r="I167" s="15" t="n"/>
+      <c r="J167" s="15" t="n"/>
+      <c r="K167" s="15" t="n"/>
+      <c r="L167" s="15" t="n"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C168" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E168" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F168" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="15" t="n"/>
+      <c r="B169" s="16" t="n"/>
+      <c r="C169" s="16" t="n"/>
+      <c r="D169" s="16" t="n"/>
+      <c r="E169" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F169" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G169" s="15" t="n"/>
+      <c r="H169" s="15" t="n"/>
+      <c r="I169" s="15" t="n"/>
+      <c r="J169" s="15" t="n"/>
+      <c r="K169" s="15" t="n"/>
+      <c r="L169" s="15" t="n"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B170" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D170" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E170" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="F170" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" s="16" t="n"/>
+      <c r="C171" s="16" t="n"/>
+      <c r="D171" s="16" t="n"/>
+      <c r="E171" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="F171" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G171" s="15" t="n"/>
+      <c r="H171" s="15" t="n"/>
+      <c r="I171" s="15" t="n"/>
+      <c r="J171" s="15" t="n"/>
+      <c r="K171" s="15" t="n"/>
+      <c r="L171" s="15" t="n"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C172" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D172" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E172" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F172" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" s="16" t="n"/>
+      <c r="C173" s="16" t="n"/>
+      <c r="D173" s="16" t="n"/>
+      <c r="E173" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F173" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G173" s="15" t="n"/>
+      <c r="H173" s="15" t="n"/>
+      <c r="I173" s="15" t="n"/>
+      <c r="J173" s="15" t="n"/>
+      <c r="K173" s="15" t="n"/>
+      <c r="L173" s="15" t="n"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E174" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F174" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="16" t="n"/>
+      <c r="C175" s="16" t="n"/>
+      <c r="D175" s="16" t="n"/>
+      <c r="E175" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F175" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G175" s="15" t="n"/>
+      <c r="H175" s="15" t="n"/>
+      <c r="I175" s="15" t="n"/>
+      <c r="J175" s="15" t="n"/>
+      <c r="K175" s="15" t="n"/>
+      <c r="L175" s="15" t="n"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C176" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D176" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E176" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F176" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" s="16" t="n"/>
+      <c r="C177" s="16" t="n"/>
+      <c r="D177" s="16" t="n"/>
+      <c r="E177" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F177" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G177" s="15" t="n"/>
+      <c r="H177" s="15" t="n"/>
+      <c r="I177" s="15" t="n"/>
+      <c r="J177" s="15" t="n"/>
+      <c r="K177" s="15" t="n"/>
+      <c r="L177" s="15" t="n"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C178" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D178" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E178" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F178" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" s="16" t="n"/>
+      <c r="C179" s="16" t="n"/>
+      <c r="D179" s="16" t="n"/>
+      <c r="E179" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F179" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G179" s="15" t="n"/>
+      <c r="H179" s="15" t="n"/>
+      <c r="I179" s="15" t="n"/>
+      <c r="J179" s="15" t="n"/>
+      <c r="K179" s="15" t="n"/>
+      <c r="L179" s="15" t="n"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C180" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D180" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E180" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F180" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" s="16" t="n"/>
+      <c r="C181" s="16" t="n"/>
+      <c r="D181" s="16" t="n"/>
+      <c r="E181" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F181" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G181" s="15" t="n"/>
+      <c r="H181" s="15" t="n"/>
+      <c r="I181" s="15" t="n"/>
+      <c r="J181" s="15" t="n"/>
+      <c r="K181" s="15" t="n"/>
+      <c r="L181" s="15" t="n"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C182" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D182" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E182" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F13" s="11" t="inlineStr">
+      <c r="F182" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="16" t="n"/>
-      <c r="C14" s="16" t="n"/>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="16" t="n">
+    <row r="183">
+      <c r="A183" s="15" t="n"/>
+      <c r="B183" s="16" t="n"/>
+      <c r="C183" s="16" t="n"/>
+      <c r="D183" s="16" t="n"/>
+      <c r="E183" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F183" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G14" s="15" t="n"/>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="15" t="n"/>
-      <c r="J14" s="15" t="n"/>
-      <c r="K14" s="15" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="F15" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="15" t="n"/>
-      <c r="B16" s="16" t="n"/>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="F16" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G16" s="15" t="n"/>
-      <c r="H16" s="15" t="n"/>
-      <c r="I16" s="15" t="n"/>
-      <c r="J16" s="15" t="n"/>
-      <c r="K16" s="15" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="16" t="n"/>
-      <c r="D18" s="16" t="n"/>
-      <c r="E18" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G18" s="15" t="n"/>
-      <c r="H18" s="15" t="n"/>
-      <c r="I18" s="15" t="n"/>
-      <c r="J18" s="15" t="n"/>
-      <c r="K18" s="15" t="n"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D19" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="16" t="n"/>
-      <c r="C20" s="16" t="n"/>
-      <c r="D20" s="16" t="n"/>
-      <c r="E20" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F20" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G20" s="15" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
-      <c r="J20" s="15" t="n"/>
-      <c r="K20" s="15" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="16" t="n"/>
-      <c r="D22" s="16" t="n"/>
-      <c r="E22" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F22" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G22" s="15" t="n"/>
-      <c r="H22" s="15" t="n"/>
-      <c r="I22" s="15" t="n"/>
-      <c r="J22" s="15" t="n"/>
-      <c r="K22" s="15" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="E23" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F23" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="16" t="n"/>
-      <c r="C24" s="16" t="n"/>
-      <c r="D24" s="16" t="n"/>
-      <c r="E24" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F24" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G24" s="15" t="n"/>
-      <c r="H24" s="15" t="n"/>
-      <c r="I24" s="15" t="n"/>
-      <c r="J24" s="15" t="n"/>
-      <c r="K24" s="15" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D25" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="16" t="n"/>
-      <c r="C26" s="16" t="n"/>
-      <c r="D26" s="16" t="n"/>
-      <c r="E26" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F26" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G26" s="15" t="n"/>
-      <c r="H26" s="15" t="n"/>
-      <c r="I26" s="15" t="n"/>
-      <c r="J26" s="15" t="n"/>
-      <c r="K26" s="15" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C27" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D27" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="E27" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="F27" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="16" t="n"/>
-      <c r="D28" s="16" t="n"/>
-      <c r="E28" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="F28" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G28" s="15" t="n"/>
-      <c r="H28" s="15" t="n"/>
-      <c r="I28" s="15" t="n"/>
-      <c r="J28" s="15" t="n"/>
-      <c r="K28" s="15" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C29" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D29" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E29" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="F29" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="15" t="n"/>
-      <c r="B30" s="16" t="n"/>
-      <c r="C30" s="16" t="n"/>
-      <c r="D30" s="16" t="n"/>
-      <c r="E30" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="F30" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G30" s="15" t="n"/>
-      <c r="H30" s="15" t="n"/>
-      <c r="I30" s="15" t="n"/>
-      <c r="J30" s="15" t="n"/>
-      <c r="K30" s="15" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="16" t="n"/>
-      <c r="D32" s="16" t="n"/>
-      <c r="E32" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F32" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G32" s="15" t="n"/>
-      <c r="H32" s="15" t="n"/>
-      <c r="I32" s="15" t="n"/>
-      <c r="J32" s="15" t="n"/>
-      <c r="K32" s="15" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D33" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="E33" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F33" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="16" t="n"/>
-      <c r="C34" s="16" t="n"/>
-      <c r="D34" s="16" t="n"/>
-      <c r="E34" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F34" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G34" s="15" t="n"/>
-      <c r="H34" s="15" t="n"/>
-      <c r="I34" s="15" t="n"/>
-      <c r="J34" s="15" t="n"/>
-      <c r="K34" s="15" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C35" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D35" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E35" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="16" t="n"/>
-      <c r="C36" s="16" t="n"/>
-      <c r="D36" s="16" t="n"/>
-      <c r="E36" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F36" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G36" s="15" t="n"/>
-      <c r="H36" s="15" t="n"/>
-      <c r="I36" s="15" t="n"/>
-      <c r="J36" s="15" t="n"/>
-      <c r="K36" s="15" t="n"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C37" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D37" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="E37" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="16" t="n"/>
-      <c r="C38" s="16" t="n"/>
-      <c r="D38" s="16" t="n"/>
-      <c r="E38" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F38" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G38" s="15" t="n"/>
-      <c r="H38" s="15" t="n"/>
-      <c r="I38" s="15" t="n"/>
-      <c r="J38" s="15" t="n"/>
-      <c r="K38" s="15" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C39" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D39" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="16" t="n"/>
-      <c r="C40" s="16" t="n"/>
-      <c r="D40" s="16" t="n"/>
-      <c r="E40" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="F40" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G40" s="15" t="n"/>
-      <c r="H40" s="15" t="n"/>
-      <c r="I40" s="15" t="n"/>
-      <c r="J40" s="15" t="n"/>
-      <c r="K40" s="15" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C41" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D41" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="F41" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="16" t="n"/>
-      <c r="C42" s="16" t="n"/>
-      <c r="D42" s="16" t="n"/>
-      <c r="E42" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="F42" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G42" s="15" t="n"/>
-      <c r="H42" s="15" t="n"/>
-      <c r="I42" s="15" t="n"/>
-      <c r="J42" s="15" t="n"/>
-      <c r="K42" s="15" t="n"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C43" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D43" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E43" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="15" t="n"/>
-      <c r="B44" s="16" t="n"/>
-      <c r="C44" s="16" t="n"/>
-      <c r="D44" s="16" t="n"/>
-      <c r="E44" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G44" s="15" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
-      <c r="J44" s="15" t="n"/>
-      <c r="K44" s="15" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B45" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E45" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F45" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="16" t="n"/>
-      <c r="C46" s="16" t="n"/>
-      <c r="D46" s="16" t="n"/>
-      <c r="E46" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F46" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G46" s="15" t="n"/>
-      <c r="H46" s="15" t="n"/>
-      <c r="I46" s="15" t="n"/>
-      <c r="J46" s="15" t="n"/>
-      <c r="K46" s="15" t="n"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C47" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D47" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="E47" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F47" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="16" t="n"/>
-      <c r="C48" s="16" t="n"/>
-      <c r="D48" s="16" t="n"/>
-      <c r="E48" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F48" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G48" s="15" t="n"/>
-      <c r="H48" s="15" t="n"/>
-      <c r="I48" s="15" t="n"/>
-      <c r="J48" s="15" t="n"/>
-      <c r="K48" s="15" t="n"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C49" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D49" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E49" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F49" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="16" t="n"/>
-      <c r="C50" s="16" t="n"/>
-      <c r="D50" s="16" t="n"/>
-      <c r="E50" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F50" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G50" s="15" t="n"/>
-      <c r="H50" s="15" t="n"/>
-      <c r="I50" s="15" t="n"/>
-      <c r="J50" s="15" t="n"/>
-      <c r="K50" s="15" t="n"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C51" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D51" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F51" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="16" t="n"/>
-      <c r="C52" s="16" t="n"/>
-      <c r="D52" s="16" t="n"/>
-      <c r="E52" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F52" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G52" s="15" t="n"/>
-      <c r="H52" s="15" t="n"/>
-      <c r="I52" s="15" t="n"/>
-      <c r="J52" s="15" t="n"/>
-      <c r="K52" s="15" t="n"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C53" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D53" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E53" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="F53" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="16" t="n"/>
-      <c r="C54" s="16" t="n"/>
-      <c r="D54" s="16" t="n"/>
-      <c r="E54" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="F54" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G54" s="15" t="n"/>
-      <c r="H54" s="15" t="n"/>
-      <c r="I54" s="15" t="n"/>
-      <c r="J54" s="15" t="n"/>
-      <c r="K54" s="15" t="n"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C55" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D55" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E55" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="16" t="n"/>
-      <c r="C56" s="16" t="n"/>
-      <c r="D56" s="16" t="n"/>
-      <c r="E56" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F56" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G56" s="15" t="n"/>
-      <c r="H56" s="15" t="n"/>
-      <c r="I56" s="15" t="n"/>
-      <c r="J56" s="15" t="n"/>
-      <c r="K56" s="15" t="n"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C57" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D57" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E57" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F57" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="15" t="n"/>
-      <c r="B58" s="16" t="n"/>
-      <c r="C58" s="16" t="n"/>
-      <c r="D58" s="16" t="n"/>
-      <c r="E58" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F58" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G58" s="15" t="n"/>
-      <c r="H58" s="15" t="n"/>
-      <c r="I58" s="15" t="n"/>
-      <c r="J58" s="15" t="n"/>
-      <c r="K58" s="15" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B59" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E59" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F59" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="16" t="n"/>
-      <c r="C60" s="16" t="n"/>
-      <c r="D60" s="16" t="n"/>
-      <c r="E60" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F60" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G60" s="15" t="n"/>
-      <c r="H60" s="15" t="n"/>
-      <c r="I60" s="15" t="n"/>
-      <c r="J60" s="15" t="n"/>
-      <c r="K60" s="15" t="n"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C61" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D61" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F61" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="16" t="n"/>
-      <c r="C62" s="16" t="n"/>
-      <c r="D62" s="16" t="n"/>
-      <c r="E62" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F62" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G62" s="15" t="n"/>
-      <c r="H62" s="15" t="n"/>
-      <c r="I62" s="15" t="n"/>
-      <c r="J62" s="15" t="n"/>
-      <c r="K62" s="15" t="n"/>
-    </row>
-    <row r="63">
-      <c r="B63" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C63" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D63" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E63" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F63" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="16" t="n"/>
-      <c r="C64" s="16" t="n"/>
-      <c r="D64" s="16" t="n"/>
-      <c r="E64" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F64" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G64" s="15" t="n"/>
-      <c r="H64" s="15" t="n"/>
-      <c r="I64" s="15" t="n"/>
-      <c r="J64" s="15" t="n"/>
-      <c r="K64" s="15" t="n"/>
-    </row>
-    <row r="65">
-      <c r="B65" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C65" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="D65" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F65" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="16" t="n"/>
-      <c r="C66" s="16" t="n"/>
-      <c r="D66" s="16" t="n"/>
-      <c r="E66" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F66" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G66" s="15" t="n"/>
-      <c r="H66" s="15" t="n"/>
-      <c r="I66" s="15" t="n"/>
-      <c r="J66" s="15" t="n"/>
-      <c r="K66" s="15" t="n"/>
-    </row>
-    <row r="67">
-      <c r="B67" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C67" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D67" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E67" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="16" t="n"/>
-      <c r="C68" s="16" t="n"/>
-      <c r="D68" s="16" t="n"/>
-      <c r="E68" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F68" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G68" s="15" t="n"/>
-      <c r="H68" s="15" t="n"/>
-      <c r="I68" s="15" t="n"/>
-      <c r="J68" s="15" t="n"/>
-      <c r="K68" s="15" t="n"/>
-    </row>
-    <row r="69">
-      <c r="B69" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C69" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D69" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E69" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F69" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="16" t="n"/>
-      <c r="C70" s="16" t="n"/>
-      <c r="D70" s="16" t="n"/>
-      <c r="E70" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F70" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G70" s="15" t="n"/>
-      <c r="H70" s="15" t="n"/>
-      <c r="I70" s="15" t="n"/>
-      <c r="J70" s="15" t="n"/>
-      <c r="K70" s="15" t="n"/>
-    </row>
-    <row r="71">
-      <c r="B71" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C71" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D71" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E71" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F71" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="15" t="n"/>
-      <c r="B72" s="16" t="n"/>
-      <c r="C72" s="16" t="n"/>
-      <c r="D72" s="16" t="n"/>
-      <c r="E72" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F72" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G72" s="15" t="n"/>
-      <c r="H72" s="15" t="n"/>
-      <c r="I72" s="15" t="n"/>
-      <c r="J72" s="15" t="n"/>
-      <c r="K72" s="15" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="B73" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E73" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F73" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="16" t="n"/>
-      <c r="C74" s="16" t="n"/>
-      <c r="D74" s="16" t="n"/>
-      <c r="E74" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F74" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G74" s="15" t="n"/>
-      <c r="H74" s="15" t="n"/>
-      <c r="I74" s="15" t="n"/>
-      <c r="J74" s="15" t="n"/>
-      <c r="K74" s="15" t="n"/>
-    </row>
-    <row r="75">
-      <c r="B75" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C75" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D75" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E75" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F75" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="16" t="n"/>
-      <c r="C76" s="16" t="n"/>
-      <c r="D76" s="16" t="n"/>
-      <c r="E76" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F76" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G76" s="15" t="n"/>
-      <c r="H76" s="15" t="n"/>
-      <c r="I76" s="15" t="n"/>
-      <c r="J76" s="15" t="n"/>
-      <c r="K76" s="15" t="n"/>
-    </row>
-    <row r="77">
-      <c r="B77" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C77" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D77" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E77" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F77" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="16" t="n"/>
-      <c r="C78" s="16" t="n"/>
-      <c r="D78" s="16" t="n"/>
-      <c r="E78" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F78" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G78" s="15" t="n"/>
-      <c r="H78" s="15" t="n"/>
-      <c r="I78" s="15" t="n"/>
-      <c r="J78" s="15" t="n"/>
-      <c r="K78" s="15" t="n"/>
-    </row>
-    <row r="79">
-      <c r="B79" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C79" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E79" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F79" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="16" t="n"/>
-      <c r="C80" s="16" t="n"/>
-      <c r="D80" s="16" t="n"/>
-      <c r="E80" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F80" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G80" s="15" t="n"/>
-      <c r="H80" s="15" t="n"/>
-      <c r="I80" s="15" t="n"/>
-      <c r="J80" s="15" t="n"/>
-      <c r="K80" s="15" t="n"/>
-    </row>
-    <row r="81">
-      <c r="B81" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C81" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D81" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E81" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F81" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="16" t="n"/>
-      <c r="C82" s="16" t="n"/>
-      <c r="D82" s="16" t="n"/>
-      <c r="E82" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F82" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G82" s="15" t="n"/>
-      <c r="H82" s="15" t="n"/>
-      <c r="I82" s="15" t="n"/>
-      <c r="J82" s="15" t="n"/>
-      <c r="K82" s="15" t="n"/>
-    </row>
-    <row r="83">
-      <c r="B83" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C83" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="D83" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E83" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F83" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="16" t="n"/>
-      <c r="C84" s="16" t="n"/>
-      <c r="D84" s="16" t="n"/>
-      <c r="E84" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F84" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G84" s="15" t="n"/>
-      <c r="H84" s="15" t="n"/>
-      <c r="I84" s="15" t="n"/>
-      <c r="J84" s="15" t="n"/>
-      <c r="K84" s="15" t="n"/>
-    </row>
-    <row r="85">
-      <c r="B85" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C85" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D85" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="E85" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F85" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="15" t="n"/>
-      <c r="B86" s="16" t="n"/>
-      <c r="C86" s="16" t="n"/>
-      <c r="D86" s="16" t="n"/>
-      <c r="E86" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F86" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G86" s="15" t="n"/>
-      <c r="H86" s="15" t="n"/>
-      <c r="I86" s="15" t="n"/>
-      <c r="J86" s="15" t="n"/>
-      <c r="K86" s="15" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B87" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E87" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F87" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" s="16" t="n"/>
-      <c r="C88" s="16" t="n"/>
-      <c r="D88" s="16" t="n"/>
-      <c r="E88" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F88" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G88" s="15" t="n"/>
-      <c r="H88" s="15" t="n"/>
-      <c r="I88" s="15" t="n"/>
-      <c r="J88" s="15" t="n"/>
-      <c r="K88" s="15" t="n"/>
-    </row>
-    <row r="89">
-      <c r="B89" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C89" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D89" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E89" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F89" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="16" t="n"/>
-      <c r="C90" s="16" t="n"/>
-      <c r="D90" s="16" t="n"/>
-      <c r="E90" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F90" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G90" s="15" t="n"/>
-      <c r="H90" s="15" t="n"/>
-      <c r="I90" s="15" t="n"/>
-      <c r="J90" s="15" t="n"/>
-      <c r="K90" s="15" t="n"/>
-    </row>
-    <row r="91">
-      <c r="B91" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C91" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D91" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E91" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F91" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="B92" s="16" t="n"/>
-      <c r="C92" s="16" t="n"/>
-      <c r="D92" s="16" t="n"/>
-      <c r="E92" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F92" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G92" s="15" t="n"/>
-      <c r="H92" s="15" t="n"/>
-      <c r="I92" s="15" t="n"/>
-      <c r="J92" s="15" t="n"/>
-      <c r="K92" s="15" t="n"/>
-    </row>
-    <row r="93">
-      <c r="B93" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C93" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D93" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E93" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F93" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" s="16" t="n"/>
-      <c r="C94" s="16" t="n"/>
-      <c r="D94" s="16" t="n"/>
-      <c r="E94" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F94" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G94" s="15" t="n"/>
-      <c r="H94" s="15" t="n"/>
-      <c r="I94" s="15" t="n"/>
-      <c r="J94" s="15" t="n"/>
-      <c r="K94" s="15" t="n"/>
-    </row>
-    <row r="95">
-      <c r="B95" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C95" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D95" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E95" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F95" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" s="16" t="n"/>
-      <c r="C96" s="16" t="n"/>
-      <c r="D96" s="16" t="n"/>
-      <c r="E96" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F96" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G96" s="15" t="n"/>
-      <c r="H96" s="15" t="n"/>
-      <c r="I96" s="15" t="n"/>
-      <c r="J96" s="15" t="n"/>
-      <c r="K96" s="15" t="n"/>
-    </row>
-    <row r="97">
-      <c r="B97" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C97" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E97" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F97" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="16" t="n"/>
-      <c r="C98" s="16" t="n"/>
-      <c r="D98" s="16" t="n"/>
-      <c r="E98" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F98" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G98" s="15" t="n"/>
-      <c r="H98" s="15" t="n"/>
-      <c r="I98" s="15" t="n"/>
-      <c r="J98" s="15" t="n"/>
-      <c r="K98" s="15" t="n"/>
-    </row>
-    <row r="99">
-      <c r="B99" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C99" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D99" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="E99" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F99" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="15" t="n"/>
-      <c r="B100" s="16" t="n"/>
-      <c r="C100" s="16" t="n"/>
-      <c r="D100" s="16" t="n"/>
-      <c r="E100" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F100" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G100" s="15" t="n"/>
-      <c r="H100" s="15" t="n"/>
-      <c r="I100" s="15" t="n"/>
-      <c r="J100" s="15" t="n"/>
-      <c r="K100" s="15" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B101" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E101" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F101" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" s="16" t="n"/>
-      <c r="C102" s="16" t="n"/>
-      <c r="D102" s="16" t="n"/>
-      <c r="E102" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F102" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G102" s="15" t="n"/>
-      <c r="H102" s="15" t="n"/>
-      <c r="I102" s="15" t="n"/>
-      <c r="J102" s="15" t="n"/>
-      <c r="K102" s="15" t="n"/>
-    </row>
-    <row r="103">
-      <c r="B103" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C103" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D103" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E103" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F103" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" s="16" t="n"/>
-      <c r="C104" s="16" t="n"/>
-      <c r="D104" s="16" t="n"/>
-      <c r="E104" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F104" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G104" s="15" t="n"/>
-      <c r="H104" s="15" t="n"/>
-      <c r="I104" s="15" t="n"/>
-      <c r="J104" s="15" t="n"/>
-      <c r="K104" s="15" t="n"/>
-    </row>
-    <row r="105">
-      <c r="B105" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C105" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D105" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E105" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F105" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" s="16" t="n"/>
-      <c r="C106" s="16" t="n"/>
-      <c r="D106" s="16" t="n"/>
-      <c r="E106" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F106" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G106" s="15" t="n"/>
-      <c r="H106" s="15" t="n"/>
-      <c r="I106" s="15" t="n"/>
-      <c r="J106" s="15" t="n"/>
-      <c r="K106" s="15" t="n"/>
-    </row>
-    <row r="107">
-      <c r="B107" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C107" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D107" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E107" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="F107" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" s="16" t="n"/>
-      <c r="C108" s="16" t="n"/>
-      <c r="D108" s="16" t="n"/>
-      <c r="E108" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="F108" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G108" s="15" t="n"/>
-      <c r="H108" s="15" t="n"/>
-      <c r="I108" s="15" t="n"/>
-      <c r="J108" s="15" t="n"/>
-      <c r="K108" s="15" t="n"/>
-    </row>
-    <row r="109">
-      <c r="B109" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C109" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="D109" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E109" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F109" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" s="16" t="n"/>
-      <c r="C110" s="16" t="n"/>
-      <c r="D110" s="16" t="n"/>
-      <c r="E110" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F110" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G110" s="15" t="n"/>
-      <c r="H110" s="15" t="n"/>
-      <c r="I110" s="15" t="n"/>
-      <c r="J110" s="15" t="n"/>
-      <c r="K110" s="15" t="n"/>
-    </row>
-    <row r="111">
-      <c r="B111" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C111" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D111" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E111" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F111" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="B112" s="16" t="n"/>
-      <c r="C112" s="16" t="n"/>
-      <c r="D112" s="16" t="n"/>
-      <c r="E112" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F112" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G112" s="15" t="n"/>
-      <c r="H112" s="15" t="n"/>
-      <c r="I112" s="15" t="n"/>
-      <c r="J112" s="15" t="n"/>
-      <c r="K112" s="15" t="n"/>
-    </row>
-    <row r="113">
-      <c r="B113" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C113" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D113" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F113" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="15" t="n"/>
-      <c r="B114" s="16" t="n"/>
-      <c r="C114" s="16" t="n"/>
-      <c r="D114" s="16" t="n"/>
-      <c r="E114" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F114" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G114" s="15" t="n"/>
-      <c r="H114" s="15" t="n"/>
-      <c r="I114" s="15" t="n"/>
-      <c r="J114" s="15" t="n"/>
-      <c r="K114" s="15" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B115" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C115" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E115" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F115" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" s="16" t="n"/>
-      <c r="C116" s="16" t="n"/>
-      <c r="D116" s="16" t="n"/>
-      <c r="E116" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F116" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G116" s="15" t="n"/>
-      <c r="H116" s="15" t="n"/>
-      <c r="I116" s="15" t="n"/>
-      <c r="J116" s="15" t="n"/>
-      <c r="K116" s="15" t="n"/>
-    </row>
-    <row r="117">
-      <c r="B117" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C117" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="D117" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E117" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F117" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="B118" s="16" t="n"/>
-      <c r="C118" s="16" t="n"/>
-      <c r="D118" s="16" t="n"/>
-      <c r="E118" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F118" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G118" s="15" t="n"/>
-      <c r="H118" s="15" t="n"/>
-      <c r="I118" s="15" t="n"/>
-      <c r="J118" s="15" t="n"/>
-      <c r="K118" s="15" t="n"/>
-    </row>
-    <row r="119">
-      <c r="B119" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C119" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D119" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E119" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="F119" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" s="16" t="n"/>
-      <c r="C120" s="16" t="n"/>
-      <c r="D120" s="16" t="n"/>
-      <c r="E120" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="F120" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G120" s="15" t="n"/>
-      <c r="H120" s="15" t="n"/>
-      <c r="I120" s="15" t="n"/>
-      <c r="J120" s="15" t="n"/>
-      <c r="K120" s="15" t="n"/>
-    </row>
-    <row r="121">
-      <c r="B121" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C121" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D121" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E121" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="F121" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" s="16" t="n"/>
-      <c r="C122" s="16" t="n"/>
-      <c r="D122" s="16" t="n"/>
-      <c r="E122" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="F122" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G122" s="15" t="n"/>
-      <c r="H122" s="15" t="n"/>
-      <c r="I122" s="15" t="n"/>
-      <c r="J122" s="15" t="n"/>
-      <c r="K122" s="15" t="n"/>
-    </row>
-    <row r="123">
-      <c r="B123" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C123" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D123" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E123" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F123" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="B124" s="16" t="n"/>
-      <c r="C124" s="16" t="n"/>
-      <c r="D124" s="16" t="n"/>
-      <c r="E124" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F124" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G124" s="15" t="n"/>
-      <c r="H124" s="15" t="n"/>
-      <c r="I124" s="15" t="n"/>
-      <c r="J124" s="15" t="n"/>
-      <c r="K124" s="15" t="n"/>
-    </row>
-    <row r="125">
-      <c r="B125" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C125" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D125" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E125" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F125" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" s="16" t="n"/>
-      <c r="C126" s="16" t="n"/>
-      <c r="D126" s="16" t="n"/>
-      <c r="E126" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F126" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G126" s="15" t="n"/>
-      <c r="H126" s="15" t="n"/>
-      <c r="I126" s="15" t="n"/>
-      <c r="J126" s="15" t="n"/>
-      <c r="K126" s="15" t="n"/>
-    </row>
-    <row r="127">
-      <c r="B127" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C127" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D127" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E127" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F127" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="15" t="n"/>
-      <c r="B128" s="16" t="n"/>
-      <c r="C128" s="16" t="n"/>
-      <c r="D128" s="16" t="n"/>
-      <c r="E128" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F128" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G128" s="15" t="n"/>
-      <c r="H128" s="15" t="n"/>
-      <c r="I128" s="15" t="n"/>
-      <c r="J128" s="15" t="n"/>
-      <c r="K128" s="15" t="n"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B129" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C129" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E129" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F129" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="B130" s="16" t="n"/>
-      <c r="C130" s="16" t="n"/>
-      <c r="D130" s="16" t="n"/>
-      <c r="E130" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F130" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G130" s="15" t="n"/>
-      <c r="H130" s="15" t="n"/>
-      <c r="I130" s="15" t="n"/>
-      <c r="J130" s="15" t="n"/>
-      <c r="K130" s="15" t="n"/>
-    </row>
-    <row r="131">
-      <c r="B131" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C131" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E131" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="F131" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="B132" s="16" t="n"/>
-      <c r="C132" s="16" t="n"/>
-      <c r="D132" s="16" t="n"/>
-      <c r="E132" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="F132" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G132" s="15" t="n"/>
-      <c r="H132" s="15" t="n"/>
-      <c r="I132" s="15" t="n"/>
-      <c r="J132" s="15" t="n"/>
-      <c r="K132" s="15" t="n"/>
-    </row>
-    <row r="133">
-      <c r="B133" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C133" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D133" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="E133" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="F133" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="B134" s="16" t="n"/>
-      <c r="C134" s="16" t="n"/>
-      <c r="D134" s="16" t="n"/>
-      <c r="E134" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="F134" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G134" s="15" t="n"/>
-      <c r="H134" s="15" t="n"/>
-      <c r="I134" s="15" t="n"/>
-      <c r="J134" s="15" t="n"/>
-      <c r="K134" s="15" t="n"/>
-    </row>
-    <row r="135">
-      <c r="B135" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C135" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D135" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E135" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F135" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="B136" s="16" t="n"/>
-      <c r="C136" s="16" t="n"/>
-      <c r="D136" s="16" t="n"/>
-      <c r="E136" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F136" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G136" s="15" t="n"/>
-      <c r="H136" s="15" t="n"/>
-      <c r="I136" s="15" t="n"/>
-      <c r="J136" s="15" t="n"/>
-      <c r="K136" s="15" t="n"/>
-    </row>
-    <row r="137">
-      <c r="B137" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C137" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D137" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E137" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F137" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="B138" s="16" t="n"/>
-      <c r="C138" s="16" t="n"/>
-      <c r="D138" s="16" t="n"/>
-      <c r="E138" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F138" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G138" s="15" t="n"/>
-      <c r="H138" s="15" t="n"/>
-      <c r="I138" s="15" t="n"/>
-      <c r="J138" s="15" t="n"/>
-      <c r="K138" s="15" t="n"/>
-    </row>
-    <row r="139">
-      <c r="B139" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C139" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D139" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E139" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F139" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="B140" s="16" t="n"/>
-      <c r="C140" s="16" t="n"/>
-      <c r="D140" s="16" t="n"/>
-      <c r="E140" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F140" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G140" s="15" t="n"/>
-      <c r="H140" s="15" t="n"/>
-      <c r="I140" s="15" t="n"/>
-      <c r="J140" s="15" t="n"/>
-      <c r="K140" s="15" t="n"/>
-    </row>
-    <row r="141">
-      <c r="B141" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C141" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="D141" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E141" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F141" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="15" t="n"/>
-      <c r="B142" s="16" t="n"/>
-      <c r="C142" s="16" t="n"/>
-      <c r="D142" s="16" t="n"/>
-      <c r="E142" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F142" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G142" s="15" t="n"/>
-      <c r="H142" s="15" t="n"/>
-      <c r="I142" s="15" t="n"/>
-      <c r="J142" s="15" t="n"/>
-      <c r="K142" s="15" t="n"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B143" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C143" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E143" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F143" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="B144" s="16" t="n"/>
-      <c r="C144" s="16" t="n"/>
-      <c r="D144" s="16" t="n"/>
-      <c r="E144" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F144" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G144" s="15" t="n"/>
-      <c r="H144" s="15" t="n"/>
-      <c r="I144" s="15" t="n"/>
-      <c r="J144" s="15" t="n"/>
-      <c r="K144" s="15" t="n"/>
-    </row>
-    <row r="145">
-      <c r="B145" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C145" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D145" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E145" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="F145" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="B146" s="16" t="n"/>
-      <c r="C146" s="16" t="n"/>
-      <c r="D146" s="16" t="n"/>
-      <c r="E146" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="F146" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G146" s="15" t="n"/>
-      <c r="H146" s="15" t="n"/>
-      <c r="I146" s="15" t="n"/>
-      <c r="J146" s="15" t="n"/>
-      <c r="K146" s="15" t="n"/>
-    </row>
-    <row r="147">
-      <c r="B147" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C147" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D147" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="E147" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F147" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="B148" s="16" t="n"/>
-      <c r="C148" s="16" t="n"/>
-      <c r="D148" s="16" t="n"/>
-      <c r="E148" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F148" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G148" s="15" t="n"/>
-      <c r="H148" s="15" t="n"/>
-      <c r="I148" s="15" t="n"/>
-      <c r="J148" s="15" t="n"/>
-      <c r="K148" s="15" t="n"/>
-    </row>
-    <row r="149">
-      <c r="B149" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C149" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D149" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E149" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F149" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="B150" s="16" t="n"/>
-      <c r="C150" s="16" t="n"/>
-      <c r="D150" s="16" t="n"/>
-      <c r="E150" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F150" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G150" s="15" t="n"/>
-      <c r="H150" s="15" t="n"/>
-      <c r="I150" s="15" t="n"/>
-      <c r="J150" s="15" t="n"/>
-      <c r="K150" s="15" t="n"/>
-    </row>
-    <row r="151">
-      <c r="B151" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C151" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D151" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E151" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F151" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="B152" s="16" t="n"/>
-      <c r="C152" s="16" t="n"/>
-      <c r="D152" s="16" t="n"/>
-      <c r="E152" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F152" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G152" s="15" t="n"/>
-      <c r="H152" s="15" t="n"/>
-      <c r="I152" s="15" t="n"/>
-      <c r="J152" s="15" t="n"/>
-      <c r="K152" s="15" t="n"/>
-    </row>
-    <row r="153">
-      <c r="B153" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C153" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D153" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E153" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F153" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="B154" s="16" t="n"/>
-      <c r="C154" s="16" t="n"/>
-      <c r="D154" s="16" t="n"/>
-      <c r="E154" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F154" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G154" s="15" t="n"/>
-      <c r="H154" s="15" t="n"/>
-      <c r="I154" s="15" t="n"/>
-      <c r="J154" s="15" t="n"/>
-      <c r="K154" s="15" t="n"/>
-    </row>
-    <row r="155">
-      <c r="B155" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C155" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D155" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E155" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F155" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="15" t="n"/>
-      <c r="B156" s="16" t="n"/>
-      <c r="C156" s="16" t="n"/>
-      <c r="D156" s="16" t="n"/>
-      <c r="E156" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F156" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G156" s="15" t="n"/>
-      <c r="H156" s="15" t="n"/>
-      <c r="I156" s="15" t="n"/>
-      <c r="J156" s="15" t="n"/>
-      <c r="K156" s="15" t="n"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="B157" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C157" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="E157" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="F157" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="B158" s="16" t="n"/>
-      <c r="C158" s="16" t="n"/>
-      <c r="D158" s="16" t="n"/>
-      <c r="E158" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="F158" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G158" s="15" t="n"/>
-      <c r="H158" s="15" t="n"/>
-      <c r="I158" s="15" t="n"/>
-      <c r="J158" s="15" t="n"/>
-      <c r="K158" s="15" t="n"/>
-    </row>
-    <row r="159">
-      <c r="B159" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C159" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D159" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E159" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F159" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="B160" s="16" t="n"/>
-      <c r="C160" s="16" t="n"/>
-      <c r="D160" s="16" t="n"/>
-      <c r="E160" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F160" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G160" s="15" t="n"/>
-      <c r="H160" s="15" t="n"/>
-      <c r="I160" s="15" t="n"/>
-      <c r="J160" s="15" t="n"/>
-      <c r="K160" s="15" t="n"/>
-    </row>
-    <row r="161">
-      <c r="B161" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C161" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="D161" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E161" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F161" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="B162" s="16" t="n"/>
-      <c r="C162" s="16" t="n"/>
-      <c r="D162" s="16" t="n"/>
-      <c r="E162" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F162" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G162" s="15" t="n"/>
-      <c r="H162" s="15" t="n"/>
-      <c r="I162" s="15" t="n"/>
-      <c r="J162" s="15" t="n"/>
-      <c r="K162" s="15" t="n"/>
-    </row>
-    <row r="163">
-      <c r="B163" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C163" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D163" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E163" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F163" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="B164" s="16" t="n"/>
-      <c r="C164" s="16" t="n"/>
-      <c r="D164" s="16" t="n"/>
-      <c r="E164" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F164" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G164" s="15" t="n"/>
-      <c r="H164" s="15" t="n"/>
-      <c r="I164" s="15" t="n"/>
-      <c r="J164" s="15" t="n"/>
-      <c r="K164" s="15" t="n"/>
-    </row>
-    <row r="165">
-      <c r="B165" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C165" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D165" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E165" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F165" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="B166" s="16" t="n"/>
-      <c r="C166" s="16" t="n"/>
-      <c r="D166" s="16" t="n"/>
-      <c r="E166" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F166" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G166" s="15" t="n"/>
-      <c r="H166" s="15" t="n"/>
-      <c r="I166" s="15" t="n"/>
-      <c r="J166" s="15" t="n"/>
-      <c r="K166" s="15" t="n"/>
-    </row>
-    <row r="167">
-      <c r="B167" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C167" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D167" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E167" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F167" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="B168" s="16" t="n"/>
-      <c r="C168" s="16" t="n"/>
-      <c r="D168" s="16" t="n"/>
-      <c r="E168" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F168" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G168" s="15" t="n"/>
-      <c r="H168" s="15" t="n"/>
-      <c r="I168" s="15" t="n"/>
-      <c r="J168" s="15" t="n"/>
-      <c r="K168" s="15" t="n"/>
-    </row>
-    <row r="169">
-      <c r="B169" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C169" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D169" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E169" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F169" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="15" t="n"/>
-      <c r="B170" s="16" t="n"/>
-      <c r="C170" s="16" t="n"/>
-      <c r="D170" s="16" t="n"/>
-      <c r="E170" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F170" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G170" s="15" t="n"/>
-      <c r="H170" s="15" t="n"/>
-      <c r="I170" s="15" t="n"/>
-      <c r="J170" s="15" t="n"/>
-      <c r="K170" s="15" t="n"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="B171" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C171" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="E171" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="F171" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="B172" s="16" t="n"/>
-      <c r="C172" s="16" t="n"/>
-      <c r="D172" s="16" t="n"/>
-      <c r="E172" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="F172" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G172" s="15" t="n"/>
-      <c r="H172" s="15" t="n"/>
-      <c r="I172" s="15" t="n"/>
-      <c r="J172" s="15" t="n"/>
-      <c r="K172" s="15" t="n"/>
-    </row>
-    <row r="173">
-      <c r="B173" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C173" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D173" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E173" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F173" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="B174" s="16" t="n"/>
-      <c r="C174" s="16" t="n"/>
-      <c r="D174" s="16" t="n"/>
-      <c r="E174" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F174" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G174" s="15" t="n"/>
-      <c r="H174" s="15" t="n"/>
-      <c r="I174" s="15" t="n"/>
-      <c r="J174" s="15" t="n"/>
-      <c r="K174" s="15" t="n"/>
-    </row>
-    <row r="175">
-      <c r="B175" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C175" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D175" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E175" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F175" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="B176" s="16" t="n"/>
-      <c r="C176" s="16" t="n"/>
-      <c r="D176" s="16" t="n"/>
-      <c r="E176" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F176" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G176" s="15" t="n"/>
-      <c r="H176" s="15" t="n"/>
-      <c r="I176" s="15" t="n"/>
-      <c r="J176" s="15" t="n"/>
-      <c r="K176" s="15" t="n"/>
-    </row>
-    <row r="177">
-      <c r="B177" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C177" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D177" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E177" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F177" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="B178" s="16" t="n"/>
-      <c r="C178" s="16" t="n"/>
-      <c r="D178" s="16" t="n"/>
-      <c r="E178" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F178" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G178" s="15" t="n"/>
-      <c r="H178" s="15" t="n"/>
-      <c r="I178" s="15" t="n"/>
-      <c r="J178" s="15" t="n"/>
-      <c r="K178" s="15" t="n"/>
-    </row>
-    <row r="179">
-      <c r="B179" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C179" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D179" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="E179" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F179" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="B180" s="16" t="n"/>
-      <c r="C180" s="16" t="n"/>
-      <c r="D180" s="16" t="n"/>
-      <c r="E180" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F180" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G180" s="15" t="n"/>
-      <c r="H180" s="15" t="n"/>
-      <c r="I180" s="15" t="n"/>
-      <c r="J180" s="15" t="n"/>
-      <c r="K180" s="15" t="n"/>
-    </row>
-    <row r="181">
-      <c r="B181" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C181" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D181" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E181" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F181" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="B182" s="16" t="n"/>
-      <c r="C182" s="16" t="n"/>
-      <c r="D182" s="16" t="n"/>
-      <c r="E182" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F182" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G182" s="15" t="n"/>
-      <c r="H182" s="15" t="n"/>
-      <c r="I182" s="15" t="n"/>
-      <c r="J182" s="15" t="n"/>
-      <c r="K182" s="15" t="n"/>
-    </row>
-    <row r="183">
-      <c r="B183" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C183" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D183" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E183" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F183" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="15" t="n"/>
-      <c r="B184" s="16" t="n"/>
-      <c r="C184" s="16" t="n"/>
-      <c r="D184" s="16" t="n"/>
-      <c r="E184" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F184" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G184" s="15" t="n"/>
-      <c r="H184" s="15" t="n"/>
-      <c r="I184" s="15" t="n"/>
-      <c r="J184" s="15" t="n"/>
-      <c r="K184" s="15" t="n"/>
+      <c r="G183" s="15" t="n"/>
+      <c r="H183" s="15" t="n"/>
+      <c r="I183" s="15" t="n"/>
+      <c r="J183" s="15" t="n"/>
+      <c r="K183" s="15" t="n"/>
+      <c r="L183" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/howell13.xlsx
+++ b/howell13.xlsx
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 17</t>
+          <t>Name 47</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 53</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 65</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 50</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 41</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 50</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 67</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 50</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 30</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 54</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -802,12 +802,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 65</t>
+          <t>Name 53</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 57</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -825,12 +825,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 34</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="D20" s="4">
@@ -848,12 +848,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="D21" s="4">
@@ -871,12 +871,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 66</t>
         </is>
       </c>
       <c r="D22" s="4">
@@ -32470,7 +32470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A2:K184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32481,3608 +32481,3509 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Scores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="16" t="n"/>
-      <c r="C3" s="16" t="n"/>
-      <c r="D3" s="16" t="n"/>
-      <c r="E3" s="16" t="n">
+    <row r="4">
+      <c r="B4" s="16" t="n"/>
+      <c r="C4" s="16" t="n"/>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="inlineStr">
+      <c r="F4" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G3" s="15" t="n"/>
-      <c r="H3" s="15" t="n"/>
-      <c r="I3" s="15" t="n"/>
-      <c r="J3" s="15" t="n"/>
-      <c r="K3" s="15" t="n"/>
-      <c r="L3" s="15" t="n"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="11" t="n">
+      <c r="G4" s="15" t="n"/>
+      <c r="H4" s="15" t="n"/>
+      <c r="I4" s="15" t="n"/>
+      <c r="J4" s="15" t="n"/>
+      <c r="K4" s="15" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C5" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D5" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E5" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="16" t="n"/>
-      <c r="C5" s="16" t="n"/>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="16" t="n">
+    <row r="6">
+      <c r="B6" s="16" t="n"/>
+      <c r="C6" s="16" t="n"/>
+      <c r="D6" s="16" t="n"/>
+      <c r="E6" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="16" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G5" s="15" t="n"/>
-      <c r="H5" s="15" t="n"/>
-      <c r="I5" s="15" t="n"/>
-      <c r="J5" s="15" t="n"/>
-      <c r="K5" s="15" t="n"/>
-      <c r="L5" s="15" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="11" t="n">
+      <c r="G6" s="15" t="n"/>
+      <c r="H6" s="15" t="n"/>
+      <c r="I6" s="15" t="n"/>
+      <c r="J6" s="15" t="n"/>
+      <c r="K6" s="15" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C7" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D7" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E7" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="16" t="n"/>
-      <c r="C7" s="16" t="n"/>
-      <c r="D7" s="16" t="n"/>
-      <c r="E7" s="16" t="n">
+    <row r="8">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F7" s="16" t="inlineStr">
+      <c r="F8" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G7" s="15" t="n"/>
-      <c r="H7" s="15" t="n"/>
-      <c r="I7" s="15" t="n"/>
-      <c r="J7" s="15" t="n"/>
-      <c r="K7" s="15" t="n"/>
-      <c r="L7" s="15" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="11" t="n">
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="15" t="n"/>
+      <c r="I8" s="15" t="n"/>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="15" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C9" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D9" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E9" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="16" t="n"/>
-      <c r="C9" s="16" t="n"/>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="16" t="n">
+    <row r="10">
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="16" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F9" s="16" t="inlineStr">
+      <c r="F10" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G9" s="15" t="n"/>
-      <c r="H9" s="15" t="n"/>
-      <c r="I9" s="15" t="n"/>
-      <c r="J9" s="15" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="15" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="11" t="n">
+      <c r="G10" s="15" t="n"/>
+      <c r="H10" s="15" t="n"/>
+      <c r="I10" s="15" t="n"/>
+      <c r="J10" s="15" t="n"/>
+      <c r="K10" s="15" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C11" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D11" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E11" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="16" t="n"/>
-      <c r="C11" s="16" t="n"/>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="16" t="n">
+    <row r="12">
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F11" s="16" t="inlineStr">
+      <c r="F12" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G11" s="15" t="n"/>
-      <c r="H11" s="15" t="n"/>
-      <c r="I11" s="15" t="n"/>
-      <c r="J11" s="15" t="n"/>
-      <c r="K11" s="15" t="n"/>
-      <c r="L11" s="15" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="11" t="n">
+      <c r="G12" s="15" t="n"/>
+      <c r="H12" s="15" t="n"/>
+      <c r="I12" s="15" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="15" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C13" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D13" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E13" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="16" t="n"/>
-      <c r="C13" s="16" t="n"/>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="16" t="n">
+    <row r="14">
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="16" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F13" s="16" t="inlineStr">
+      <c r="F14" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G13" s="15" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="15" t="n"/>
-      <c r="J13" s="15" t="n"/>
-      <c r="K13" s="15" t="n"/>
-      <c r="L13" s="15" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="11" t="n">
+      <c r="G14" s="15" t="n"/>
+      <c r="H14" s="15" t="n"/>
+      <c r="I14" s="15" t="n"/>
+      <c r="J14" s="15" t="n"/>
+      <c r="K14" s="15" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C15" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D15" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E15" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="15" t="n"/>
-      <c r="B15" s="16" t="n"/>
-      <c r="C15" s="16" t="n"/>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="16" t="n">
+    <row r="16">
+      <c r="A16" s="15" t="n"/>
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="F15" s="16" t="inlineStr">
+      <c r="F16" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G15" s="15" t="n"/>
-      <c r="H15" s="15" t="n"/>
-      <c r="I15" s="15" t="n"/>
-      <c r="J15" s="15" t="n"/>
-      <c r="K15" s="15" t="n"/>
-      <c r="L15" s="15" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="n">
+      <c r="G16" s="15" t="n"/>
+      <c r="H16" s="15" t="n"/>
+      <c r="I16" s="15" t="n"/>
+      <c r="J16" s="15" t="n"/>
+      <c r="K16" s="15" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B17" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D17" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E17" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="11" t="inlineStr">
+      <c r="F17" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="16" t="n"/>
-      <c r="C17" s="16" t="n"/>
-      <c r="D17" s="16" t="n"/>
-      <c r="E17" s="16" t="n">
+    <row r="18">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="16" t="n"/>
+      <c r="D18" s="16" t="n"/>
+      <c r="E18" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F17" s="16" t="inlineStr">
+      <c r="F18" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G17" s="15" t="n"/>
-      <c r="H17" s="15" t="n"/>
-      <c r="I17" s="15" t="n"/>
-      <c r="J17" s="15" t="n"/>
-      <c r="K17" s="15" t="n"/>
-      <c r="L17" s="15" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="11" t="n">
+      <c r="G18" s="15" t="n"/>
+      <c r="H18" s="15" t="n"/>
+      <c r="I18" s="15" t="n"/>
+      <c r="J18" s="15" t="n"/>
+      <c r="K18" s="15" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C19" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D19" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E19" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F18" s="11" t="inlineStr">
+      <c r="F19" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="16" t="n"/>
-      <c r="D19" s="16" t="n"/>
-      <c r="E19" s="16" t="n">
+    <row r="20">
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="16" t="n"/>
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="16" t="inlineStr">
+      <c r="F20" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G19" s="15" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="15" t="n"/>
-      <c r="J19" s="15" t="n"/>
-      <c r="K19" s="15" t="n"/>
-      <c r="L19" s="15" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="11" t="n">
+      <c r="G20" s="15" t="n"/>
+      <c r="H20" s="15" t="n"/>
+      <c r="I20" s="15" t="n"/>
+      <c r="J20" s="15" t="n"/>
+      <c r="K20" s="15" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C21" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D21" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E20" s="11" t="n">
+      <c r="E21" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F20" s="11" t="inlineStr">
+      <c r="F21" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="16" t="n"/>
-      <c r="C21" s="16" t="n"/>
-      <c r="D21" s="16" t="n"/>
-      <c r="E21" s="16" t="n">
+    <row r="22">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="16" t="n"/>
+      <c r="D22" s="16" t="n"/>
+      <c r="E22" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F21" s="16" t="inlineStr">
+      <c r="F22" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G21" s="15" t="n"/>
-      <c r="H21" s="15" t="n"/>
-      <c r="I21" s="15" t="n"/>
-      <c r="J21" s="15" t="n"/>
-      <c r="K21" s="15" t="n"/>
-      <c r="L21" s="15" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="11" t="n">
+      <c r="G22" s="15" t="n"/>
+      <c r="H22" s="15" t="n"/>
+      <c r="I22" s="15" t="n"/>
+      <c r="J22" s="15" t="n"/>
+      <c r="K22" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C23" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D23" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="E22" s="11" t="n">
+      <c r="E23" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F22" s="11" t="inlineStr">
+      <c r="F23" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="16" t="n"/>
-      <c r="D23" s="16" t="n"/>
-      <c r="E23" s="16" t="n">
+    <row r="24">
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="16" t="n"/>
+      <c r="D24" s="16" t="n"/>
+      <c r="E24" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F23" s="16" t="inlineStr">
+      <c r="F24" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G23" s="15" t="n"/>
-      <c r="H23" s="15" t="n"/>
-      <c r="I23" s="15" t="n"/>
-      <c r="J23" s="15" t="n"/>
-      <c r="K23" s="15" t="n"/>
-      <c r="L23" s="15" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="11" t="n">
+      <c r="G24" s="15" t="n"/>
+      <c r="H24" s="15" t="n"/>
+      <c r="I24" s="15" t="n"/>
+      <c r="J24" s="15" t="n"/>
+      <c r="K24" s="15" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C25" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D25" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="11" t="n">
+      <c r="E25" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F24" s="11" t="inlineStr">
+      <c r="F25" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="16" t="n"/>
-      <c r="C25" s="16" t="n"/>
-      <c r="D25" s="16" t="n"/>
-      <c r="E25" s="16" t="n">
+    <row r="26">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F25" s="16" t="inlineStr">
+      <c r="F26" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G25" s="15" t="n"/>
-      <c r="H25" s="15" t="n"/>
-      <c r="I25" s="15" t="n"/>
-      <c r="J25" s="15" t="n"/>
-      <c r="K25" s="15" t="n"/>
-      <c r="L25" s="15" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="11" t="n">
+      <c r="G26" s="15" t="n"/>
+      <c r="H26" s="15" t="n"/>
+      <c r="I26" s="15" t="n"/>
+      <c r="J26" s="15" t="n"/>
+      <c r="K26" s="15" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C27" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D27" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="E26" s="11" t="n">
+      <c r="E27" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="F26" s="11" t="inlineStr">
+      <c r="F27" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="16" t="n"/>
-      <c r="D27" s="16" t="n"/>
-      <c r="E27" s="16" t="n">
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="16" t="n"/>
+      <c r="D28" s="16" t="n"/>
+      <c r="E28" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="F27" s="16" t="inlineStr">
+      <c r="F28" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G27" s="15" t="n"/>
-      <c r="H27" s="15" t="n"/>
-      <c r="I27" s="15" t="n"/>
-      <c r="J27" s="15" t="n"/>
-      <c r="K27" s="15" t="n"/>
-      <c r="L27" s="15" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="11" t="n">
+      <c r="G28" s="15" t="n"/>
+      <c r="H28" s="15" t="n"/>
+      <c r="I28" s="15" t="n"/>
+      <c r="J28" s="15" t="n"/>
+      <c r="K28" s="15" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C29" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D28" s="11" t="n">
+      <c r="D29" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E28" s="11" t="n">
+      <c r="E29" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="F28" s="11" t="inlineStr">
+      <c r="F29" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="15" t="n"/>
-      <c r="B29" s="16" t="n"/>
-      <c r="C29" s="16" t="n"/>
-      <c r="D29" s="16" t="n"/>
-      <c r="E29" s="16" t="n">
+    <row r="30">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="16" t="n"/>
+      <c r="D30" s="16" t="n"/>
+      <c r="E30" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="F29" s="16" t="inlineStr">
+      <c r="F30" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G29" s="15" t="n"/>
-      <c r="H29" s="15" t="n"/>
-      <c r="I29" s="15" t="n"/>
-      <c r="J29" s="15" t="n"/>
-      <c r="K29" s="15" t="n"/>
-      <c r="L29" s="15" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="n">
+      <c r="G30" s="15" t="n"/>
+      <c r="H30" s="15" t="n"/>
+      <c r="I30" s="15" t="n"/>
+      <c r="J30" s="15" t="n"/>
+      <c r="K30" s="15" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B31" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="11" t="inlineStr">
+      <c r="C31" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D30" s="11" t="n">
+      <c r="D31" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E30" s="11" t="n">
+      <c r="E31" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F30" s="11" t="inlineStr">
+      <c r="F31" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="16" t="n"/>
-      <c r="D31" s="16" t="n"/>
-      <c r="E31" s="16" t="n">
+    <row r="32">
+      <c r="B32" s="16" t="n"/>
+      <c r="C32" s="16" t="n"/>
+      <c r="D32" s="16" t="n"/>
+      <c r="E32" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F31" s="16" t="inlineStr">
+      <c r="F32" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G31" s="15" t="n"/>
-      <c r="H31" s="15" t="n"/>
-      <c r="I31" s="15" t="n"/>
-      <c r="J31" s="15" t="n"/>
-      <c r="K31" s="15" t="n"/>
-      <c r="L31" s="15" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="11" t="n">
+      <c r="G32" s="15" t="n"/>
+      <c r="H32" s="15" t="n"/>
+      <c r="I32" s="15" t="n"/>
+      <c r="J32" s="15" t="n"/>
+      <c r="K32" s="15" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C32" s="11" t="n">
+      <c r="C33" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D32" s="11" t="n">
+      <c r="D33" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="E32" s="11" t="n">
+      <c r="E33" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F32" s="11" t="inlineStr">
+      <c r="F33" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="16" t="n"/>
-      <c r="C33" s="16" t="n"/>
-      <c r="D33" s="16" t="n"/>
-      <c r="E33" s="16" t="n">
+    <row r="34">
+      <c r="B34" s="16" t="n"/>
+      <c r="C34" s="16" t="n"/>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F33" s="16" t="inlineStr">
+      <c r="F34" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G33" s="15" t="n"/>
-      <c r="H33" s="15" t="n"/>
-      <c r="I33" s="15" t="n"/>
-      <c r="J33" s="15" t="n"/>
-      <c r="K33" s="15" t="n"/>
-      <c r="L33" s="15" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="11" t="n">
+      <c r="G34" s="15" t="n"/>
+      <c r="H34" s="15" t="n"/>
+      <c r="I34" s="15" t="n"/>
+      <c r="J34" s="15" t="n"/>
+      <c r="K34" s="15" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C34" s="11" t="n">
+      <c r="C35" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D34" s="11" t="n">
+      <c r="D35" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E34" s="11" t="n">
+      <c r="E35" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F34" s="11" t="inlineStr">
+      <c r="F35" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="16" t="n"/>
-      <c r="C35" s="16" t="n"/>
-      <c r="D35" s="16" t="n"/>
-      <c r="E35" s="16" t="n">
+    <row r="36">
+      <c r="B36" s="16" t="n"/>
+      <c r="C36" s="16" t="n"/>
+      <c r="D36" s="16" t="n"/>
+      <c r="E36" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F35" s="16" t="inlineStr">
+      <c r="F36" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G35" s="15" t="n"/>
-      <c r="H35" s="15" t="n"/>
-      <c r="I35" s="15" t="n"/>
-      <c r="J35" s="15" t="n"/>
-      <c r="K35" s="15" t="n"/>
-      <c r="L35" s="15" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="11" t="n">
+      <c r="G36" s="15" t="n"/>
+      <c r="H36" s="15" t="n"/>
+      <c r="I36" s="15" t="n"/>
+      <c r="J36" s="15" t="n"/>
+      <c r="K36" s="15" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C36" s="11" t="n">
+      <c r="C37" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D36" s="11" t="n">
+      <c r="D37" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="E36" s="11" t="n">
+      <c r="E37" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F36" s="11" t="inlineStr">
+      <c r="F37" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="16" t="n"/>
-      <c r="C37" s="16" t="n"/>
-      <c r="D37" s="16" t="n"/>
-      <c r="E37" s="16" t="n">
+    <row r="38">
+      <c r="B38" s="16" t="n"/>
+      <c r="C38" s="16" t="n"/>
+      <c r="D38" s="16" t="n"/>
+      <c r="E38" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F37" s="16" t="inlineStr">
+      <c r="F38" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G37" s="15" t="n"/>
-      <c r="H37" s="15" t="n"/>
-      <c r="I37" s="15" t="n"/>
-      <c r="J37" s="15" t="n"/>
-      <c r="K37" s="15" t="n"/>
-      <c r="L37" s="15" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="11" t="n">
+      <c r="G38" s="15" t="n"/>
+      <c r="H38" s="15" t="n"/>
+      <c r="I38" s="15" t="n"/>
+      <c r="J38" s="15" t="n"/>
+      <c r="K38" s="15" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C38" s="11" t="n">
+      <c r="C39" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D38" s="11" t="n">
+      <c r="D39" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E38" s="11" t="n">
+      <c r="E39" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="F38" s="11" t="inlineStr">
+      <c r="F39" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="16" t="n"/>
-      <c r="C39" s="16" t="n"/>
-      <c r="D39" s="16" t="n"/>
-      <c r="E39" s="16" t="n">
+    <row r="40">
+      <c r="B40" s="16" t="n"/>
+      <c r="C40" s="16" t="n"/>
+      <c r="D40" s="16" t="n"/>
+      <c r="E40" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="F39" s="16" t="inlineStr">
+      <c r="F40" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G39" s="15" t="n"/>
-      <c r="H39" s="15" t="n"/>
-      <c r="I39" s="15" t="n"/>
-      <c r="J39" s="15" t="n"/>
-      <c r="K39" s="15" t="n"/>
-      <c r="L39" s="15" t="n"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="11" t="n">
+      <c r="G40" s="15" t="n"/>
+      <c r="H40" s="15" t="n"/>
+      <c r="I40" s="15" t="n"/>
+      <c r="J40" s="15" t="n"/>
+      <c r="K40" s="15" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C40" s="11" t="n">
+      <c r="C41" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D40" s="11" t="n">
+      <c r="D41" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="11" t="n">
+      <c r="E41" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="F40" s="11" t="inlineStr">
+      <c r="F41" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" s="16" t="n"/>
-      <c r="C41" s="16" t="n"/>
-      <c r="D41" s="16" t="n"/>
-      <c r="E41" s="16" t="n">
+    <row r="42">
+      <c r="B42" s="16" t="n"/>
+      <c r="C42" s="16" t="n"/>
+      <c r="D42" s="16" t="n"/>
+      <c r="E42" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="F41" s="16" t="inlineStr">
+      <c r="F42" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G41" s="15" t="n"/>
-      <c r="H41" s="15" t="n"/>
-      <c r="I41" s="15" t="n"/>
-      <c r="J41" s="15" t="n"/>
-      <c r="K41" s="15" t="n"/>
-      <c r="L41" s="15" t="n"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="11" t="n">
+      <c r="G42" s="15" t="n"/>
+      <c r="H42" s="15" t="n"/>
+      <c r="I42" s="15" t="n"/>
+      <c r="J42" s="15" t="n"/>
+      <c r="K42" s="15" t="n"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C42" s="11" t="n">
+      <c r="C43" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D42" s="11" t="n">
+      <c r="D43" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E42" s="11" t="n">
+      <c r="E43" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="11" t="inlineStr">
+      <c r="F43" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="15" t="n"/>
-      <c r="B43" s="16" t="n"/>
-      <c r="C43" s="16" t="n"/>
-      <c r="D43" s="16" t="n"/>
-      <c r="E43" s="16" t="n">
+    <row r="44">
+      <c r="A44" s="15" t="n"/>
+      <c r="B44" s="16" t="n"/>
+      <c r="C44" s="16" t="n"/>
+      <c r="D44" s="16" t="n"/>
+      <c r="E44" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F43" s="16" t="inlineStr">
+      <c r="F44" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G43" s="15" t="n"/>
-      <c r="H43" s="15" t="n"/>
-      <c r="I43" s="15" t="n"/>
-      <c r="J43" s="15" t="n"/>
-      <c r="K43" s="15" t="n"/>
-      <c r="L43" s="15" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="n">
+      <c r="G44" s="15" t="n"/>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
+      <c r="J44" s="15" t="n"/>
+      <c r="K44" s="15" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B44" s="11" t="n">
+      <c r="B45" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="11" t="inlineStr">
+      <c r="C45" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D44" s="11" t="n">
+      <c r="D45" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="11" t="n">
+      <c r="E45" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F44" s="11" t="inlineStr">
+      <c r="F45" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="16" t="n"/>
-      <c r="C45" s="16" t="n"/>
-      <c r="D45" s="16" t="n"/>
-      <c r="E45" s="16" t="n">
+    <row r="46">
+      <c r="B46" s="16" t="n"/>
+      <c r="C46" s="16" t="n"/>
+      <c r="D46" s="16" t="n"/>
+      <c r="E46" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F45" s="16" t="inlineStr">
+      <c r="F46" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G45" s="15" t="n"/>
-      <c r="H45" s="15" t="n"/>
-      <c r="I45" s="15" t="n"/>
-      <c r="J45" s="15" t="n"/>
-      <c r="K45" s="15" t="n"/>
-      <c r="L45" s="15" t="n"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="11" t="n">
+      <c r="G46" s="15" t="n"/>
+      <c r="H46" s="15" t="n"/>
+      <c r="I46" s="15" t="n"/>
+      <c r="J46" s="15" t="n"/>
+      <c r="K46" s="15" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C46" s="11" t="n">
+      <c r="C47" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D46" s="11" t="n">
+      <c r="D47" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="E46" s="11" t="n">
+      <c r="E47" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F46" s="11" t="inlineStr">
+      <c r="F47" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" s="16" t="n"/>
-      <c r="C47" s="16" t="n"/>
-      <c r="D47" s="16" t="n"/>
-      <c r="E47" s="16" t="n">
+    <row r="48">
+      <c r="B48" s="16" t="n"/>
+      <c r="C48" s="16" t="n"/>
+      <c r="D48" s="16" t="n"/>
+      <c r="E48" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F47" s="16" t="inlineStr">
+      <c r="F48" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G47" s="15" t="n"/>
-      <c r="H47" s="15" t="n"/>
-      <c r="I47" s="15" t="n"/>
-      <c r="J47" s="15" t="n"/>
-      <c r="K47" s="15" t="n"/>
-      <c r="L47" s="15" t="n"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="11" t="n">
+      <c r="G48" s="15" t="n"/>
+      <c r="H48" s="15" t="n"/>
+      <c r="I48" s="15" t="n"/>
+      <c r="J48" s="15" t="n"/>
+      <c r="K48" s="15" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C48" s="11" t="n">
+      <c r="C49" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D48" s="11" t="n">
+      <c r="D49" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E48" s="11" t="n">
+      <c r="E49" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F48" s="11" t="inlineStr">
+      <c r="F49" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" s="16" t="n"/>
-      <c r="C49" s="16" t="n"/>
-      <c r="D49" s="16" t="n"/>
-      <c r="E49" s="16" t="n">
+    <row r="50">
+      <c r="B50" s="16" t="n"/>
+      <c r="C50" s="16" t="n"/>
+      <c r="D50" s="16" t="n"/>
+      <c r="E50" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F49" s="16" t="inlineStr">
+      <c r="F50" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G49" s="15" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" s="15" t="n"/>
-      <c r="J49" s="15" t="n"/>
-      <c r="K49" s="15" t="n"/>
-      <c r="L49" s="15" t="n"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="11" t="n">
+      <c r="G50" s="15" t="n"/>
+      <c r="H50" s="15" t="n"/>
+      <c r="I50" s="15" t="n"/>
+      <c r="J50" s="15" t="n"/>
+      <c r="K50" s="15" t="n"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="11" t="n">
+      <c r="C51" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="D50" s="11" t="n">
+      <c r="D51" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E50" s="11" t="n">
+      <c r="E51" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F50" s="11" t="inlineStr">
+      <c r="F51" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="B51" s="16" t="n"/>
-      <c r="C51" s="16" t="n"/>
-      <c r="D51" s="16" t="n"/>
-      <c r="E51" s="16" t="n">
+    <row r="52">
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F51" s="16" t="inlineStr">
+      <c r="F52" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G51" s="15" t="n"/>
-      <c r="H51" s="15" t="n"/>
-      <c r="I51" s="15" t="n"/>
-      <c r="J51" s="15" t="n"/>
-      <c r="K51" s="15" t="n"/>
-      <c r="L51" s="15" t="n"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="11" t="n">
+      <c r="G52" s="15" t="n"/>
+      <c r="H52" s="15" t="n"/>
+      <c r="I52" s="15" t="n"/>
+      <c r="J52" s="15" t="n"/>
+      <c r="K52" s="15" t="n"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C52" s="11" t="n">
+      <c r="C53" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D52" s="11" t="n">
+      <c r="D53" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E52" s="11" t="n">
+      <c r="E53" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="F52" s="11" t="inlineStr">
+      <c r="F53" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" s="16" t="n"/>
-      <c r="C53" s="16" t="n"/>
-      <c r="D53" s="16" t="n"/>
-      <c r="E53" s="16" t="n">
+    <row r="54">
+      <c r="B54" s="16" t="n"/>
+      <c r="C54" s="16" t="n"/>
+      <c r="D54" s="16" t="n"/>
+      <c r="E54" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="F53" s="16" t="inlineStr">
+      <c r="F54" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G53" s="15" t="n"/>
-      <c r="H53" s="15" t="n"/>
-      <c r="I53" s="15" t="n"/>
-      <c r="J53" s="15" t="n"/>
-      <c r="K53" s="15" t="n"/>
-      <c r="L53" s="15" t="n"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="11" t="n">
+      <c r="G54" s="15" t="n"/>
+      <c r="H54" s="15" t="n"/>
+      <c r="I54" s="15" t="n"/>
+      <c r="J54" s="15" t="n"/>
+      <c r="K54" s="15" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C54" s="11" t="n">
+      <c r="C55" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D54" s="11" t="n">
+      <c r="D55" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E54" s="11" t="n">
+      <c r="E55" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F54" s="11" t="inlineStr">
+      <c r="F55" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="16" t="n"/>
-      <c r="C55" s="16" t="n"/>
-      <c r="D55" s="16" t="n"/>
-      <c r="E55" s="16" t="n">
+    <row r="56">
+      <c r="B56" s="16" t="n"/>
+      <c r="C56" s="16" t="n"/>
+      <c r="D56" s="16" t="n"/>
+      <c r="E56" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F55" s="16" t="inlineStr">
+      <c r="F56" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G55" s="15" t="n"/>
-      <c r="H55" s="15" t="n"/>
-      <c r="I55" s="15" t="n"/>
-      <c r="J55" s="15" t="n"/>
-      <c r="K55" s="15" t="n"/>
-      <c r="L55" s="15" t="n"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="11" t="n">
+      <c r="G56" s="15" t="n"/>
+      <c r="H56" s="15" t="n"/>
+      <c r="I56" s="15" t="n"/>
+      <c r="J56" s="15" t="n"/>
+      <c r="K56" s="15" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C56" s="11" t="n">
+      <c r="C57" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D56" s="11" t="n">
+      <c r="D57" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E56" s="11" t="n">
+      <c r="E57" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F56" s="11" t="inlineStr">
+      <c r="F57" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="15" t="n"/>
-      <c r="B57" s="16" t="n"/>
-      <c r="C57" s="16" t="n"/>
-      <c r="D57" s="16" t="n"/>
-      <c r="E57" s="16" t="n">
+    <row r="58">
+      <c r="A58" s="15" t="n"/>
+      <c r="B58" s="16" t="n"/>
+      <c r="C58" s="16" t="n"/>
+      <c r="D58" s="16" t="n"/>
+      <c r="E58" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F57" s="16" t="inlineStr">
+      <c r="F58" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G57" s="15" t="n"/>
-      <c r="H57" s="15" t="n"/>
-      <c r="I57" s="15" t="n"/>
-      <c r="J57" s="15" t="n"/>
-      <c r="K57" s="15" t="n"/>
-      <c r="L57" s="15" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="n">
+      <c r="G58" s="15" t="n"/>
+      <c r="H58" s="15" t="n"/>
+      <c r="I58" s="15" t="n"/>
+      <c r="J58" s="15" t="n"/>
+      <c r="K58" s="15" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B58" s="11" t="n">
+      <c r="B59" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C58" s="11" t="inlineStr">
+      <c r="C59" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D58" s="11" t="n">
+      <c r="D59" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E58" s="11" t="n">
+      <c r="E59" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F58" s="11" t="inlineStr">
+      <c r="F59" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="B59" s="16" t="n"/>
-      <c r="C59" s="16" t="n"/>
-      <c r="D59" s="16" t="n"/>
-      <c r="E59" s="16" t="n">
+    <row r="60">
+      <c r="B60" s="16" t="n"/>
+      <c r="C60" s="16" t="n"/>
+      <c r="D60" s="16" t="n"/>
+      <c r="E60" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F59" s="16" t="inlineStr">
+      <c r="F60" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G59" s="15" t="n"/>
-      <c r="H59" s="15" t="n"/>
-      <c r="I59" s="15" t="n"/>
-      <c r="J59" s="15" t="n"/>
-      <c r="K59" s="15" t="n"/>
-      <c r="L59" s="15" t="n"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="11" t="n">
+      <c r="G60" s="15" t="n"/>
+      <c r="H60" s="15" t="n"/>
+      <c r="I60" s="15" t="n"/>
+      <c r="J60" s="15" t="n"/>
+      <c r="K60" s="15" t="n"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C60" s="11" t="n">
+      <c r="C61" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D60" s="11" t="n">
+      <c r="D61" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E60" s="11" t="n">
+      <c r="E61" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F60" s="11" t="inlineStr">
+      <c r="F61" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="B61" s="16" t="n"/>
-      <c r="C61" s="16" t="n"/>
-      <c r="D61" s="16" t="n"/>
-      <c r="E61" s="16" t="n">
+    <row r="62">
+      <c r="B62" s="16" t="n"/>
+      <c r="C62" s="16" t="n"/>
+      <c r="D62" s="16" t="n"/>
+      <c r="E62" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F61" s="16" t="inlineStr">
+      <c r="F62" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G61" s="15" t="n"/>
-      <c r="H61" s="15" t="n"/>
-      <c r="I61" s="15" t="n"/>
-      <c r="J61" s="15" t="n"/>
-      <c r="K61" s="15" t="n"/>
-      <c r="L61" s="15" t="n"/>
-    </row>
-    <row r="62">
-      <c r="B62" s="11" t="n">
+      <c r="G62" s="15" t="n"/>
+      <c r="H62" s="15" t="n"/>
+      <c r="I62" s="15" t="n"/>
+      <c r="J62" s="15" t="n"/>
+      <c r="K62" s="15" t="n"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C62" s="11" t="n">
+      <c r="C63" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D62" s="11" t="n">
+      <c r="D63" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E62" s="11" t="n">
+      <c r="E63" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F62" s="11" t="inlineStr">
+      <c r="F63" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="B63" s="16" t="n"/>
-      <c r="C63" s="16" t="n"/>
-      <c r="D63" s="16" t="n"/>
-      <c r="E63" s="16" t="n">
+    <row r="64">
+      <c r="B64" s="16" t="n"/>
+      <c r="C64" s="16" t="n"/>
+      <c r="D64" s="16" t="n"/>
+      <c r="E64" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F63" s="16" t="inlineStr">
+      <c r="F64" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G63" s="15" t="n"/>
-      <c r="H63" s="15" t="n"/>
-      <c r="I63" s="15" t="n"/>
-      <c r="J63" s="15" t="n"/>
-      <c r="K63" s="15" t="n"/>
-      <c r="L63" s="15" t="n"/>
-    </row>
-    <row r="64">
-      <c r="B64" s="11" t="n">
+      <c r="G64" s="15" t="n"/>
+      <c r="H64" s="15" t="n"/>
+      <c r="I64" s="15" t="n"/>
+      <c r="J64" s="15" t="n"/>
+      <c r="K64" s="15" t="n"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C64" s="11" t="n">
+      <c r="C65" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="D64" s="11" t="n">
+      <c r="D65" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E64" s="11" t="n">
+      <c r="E65" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F64" s="11" t="inlineStr">
+      <c r="F65" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="B65" s="16" t="n"/>
-      <c r="C65" s="16" t="n"/>
-      <c r="D65" s="16" t="n"/>
-      <c r="E65" s="16" t="n">
+    <row r="66">
+      <c r="B66" s="16" t="n"/>
+      <c r="C66" s="16" t="n"/>
+      <c r="D66" s="16" t="n"/>
+      <c r="E66" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F65" s="16" t="inlineStr">
+      <c r="F66" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G65" s="15" t="n"/>
-      <c r="H65" s="15" t="n"/>
-      <c r="I65" s="15" t="n"/>
-      <c r="J65" s="15" t="n"/>
-      <c r="K65" s="15" t="n"/>
-      <c r="L65" s="15" t="n"/>
-    </row>
-    <row r="66">
-      <c r="B66" s="11" t="n">
+      <c r="G66" s="15" t="n"/>
+      <c r="H66" s="15" t="n"/>
+      <c r="I66" s="15" t="n"/>
+      <c r="J66" s="15" t="n"/>
+      <c r="K66" s="15" t="n"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C66" s="11" t="n">
+      <c r="C67" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D66" s="11" t="n">
+      <c r="D67" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E66" s="11" t="n">
+      <c r="E67" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F66" s="11" t="inlineStr">
+      <c r="F67" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="B67" s="16" t="n"/>
-      <c r="C67" s="16" t="n"/>
-      <c r="D67" s="16" t="n"/>
-      <c r="E67" s="16" t="n">
+    <row r="68">
+      <c r="B68" s="16" t="n"/>
+      <c r="C68" s="16" t="n"/>
+      <c r="D68" s="16" t="n"/>
+      <c r="E68" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F67" s="16" t="inlineStr">
+      <c r="F68" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G67" s="15" t="n"/>
-      <c r="H67" s="15" t="n"/>
-      <c r="I67" s="15" t="n"/>
-      <c r="J67" s="15" t="n"/>
-      <c r="K67" s="15" t="n"/>
-      <c r="L67" s="15" t="n"/>
-    </row>
-    <row r="68">
-      <c r="B68" s="11" t="n">
+      <c r="G68" s="15" t="n"/>
+      <c r="H68" s="15" t="n"/>
+      <c r="I68" s="15" t="n"/>
+      <c r="J68" s="15" t="n"/>
+      <c r="K68" s="15" t="n"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C68" s="11" t="n">
+      <c r="C69" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="D68" s="11" t="n">
+      <c r="D69" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E68" s="11" t="n">
+      <c r="E69" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F68" s="11" t="inlineStr">
+      <c r="F69" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="B69" s="16" t="n"/>
-      <c r="C69" s="16" t="n"/>
-      <c r="D69" s="16" t="n"/>
-      <c r="E69" s="16" t="n">
+    <row r="70">
+      <c r="B70" s="16" t="n"/>
+      <c r="C70" s="16" t="n"/>
+      <c r="D70" s="16" t="n"/>
+      <c r="E70" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F69" s="16" t="inlineStr">
+      <c r="F70" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G69" s="15" t="n"/>
-      <c r="H69" s="15" t="n"/>
-      <c r="I69" s="15" t="n"/>
-      <c r="J69" s="15" t="n"/>
-      <c r="K69" s="15" t="n"/>
-      <c r="L69" s="15" t="n"/>
-    </row>
-    <row r="70">
-      <c r="B70" s="11" t="n">
+      <c r="G70" s="15" t="n"/>
+      <c r="H70" s="15" t="n"/>
+      <c r="I70" s="15" t="n"/>
+      <c r="J70" s="15" t="n"/>
+      <c r="K70" s="15" t="n"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C70" s="11" t="n">
+      <c r="C71" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D70" s="11" t="n">
+      <c r="D71" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E70" s="11" t="n">
+      <c r="E71" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F70" s="11" t="inlineStr">
+      <c r="F71" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="15" t="n"/>
-      <c r="B71" s="16" t="n"/>
-      <c r="C71" s="16" t="n"/>
-      <c r="D71" s="16" t="n"/>
-      <c r="E71" s="16" t="n">
+    <row r="72">
+      <c r="A72" s="15" t="n"/>
+      <c r="B72" s="16" t="n"/>
+      <c r="C72" s="16" t="n"/>
+      <c r="D72" s="16" t="n"/>
+      <c r="E72" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F71" s="16" t="inlineStr">
+      <c r="F72" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G71" s="15" t="n"/>
-      <c r="H71" s="15" t="n"/>
-      <c r="I71" s="15" t="n"/>
-      <c r="J71" s="15" t="n"/>
-      <c r="K71" s="15" t="n"/>
-      <c r="L71" s="15" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="n">
+      <c r="G72" s="15" t="n"/>
+      <c r="H72" s="15" t="n"/>
+      <c r="I72" s="15" t="n"/>
+      <c r="J72" s="15" t="n"/>
+      <c r="K72" s="15" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B72" s="11" t="n">
+      <c r="B73" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="11" t="inlineStr">
+      <c r="C73" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D72" s="11" t="n">
+      <c r="D73" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E72" s="11" t="n">
+      <c r="E73" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F72" s="11" t="inlineStr">
+      <c r="F73" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" s="16" t="n"/>
-      <c r="C73" s="16" t="n"/>
-      <c r="D73" s="16" t="n"/>
-      <c r="E73" s="16" t="n">
+    <row r="74">
+      <c r="B74" s="16" t="n"/>
+      <c r="C74" s="16" t="n"/>
+      <c r="D74" s="16" t="n"/>
+      <c r="E74" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F73" s="16" t="inlineStr">
+      <c r="F74" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G73" s="15" t="n"/>
-      <c r="H73" s="15" t="n"/>
-      <c r="I73" s="15" t="n"/>
-      <c r="J73" s="15" t="n"/>
-      <c r="K73" s="15" t="n"/>
-      <c r="L73" s="15" t="n"/>
-    </row>
-    <row r="74">
-      <c r="B74" s="11" t="n">
+      <c r="G74" s="15" t="n"/>
+      <c r="H74" s="15" t="n"/>
+      <c r="I74" s="15" t="n"/>
+      <c r="J74" s="15" t="n"/>
+      <c r="K74" s="15" t="n"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C74" s="11" t="n">
+      <c r="C75" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D74" s="11" t="n">
+      <c r="D75" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E74" s="11" t="n">
+      <c r="E75" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F74" s="11" t="inlineStr">
+      <c r="F75" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="B75" s="16" t="n"/>
-      <c r="C75" s="16" t="n"/>
-      <c r="D75" s="16" t="n"/>
-      <c r="E75" s="16" t="n">
+    <row r="76">
+      <c r="B76" s="16" t="n"/>
+      <c r="C76" s="16" t="n"/>
+      <c r="D76" s="16" t="n"/>
+      <c r="E76" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F75" s="16" t="inlineStr">
+      <c r="F76" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G75" s="15" t="n"/>
-      <c r="H75" s="15" t="n"/>
-      <c r="I75" s="15" t="n"/>
-      <c r="J75" s="15" t="n"/>
-      <c r="K75" s="15" t="n"/>
-      <c r="L75" s="15" t="n"/>
-    </row>
-    <row r="76">
-      <c r="B76" s="11" t="n">
+      <c r="G76" s="15" t="n"/>
+      <c r="H76" s="15" t="n"/>
+      <c r="I76" s="15" t="n"/>
+      <c r="J76" s="15" t="n"/>
+      <c r="K76" s="15" t="n"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C76" s="11" t="n">
+      <c r="C77" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D76" s="11" t="n">
+      <c r="D77" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E76" s="11" t="n">
+      <c r="E77" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F76" s="11" t="inlineStr">
+      <c r="F77" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="B77" s="16" t="n"/>
-      <c r="C77" s="16" t="n"/>
-      <c r="D77" s="16" t="n"/>
-      <c r="E77" s="16" t="n">
+    <row r="78">
+      <c r="B78" s="16" t="n"/>
+      <c r="C78" s="16" t="n"/>
+      <c r="D78" s="16" t="n"/>
+      <c r="E78" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F77" s="16" t="inlineStr">
+      <c r="F78" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G77" s="15" t="n"/>
-      <c r="H77" s="15" t="n"/>
-      <c r="I77" s="15" t="n"/>
-      <c r="J77" s="15" t="n"/>
-      <c r="K77" s="15" t="n"/>
-      <c r="L77" s="15" t="n"/>
-    </row>
-    <row r="78">
-      <c r="B78" s="11" t="n">
+      <c r="G78" s="15" t="n"/>
+      <c r="H78" s="15" t="n"/>
+      <c r="I78" s="15" t="n"/>
+      <c r="J78" s="15" t="n"/>
+      <c r="K78" s="15" t="n"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C78" s="11" t="n">
+      <c r="C79" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D78" s="11" t="n">
+      <c r="D79" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E78" s="11" t="n">
+      <c r="E79" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F78" s="11" t="inlineStr">
+      <c r="F79" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="B79" s="16" t="n"/>
-      <c r="C79" s="16" t="n"/>
-      <c r="D79" s="16" t="n"/>
-      <c r="E79" s="16" t="n">
+    <row r="80">
+      <c r="B80" s="16" t="n"/>
+      <c r="C80" s="16" t="n"/>
+      <c r="D80" s="16" t="n"/>
+      <c r="E80" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F79" s="16" t="inlineStr">
+      <c r="F80" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G79" s="15" t="n"/>
-      <c r="H79" s="15" t="n"/>
-      <c r="I79" s="15" t="n"/>
-      <c r="J79" s="15" t="n"/>
-      <c r="K79" s="15" t="n"/>
-      <c r="L79" s="15" t="n"/>
-    </row>
-    <row r="80">
-      <c r="B80" s="11" t="n">
+      <c r="G80" s="15" t="n"/>
+      <c r="H80" s="15" t="n"/>
+      <c r="I80" s="15" t="n"/>
+      <c r="J80" s="15" t="n"/>
+      <c r="K80" s="15" t="n"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C80" s="11" t="n">
+      <c r="C81" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D80" s="11" t="n">
+      <c r="D81" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E80" s="11" t="n">
+      <c r="E81" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F80" s="11" t="inlineStr">
+      <c r="F81" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="B81" s="16" t="n"/>
-      <c r="C81" s="16" t="n"/>
-      <c r="D81" s="16" t="n"/>
-      <c r="E81" s="16" t="n">
+    <row r="82">
+      <c r="B82" s="16" t="n"/>
+      <c r="C82" s="16" t="n"/>
+      <c r="D82" s="16" t="n"/>
+      <c r="E82" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F81" s="16" t="inlineStr">
+      <c r="F82" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G81" s="15" t="n"/>
-      <c r="H81" s="15" t="n"/>
-      <c r="I81" s="15" t="n"/>
-      <c r="J81" s="15" t="n"/>
-      <c r="K81" s="15" t="n"/>
-      <c r="L81" s="15" t="n"/>
-    </row>
-    <row r="82">
-      <c r="B82" s="11" t="n">
+      <c r="G82" s="15" t="n"/>
+      <c r="H82" s="15" t="n"/>
+      <c r="I82" s="15" t="n"/>
+      <c r="J82" s="15" t="n"/>
+      <c r="K82" s="15" t="n"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C82" s="11" t="n">
+      <c r="C83" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="D82" s="11" t="n">
+      <c r="D83" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E82" s="11" t="n">
+      <c r="E83" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F82" s="11" t="inlineStr">
+      <c r="F83" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="B83" s="16" t="n"/>
-      <c r="C83" s="16" t="n"/>
-      <c r="D83" s="16" t="n"/>
-      <c r="E83" s="16" t="n">
+    <row r="84">
+      <c r="B84" s="16" t="n"/>
+      <c r="C84" s="16" t="n"/>
+      <c r="D84" s="16" t="n"/>
+      <c r="E84" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F83" s="16" t="inlineStr">
+      <c r="F84" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G83" s="15" t="n"/>
-      <c r="H83" s="15" t="n"/>
-      <c r="I83" s="15" t="n"/>
-      <c r="J83" s="15" t="n"/>
-      <c r="K83" s="15" t="n"/>
-      <c r="L83" s="15" t="n"/>
-    </row>
-    <row r="84">
-      <c r="B84" s="11" t="n">
+      <c r="G84" s="15" t="n"/>
+      <c r="H84" s="15" t="n"/>
+      <c r="I84" s="15" t="n"/>
+      <c r="J84" s="15" t="n"/>
+      <c r="K84" s="15" t="n"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C84" s="11" t="n">
+      <c r="C85" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D84" s="11" t="n">
+      <c r="D85" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="E84" s="11" t="n">
+      <c r="E85" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F84" s="11" t="inlineStr">
+      <c r="F85" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="15" t="n"/>
-      <c r="B85" s="16" t="n"/>
-      <c r="C85" s="16" t="n"/>
-      <c r="D85" s="16" t="n"/>
-      <c r="E85" s="16" t="n">
+    <row r="86">
+      <c r="A86" s="15" t="n"/>
+      <c r="B86" s="16" t="n"/>
+      <c r="C86" s="16" t="n"/>
+      <c r="D86" s="16" t="n"/>
+      <c r="E86" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F85" s="16" t="inlineStr">
+      <c r="F86" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G85" s="15" t="n"/>
-      <c r="H85" s="15" t="n"/>
-      <c r="I85" s="15" t="n"/>
-      <c r="J85" s="15" t="n"/>
-      <c r="K85" s="15" t="n"/>
-      <c r="L85" s="15" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="n">
+      <c r="G86" s="15" t="n"/>
+      <c r="H86" s="15" t="n"/>
+      <c r="I86" s="15" t="n"/>
+      <c r="J86" s="15" t="n"/>
+      <c r="K86" s="15" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B86" s="11" t="n">
+      <c r="B87" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C86" s="11" t="inlineStr">
+      <c r="C87" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D86" s="11" t="n">
+      <c r="D87" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E86" s="11" t="n">
+      <c r="E87" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F86" s="11" t="inlineStr">
+      <c r="F87" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="B87" s="16" t="n"/>
-      <c r="C87" s="16" t="n"/>
-      <c r="D87" s="16" t="n"/>
-      <c r="E87" s="16" t="n">
+    <row r="88">
+      <c r="B88" s="16" t="n"/>
+      <c r="C88" s="16" t="n"/>
+      <c r="D88" s="16" t="n"/>
+      <c r="E88" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F87" s="16" t="inlineStr">
+      <c r="F88" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G87" s="15" t="n"/>
-      <c r="H87" s="15" t="n"/>
-      <c r="I87" s="15" t="n"/>
-      <c r="J87" s="15" t="n"/>
-      <c r="K87" s="15" t="n"/>
-      <c r="L87" s="15" t="n"/>
-    </row>
-    <row r="88">
-      <c r="B88" s="11" t="n">
+      <c r="G88" s="15" t="n"/>
+      <c r="H88" s="15" t="n"/>
+      <c r="I88" s="15" t="n"/>
+      <c r="J88" s="15" t="n"/>
+      <c r="K88" s="15" t="n"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C88" s="11" t="n">
+      <c r="C89" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D88" s="11" t="n">
+      <c r="D89" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E88" s="11" t="n">
+      <c r="E89" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F88" s="11" t="inlineStr">
+      <c r="F89" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="B89" s="16" t="n"/>
-      <c r="C89" s="16" t="n"/>
-      <c r="D89" s="16" t="n"/>
-      <c r="E89" s="16" t="n">
+    <row r="90">
+      <c r="B90" s="16" t="n"/>
+      <c r="C90" s="16" t="n"/>
+      <c r="D90" s="16" t="n"/>
+      <c r="E90" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F89" s="16" t="inlineStr">
+      <c r="F90" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G89" s="15" t="n"/>
-      <c r="H89" s="15" t="n"/>
-      <c r="I89" s="15" t="n"/>
-      <c r="J89" s="15" t="n"/>
-      <c r="K89" s="15" t="n"/>
-      <c r="L89" s="15" t="n"/>
-    </row>
-    <row r="90">
-      <c r="B90" s="11" t="n">
+      <c r="G90" s="15" t="n"/>
+      <c r="H90" s="15" t="n"/>
+      <c r="I90" s="15" t="n"/>
+      <c r="J90" s="15" t="n"/>
+      <c r="K90" s="15" t="n"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C90" s="11" t="n">
+      <c r="C91" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D90" s="11" t="n">
+      <c r="D91" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E90" s="11" t="n">
+      <c r="E91" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F90" s="11" t="inlineStr">
+      <c r="F91" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="B91" s="16" t="n"/>
-      <c r="C91" s="16" t="n"/>
-      <c r="D91" s="16" t="n"/>
-      <c r="E91" s="16" t="n">
+    <row r="92">
+      <c r="B92" s="16" t="n"/>
+      <c r="C92" s="16" t="n"/>
+      <c r="D92" s="16" t="n"/>
+      <c r="E92" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F91" s="16" t="inlineStr">
+      <c r="F92" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G91" s="15" t="n"/>
-      <c r="H91" s="15" t="n"/>
-      <c r="I91" s="15" t="n"/>
-      <c r="J91" s="15" t="n"/>
-      <c r="K91" s="15" t="n"/>
-      <c r="L91" s="15" t="n"/>
-    </row>
-    <row r="92">
-      <c r="B92" s="11" t="n">
+      <c r="G92" s="15" t="n"/>
+      <c r="H92" s="15" t="n"/>
+      <c r="I92" s="15" t="n"/>
+      <c r="J92" s="15" t="n"/>
+      <c r="K92" s="15" t="n"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C92" s="11" t="n">
+      <c r="C93" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D92" s="11" t="n">
+      <c r="D93" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E92" s="11" t="n">
+      <c r="E93" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F92" s="11" t="inlineStr">
+      <c r="F93" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="B93" s="16" t="n"/>
-      <c r="C93" s="16" t="n"/>
-      <c r="D93" s="16" t="n"/>
-      <c r="E93" s="16" t="n">
+    <row r="94">
+      <c r="B94" s="16" t="n"/>
+      <c r="C94" s="16" t="n"/>
+      <c r="D94" s="16" t="n"/>
+      <c r="E94" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F93" s="16" t="inlineStr">
+      <c r="F94" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G93" s="15" t="n"/>
-      <c r="H93" s="15" t="n"/>
-      <c r="I93" s="15" t="n"/>
-      <c r="J93" s="15" t="n"/>
-      <c r="K93" s="15" t="n"/>
-      <c r="L93" s="15" t="n"/>
-    </row>
-    <row r="94">
-      <c r="B94" s="11" t="n">
+      <c r="G94" s="15" t="n"/>
+      <c r="H94" s="15" t="n"/>
+      <c r="I94" s="15" t="n"/>
+      <c r="J94" s="15" t="n"/>
+      <c r="K94" s="15" t="n"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C94" s="11" t="n">
+      <c r="C95" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="D94" s="11" t="n">
+      <c r="D95" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E94" s="11" t="n">
+      <c r="E95" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F94" s="11" t="inlineStr">
+      <c r="F95" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="B95" s="16" t="n"/>
-      <c r="C95" s="16" t="n"/>
-      <c r="D95" s="16" t="n"/>
-      <c r="E95" s="16" t="n">
+    <row r="96">
+      <c r="B96" s="16" t="n"/>
+      <c r="C96" s="16" t="n"/>
+      <c r="D96" s="16" t="n"/>
+      <c r="E96" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F95" s="16" t="inlineStr">
+      <c r="F96" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G95" s="15" t="n"/>
-      <c r="H95" s="15" t="n"/>
-      <c r="I95" s="15" t="n"/>
-      <c r="J95" s="15" t="n"/>
-      <c r="K95" s="15" t="n"/>
-      <c r="L95" s="15" t="n"/>
-    </row>
-    <row r="96">
-      <c r="B96" s="11" t="n">
+      <c r="G96" s="15" t="n"/>
+      <c r="H96" s="15" t="n"/>
+      <c r="I96" s="15" t="n"/>
+      <c r="J96" s="15" t="n"/>
+      <c r="K96" s="15" t="n"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C96" s="11" t="n">
+      <c r="C97" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D96" s="11" t="n">
+      <c r="D97" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E96" s="11" t="n">
+      <c r="E97" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F96" s="11" t="inlineStr">
+      <c r="F97" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="B97" s="16" t="n"/>
-      <c r="C97" s="16" t="n"/>
-      <c r="D97" s="16" t="n"/>
-      <c r="E97" s="16" t="n">
+    <row r="98">
+      <c r="B98" s="16" t="n"/>
+      <c r="C98" s="16" t="n"/>
+      <c r="D98" s="16" t="n"/>
+      <c r="E98" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F97" s="16" t="inlineStr">
+      <c r="F98" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G97" s="15" t="n"/>
-      <c r="H97" s="15" t="n"/>
-      <c r="I97" s="15" t="n"/>
-      <c r="J97" s="15" t="n"/>
-      <c r="K97" s="15" t="n"/>
-      <c r="L97" s="15" t="n"/>
-    </row>
-    <row r="98">
-      <c r="B98" s="11" t="n">
+      <c r="G98" s="15" t="n"/>
+      <c r="H98" s="15" t="n"/>
+      <c r="I98" s="15" t="n"/>
+      <c r="J98" s="15" t="n"/>
+      <c r="K98" s="15" t="n"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C98" s="11" t="n">
+      <c r="C99" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D98" s="11" t="n">
+      <c r="D99" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="E98" s="11" t="n">
+      <c r="E99" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F98" s="11" t="inlineStr">
+      <c r="F99" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="15" t="n"/>
-      <c r="B99" s="16" t="n"/>
-      <c r="C99" s="16" t="n"/>
-      <c r="D99" s="16" t="n"/>
-      <c r="E99" s="16" t="n">
+    <row r="100">
+      <c r="A100" s="15" t="n"/>
+      <c r="B100" s="16" t="n"/>
+      <c r="C100" s="16" t="n"/>
+      <c r="D100" s="16" t="n"/>
+      <c r="E100" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F99" s="16" t="inlineStr">
+      <c r="F100" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G99" s="15" t="n"/>
-      <c r="H99" s="15" t="n"/>
-      <c r="I99" s="15" t="n"/>
-      <c r="J99" s="15" t="n"/>
-      <c r="K99" s="15" t="n"/>
-      <c r="L99" s="15" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="n">
+      <c r="G100" s="15" t="n"/>
+      <c r="H100" s="15" t="n"/>
+      <c r="I100" s="15" t="n"/>
+      <c r="J100" s="15" t="n"/>
+      <c r="K100" s="15" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B100" s="11" t="n">
+      <c r="B101" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C100" s="11" t="inlineStr">
+      <c r="C101" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D100" s="11" t="n">
+      <c r="D101" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E100" s="11" t="n">
+      <c r="E101" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F100" s="11" t="inlineStr">
+      <c r="F101" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="B101" s="16" t="n"/>
-      <c r="C101" s="16" t="n"/>
-      <c r="D101" s="16" t="n"/>
-      <c r="E101" s="16" t="n">
+    <row r="102">
+      <c r="B102" s="16" t="n"/>
+      <c r="C102" s="16" t="n"/>
+      <c r="D102" s="16" t="n"/>
+      <c r="E102" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F101" s="16" t="inlineStr">
+      <c r="F102" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G101" s="15" t="n"/>
-      <c r="H101" s="15" t="n"/>
-      <c r="I101" s="15" t="n"/>
-      <c r="J101" s="15" t="n"/>
-      <c r="K101" s="15" t="n"/>
-      <c r="L101" s="15" t="n"/>
-    </row>
-    <row r="102">
-      <c r="B102" s="11" t="n">
+      <c r="G102" s="15" t="n"/>
+      <c r="H102" s="15" t="n"/>
+      <c r="I102" s="15" t="n"/>
+      <c r="J102" s="15" t="n"/>
+      <c r="K102" s="15" t="n"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C102" s="11" t="n">
+      <c r="C103" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="D102" s="11" t="n">
+      <c r="D103" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E102" s="11" t="n">
+      <c r="E103" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F102" s="11" t="inlineStr">
+      <c r="F103" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="B103" s="16" t="n"/>
-      <c r="C103" s="16" t="n"/>
-      <c r="D103" s="16" t="n"/>
-      <c r="E103" s="16" t="n">
+    <row r="104">
+      <c r="B104" s="16" t="n"/>
+      <c r="C104" s="16" t="n"/>
+      <c r="D104" s="16" t="n"/>
+      <c r="E104" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F103" s="16" t="inlineStr">
+      <c r="F104" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G103" s="15" t="n"/>
-      <c r="H103" s="15" t="n"/>
-      <c r="I103" s="15" t="n"/>
-      <c r="J103" s="15" t="n"/>
-      <c r="K103" s="15" t="n"/>
-      <c r="L103" s="15" t="n"/>
-    </row>
-    <row r="104">
-      <c r="B104" s="11" t="n">
+      <c r="G104" s="15" t="n"/>
+      <c r="H104" s="15" t="n"/>
+      <c r="I104" s="15" t="n"/>
+      <c r="J104" s="15" t="n"/>
+      <c r="K104" s="15" t="n"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C104" s="11" t="n">
+      <c r="C105" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D104" s="11" t="n">
+      <c r="D105" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E104" s="11" t="n">
+      <c r="E105" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F104" s="11" t="inlineStr">
+      <c r="F105" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="B105" s="16" t="n"/>
-      <c r="C105" s="16" t="n"/>
-      <c r="D105" s="16" t="n"/>
-      <c r="E105" s="16" t="n">
+    <row r="106">
+      <c r="B106" s="16" t="n"/>
+      <c r="C106" s="16" t="n"/>
+      <c r="D106" s="16" t="n"/>
+      <c r="E106" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F105" s="16" t="inlineStr">
+      <c r="F106" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G105" s="15" t="n"/>
-      <c r="H105" s="15" t="n"/>
-      <c r="I105" s="15" t="n"/>
-      <c r="J105" s="15" t="n"/>
-      <c r="K105" s="15" t="n"/>
-      <c r="L105" s="15" t="n"/>
-    </row>
-    <row r="106">
-      <c r="B106" s="11" t="n">
+      <c r="G106" s="15" t="n"/>
+      <c r="H106" s="15" t="n"/>
+      <c r="I106" s="15" t="n"/>
+      <c r="J106" s="15" t="n"/>
+      <c r="K106" s="15" t="n"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C106" s="11" t="n">
+      <c r="C107" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D106" s="11" t="n">
+      <c r="D107" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E106" s="11" t="n">
+      <c r="E107" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="F106" s="11" t="inlineStr">
+      <c r="F107" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="B107" s="16" t="n"/>
-      <c r="C107" s="16" t="n"/>
-      <c r="D107" s="16" t="n"/>
-      <c r="E107" s="16" t="n">
+    <row r="108">
+      <c r="B108" s="16" t="n"/>
+      <c r="C108" s="16" t="n"/>
+      <c r="D108" s="16" t="n"/>
+      <c r="E108" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="F107" s="16" t="inlineStr">
+      <c r="F108" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G107" s="15" t="n"/>
-      <c r="H107" s="15" t="n"/>
-      <c r="I107" s="15" t="n"/>
-      <c r="J107" s="15" t="n"/>
-      <c r="K107" s="15" t="n"/>
-      <c r="L107" s="15" t="n"/>
-    </row>
-    <row r="108">
-      <c r="B108" s="11" t="n">
+      <c r="G108" s="15" t="n"/>
+      <c r="H108" s="15" t="n"/>
+      <c r="I108" s="15" t="n"/>
+      <c r="J108" s="15" t="n"/>
+      <c r="K108" s="15" t="n"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C108" s="11" t="n">
+      <c r="C109" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="D108" s="11" t="n">
+      <c r="D109" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E108" s="11" t="n">
+      <c r="E109" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F108" s="11" t="inlineStr">
+      <c r="F109" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="B109" s="16" t="n"/>
-      <c r="C109" s="16" t="n"/>
-      <c r="D109" s="16" t="n"/>
-      <c r="E109" s="16" t="n">
+    <row r="110">
+      <c r="B110" s="16" t="n"/>
+      <c r="C110" s="16" t="n"/>
+      <c r="D110" s="16" t="n"/>
+      <c r="E110" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F109" s="16" t="inlineStr">
+      <c r="F110" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G109" s="15" t="n"/>
-      <c r="H109" s="15" t="n"/>
-      <c r="I109" s="15" t="n"/>
-      <c r="J109" s="15" t="n"/>
-      <c r="K109" s="15" t="n"/>
-      <c r="L109" s="15" t="n"/>
-    </row>
-    <row r="110">
-      <c r="B110" s="11" t="n">
+      <c r="G110" s="15" t="n"/>
+      <c r="H110" s="15" t="n"/>
+      <c r="I110" s="15" t="n"/>
+      <c r="J110" s="15" t="n"/>
+      <c r="K110" s="15" t="n"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C110" s="11" t="n">
+      <c r="C111" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D110" s="11" t="n">
+      <c r="D111" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E110" s="11" t="n">
+      <c r="E111" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F110" s="11" t="inlineStr">
+      <c r="F111" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="B111" s="16" t="n"/>
-      <c r="C111" s="16" t="n"/>
-      <c r="D111" s="16" t="n"/>
-      <c r="E111" s="16" t="n">
+    <row r="112">
+      <c r="B112" s="16" t="n"/>
+      <c r="C112" s="16" t="n"/>
+      <c r="D112" s="16" t="n"/>
+      <c r="E112" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F111" s="16" t="inlineStr">
+      <c r="F112" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G111" s="15" t="n"/>
-      <c r="H111" s="15" t="n"/>
-      <c r="I111" s="15" t="n"/>
-      <c r="J111" s="15" t="n"/>
-      <c r="K111" s="15" t="n"/>
-      <c r="L111" s="15" t="n"/>
-    </row>
-    <row r="112">
-      <c r="B112" s="11" t="n">
+      <c r="G112" s="15" t="n"/>
+      <c r="H112" s="15" t="n"/>
+      <c r="I112" s="15" t="n"/>
+      <c r="J112" s="15" t="n"/>
+      <c r="K112" s="15" t="n"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C112" s="11" t="n">
+      <c r="C113" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D112" s="11" t="n">
+      <c r="D113" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E112" s="11" t="n">
+      <c r="E113" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F112" s="11" t="inlineStr">
+      <c r="F113" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="15" t="n"/>
-      <c r="B113" s="16" t="n"/>
-      <c r="C113" s="16" t="n"/>
-      <c r="D113" s="16" t="n"/>
-      <c r="E113" s="16" t="n">
+    <row r="114">
+      <c r="A114" s="15" t="n"/>
+      <c r="B114" s="16" t="n"/>
+      <c r="C114" s="16" t="n"/>
+      <c r="D114" s="16" t="n"/>
+      <c r="E114" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F113" s="16" t="inlineStr">
+      <c r="F114" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G113" s="15" t="n"/>
-      <c r="H113" s="15" t="n"/>
-      <c r="I113" s="15" t="n"/>
-      <c r="J113" s="15" t="n"/>
-      <c r="K113" s="15" t="n"/>
-      <c r="L113" s="15" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="n">
+      <c r="G114" s="15" t="n"/>
+      <c r="H114" s="15" t="n"/>
+      <c r="I114" s="15" t="n"/>
+      <c r="J114" s="15" t="n"/>
+      <c r="K114" s="15" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B114" s="11" t="n">
+      <c r="B115" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C114" s="11" t="inlineStr">
+      <c r="C115" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D114" s="11" t="n">
+      <c r="D115" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E114" s="11" t="n">
+      <c r="E115" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F114" s="11" t="inlineStr">
+      <c r="F115" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="B115" s="16" t="n"/>
-      <c r="C115" s="16" t="n"/>
-      <c r="D115" s="16" t="n"/>
-      <c r="E115" s="16" t="n">
+    <row r="116">
+      <c r="B116" s="16" t="n"/>
+      <c r="C116" s="16" t="n"/>
+      <c r="D116" s="16" t="n"/>
+      <c r="E116" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F115" s="16" t="inlineStr">
+      <c r="F116" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G115" s="15" t="n"/>
-      <c r="H115" s="15" t="n"/>
-      <c r="I115" s="15" t="n"/>
-      <c r="J115" s="15" t="n"/>
-      <c r="K115" s="15" t="n"/>
-      <c r="L115" s="15" t="n"/>
-    </row>
-    <row r="116">
-      <c r="B116" s="11" t="n">
+      <c r="G116" s="15" t="n"/>
+      <c r="H116" s="15" t="n"/>
+      <c r="I116" s="15" t="n"/>
+      <c r="J116" s="15" t="n"/>
+      <c r="K116" s="15" t="n"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C116" s="11" t="n">
+      <c r="C117" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="D116" s="11" t="n">
+      <c r="D117" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="11" t="n">
+      <c r="E117" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F116" s="11" t="inlineStr">
+      <c r="F117" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="B117" s="16" t="n"/>
-      <c r="C117" s="16" t="n"/>
-      <c r="D117" s="16" t="n"/>
-      <c r="E117" s="16" t="n">
+    <row r="118">
+      <c r="B118" s="16" t="n"/>
+      <c r="C118" s="16" t="n"/>
+      <c r="D118" s="16" t="n"/>
+      <c r="E118" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F117" s="16" t="inlineStr">
+      <c r="F118" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G117" s="15" t="n"/>
-      <c r="H117" s="15" t="n"/>
-      <c r="I117" s="15" t="n"/>
-      <c r="J117" s="15" t="n"/>
-      <c r="K117" s="15" t="n"/>
-      <c r="L117" s="15" t="n"/>
-    </row>
-    <row r="118">
-      <c r="B118" s="11" t="n">
+      <c r="G118" s="15" t="n"/>
+      <c r="H118" s="15" t="n"/>
+      <c r="I118" s="15" t="n"/>
+      <c r="J118" s="15" t="n"/>
+      <c r="K118" s="15" t="n"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C118" s="11" t="n">
+      <c r="C119" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D118" s="11" t="n">
+      <c r="D119" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E118" s="11" t="n">
+      <c r="E119" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="F118" s="11" t="inlineStr">
+      <c r="F119" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="B119" s="16" t="n"/>
-      <c r="C119" s="16" t="n"/>
-      <c r="D119" s="16" t="n"/>
-      <c r="E119" s="16" t="n">
+    <row r="120">
+      <c r="B120" s="16" t="n"/>
+      <c r="C120" s="16" t="n"/>
+      <c r="D120" s="16" t="n"/>
+      <c r="E120" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="F119" s="16" t="inlineStr">
+      <c r="F120" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G119" s="15" t="n"/>
-      <c r="H119" s="15" t="n"/>
-      <c r="I119" s="15" t="n"/>
-      <c r="J119" s="15" t="n"/>
-      <c r="K119" s="15" t="n"/>
-      <c r="L119" s="15" t="n"/>
-    </row>
-    <row r="120">
-      <c r="B120" s="11" t="n">
+      <c r="G120" s="15" t="n"/>
+      <c r="H120" s="15" t="n"/>
+      <c r="I120" s="15" t="n"/>
+      <c r="J120" s="15" t="n"/>
+      <c r="K120" s="15" t="n"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C120" s="11" t="n">
+      <c r="C121" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D120" s="11" t="n">
+      <c r="D121" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E120" s="11" t="n">
+      <c r="E121" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="F120" s="11" t="inlineStr">
+      <c r="F121" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="B121" s="16" t="n"/>
-      <c r="C121" s="16" t="n"/>
-      <c r="D121" s="16" t="n"/>
-      <c r="E121" s="16" t="n">
+    <row r="122">
+      <c r="B122" s="16" t="n"/>
+      <c r="C122" s="16" t="n"/>
+      <c r="D122" s="16" t="n"/>
+      <c r="E122" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="F121" s="16" t="inlineStr">
+      <c r="F122" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G121" s="15" t="n"/>
-      <c r="H121" s="15" t="n"/>
-      <c r="I121" s="15" t="n"/>
-      <c r="J121" s="15" t="n"/>
-      <c r="K121" s="15" t="n"/>
-      <c r="L121" s="15" t="n"/>
-    </row>
-    <row r="122">
-      <c r="B122" s="11" t="n">
+      <c r="G122" s="15" t="n"/>
+      <c r="H122" s="15" t="n"/>
+      <c r="I122" s="15" t="n"/>
+      <c r="J122" s="15" t="n"/>
+      <c r="K122" s="15" t="n"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C122" s="11" t="n">
+      <c r="C123" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D122" s="11" t="n">
+      <c r="D123" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E122" s="11" t="n">
+      <c r="E123" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F122" s="11" t="inlineStr">
+      <c r="F123" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="B123" s="16" t="n"/>
-      <c r="C123" s="16" t="n"/>
-      <c r="D123" s="16" t="n"/>
-      <c r="E123" s="16" t="n">
+    <row r="124">
+      <c r="B124" s="16" t="n"/>
+      <c r="C124" s="16" t="n"/>
+      <c r="D124" s="16" t="n"/>
+      <c r="E124" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F123" s="16" t="inlineStr">
+      <c r="F124" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G123" s="15" t="n"/>
-      <c r="H123" s="15" t="n"/>
-      <c r="I123" s="15" t="n"/>
-      <c r="J123" s="15" t="n"/>
-      <c r="K123" s="15" t="n"/>
-      <c r="L123" s="15" t="n"/>
-    </row>
-    <row r="124">
-      <c r="B124" s="11" t="n">
+      <c r="G124" s="15" t="n"/>
+      <c r="H124" s="15" t="n"/>
+      <c r="I124" s="15" t="n"/>
+      <c r="J124" s="15" t="n"/>
+      <c r="K124" s="15" t="n"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C124" s="11" t="n">
+      <c r="C125" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D124" s="11" t="n">
+      <c r="D125" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E124" s="11" t="n">
+      <c r="E125" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F124" s="11" t="inlineStr">
+      <c r="F125" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="B125" s="16" t="n"/>
-      <c r="C125" s="16" t="n"/>
-      <c r="D125" s="16" t="n"/>
-      <c r="E125" s="16" t="n">
+    <row r="126">
+      <c r="B126" s="16" t="n"/>
+      <c r="C126" s="16" t="n"/>
+      <c r="D126" s="16" t="n"/>
+      <c r="E126" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F125" s="16" t="inlineStr">
+      <c r="F126" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G125" s="15" t="n"/>
-      <c r="H125" s="15" t="n"/>
-      <c r="I125" s="15" t="n"/>
-      <c r="J125" s="15" t="n"/>
-      <c r="K125" s="15" t="n"/>
-      <c r="L125" s="15" t="n"/>
-    </row>
-    <row r="126">
-      <c r="B126" s="11" t="n">
+      <c r="G126" s="15" t="n"/>
+      <c r="H126" s="15" t="n"/>
+      <c r="I126" s="15" t="n"/>
+      <c r="J126" s="15" t="n"/>
+      <c r="K126" s="15" t="n"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C126" s="11" t="n">
+      <c r="C127" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="D126" s="11" t="n">
+      <c r="D127" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E126" s="11" t="n">
+      <c r="E127" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F126" s="11" t="inlineStr">
+      <c r="F127" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="15" t="n"/>
-      <c r="B127" s="16" t="n"/>
-      <c r="C127" s="16" t="n"/>
-      <c r="D127" s="16" t="n"/>
-      <c r="E127" s="16" t="n">
+    <row r="128">
+      <c r="A128" s="15" t="n"/>
+      <c r="B128" s="16" t="n"/>
+      <c r="C128" s="16" t="n"/>
+      <c r="D128" s="16" t="n"/>
+      <c r="E128" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F127" s="16" t="inlineStr">
+      <c r="F128" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G127" s="15" t="n"/>
-      <c r="H127" s="15" t="n"/>
-      <c r="I127" s="15" t="n"/>
-      <c r="J127" s="15" t="n"/>
-      <c r="K127" s="15" t="n"/>
-      <c r="L127" s="15" t="n"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="11" t="n">
+      <c r="G128" s="15" t="n"/>
+      <c r="H128" s="15" t="n"/>
+      <c r="I128" s="15" t="n"/>
+      <c r="J128" s="15" t="n"/>
+      <c r="K128" s="15" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B128" s="11" t="n">
+      <c r="B129" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C128" s="11" t="inlineStr">
+      <c r="C129" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D128" s="11" t="n">
+      <c r="D129" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E128" s="11" t="n">
+      <c r="E129" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F128" s="11" t="inlineStr">
+      <c r="F129" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="B129" s="16" t="n"/>
-      <c r="C129" s="16" t="n"/>
-      <c r="D129" s="16" t="n"/>
-      <c r="E129" s="16" t="n">
+    <row r="130">
+      <c r="B130" s="16" t="n"/>
+      <c r="C130" s="16" t="n"/>
+      <c r="D130" s="16" t="n"/>
+      <c r="E130" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F129" s="16" t="inlineStr">
+      <c r="F130" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G129" s="15" t="n"/>
-      <c r="H129" s="15" t="n"/>
-      <c r="I129" s="15" t="n"/>
-      <c r="J129" s="15" t="n"/>
-      <c r="K129" s="15" t="n"/>
-      <c r="L129" s="15" t="n"/>
-    </row>
-    <row r="130">
-      <c r="B130" s="11" t="n">
+      <c r="G130" s="15" t="n"/>
+      <c r="H130" s="15" t="n"/>
+      <c r="I130" s="15" t="n"/>
+      <c r="J130" s="15" t="n"/>
+      <c r="K130" s="15" t="n"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C130" s="11" t="n">
+      <c r="C131" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D130" s="11" t="n">
+      <c r="D131" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E130" s="11" t="n">
+      <c r="E131" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="F130" s="11" t="inlineStr">
+      <c r="F131" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="B131" s="16" t="n"/>
-      <c r="C131" s="16" t="n"/>
-      <c r="D131" s="16" t="n"/>
-      <c r="E131" s="16" t="n">
+    <row r="132">
+      <c r="B132" s="16" t="n"/>
+      <c r="C132" s="16" t="n"/>
+      <c r="D132" s="16" t="n"/>
+      <c r="E132" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="F131" s="16" t="inlineStr">
+      <c r="F132" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G131" s="15" t="n"/>
-      <c r="H131" s="15" t="n"/>
-      <c r="I131" s="15" t="n"/>
-      <c r="J131" s="15" t="n"/>
-      <c r="K131" s="15" t="n"/>
-      <c r="L131" s="15" t="n"/>
-    </row>
-    <row r="132">
-      <c r="B132" s="11" t="n">
+      <c r="G132" s="15" t="n"/>
+      <c r="H132" s="15" t="n"/>
+      <c r="I132" s="15" t="n"/>
+      <c r="J132" s="15" t="n"/>
+      <c r="K132" s="15" t="n"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C132" s="11" t="n">
+      <c r="C133" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D132" s="11" t="n">
+      <c r="D133" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="E132" s="11" t="n">
+      <c r="E133" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="F132" s="11" t="inlineStr">
+      <c r="F133" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="B133" s="16" t="n"/>
-      <c r="C133" s="16" t="n"/>
-      <c r="D133" s="16" t="n"/>
-      <c r="E133" s="16" t="n">
+    <row r="134">
+      <c r="B134" s="16" t="n"/>
+      <c r="C134" s="16" t="n"/>
+      <c r="D134" s="16" t="n"/>
+      <c r="E134" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="F133" s="16" t="inlineStr">
+      <c r="F134" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G133" s="15" t="n"/>
-      <c r="H133" s="15" t="n"/>
-      <c r="I133" s="15" t="n"/>
-      <c r="J133" s="15" t="n"/>
-      <c r="K133" s="15" t="n"/>
-      <c r="L133" s="15" t="n"/>
-    </row>
-    <row r="134">
-      <c r="B134" s="11" t="n">
+      <c r="G134" s="15" t="n"/>
+      <c r="H134" s="15" t="n"/>
+      <c r="I134" s="15" t="n"/>
+      <c r="J134" s="15" t="n"/>
+      <c r="K134" s="15" t="n"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C134" s="11" t="n">
+      <c r="C135" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D134" s="11" t="n">
+      <c r="D135" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E134" s="11" t="n">
+      <c r="E135" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F134" s="11" t="inlineStr">
+      <c r="F135" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="B135" s="16" t="n"/>
-      <c r="C135" s="16" t="n"/>
-      <c r="D135" s="16" t="n"/>
-      <c r="E135" s="16" t="n">
+    <row r="136">
+      <c r="B136" s="16" t="n"/>
+      <c r="C136" s="16" t="n"/>
+      <c r="D136" s="16" t="n"/>
+      <c r="E136" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F135" s="16" t="inlineStr">
+      <c r="F136" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G135" s="15" t="n"/>
-      <c r="H135" s="15" t="n"/>
-      <c r="I135" s="15" t="n"/>
-      <c r="J135" s="15" t="n"/>
-      <c r="K135" s="15" t="n"/>
-      <c r="L135" s="15" t="n"/>
-    </row>
-    <row r="136">
-      <c r="B136" s="11" t="n">
+      <c r="G136" s="15" t="n"/>
+      <c r="H136" s="15" t="n"/>
+      <c r="I136" s="15" t="n"/>
+      <c r="J136" s="15" t="n"/>
+      <c r="K136" s="15" t="n"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C136" s="11" t="n">
+      <c r="C137" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D136" s="11" t="n">
+      <c r="D137" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E136" s="11" t="n">
+      <c r="E137" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F136" s="11" t="inlineStr">
+      <c r="F137" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="B137" s="16" t="n"/>
-      <c r="C137" s="16" t="n"/>
-      <c r="D137" s="16" t="n"/>
-      <c r="E137" s="16" t="n">
+    <row r="138">
+      <c r="B138" s="16" t="n"/>
+      <c r="C138" s="16" t="n"/>
+      <c r="D138" s="16" t="n"/>
+      <c r="E138" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F137" s="16" t="inlineStr">
+      <c r="F138" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G137" s="15" t="n"/>
-      <c r="H137" s="15" t="n"/>
-      <c r="I137" s="15" t="n"/>
-      <c r="J137" s="15" t="n"/>
-      <c r="K137" s="15" t="n"/>
-      <c r="L137" s="15" t="n"/>
-    </row>
-    <row r="138">
-      <c r="B138" s="11" t="n">
+      <c r="G138" s="15" t="n"/>
+      <c r="H138" s="15" t="n"/>
+      <c r="I138" s="15" t="n"/>
+      <c r="J138" s="15" t="n"/>
+      <c r="K138" s="15" t="n"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C138" s="11" t="n">
+      <c r="C139" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D138" s="11" t="n">
+      <c r="D139" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E138" s="11" t="n">
+      <c r="E139" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F138" s="11" t="inlineStr">
+      <c r="F139" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="B139" s="16" t="n"/>
-      <c r="C139" s="16" t="n"/>
-      <c r="D139" s="16" t="n"/>
-      <c r="E139" s="16" t="n">
+    <row r="140">
+      <c r="B140" s="16" t="n"/>
+      <c r="C140" s="16" t="n"/>
+      <c r="D140" s="16" t="n"/>
+      <c r="E140" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F139" s="16" t="inlineStr">
+      <c r="F140" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G139" s="15" t="n"/>
-      <c r="H139" s="15" t="n"/>
-      <c r="I139" s="15" t="n"/>
-      <c r="J139" s="15" t="n"/>
-      <c r="K139" s="15" t="n"/>
-      <c r="L139" s="15" t="n"/>
-    </row>
-    <row r="140">
-      <c r="B140" s="11" t="n">
+      <c r="G140" s="15" t="n"/>
+      <c r="H140" s="15" t="n"/>
+      <c r="I140" s="15" t="n"/>
+      <c r="J140" s="15" t="n"/>
+      <c r="K140" s="15" t="n"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C140" s="11" t="n">
+      <c r="C141" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="D140" s="11" t="n">
+      <c r="D141" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E140" s="11" t="n">
+      <c r="E141" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F140" s="11" t="inlineStr">
+      <c r="F141" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="15" t="n"/>
-      <c r="B141" s="16" t="n"/>
-      <c r="C141" s="16" t="n"/>
-      <c r="D141" s="16" t="n"/>
-      <c r="E141" s="16" t="n">
+    <row r="142">
+      <c r="A142" s="15" t="n"/>
+      <c r="B142" s="16" t="n"/>
+      <c r="C142" s="16" t="n"/>
+      <c r="D142" s="16" t="n"/>
+      <c r="E142" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F141" s="16" t="inlineStr">
+      <c r="F142" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G141" s="15" t="n"/>
-      <c r="H141" s="15" t="n"/>
-      <c r="I141" s="15" t="n"/>
-      <c r="J141" s="15" t="n"/>
-      <c r="K141" s="15" t="n"/>
-      <c r="L141" s="15" t="n"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="11" t="n">
+      <c r="G142" s="15" t="n"/>
+      <c r="H142" s="15" t="n"/>
+      <c r="I142" s="15" t="n"/>
+      <c r="J142" s="15" t="n"/>
+      <c r="K142" s="15" t="n"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B142" s="11" t="n">
+      <c r="B143" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C142" s="11" t="inlineStr">
+      <c r="C143" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D142" s="11" t="n">
+      <c r="D143" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E142" s="11" t="n">
+      <c r="E143" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F142" s="11" t="inlineStr">
+      <c r="F143" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="B143" s="16" t="n"/>
-      <c r="C143" s="16" t="n"/>
-      <c r="D143" s="16" t="n"/>
-      <c r="E143" s="16" t="n">
+    <row r="144">
+      <c r="B144" s="16" t="n"/>
+      <c r="C144" s="16" t="n"/>
+      <c r="D144" s="16" t="n"/>
+      <c r="E144" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F143" s="16" t="inlineStr">
+      <c r="F144" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G143" s="15" t="n"/>
-      <c r="H143" s="15" t="n"/>
-      <c r="I143" s="15" t="n"/>
-      <c r="J143" s="15" t="n"/>
-      <c r="K143" s="15" t="n"/>
-      <c r="L143" s="15" t="n"/>
-    </row>
-    <row r="144">
-      <c r="B144" s="11" t="n">
+      <c r="G144" s="15" t="n"/>
+      <c r="H144" s="15" t="n"/>
+      <c r="I144" s="15" t="n"/>
+      <c r="J144" s="15" t="n"/>
+      <c r="K144" s="15" t="n"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C144" s="11" t="n">
+      <c r="C145" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D144" s="11" t="n">
+      <c r="D145" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E144" s="11" t="n">
+      <c r="E145" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="F144" s="11" t="inlineStr">
+      <c r="F145" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="B145" s="16" t="n"/>
-      <c r="C145" s="16" t="n"/>
-      <c r="D145" s="16" t="n"/>
-      <c r="E145" s="16" t="n">
+    <row r="146">
+      <c r="B146" s="16" t="n"/>
+      <c r="C146" s="16" t="n"/>
+      <c r="D146" s="16" t="n"/>
+      <c r="E146" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="F145" s="16" t="inlineStr">
+      <c r="F146" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G145" s="15" t="n"/>
-      <c r="H145" s="15" t="n"/>
-      <c r="I145" s="15" t="n"/>
-      <c r="J145" s="15" t="n"/>
-      <c r="K145" s="15" t="n"/>
-      <c r="L145" s="15" t="n"/>
-    </row>
-    <row r="146">
-      <c r="B146" s="11" t="n">
+      <c r="G146" s="15" t="n"/>
+      <c r="H146" s="15" t="n"/>
+      <c r="I146" s="15" t="n"/>
+      <c r="J146" s="15" t="n"/>
+      <c r="K146" s="15" t="n"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C146" s="11" t="n">
+      <c r="C147" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="D146" s="11" t="n">
+      <c r="D147" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="E146" s="11" t="n">
+      <c r="E147" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F146" s="11" t="inlineStr">
+      <c r="F147" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="B147" s="16" t="n"/>
-      <c r="C147" s="16" t="n"/>
-      <c r="D147" s="16" t="n"/>
-      <c r="E147" s="16" t="n">
+    <row r="148">
+      <c r="B148" s="16" t="n"/>
+      <c r="C148" s="16" t="n"/>
+      <c r="D148" s="16" t="n"/>
+      <c r="E148" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F147" s="16" t="inlineStr">
+      <c r="F148" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G147" s="15" t="n"/>
-      <c r="H147" s="15" t="n"/>
-      <c r="I147" s="15" t="n"/>
-      <c r="J147" s="15" t="n"/>
-      <c r="K147" s="15" t="n"/>
-      <c r="L147" s="15" t="n"/>
-    </row>
-    <row r="148">
-      <c r="B148" s="11" t="n">
+      <c r="G148" s="15" t="n"/>
+      <c r="H148" s="15" t="n"/>
+      <c r="I148" s="15" t="n"/>
+      <c r="J148" s="15" t="n"/>
+      <c r="K148" s="15" t="n"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C148" s="11" t="n">
+      <c r="C149" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D148" s="11" t="n">
+      <c r="D149" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E148" s="11" t="n">
+      <c r="E149" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F148" s="11" t="inlineStr">
+      <c r="F149" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="B149" s="16" t="n"/>
-      <c r="C149" s="16" t="n"/>
-      <c r="D149" s="16" t="n"/>
-      <c r="E149" s="16" t="n">
+    <row r="150">
+      <c r="B150" s="16" t="n"/>
+      <c r="C150" s="16" t="n"/>
+      <c r="D150" s="16" t="n"/>
+      <c r="E150" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F149" s="16" t="inlineStr">
+      <c r="F150" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G149" s="15" t="n"/>
-      <c r="H149" s="15" t="n"/>
-      <c r="I149" s="15" t="n"/>
-      <c r="J149" s="15" t="n"/>
-      <c r="K149" s="15" t="n"/>
-      <c r="L149" s="15" t="n"/>
-    </row>
-    <row r="150">
-      <c r="B150" s="11" t="n">
+      <c r="G150" s="15" t="n"/>
+      <c r="H150" s="15" t="n"/>
+      <c r="I150" s="15" t="n"/>
+      <c r="J150" s="15" t="n"/>
+      <c r="K150" s="15" t="n"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C150" s="11" t="n">
+      <c r="C151" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D150" s="11" t="n">
+      <c r="D151" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E150" s="11" t="n">
+      <c r="E151" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F150" s="11" t="inlineStr">
+      <c r="F151" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="B151" s="16" t="n"/>
-      <c r="C151" s="16" t="n"/>
-      <c r="D151" s="16" t="n"/>
-      <c r="E151" s="16" t="n">
+    <row r="152">
+      <c r="B152" s="16" t="n"/>
+      <c r="C152" s="16" t="n"/>
+      <c r="D152" s="16" t="n"/>
+      <c r="E152" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F151" s="16" t="inlineStr">
+      <c r="F152" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G151" s="15" t="n"/>
-      <c r="H151" s="15" t="n"/>
-      <c r="I151" s="15" t="n"/>
-      <c r="J151" s="15" t="n"/>
-      <c r="K151" s="15" t="n"/>
-      <c r="L151" s="15" t="n"/>
-    </row>
-    <row r="152">
-      <c r="B152" s="11" t="n">
+      <c r="G152" s="15" t="n"/>
+      <c r="H152" s="15" t="n"/>
+      <c r="I152" s="15" t="n"/>
+      <c r="J152" s="15" t="n"/>
+      <c r="K152" s="15" t="n"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C152" s="11" t="n">
+      <c r="C153" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D152" s="11" t="n">
+      <c r="D153" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E152" s="11" t="n">
+      <c r="E153" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F152" s="11" t="inlineStr">
+      <c r="F153" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="B153" s="16" t="n"/>
-      <c r="C153" s="16" t="n"/>
-      <c r="D153" s="16" t="n"/>
-      <c r="E153" s="16" t="n">
+    <row r="154">
+      <c r="B154" s="16" t="n"/>
+      <c r="C154" s="16" t="n"/>
+      <c r="D154" s="16" t="n"/>
+      <c r="E154" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F153" s="16" t="inlineStr">
+      <c r="F154" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G153" s="15" t="n"/>
-      <c r="H153" s="15" t="n"/>
-      <c r="I153" s="15" t="n"/>
-      <c r="J153" s="15" t="n"/>
-      <c r="K153" s="15" t="n"/>
-      <c r="L153" s="15" t="n"/>
-    </row>
-    <row r="154">
-      <c r="B154" s="11" t="n">
+      <c r="G154" s="15" t="n"/>
+      <c r="H154" s="15" t="n"/>
+      <c r="I154" s="15" t="n"/>
+      <c r="J154" s="15" t="n"/>
+      <c r="K154" s="15" t="n"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C154" s="11" t="n">
+      <c r="C155" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D154" s="11" t="n">
+      <c r="D155" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E154" s="11" t="n">
+      <c r="E155" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F154" s="11" t="inlineStr">
+      <c r="F155" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="15" t="n"/>
-      <c r="B155" s="16" t="n"/>
-      <c r="C155" s="16" t="n"/>
-      <c r="D155" s="16" t="n"/>
-      <c r="E155" s="16" t="n">
+    <row r="156">
+      <c r="A156" s="15" t="n"/>
+      <c r="B156" s="16" t="n"/>
+      <c r="C156" s="16" t="n"/>
+      <c r="D156" s="16" t="n"/>
+      <c r="E156" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F155" s="16" t="inlineStr">
+      <c r="F156" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G155" s="15" t="n"/>
-      <c r="H155" s="15" t="n"/>
-      <c r="I155" s="15" t="n"/>
-      <c r="J155" s="15" t="n"/>
-      <c r="K155" s="15" t="n"/>
-      <c r="L155" s="15" t="n"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="11" t="n">
+      <c r="G156" s="15" t="n"/>
+      <c r="H156" s="15" t="n"/>
+      <c r="I156" s="15" t="n"/>
+      <c r="J156" s="15" t="n"/>
+      <c r="K156" s="15" t="n"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B156" s="11" t="n">
+      <c r="B157" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C156" s="11" t="inlineStr">
+      <c r="C157" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D156" s="11" t="n">
+      <c r="D157" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="E156" s="11" t="n">
+      <c r="E157" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="F156" s="11" t="inlineStr">
+      <c r="F157" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="B157" s="16" t="n"/>
-      <c r="C157" s="16" t="n"/>
-      <c r="D157" s="16" t="n"/>
-      <c r="E157" s="16" t="n">
+    <row r="158">
+      <c r="B158" s="16" t="n"/>
+      <c r="C158" s="16" t="n"/>
+      <c r="D158" s="16" t="n"/>
+      <c r="E158" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="F157" s="16" t="inlineStr">
+      <c r="F158" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G157" s="15" t="n"/>
-      <c r="H157" s="15" t="n"/>
-      <c r="I157" s="15" t="n"/>
-      <c r="J157" s="15" t="n"/>
-      <c r="K157" s="15" t="n"/>
-      <c r="L157" s="15" t="n"/>
-    </row>
-    <row r="158">
-      <c r="B158" s="11" t="n">
+      <c r="G158" s="15" t="n"/>
+      <c r="H158" s="15" t="n"/>
+      <c r="I158" s="15" t="n"/>
+      <c r="J158" s="15" t="n"/>
+      <c r="K158" s="15" t="n"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C158" s="11" t="n">
+      <c r="C159" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D158" s="11" t="n">
+      <c r="D159" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E158" s="11" t="n">
+      <c r="E159" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F158" s="11" t="inlineStr">
+      <c r="F159" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="B159" s="16" t="n"/>
-      <c r="C159" s="16" t="n"/>
-      <c r="D159" s="16" t="n"/>
-      <c r="E159" s="16" t="n">
+    <row r="160">
+      <c r="B160" s="16" t="n"/>
+      <c r="C160" s="16" t="n"/>
+      <c r="D160" s="16" t="n"/>
+      <c r="E160" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F159" s="16" t="inlineStr">
+      <c r="F160" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G159" s="15" t="n"/>
-      <c r="H159" s="15" t="n"/>
-      <c r="I159" s="15" t="n"/>
-      <c r="J159" s="15" t="n"/>
-      <c r="K159" s="15" t="n"/>
-      <c r="L159" s="15" t="n"/>
-    </row>
-    <row r="160">
-      <c r="B160" s="11" t="n">
+      <c r="G160" s="15" t="n"/>
+      <c r="H160" s="15" t="n"/>
+      <c r="I160" s="15" t="n"/>
+      <c r="J160" s="15" t="n"/>
+      <c r="K160" s="15" t="n"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C160" s="11" t="n">
+      <c r="C161" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="D160" s="11" t="n">
+      <c r="D161" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E160" s="11" t="n">
+      <c r="E161" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F160" s="11" t="inlineStr">
+      <c r="F161" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="B161" s="16" t="n"/>
-      <c r="C161" s="16" t="n"/>
-      <c r="D161" s="16" t="n"/>
-      <c r="E161" s="16" t="n">
+    <row r="162">
+      <c r="B162" s="16" t="n"/>
+      <c r="C162" s="16" t="n"/>
+      <c r="D162" s="16" t="n"/>
+      <c r="E162" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F161" s="16" t="inlineStr">
+      <c r="F162" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G161" s="15" t="n"/>
-      <c r="H161" s="15" t="n"/>
-      <c r="I161" s="15" t="n"/>
-      <c r="J161" s="15" t="n"/>
-      <c r="K161" s="15" t="n"/>
-      <c r="L161" s="15" t="n"/>
-    </row>
-    <row r="162">
-      <c r="B162" s="11" t="n">
+      <c r="G162" s="15" t="n"/>
+      <c r="H162" s="15" t="n"/>
+      <c r="I162" s="15" t="n"/>
+      <c r="J162" s="15" t="n"/>
+      <c r="K162" s="15" t="n"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C162" s="11" t="n">
+      <c r="C163" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D162" s="11" t="n">
+      <c r="D163" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E162" s="11" t="n">
+      <c r="E163" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F162" s="11" t="inlineStr">
+      <c r="F163" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="B163" s="16" t="n"/>
-      <c r="C163" s="16" t="n"/>
-      <c r="D163" s="16" t="n"/>
-      <c r="E163" s="16" t="n">
+    <row r="164">
+      <c r="B164" s="16" t="n"/>
+      <c r="C164" s="16" t="n"/>
+      <c r="D164" s="16" t="n"/>
+      <c r="E164" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F163" s="16" t="inlineStr">
+      <c r="F164" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G163" s="15" t="n"/>
-      <c r="H163" s="15" t="n"/>
-      <c r="I163" s="15" t="n"/>
-      <c r="J163" s="15" t="n"/>
-      <c r="K163" s="15" t="n"/>
-      <c r="L163" s="15" t="n"/>
-    </row>
-    <row r="164">
-      <c r="B164" s="11" t="n">
+      <c r="G164" s="15" t="n"/>
+      <c r="H164" s="15" t="n"/>
+      <c r="I164" s="15" t="n"/>
+      <c r="J164" s="15" t="n"/>
+      <c r="K164" s="15" t="n"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C164" s="11" t="n">
+      <c r="C165" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D164" s="11" t="n">
+      <c r="D165" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E164" s="11" t="n">
+      <c r="E165" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F164" s="11" t="inlineStr">
+      <c r="F165" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="B165" s="16" t="n"/>
-      <c r="C165" s="16" t="n"/>
-      <c r="D165" s="16" t="n"/>
-      <c r="E165" s="16" t="n">
+    <row r="166">
+      <c r="B166" s="16" t="n"/>
+      <c r="C166" s="16" t="n"/>
+      <c r="D166" s="16" t="n"/>
+      <c r="E166" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F165" s="16" t="inlineStr">
+      <c r="F166" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G165" s="15" t="n"/>
-      <c r="H165" s="15" t="n"/>
-      <c r="I165" s="15" t="n"/>
-      <c r="J165" s="15" t="n"/>
-      <c r="K165" s="15" t="n"/>
-      <c r="L165" s="15" t="n"/>
-    </row>
-    <row r="166">
-      <c r="B166" s="11" t="n">
+      <c r="G166" s="15" t="n"/>
+      <c r="H166" s="15" t="n"/>
+      <c r="I166" s="15" t="n"/>
+      <c r="J166" s="15" t="n"/>
+      <c r="K166" s="15" t="n"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C166" s="11" t="n">
+      <c r="C167" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D166" s="11" t="n">
+      <c r="D167" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E166" s="11" t="n">
+      <c r="E167" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F166" s="11" t="inlineStr">
+      <c r="F167" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="B167" s="16" t="n"/>
-      <c r="C167" s="16" t="n"/>
-      <c r="D167" s="16" t="n"/>
-      <c r="E167" s="16" t="n">
+    <row r="168">
+      <c r="B168" s="16" t="n"/>
+      <c r="C168" s="16" t="n"/>
+      <c r="D168" s="16" t="n"/>
+      <c r="E168" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F167" s="16" t="inlineStr">
+      <c r="F168" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G167" s="15" t="n"/>
-      <c r="H167" s="15" t="n"/>
-      <c r="I167" s="15" t="n"/>
-      <c r="J167" s="15" t="n"/>
-      <c r="K167" s="15" t="n"/>
-      <c r="L167" s="15" t="n"/>
-    </row>
-    <row r="168">
-      <c r="B168" s="11" t="n">
+      <c r="G168" s="15" t="n"/>
+      <c r="H168" s="15" t="n"/>
+      <c r="I168" s="15" t="n"/>
+      <c r="J168" s="15" t="n"/>
+      <c r="K168" s="15" t="n"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C168" s="11" t="n">
+      <c r="C169" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D168" s="11" t="n">
+      <c r="D169" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E168" s="11" t="n">
+      <c r="E169" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F168" s="11" t="inlineStr">
+      <c r="F169" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="15" t="n"/>
-      <c r="B169" s="16" t="n"/>
-      <c r="C169" s="16" t="n"/>
-      <c r="D169" s="16" t="n"/>
-      <c r="E169" s="16" t="n">
+    <row r="170">
+      <c r="A170" s="15" t="n"/>
+      <c r="B170" s="16" t="n"/>
+      <c r="C170" s="16" t="n"/>
+      <c r="D170" s="16" t="n"/>
+      <c r="E170" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F169" s="16" t="inlineStr">
+      <c r="F170" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G169" s="15" t="n"/>
-      <c r="H169" s="15" t="n"/>
-      <c r="I169" s="15" t="n"/>
-      <c r="J169" s="15" t="n"/>
-      <c r="K169" s="15" t="n"/>
-      <c r="L169" s="15" t="n"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="11" t="n">
+      <c r="G170" s="15" t="n"/>
+      <c r="H170" s="15" t="n"/>
+      <c r="I170" s="15" t="n"/>
+      <c r="J170" s="15" t="n"/>
+      <c r="K170" s="15" t="n"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B170" s="11" t="n">
+      <c r="B171" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C170" s="11" t="inlineStr">
+      <c r="C171" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D170" s="11" t="n">
+      <c r="D171" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="E170" s="11" t="n">
+      <c r="E171" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="F170" s="11" t="inlineStr">
+      <c r="F171" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="B171" s="16" t="n"/>
-      <c r="C171" s="16" t="n"/>
-      <c r="D171" s="16" t="n"/>
-      <c r="E171" s="16" t="n">
+    <row r="172">
+      <c r="B172" s="16" t="n"/>
+      <c r="C172" s="16" t="n"/>
+      <c r="D172" s="16" t="n"/>
+      <c r="E172" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="F171" s="16" t="inlineStr">
+      <c r="F172" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G171" s="15" t="n"/>
-      <c r="H171" s="15" t="n"/>
-      <c r="I171" s="15" t="n"/>
-      <c r="J171" s="15" t="n"/>
-      <c r="K171" s="15" t="n"/>
-      <c r="L171" s="15" t="n"/>
-    </row>
-    <row r="172">
-      <c r="B172" s="11" t="n">
+      <c r="G172" s="15" t="n"/>
+      <c r="H172" s="15" t="n"/>
+      <c r="I172" s="15" t="n"/>
+      <c r="J172" s="15" t="n"/>
+      <c r="K172" s="15" t="n"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C172" s="11" t="n">
+      <c r="C173" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D172" s="11" t="n">
+      <c r="D173" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E172" s="11" t="n">
+      <c r="E173" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F172" s="11" t="inlineStr">
+      <c r="F173" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="B173" s="16" t="n"/>
-      <c r="C173" s="16" t="n"/>
-      <c r="D173" s="16" t="n"/>
-      <c r="E173" s="16" t="n">
+    <row r="174">
+      <c r="B174" s="16" t="n"/>
+      <c r="C174" s="16" t="n"/>
+      <c r="D174" s="16" t="n"/>
+      <c r="E174" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F173" s="16" t="inlineStr">
+      <c r="F174" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G173" s="15" t="n"/>
-      <c r="H173" s="15" t="n"/>
-      <c r="I173" s="15" t="n"/>
-      <c r="J173" s="15" t="n"/>
-      <c r="K173" s="15" t="n"/>
-      <c r="L173" s="15" t="n"/>
-    </row>
-    <row r="174">
-      <c r="B174" s="11" t="n">
+      <c r="G174" s="15" t="n"/>
+      <c r="H174" s="15" t="n"/>
+      <c r="I174" s="15" t="n"/>
+      <c r="J174" s="15" t="n"/>
+      <c r="K174" s="15" t="n"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C174" s="11" t="n">
+      <c r="C175" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D174" s="11" t="n">
+      <c r="D175" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E174" s="11" t="n">
+      <c r="E175" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F174" s="11" t="inlineStr">
+      <c r="F175" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="B175" s="16" t="n"/>
-      <c r="C175" s="16" t="n"/>
-      <c r="D175" s="16" t="n"/>
-      <c r="E175" s="16" t="n">
+    <row r="176">
+      <c r="B176" s="16" t="n"/>
+      <c r="C176" s="16" t="n"/>
+      <c r="D176" s="16" t="n"/>
+      <c r="E176" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F175" s="16" t="inlineStr">
+      <c r="F176" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G175" s="15" t="n"/>
-      <c r="H175" s="15" t="n"/>
-      <c r="I175" s="15" t="n"/>
-      <c r="J175" s="15" t="n"/>
-      <c r="K175" s="15" t="n"/>
-      <c r="L175" s="15" t="n"/>
-    </row>
-    <row r="176">
-      <c r="B176" s="11" t="n">
+      <c r="G176" s="15" t="n"/>
+      <c r="H176" s="15" t="n"/>
+      <c r="I176" s="15" t="n"/>
+      <c r="J176" s="15" t="n"/>
+      <c r="K176" s="15" t="n"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C176" s="11" t="n">
+      <c r="C177" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D176" s="11" t="n">
+      <c r="D177" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E176" s="11" t="n">
+      <c r="E177" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F176" s="11" t="inlineStr">
+      <c r="F177" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="B177" s="16" t="n"/>
-      <c r="C177" s="16" t="n"/>
-      <c r="D177" s="16" t="n"/>
-      <c r="E177" s="16" t="n">
+    <row r="178">
+      <c r="B178" s="16" t="n"/>
+      <c r="C178" s="16" t="n"/>
+      <c r="D178" s="16" t="n"/>
+      <c r="E178" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F177" s="16" t="inlineStr">
+      <c r="F178" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G177" s="15" t="n"/>
-      <c r="H177" s="15" t="n"/>
-      <c r="I177" s="15" t="n"/>
-      <c r="J177" s="15" t="n"/>
-      <c r="K177" s="15" t="n"/>
-      <c r="L177" s="15" t="n"/>
-    </row>
-    <row r="178">
-      <c r="B178" s="11" t="n">
+      <c r="G178" s="15" t="n"/>
+      <c r="H178" s="15" t="n"/>
+      <c r="I178" s="15" t="n"/>
+      <c r="J178" s="15" t="n"/>
+      <c r="K178" s="15" t="n"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C178" s="11" t="n">
+      <c r="C179" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D178" s="11" t="n">
+      <c r="D179" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="E178" s="11" t="n">
+      <c r="E179" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F178" s="11" t="inlineStr">
+      <c r="F179" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="B179" s="16" t="n"/>
-      <c r="C179" s="16" t="n"/>
-      <c r="D179" s="16" t="n"/>
-      <c r="E179" s="16" t="n">
+    <row r="180">
+      <c r="B180" s="16" t="n"/>
+      <c r="C180" s="16" t="n"/>
+      <c r="D180" s="16" t="n"/>
+      <c r="E180" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F179" s="16" t="inlineStr">
+      <c r="F180" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G179" s="15" t="n"/>
-      <c r="H179" s="15" t="n"/>
-      <c r="I179" s="15" t="n"/>
-      <c r="J179" s="15" t="n"/>
-      <c r="K179" s="15" t="n"/>
-      <c r="L179" s="15" t="n"/>
-    </row>
-    <row r="180">
-      <c r="B180" s="11" t="n">
+      <c r="G180" s="15" t="n"/>
+      <c r="H180" s="15" t="n"/>
+      <c r="I180" s="15" t="n"/>
+      <c r="J180" s="15" t="n"/>
+      <c r="K180" s="15" t="n"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="C180" s="11" t="n">
+      <c r="C181" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D180" s="11" t="n">
+      <c r="D181" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E180" s="11" t="n">
+      <c r="E181" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="F180" s="11" t="inlineStr">
+      <c r="F181" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="B181" s="16" t="n"/>
-      <c r="C181" s="16" t="n"/>
-      <c r="D181" s="16" t="n"/>
-      <c r="E181" s="16" t="n">
+    <row r="182">
+      <c r="B182" s="16" t="n"/>
+      <c r="C182" s="16" t="n"/>
+      <c r="D182" s="16" t="n"/>
+      <c r="E182" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F181" s="16" t="inlineStr">
+      <c r="F182" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G181" s="15" t="n"/>
-      <c r="H181" s="15" t="n"/>
-      <c r="I181" s="15" t="n"/>
-      <c r="J181" s="15" t="n"/>
-      <c r="K181" s="15" t="n"/>
-      <c r="L181" s="15" t="n"/>
-    </row>
-    <row r="182">
-      <c r="B182" s="11" t="n">
+      <c r="G182" s="15" t="n"/>
+      <c r="H182" s="15" t="n"/>
+      <c r="I182" s="15" t="n"/>
+      <c r="J182" s="15" t="n"/>
+      <c r="K182" s="15" t="n"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C182" s="11" t="n">
+      <c r="C183" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D182" s="11" t="n">
+      <c r="D183" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E182" s="11" t="n">
+      <c r="E183" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="F182" s="11" t="inlineStr">
+      <c r="F183" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="15" t="n"/>
-      <c r="B183" s="16" t="n"/>
-      <c r="C183" s="16" t="n"/>
-      <c r="D183" s="16" t="n"/>
-      <c r="E183" s="16" t="n">
+    <row r="184">
+      <c r="A184" s="15" t="n"/>
+      <c r="B184" s="16" t="n"/>
+      <c r="C184" s="16" t="n"/>
+      <c r="D184" s="16" t="n"/>
+      <c r="E184" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F183" s="16" t="inlineStr">
+      <c r="F184" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G183" s="15" t="n"/>
-      <c r="H183" s="15" t="n"/>
-      <c r="I183" s="15" t="n"/>
-      <c r="J183" s="15" t="n"/>
-      <c r="K183" s="15" t="n"/>
-      <c r="L183" s="15" t="n"/>
+      <c r="G184" s="15" t="n"/>
+      <c r="H184" s="15" t="n"/>
+      <c r="I184" s="15" t="n"/>
+      <c r="J184" s="15" t="n"/>
+      <c r="K184" s="15" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/howell13.xlsx
+++ b/howell13.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 06, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 31</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 53</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 65</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 50</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 42</t>
+          <t>Name 32</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 50</t>
+          <t>Name 16</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 67</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 66</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 50</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -784,7 +784,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -802,12 +802,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 53</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 57</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -825,12 +825,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 34</t>
+          <t>Name 47</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="D20" s="4">
@@ -848,12 +848,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 55</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="D21" s="4">
@@ -871,12 +871,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 66</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Name 66</t>
+          <t>Name 67</t>
         </is>
       </c>
       <c r="D22" s="4">
@@ -1221,29 +1221,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <f>'By Round'!B3</f>
         <v/>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <f>'By Round'!C3</f>
         <v/>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F3" s="11">
+        <f>IF(ISBLANK('By Round'!F3),"",'By Round'!F3)</f>
+        <v/>
       </c>
       <c r="G3">
         <f>IF(ISBLANK('By Round'!G3),"",'By Round'!G3)</f>
@@ -1395,26 +1394,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4">
+      <c r="B4" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <f>'By Round'!B43</f>
         <v/>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <f>'By Round'!C43</f>
         <v/>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <f>'By Round'!D43</f>
         <v/>
       </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F4" s="11">
+        <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
+        <v/>
       </c>
       <c r="G4">
         <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
@@ -1566,26 +1564,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5">
+      <c r="B5" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <f>'By Round'!B55</f>
         <v/>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <f>'By Round'!C55</f>
         <v/>
       </c>
-      <c r="E5">
+      <c r="E5" s="11">
         <f>'By Round'!D55</f>
         <v/>
       </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F5" s="11">
+        <f>IF(ISBLANK('By Round'!F55),"",'By Round'!F55)</f>
+        <v/>
       </c>
       <c r="G5">
         <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
@@ -1737,26 +1734,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6">
+      <c r="B6" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <f>'By Round'!B67</f>
         <v/>
       </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <f>'By Round'!C67</f>
         <v/>
       </c>
-      <c r="E6">
+      <c r="E6" s="11">
         <f>'By Round'!D67</f>
         <v/>
       </c>
-      <c r="F6" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F6" s="11">
+        <f>IF(ISBLANK('By Round'!F67),"",'By Round'!F67)</f>
+        <v/>
       </c>
       <c r="G6">
         <f>IF(ISBLANK('By Round'!G67),"",'By Round'!G67)</f>
@@ -1908,26 +1904,25 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7">
+      <c r="B7" s="11">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <f>'By Round'!B135</f>
         <v/>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <f>'By Round'!C135</f>
         <v/>
       </c>
-      <c r="E7">
+      <c r="E7" s="11">
         <f>'By Round'!D135</f>
         <v/>
       </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F7" s="11">
+        <f>IF(ISBLANK('By Round'!F135),"",'By Round'!F135)</f>
+        <v/>
       </c>
       <c r="G7">
         <f>IF(ISBLANK('By Round'!G135),"",'By Round'!G135)</f>
@@ -2079,26 +2074,25 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8">
+      <c r="B8" s="11">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <f>'By Round'!B147</f>
         <v/>
       </c>
-      <c r="D8">
+      <c r="D8" s="11">
         <f>'By Round'!C147</f>
         <v/>
       </c>
-      <c r="E8">
+      <c r="E8" s="11">
         <f>'By Round'!D147</f>
         <v/>
       </c>
-      <c r="F8" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F8" s="11">
+        <f>IF(ISBLANK('By Round'!F147),"",'By Round'!F147)</f>
+        <v/>
       </c>
       <c r="G8">
         <f>IF(ISBLANK('By Round'!G147),"",'By Round'!G147)</f>
@@ -2251,26 +2245,25 @@
     </row>
     <row r="9">
       <c r="A9" s="15" t="n"/>
-      <c r="B9" s="15">
+      <c r="B9" s="16">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="16">
         <f>'By Round'!B159</f>
         <v/>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="16">
         <f>'By Round'!C159</f>
         <v/>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="16">
         <f>'By Round'!D159</f>
         <v/>
       </c>
-      <c r="F9" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F9" s="16">
+        <f>IF(ISBLANK('By Round'!F159),"",'By Round'!F159)</f>
+        <v/>
       </c>
       <c r="G9" s="15">
         <f>IF(ISBLANK('By Round'!G159),"",'By Round'!G159)</f>
@@ -2422,48 +2415,47 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <f>'By Round'!B3</f>
         <v/>
       </c>
-      <c r="D10">
+      <c r="D10" s="11">
         <f>'By Round'!C3</f>
         <v/>
       </c>
-      <c r="E10">
+      <c r="E10" s="11">
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F10" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F10" s="11">
+        <f>IF(ISBLANK('By Round'!F4),"",'By Round'!F4)</f>
+        <v/>
       </c>
       <c r="G10">
-        <f>IF(ISBLANK('By Round'!G3),"",'By Round'!G3)</f>
+        <f>IF(ISBLANK('By Round'!G4),"",'By Round'!G4)</f>
         <v/>
       </c>
       <c r="H10">
-        <f>IF(ISBLANK('By Round'!H3),"",'By Round'!H3)</f>
+        <f>IF(ISBLANK('By Round'!H4),"",'By Round'!H4)</f>
         <v/>
       </c>
       <c r="I10">
-        <f>IF(ISBLANK('By Round'!I3),"",'By Round'!I3)</f>
+        <f>IF(ISBLANK('By Round'!I4),"",'By Round'!I4)</f>
         <v/>
       </c>
       <c r="J10">
-        <f>IF(ISBLANK('By Round'!J3),"",'By Round'!J3)</f>
+        <f>IF(ISBLANK('By Round'!J4),"",'By Round'!J4)</f>
         <v/>
       </c>
       <c r="K10">
-        <f>IF(ISBLANK('By Round'!K3),"",'By Round'!K3)</f>
+        <f>IF(ISBLANK('By Round'!K4),"",'By Round'!K4)</f>
         <v/>
       </c>
       <c r="L10" s="12">
@@ -2596,45 +2588,44 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11">
+      <c r="B11" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C11">
+      <c r="C11" s="11">
         <f>'By Round'!B43</f>
         <v/>
       </c>
-      <c r="D11">
+      <c r="D11" s="11">
         <f>'By Round'!C43</f>
         <v/>
       </c>
-      <c r="E11">
+      <c r="E11" s="11">
         <f>'By Round'!D43</f>
         <v/>
       </c>
-      <c r="F11" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F11" s="11">
+        <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
+        <v/>
       </c>
       <c r="G11">
-        <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
+        <f>IF(ISBLANK('By Round'!G44),"",'By Round'!G44)</f>
         <v/>
       </c>
       <c r="H11">
-        <f>IF(ISBLANK('By Round'!H43),"",'By Round'!H43)</f>
+        <f>IF(ISBLANK('By Round'!H44),"",'By Round'!H44)</f>
         <v/>
       </c>
       <c r="I11">
-        <f>IF(ISBLANK('By Round'!I43),"",'By Round'!I43)</f>
+        <f>IF(ISBLANK('By Round'!I44),"",'By Round'!I44)</f>
         <v/>
       </c>
       <c r="J11">
-        <f>IF(ISBLANK('By Round'!J43),"",'By Round'!J43)</f>
+        <f>IF(ISBLANK('By Round'!J44),"",'By Round'!J44)</f>
         <v/>
       </c>
       <c r="K11">
-        <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
+        <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
         <v/>
       </c>
       <c r="L11" s="12">
@@ -2767,45 +2758,44 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12">
+      <c r="B12" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <f>'By Round'!B55</f>
         <v/>
       </c>
-      <c r="D12">
+      <c r="D12" s="11">
         <f>'By Round'!C55</f>
         <v/>
       </c>
-      <c r="E12">
+      <c r="E12" s="11">
         <f>'By Round'!D55</f>
         <v/>
       </c>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F12" s="11">
+        <f>IF(ISBLANK('By Round'!F56),"",'By Round'!F56)</f>
+        <v/>
       </c>
       <c r="G12">
-        <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
+        <f>IF(ISBLANK('By Round'!G56),"",'By Round'!G56)</f>
         <v/>
       </c>
       <c r="H12">
-        <f>IF(ISBLANK('By Round'!H55),"",'By Round'!H55)</f>
+        <f>IF(ISBLANK('By Round'!H56),"",'By Round'!H56)</f>
         <v/>
       </c>
       <c r="I12">
-        <f>IF(ISBLANK('By Round'!I55),"",'By Round'!I55)</f>
+        <f>IF(ISBLANK('By Round'!I56),"",'By Round'!I56)</f>
         <v/>
       </c>
       <c r="J12">
-        <f>IF(ISBLANK('By Round'!J55),"",'By Round'!J55)</f>
+        <f>IF(ISBLANK('By Round'!J56),"",'By Round'!J56)</f>
         <v/>
       </c>
       <c r="K12">
-        <f>IF(ISBLANK('By Round'!K55),"",'By Round'!K55)</f>
+        <f>IF(ISBLANK('By Round'!K56),"",'By Round'!K56)</f>
         <v/>
       </c>
       <c r="L12" s="12">
@@ -2938,45 +2928,44 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13">
+      <c r="B13" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <f>'By Round'!B67</f>
         <v/>
       </c>
-      <c r="D13">
+      <c r="D13" s="11">
         <f>'By Round'!C67</f>
         <v/>
       </c>
-      <c r="E13">
+      <c r="E13" s="11">
         <f>'By Round'!D67</f>
         <v/>
       </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F13" s="11">
+        <f>IF(ISBLANK('By Round'!F68),"",'By Round'!F68)</f>
+        <v/>
       </c>
       <c r="G13">
-        <f>IF(ISBLANK('By Round'!G67),"",'By Round'!G67)</f>
+        <f>IF(ISBLANK('By Round'!G68),"",'By Round'!G68)</f>
         <v/>
       </c>
       <c r="H13">
-        <f>IF(ISBLANK('By Round'!H67),"",'By Round'!H67)</f>
+        <f>IF(ISBLANK('By Round'!H68),"",'By Round'!H68)</f>
         <v/>
       </c>
       <c r="I13">
-        <f>IF(ISBLANK('By Round'!I67),"",'By Round'!I67)</f>
+        <f>IF(ISBLANK('By Round'!I68),"",'By Round'!I68)</f>
         <v/>
       </c>
       <c r="J13">
-        <f>IF(ISBLANK('By Round'!J67),"",'By Round'!J67)</f>
+        <f>IF(ISBLANK('By Round'!J68),"",'By Round'!J68)</f>
         <v/>
       </c>
       <c r="K13">
-        <f>IF(ISBLANK('By Round'!K67),"",'By Round'!K67)</f>
+        <f>IF(ISBLANK('By Round'!K68),"",'By Round'!K68)</f>
         <v/>
       </c>
       <c r="L13" s="12">
@@ -3109,45 +3098,44 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14">
+      <c r="B14" s="11">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <f>'By Round'!B135</f>
         <v/>
       </c>
-      <c r="D14">
+      <c r="D14" s="11">
         <f>'By Round'!C135</f>
         <v/>
       </c>
-      <c r="E14">
+      <c r="E14" s="11">
         <f>'By Round'!D135</f>
         <v/>
       </c>
-      <c r="F14" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F14" s="11">
+        <f>IF(ISBLANK('By Round'!F136),"",'By Round'!F136)</f>
+        <v/>
       </c>
       <c r="G14">
-        <f>IF(ISBLANK('By Round'!G135),"",'By Round'!G135)</f>
+        <f>IF(ISBLANK('By Round'!G136),"",'By Round'!G136)</f>
         <v/>
       </c>
       <c r="H14">
-        <f>IF(ISBLANK('By Round'!H135),"",'By Round'!H135)</f>
+        <f>IF(ISBLANK('By Round'!H136),"",'By Round'!H136)</f>
         <v/>
       </c>
       <c r="I14">
-        <f>IF(ISBLANK('By Round'!I135),"",'By Round'!I135)</f>
+        <f>IF(ISBLANK('By Round'!I136),"",'By Round'!I136)</f>
         <v/>
       </c>
       <c r="J14">
-        <f>IF(ISBLANK('By Round'!J135),"",'By Round'!J135)</f>
+        <f>IF(ISBLANK('By Round'!J136),"",'By Round'!J136)</f>
         <v/>
       </c>
       <c r="K14">
-        <f>IF(ISBLANK('By Round'!K135),"",'By Round'!K135)</f>
+        <f>IF(ISBLANK('By Round'!K136),"",'By Round'!K136)</f>
         <v/>
       </c>
       <c r="L14" s="12">
@@ -3280,45 +3268,44 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15">
+      <c r="B15" s="11">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <f>'By Round'!B147</f>
         <v/>
       </c>
-      <c r="D15">
+      <c r="D15" s="11">
         <f>'By Round'!C147</f>
         <v/>
       </c>
-      <c r="E15">
+      <c r="E15" s="11">
         <f>'By Round'!D147</f>
         <v/>
       </c>
-      <c r="F15" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F15" s="11">
+        <f>IF(ISBLANK('By Round'!F148),"",'By Round'!F148)</f>
+        <v/>
       </c>
       <c r="G15">
-        <f>IF(ISBLANK('By Round'!G147),"",'By Round'!G147)</f>
+        <f>IF(ISBLANK('By Round'!G148),"",'By Round'!G148)</f>
         <v/>
       </c>
       <c r="H15">
-        <f>IF(ISBLANK('By Round'!H147),"",'By Round'!H147)</f>
+        <f>IF(ISBLANK('By Round'!H148),"",'By Round'!H148)</f>
         <v/>
       </c>
       <c r="I15">
-        <f>IF(ISBLANK('By Round'!I147),"",'By Round'!I147)</f>
+        <f>IF(ISBLANK('By Round'!I148),"",'By Round'!I148)</f>
         <v/>
       </c>
       <c r="J15">
-        <f>IF(ISBLANK('By Round'!J147),"",'By Round'!J147)</f>
+        <f>IF(ISBLANK('By Round'!J148),"",'By Round'!J148)</f>
         <v/>
       </c>
       <c r="K15">
-        <f>IF(ISBLANK('By Round'!K147),"",'By Round'!K147)</f>
+        <f>IF(ISBLANK('By Round'!K148),"",'By Round'!K148)</f>
         <v/>
       </c>
       <c r="L15" s="12">
@@ -3452,45 +3439,44 @@
     </row>
     <row r="16">
       <c r="A16" s="15" t="n"/>
-      <c r="B16" s="15">
+      <c r="B16" s="16">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="16">
         <f>'By Round'!B159</f>
         <v/>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="16">
         <f>'By Round'!C159</f>
         <v/>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="16">
         <f>'By Round'!D159</f>
         <v/>
       </c>
-      <c r="F16" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F16" s="16">
+        <f>IF(ISBLANK('By Round'!F160),"",'By Round'!F160)</f>
+        <v/>
       </c>
       <c r="G16" s="15">
-        <f>IF(ISBLANK('By Round'!G159),"",'By Round'!G159)</f>
+        <f>IF(ISBLANK('By Round'!G160),"",'By Round'!G160)</f>
         <v/>
       </c>
       <c r="H16" s="15">
-        <f>IF(ISBLANK('By Round'!H159),"",'By Round'!H159)</f>
+        <f>IF(ISBLANK('By Round'!H160),"",'By Round'!H160)</f>
         <v/>
       </c>
       <c r="I16" s="15">
-        <f>IF(ISBLANK('By Round'!I159),"",'By Round'!I159)</f>
+        <f>IF(ISBLANK('By Round'!I160),"",'By Round'!I160)</f>
         <v/>
       </c>
       <c r="J16" s="15">
-        <f>IF(ISBLANK('By Round'!J159),"",'By Round'!J159)</f>
+        <f>IF(ISBLANK('By Round'!J160),"",'By Round'!J160)</f>
         <v/>
       </c>
       <c r="K16" s="15">
-        <f>IF(ISBLANK('By Round'!K159),"",'By Round'!K159)</f>
+        <f>IF(ISBLANK('By Round'!K160),"",'By Round'!K160)</f>
         <v/>
       </c>
       <c r="L16" s="17">
@@ -3623,29 +3609,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C17">
+      <c r="C17" s="11">
         <f>'By Round'!B17</f>
         <v/>
       </c>
-      <c r="D17">
+      <c r="D17" s="11">
         <f>'By Round'!C17</f>
         <v/>
       </c>
-      <c r="E17">
+      <c r="E17" s="11">
         <f>'By Round'!D17</f>
         <v/>
       </c>
-      <c r="F17" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F17" s="11">
+        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
+        <v/>
       </c>
       <c r="G17">
         <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
@@ -3797,26 +3782,25 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18">
+      <c r="B18" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C18">
+      <c r="C18" s="11">
         <f>'By Round'!B57</f>
         <v/>
       </c>
-      <c r="D18">
+      <c r="D18" s="11">
         <f>'By Round'!C57</f>
         <v/>
       </c>
-      <c r="E18">
+      <c r="E18" s="11">
         <f>'By Round'!D57</f>
         <v/>
       </c>
-      <c r="F18" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F18" s="11">
+        <f>IF(ISBLANK('By Round'!F57),"",'By Round'!F57)</f>
+        <v/>
       </c>
       <c r="G18">
         <f>IF(ISBLANK('By Round'!G57),"",'By Round'!G57)</f>
@@ -3968,26 +3952,25 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19">
+      <c r="B19" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C19">
+      <c r="C19" s="11">
         <f>'By Round'!B69</f>
         <v/>
       </c>
-      <c r="D19">
+      <c r="D19" s="11">
         <f>'By Round'!C69</f>
         <v/>
       </c>
-      <c r="E19">
+      <c r="E19" s="11">
         <f>'By Round'!D69</f>
         <v/>
       </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F19" s="11">
+        <f>IF(ISBLANK('By Round'!F69),"",'By Round'!F69)</f>
+        <v/>
       </c>
       <c r="G19">
         <f>IF(ISBLANK('By Round'!G69),"",'By Round'!G69)</f>
@@ -4139,26 +4122,25 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20">
+      <c r="B20" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C20">
+      <c r="C20" s="11">
         <f>'By Round'!B81</f>
         <v/>
       </c>
-      <c r="D20">
+      <c r="D20" s="11">
         <f>'By Round'!C81</f>
         <v/>
       </c>
-      <c r="E20">
+      <c r="E20" s="11">
         <f>'By Round'!D81</f>
         <v/>
       </c>
-      <c r="F20" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F20" s="11">
+        <f>IF(ISBLANK('By Round'!F81),"",'By Round'!F81)</f>
+        <v/>
       </c>
       <c r="G20">
         <f>IF(ISBLANK('By Round'!G81),"",'By Round'!G81)</f>
@@ -4310,26 +4292,25 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21">
+      <c r="B21" s="11">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C21">
+      <c r="C21" s="11">
         <f>'By Round'!B149</f>
         <v/>
       </c>
-      <c r="D21">
+      <c r="D21" s="11">
         <f>'By Round'!C149</f>
         <v/>
       </c>
-      <c r="E21">
+      <c r="E21" s="11">
         <f>'By Round'!D149</f>
         <v/>
       </c>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F21" s="11">
+        <f>IF(ISBLANK('By Round'!F149),"",'By Round'!F149)</f>
+        <v/>
       </c>
       <c r="G21">
         <f>IF(ISBLANK('By Round'!G149),"",'By Round'!G149)</f>
@@ -4481,26 +4462,25 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22">
+      <c r="B22" s="11">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C22">
+      <c r="C22" s="11">
         <f>'By Round'!B161</f>
         <v/>
       </c>
-      <c r="D22">
+      <c r="D22" s="11">
         <f>'By Round'!C161</f>
         <v/>
       </c>
-      <c r="E22">
+      <c r="E22" s="11">
         <f>'By Round'!D161</f>
         <v/>
       </c>
-      <c r="F22" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F22" s="11">
+        <f>IF(ISBLANK('By Round'!F161),"",'By Round'!F161)</f>
+        <v/>
       </c>
       <c r="G22">
         <f>IF(ISBLANK('By Round'!G161),"",'By Round'!G161)</f>
@@ -4653,26 +4633,25 @@
     </row>
     <row r="23">
       <c r="A23" s="15" t="n"/>
-      <c r="B23" s="15">
+      <c r="B23" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="16">
         <f>'By Round'!B173</f>
         <v/>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="16">
         <f>'By Round'!C173</f>
         <v/>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="16">
         <f>'By Round'!D173</f>
         <v/>
       </c>
-      <c r="F23" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F23" s="16">
+        <f>IF(ISBLANK('By Round'!F173),"",'By Round'!F173)</f>
+        <v/>
       </c>
       <c r="G23" s="15">
         <f>IF(ISBLANK('By Round'!G173),"",'By Round'!G173)</f>
@@ -4824,48 +4803,47 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C24">
+      <c r="C24" s="11">
         <f>'By Round'!B17</f>
         <v/>
       </c>
-      <c r="D24">
+      <c r="D24" s="11">
         <f>'By Round'!C17</f>
         <v/>
       </c>
-      <c r="E24">
+      <c r="E24" s="11">
         <f>'By Round'!D17</f>
         <v/>
       </c>
-      <c r="F24" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F24" s="11">
+        <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
+        <v/>
       </c>
       <c r="G24">
-        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
+        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
         <v/>
       </c>
       <c r="H24">
-        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
+        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
         <v/>
       </c>
       <c r="I24">
-        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
+        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
         <v/>
       </c>
       <c r="J24">
-        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
+        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
         <v/>
       </c>
       <c r="K24">
-        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
+        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
         <v/>
       </c>
       <c r="L24" s="12">
@@ -4998,45 +4976,44 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25">
+      <c r="B25" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C25">
+      <c r="C25" s="11">
         <f>'By Round'!B57</f>
         <v/>
       </c>
-      <c r="D25">
+      <c r="D25" s="11">
         <f>'By Round'!C57</f>
         <v/>
       </c>
-      <c r="E25">
+      <c r="E25" s="11">
         <f>'By Round'!D57</f>
         <v/>
       </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F25" s="11">
+        <f>IF(ISBLANK('By Round'!F58),"",'By Round'!F58)</f>
+        <v/>
       </c>
       <c r="G25">
-        <f>IF(ISBLANK('By Round'!G57),"",'By Round'!G57)</f>
+        <f>IF(ISBLANK('By Round'!G58),"",'By Round'!G58)</f>
         <v/>
       </c>
       <c r="H25">
-        <f>IF(ISBLANK('By Round'!H57),"",'By Round'!H57)</f>
+        <f>IF(ISBLANK('By Round'!H58),"",'By Round'!H58)</f>
         <v/>
       </c>
       <c r="I25">
-        <f>IF(ISBLANK('By Round'!I57),"",'By Round'!I57)</f>
+        <f>IF(ISBLANK('By Round'!I58),"",'By Round'!I58)</f>
         <v/>
       </c>
       <c r="J25">
-        <f>IF(ISBLANK('By Round'!J57),"",'By Round'!J57)</f>
+        <f>IF(ISBLANK('By Round'!J58),"",'By Round'!J58)</f>
         <v/>
       </c>
       <c r="K25">
-        <f>IF(ISBLANK('By Round'!K57),"",'By Round'!K57)</f>
+        <f>IF(ISBLANK('By Round'!K58),"",'By Round'!K58)</f>
         <v/>
       </c>
       <c r="L25" s="12">
@@ -5169,45 +5146,44 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26">
+      <c r="B26" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C26">
+      <c r="C26" s="11">
         <f>'By Round'!B69</f>
         <v/>
       </c>
-      <c r="D26">
+      <c r="D26" s="11">
         <f>'By Round'!C69</f>
         <v/>
       </c>
-      <c r="E26">
+      <c r="E26" s="11">
         <f>'By Round'!D69</f>
         <v/>
       </c>
-      <c r="F26" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F26" s="11">
+        <f>IF(ISBLANK('By Round'!F70),"",'By Round'!F70)</f>
+        <v/>
       </c>
       <c r="G26">
-        <f>IF(ISBLANK('By Round'!G69),"",'By Round'!G69)</f>
+        <f>IF(ISBLANK('By Round'!G70),"",'By Round'!G70)</f>
         <v/>
       </c>
       <c r="H26">
-        <f>IF(ISBLANK('By Round'!H69),"",'By Round'!H69)</f>
+        <f>IF(ISBLANK('By Round'!H70),"",'By Round'!H70)</f>
         <v/>
       </c>
       <c r="I26">
-        <f>IF(ISBLANK('By Round'!I69),"",'By Round'!I69)</f>
+        <f>IF(ISBLANK('By Round'!I70),"",'By Round'!I70)</f>
         <v/>
       </c>
       <c r="J26">
-        <f>IF(ISBLANK('By Round'!J69),"",'By Round'!J69)</f>
+        <f>IF(ISBLANK('By Round'!J70),"",'By Round'!J70)</f>
         <v/>
       </c>
       <c r="K26">
-        <f>IF(ISBLANK('By Round'!K69),"",'By Round'!K69)</f>
+        <f>IF(ISBLANK('By Round'!K70),"",'By Round'!K70)</f>
         <v/>
       </c>
       <c r="L26" s="12">
@@ -5340,45 +5316,44 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27">
+      <c r="B27" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C27">
+      <c r="C27" s="11">
         <f>'By Round'!B81</f>
         <v/>
       </c>
-      <c r="D27">
+      <c r="D27" s="11">
         <f>'By Round'!C81</f>
         <v/>
       </c>
-      <c r="E27">
+      <c r="E27" s="11">
         <f>'By Round'!D81</f>
         <v/>
       </c>
-      <c r="F27" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F27" s="11">
+        <f>IF(ISBLANK('By Round'!F82),"",'By Round'!F82)</f>
+        <v/>
       </c>
       <c r="G27">
-        <f>IF(ISBLANK('By Round'!G81),"",'By Round'!G81)</f>
+        <f>IF(ISBLANK('By Round'!G82),"",'By Round'!G82)</f>
         <v/>
       </c>
       <c r="H27">
-        <f>IF(ISBLANK('By Round'!H81),"",'By Round'!H81)</f>
+        <f>IF(ISBLANK('By Round'!H82),"",'By Round'!H82)</f>
         <v/>
       </c>
       <c r="I27">
-        <f>IF(ISBLANK('By Round'!I81),"",'By Round'!I81)</f>
+        <f>IF(ISBLANK('By Round'!I82),"",'By Round'!I82)</f>
         <v/>
       </c>
       <c r="J27">
-        <f>IF(ISBLANK('By Round'!J81),"",'By Round'!J81)</f>
+        <f>IF(ISBLANK('By Round'!J82),"",'By Round'!J82)</f>
         <v/>
       </c>
       <c r="K27">
-        <f>IF(ISBLANK('By Round'!K81),"",'By Round'!K81)</f>
+        <f>IF(ISBLANK('By Round'!K82),"",'By Round'!K82)</f>
         <v/>
       </c>
       <c r="L27" s="12">
@@ -5511,45 +5486,44 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28">
+      <c r="B28" s="11">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C28">
+      <c r="C28" s="11">
         <f>'By Round'!B149</f>
         <v/>
       </c>
-      <c r="D28">
+      <c r="D28" s="11">
         <f>'By Round'!C149</f>
         <v/>
       </c>
-      <c r="E28">
+      <c r="E28" s="11">
         <f>'By Round'!D149</f>
         <v/>
       </c>
-      <c r="F28" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F28" s="11">
+        <f>IF(ISBLANK('By Round'!F150),"",'By Round'!F150)</f>
+        <v/>
       </c>
       <c r="G28">
-        <f>IF(ISBLANK('By Round'!G149),"",'By Round'!G149)</f>
+        <f>IF(ISBLANK('By Round'!G150),"",'By Round'!G150)</f>
         <v/>
       </c>
       <c r="H28">
-        <f>IF(ISBLANK('By Round'!H149),"",'By Round'!H149)</f>
+        <f>IF(ISBLANK('By Round'!H150),"",'By Round'!H150)</f>
         <v/>
       </c>
       <c r="I28">
-        <f>IF(ISBLANK('By Round'!I149),"",'By Round'!I149)</f>
+        <f>IF(ISBLANK('By Round'!I150),"",'By Round'!I150)</f>
         <v/>
       </c>
       <c r="J28">
-        <f>IF(ISBLANK('By Round'!J149),"",'By Round'!J149)</f>
+        <f>IF(ISBLANK('By Round'!J150),"",'By Round'!J150)</f>
         <v/>
       </c>
       <c r="K28">
-        <f>IF(ISBLANK('By Round'!K149),"",'By Round'!K149)</f>
+        <f>IF(ISBLANK('By Round'!K150),"",'By Round'!K150)</f>
         <v/>
       </c>
       <c r="L28" s="12">
@@ -5682,45 +5656,44 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29">
+      <c r="B29" s="11">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C29">
+      <c r="C29" s="11">
         <f>'By Round'!B161</f>
         <v/>
       </c>
-      <c r="D29">
+      <c r="D29" s="11">
         <f>'By Round'!C161</f>
         <v/>
       </c>
-      <c r="E29">
+      <c r="E29" s="11">
         <f>'By Round'!D161</f>
         <v/>
       </c>
-      <c r="F29" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F29" s="11">
+        <f>IF(ISBLANK('By Round'!F162),"",'By Round'!F162)</f>
+        <v/>
       </c>
       <c r="G29">
-        <f>IF(ISBLANK('By Round'!G161),"",'By Round'!G161)</f>
+        <f>IF(ISBLANK('By Round'!G162),"",'By Round'!G162)</f>
         <v/>
       </c>
       <c r="H29">
-        <f>IF(ISBLANK('By Round'!H161),"",'By Round'!H161)</f>
+        <f>IF(ISBLANK('By Round'!H162),"",'By Round'!H162)</f>
         <v/>
       </c>
       <c r="I29">
-        <f>IF(ISBLANK('By Round'!I161),"",'By Round'!I161)</f>
+        <f>IF(ISBLANK('By Round'!I162),"",'By Round'!I162)</f>
         <v/>
       </c>
       <c r="J29">
-        <f>IF(ISBLANK('By Round'!J161),"",'By Round'!J161)</f>
+        <f>IF(ISBLANK('By Round'!J162),"",'By Round'!J162)</f>
         <v/>
       </c>
       <c r="K29">
-        <f>IF(ISBLANK('By Round'!K161),"",'By Round'!K161)</f>
+        <f>IF(ISBLANK('By Round'!K162),"",'By Round'!K162)</f>
         <v/>
       </c>
       <c r="L29" s="12">
@@ -5854,45 +5827,44 @@
     </row>
     <row r="30">
       <c r="A30" s="15" t="n"/>
-      <c r="B30" s="15">
+      <c r="B30" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="16">
         <f>'By Round'!B173</f>
         <v/>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="16">
         <f>'By Round'!C173</f>
         <v/>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="16">
         <f>'By Round'!D173</f>
         <v/>
       </c>
-      <c r="F30" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F30" s="16">
+        <f>IF(ISBLANK('By Round'!F174),"",'By Round'!F174)</f>
+        <v/>
       </c>
       <c r="G30" s="15">
-        <f>IF(ISBLANK('By Round'!G173),"",'By Round'!G173)</f>
+        <f>IF(ISBLANK('By Round'!G174),"",'By Round'!G174)</f>
         <v/>
       </c>
       <c r="H30" s="15">
-        <f>IF(ISBLANK('By Round'!H173),"",'By Round'!H173)</f>
+        <f>IF(ISBLANK('By Round'!H174),"",'By Round'!H174)</f>
         <v/>
       </c>
       <c r="I30" s="15">
-        <f>IF(ISBLANK('By Round'!I173),"",'By Round'!I173)</f>
+        <f>IF(ISBLANK('By Round'!I174),"",'By Round'!I174)</f>
         <v/>
       </c>
       <c r="J30" s="15">
-        <f>IF(ISBLANK('By Round'!J173),"",'By Round'!J173)</f>
+        <f>IF(ISBLANK('By Round'!J174),"",'By Round'!J174)</f>
         <v/>
       </c>
       <c r="K30" s="15">
-        <f>IF(ISBLANK('By Round'!K173),"",'By Round'!K173)</f>
+        <f>IF(ISBLANK('By Round'!K174),"",'By Round'!K174)</f>
         <v/>
       </c>
       <c r="L30" s="17">
@@ -6025,29 +5997,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C31">
+      <c r="C31" s="11">
         <f>'By Round'!B5</f>
         <v/>
       </c>
-      <c r="D31">
+      <c r="D31" s="11">
         <f>'By Round'!C5</f>
         <v/>
       </c>
-      <c r="E31">
+      <c r="E31" s="11">
         <f>'By Round'!D5</f>
         <v/>
       </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F31" s="11">
+        <f>IF(ISBLANK('By Round'!F5),"",'By Round'!F5)</f>
+        <v/>
       </c>
       <c r="G31">
         <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
@@ -6199,26 +6170,25 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32">
+      <c r="B32" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C32">
+      <c r="C32" s="11">
         <f>'By Round'!B31</f>
         <v/>
       </c>
-      <c r="D32">
+      <c r="D32" s="11">
         <f>'By Round'!C31</f>
         <v/>
       </c>
-      <c r="E32">
+      <c r="E32" s="11">
         <f>'By Round'!D31</f>
         <v/>
       </c>
-      <c r="F32" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F32" s="11">
+        <f>IF(ISBLANK('By Round'!F31),"",'By Round'!F31)</f>
+        <v/>
       </c>
       <c r="G32">
         <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
@@ -6370,26 +6340,25 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33">
+      <c r="B33" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C33">
+      <c r="C33" s="11">
         <f>'By Round'!B71</f>
         <v/>
       </c>
-      <c r="D33">
+      <c r="D33" s="11">
         <f>'By Round'!C71</f>
         <v/>
       </c>
-      <c r="E33">
+      <c r="E33" s="11">
         <f>'By Round'!D71</f>
         <v/>
       </c>
-      <c r="F33" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F33" s="11">
+        <f>IF(ISBLANK('By Round'!F71),"",'By Round'!F71)</f>
+        <v/>
       </c>
       <c r="G33">
         <f>IF(ISBLANK('By Round'!G71),"",'By Round'!G71)</f>
@@ -6541,26 +6510,25 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34">
+      <c r="B34" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C34">
+      <c r="C34" s="11">
         <f>'By Round'!B83</f>
         <v/>
       </c>
-      <c r="D34">
+      <c r="D34" s="11">
         <f>'By Round'!C83</f>
         <v/>
       </c>
-      <c r="E34">
+      <c r="E34" s="11">
         <f>'By Round'!D83</f>
         <v/>
       </c>
-      <c r="F34" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F34" s="11">
+        <f>IF(ISBLANK('By Round'!F83),"",'By Round'!F83)</f>
+        <v/>
       </c>
       <c r="G34">
         <f>IF(ISBLANK('By Round'!G83),"",'By Round'!G83)</f>
@@ -6712,26 +6680,25 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35">
+      <c r="B35" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C35">
+      <c r="C35" s="11">
         <f>'By Round'!B95</f>
         <v/>
       </c>
-      <c r="D35">
+      <c r="D35" s="11">
         <f>'By Round'!C95</f>
         <v/>
       </c>
-      <c r="E35">
+      <c r="E35" s="11">
         <f>'By Round'!D95</f>
         <v/>
       </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F35" s="11">
+        <f>IF(ISBLANK('By Round'!F95),"",'By Round'!F95)</f>
+        <v/>
       </c>
       <c r="G35">
         <f>IF(ISBLANK('By Round'!G95),"",'By Round'!G95)</f>
@@ -6883,26 +6850,25 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36">
+      <c r="B36" s="11">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C36">
+      <c r="C36" s="11">
         <f>'By Round'!B163</f>
         <v/>
       </c>
-      <c r="D36">
+      <c r="D36" s="11">
         <f>'By Round'!C163</f>
         <v/>
       </c>
-      <c r="E36">
+      <c r="E36" s="11">
         <f>'By Round'!D163</f>
         <v/>
       </c>
-      <c r="F36" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F36" s="11">
+        <f>IF(ISBLANK('By Round'!F163),"",'By Round'!F163)</f>
+        <v/>
       </c>
       <c r="G36">
         <f>IF(ISBLANK('By Round'!G163),"",'By Round'!G163)</f>
@@ -7055,26 +7021,25 @@
     </row>
     <row r="37">
       <c r="A37" s="15" t="n"/>
-      <c r="B37" s="15">
+      <c r="B37" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="16">
         <f>'By Round'!B175</f>
         <v/>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="16">
         <f>'By Round'!C175</f>
         <v/>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="16">
         <f>'By Round'!D175</f>
         <v/>
       </c>
-      <c r="F37" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F37" s="16">
+        <f>IF(ISBLANK('By Round'!F175),"",'By Round'!F175)</f>
+        <v/>
       </c>
       <c r="G37" s="15">
         <f>IF(ISBLANK('By Round'!G175),"",'By Round'!G175)</f>
@@ -7226,48 +7191,47 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C38">
+      <c r="C38" s="11">
         <f>'By Round'!B5</f>
         <v/>
       </c>
-      <c r="D38">
+      <c r="D38" s="11">
         <f>'By Round'!C5</f>
         <v/>
       </c>
-      <c r="E38">
+      <c r="E38" s="11">
         <f>'By Round'!D5</f>
         <v/>
       </c>
-      <c r="F38" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F38" s="11">
+        <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
+        <v/>
       </c>
       <c r="G38">
-        <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
+        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
         <v/>
       </c>
       <c r="H38">
-        <f>IF(ISBLANK('By Round'!H5),"",'By Round'!H5)</f>
+        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
         <v/>
       </c>
       <c r="I38">
-        <f>IF(ISBLANK('By Round'!I5),"",'By Round'!I5)</f>
+        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
         <v/>
       </c>
       <c r="J38">
-        <f>IF(ISBLANK('By Round'!J5),"",'By Round'!J5)</f>
+        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
         <v/>
       </c>
       <c r="K38">
-        <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
+        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
         <v/>
       </c>
       <c r="L38" s="12">
@@ -7400,45 +7364,44 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39">
+      <c r="B39" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C39">
+      <c r="C39" s="11">
         <f>'By Round'!B31</f>
         <v/>
       </c>
-      <c r="D39">
+      <c r="D39" s="11">
         <f>'By Round'!C31</f>
         <v/>
       </c>
-      <c r="E39">
+      <c r="E39" s="11">
         <f>'By Round'!D31</f>
         <v/>
       </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F39" s="11">
+        <f>IF(ISBLANK('By Round'!F32),"",'By Round'!F32)</f>
+        <v/>
       </c>
       <c r="G39">
-        <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
+        <f>IF(ISBLANK('By Round'!G32),"",'By Round'!G32)</f>
         <v/>
       </c>
       <c r="H39">
-        <f>IF(ISBLANK('By Round'!H31),"",'By Round'!H31)</f>
+        <f>IF(ISBLANK('By Round'!H32),"",'By Round'!H32)</f>
         <v/>
       </c>
       <c r="I39">
-        <f>IF(ISBLANK('By Round'!I31),"",'By Round'!I31)</f>
+        <f>IF(ISBLANK('By Round'!I32),"",'By Round'!I32)</f>
         <v/>
       </c>
       <c r="J39">
-        <f>IF(ISBLANK('By Round'!J31),"",'By Round'!J31)</f>
+        <f>IF(ISBLANK('By Round'!J32),"",'By Round'!J32)</f>
         <v/>
       </c>
       <c r="K39">
-        <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
+        <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
         <v/>
       </c>
       <c r="L39" s="12">
@@ -7571,45 +7534,44 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40">
+      <c r="B40" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C40">
+      <c r="C40" s="11">
         <f>'By Round'!B71</f>
         <v/>
       </c>
-      <c r="D40">
+      <c r="D40" s="11">
         <f>'By Round'!C71</f>
         <v/>
       </c>
-      <c r="E40">
+      <c r="E40" s="11">
         <f>'By Round'!D71</f>
         <v/>
       </c>
-      <c r="F40" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F40" s="11">
+        <f>IF(ISBLANK('By Round'!F72),"",'By Round'!F72)</f>
+        <v/>
       </c>
       <c r="G40">
-        <f>IF(ISBLANK('By Round'!G71),"",'By Round'!G71)</f>
+        <f>IF(ISBLANK('By Round'!G72),"",'By Round'!G72)</f>
         <v/>
       </c>
       <c r="H40">
-        <f>IF(ISBLANK('By Round'!H71),"",'By Round'!H71)</f>
+        <f>IF(ISBLANK('By Round'!H72),"",'By Round'!H72)</f>
         <v/>
       </c>
       <c r="I40">
-        <f>IF(ISBLANK('By Round'!I71),"",'By Round'!I71)</f>
+        <f>IF(ISBLANK('By Round'!I72),"",'By Round'!I72)</f>
         <v/>
       </c>
       <c r="J40">
-        <f>IF(ISBLANK('By Round'!J71),"",'By Round'!J71)</f>
+        <f>IF(ISBLANK('By Round'!J72),"",'By Round'!J72)</f>
         <v/>
       </c>
       <c r="K40">
-        <f>IF(ISBLANK('By Round'!K71),"",'By Round'!K71)</f>
+        <f>IF(ISBLANK('By Round'!K72),"",'By Round'!K72)</f>
         <v/>
       </c>
       <c r="L40" s="12">
@@ -7742,45 +7704,44 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41">
+      <c r="B41" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C41">
+      <c r="C41" s="11">
         <f>'By Round'!B83</f>
         <v/>
       </c>
-      <c r="D41">
+      <c r="D41" s="11">
         <f>'By Round'!C83</f>
         <v/>
       </c>
-      <c r="E41">
+      <c r="E41" s="11">
         <f>'By Round'!D83</f>
         <v/>
       </c>
-      <c r="F41" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F41" s="11">
+        <f>IF(ISBLANK('By Round'!F84),"",'By Round'!F84)</f>
+        <v/>
       </c>
       <c r="G41">
-        <f>IF(ISBLANK('By Round'!G83),"",'By Round'!G83)</f>
+        <f>IF(ISBLANK('By Round'!G84),"",'By Round'!G84)</f>
         <v/>
       </c>
       <c r="H41">
-        <f>IF(ISBLANK('By Round'!H83),"",'By Round'!H83)</f>
+        <f>IF(ISBLANK('By Round'!H84),"",'By Round'!H84)</f>
         <v/>
       </c>
       <c r="I41">
-        <f>IF(ISBLANK('By Round'!I83),"",'By Round'!I83)</f>
+        <f>IF(ISBLANK('By Round'!I84),"",'By Round'!I84)</f>
         <v/>
       </c>
       <c r="J41">
-        <f>IF(ISBLANK('By Round'!J83),"",'By Round'!J83)</f>
+        <f>IF(ISBLANK('By Round'!J84),"",'By Round'!J84)</f>
         <v/>
       </c>
       <c r="K41">
-        <f>IF(ISBLANK('By Round'!K83),"",'By Round'!K83)</f>
+        <f>IF(ISBLANK('By Round'!K84),"",'By Round'!K84)</f>
         <v/>
       </c>
       <c r="L41" s="12">
@@ -7913,45 +7874,44 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42">
+      <c r="B42" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C42">
+      <c r="C42" s="11">
         <f>'By Round'!B95</f>
         <v/>
       </c>
-      <c r="D42">
+      <c r="D42" s="11">
         <f>'By Round'!C95</f>
         <v/>
       </c>
-      <c r="E42">
+      <c r="E42" s="11">
         <f>'By Round'!D95</f>
         <v/>
       </c>
-      <c r="F42" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F42" s="11">
+        <f>IF(ISBLANK('By Round'!F96),"",'By Round'!F96)</f>
+        <v/>
       </c>
       <c r="G42">
-        <f>IF(ISBLANK('By Round'!G95),"",'By Round'!G95)</f>
+        <f>IF(ISBLANK('By Round'!G96),"",'By Round'!G96)</f>
         <v/>
       </c>
       <c r="H42">
-        <f>IF(ISBLANK('By Round'!H95),"",'By Round'!H95)</f>
+        <f>IF(ISBLANK('By Round'!H96),"",'By Round'!H96)</f>
         <v/>
       </c>
       <c r="I42">
-        <f>IF(ISBLANK('By Round'!I95),"",'By Round'!I95)</f>
+        <f>IF(ISBLANK('By Round'!I96),"",'By Round'!I96)</f>
         <v/>
       </c>
       <c r="J42">
-        <f>IF(ISBLANK('By Round'!J95),"",'By Round'!J95)</f>
+        <f>IF(ISBLANK('By Round'!J96),"",'By Round'!J96)</f>
         <v/>
       </c>
       <c r="K42">
-        <f>IF(ISBLANK('By Round'!K95),"",'By Round'!K95)</f>
+        <f>IF(ISBLANK('By Round'!K96),"",'By Round'!K96)</f>
         <v/>
       </c>
       <c r="L42" s="12">
@@ -8084,45 +8044,44 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43">
+      <c r="B43" s="11">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C43">
+      <c r="C43" s="11">
         <f>'By Round'!B163</f>
         <v/>
       </c>
-      <c r="D43">
+      <c r="D43" s="11">
         <f>'By Round'!C163</f>
         <v/>
       </c>
-      <c r="E43">
+      <c r="E43" s="11">
         <f>'By Round'!D163</f>
         <v/>
       </c>
-      <c r="F43" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F43" s="11">
+        <f>IF(ISBLANK('By Round'!F164),"",'By Round'!F164)</f>
+        <v/>
       </c>
       <c r="G43">
-        <f>IF(ISBLANK('By Round'!G163),"",'By Round'!G163)</f>
+        <f>IF(ISBLANK('By Round'!G164),"",'By Round'!G164)</f>
         <v/>
       </c>
       <c r="H43">
-        <f>IF(ISBLANK('By Round'!H163),"",'By Round'!H163)</f>
+        <f>IF(ISBLANK('By Round'!H164),"",'By Round'!H164)</f>
         <v/>
       </c>
       <c r="I43">
-        <f>IF(ISBLANK('By Round'!I163),"",'By Round'!I163)</f>
+        <f>IF(ISBLANK('By Round'!I164),"",'By Round'!I164)</f>
         <v/>
       </c>
       <c r="J43">
-        <f>IF(ISBLANK('By Round'!J163),"",'By Round'!J163)</f>
+        <f>IF(ISBLANK('By Round'!J164),"",'By Round'!J164)</f>
         <v/>
       </c>
       <c r="K43">
-        <f>IF(ISBLANK('By Round'!K163),"",'By Round'!K163)</f>
+        <f>IF(ISBLANK('By Round'!K164),"",'By Round'!K164)</f>
         <v/>
       </c>
       <c r="L43" s="12">
@@ -8256,45 +8215,44 @@
     </row>
     <row r="44">
       <c r="A44" s="15" t="n"/>
-      <c r="B44" s="15">
+      <c r="B44" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="16">
         <f>'By Round'!B175</f>
         <v/>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="16">
         <f>'By Round'!C175</f>
         <v/>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="16">
         <f>'By Round'!D175</f>
         <v/>
       </c>
-      <c r="F44" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F44" s="16">
+        <f>IF(ISBLANK('By Round'!F176),"",'By Round'!F176)</f>
+        <v/>
       </c>
       <c r="G44" s="15">
-        <f>IF(ISBLANK('By Round'!G175),"",'By Round'!G175)</f>
+        <f>IF(ISBLANK('By Round'!G176),"",'By Round'!G176)</f>
         <v/>
       </c>
       <c r="H44" s="15">
-        <f>IF(ISBLANK('By Round'!H175),"",'By Round'!H175)</f>
+        <f>IF(ISBLANK('By Round'!H176),"",'By Round'!H176)</f>
         <v/>
       </c>
       <c r="I44" s="15">
-        <f>IF(ISBLANK('By Round'!I175),"",'By Round'!I175)</f>
+        <f>IF(ISBLANK('By Round'!I176),"",'By Round'!I176)</f>
         <v/>
       </c>
       <c r="J44" s="15">
-        <f>IF(ISBLANK('By Round'!J175),"",'By Round'!J175)</f>
+        <f>IF(ISBLANK('By Round'!J176),"",'By Round'!J176)</f>
         <v/>
       </c>
       <c r="K44" s="15">
-        <f>IF(ISBLANK('By Round'!K175),"",'By Round'!K175)</f>
+        <f>IF(ISBLANK('By Round'!K176),"",'By Round'!K176)</f>
         <v/>
       </c>
       <c r="L44" s="17">
@@ -8427,29 +8385,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C45">
+      <c r="C45" s="11">
         <f>'By Round'!B7</f>
         <v/>
       </c>
-      <c r="D45">
+      <c r="D45" s="11">
         <f>'By Round'!C7</f>
         <v/>
       </c>
-      <c r="E45">
+      <c r="E45" s="11">
         <f>'By Round'!D7</f>
         <v/>
       </c>
-      <c r="F45" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F45" s="11">
+        <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
+        <v/>
       </c>
       <c r="G45">
         <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
@@ -8601,26 +8558,25 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46">
+      <c r="B46" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C46">
+      <c r="C46" s="11">
         <f>'By Round'!B19</f>
         <v/>
       </c>
-      <c r="D46">
+      <c r="D46" s="11">
         <f>'By Round'!C19</f>
         <v/>
       </c>
-      <c r="E46">
+      <c r="E46" s="11">
         <f>'By Round'!D19</f>
         <v/>
       </c>
-      <c r="F46" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F46" s="11">
+        <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
+        <v/>
       </c>
       <c r="G46">
         <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
@@ -8772,26 +8728,25 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47">
+      <c r="B47" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C47">
+      <c r="C47" s="11">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D47">
+      <c r="D47" s="11">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E47">
+      <c r="E47" s="11">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F47" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F47" s="11">
+        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
+        <v/>
       </c>
       <c r="G47">
         <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
@@ -8943,26 +8898,25 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48">
+      <c r="B48" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C48">
+      <c r="C48" s="11">
         <f>'By Round'!B85</f>
         <v/>
       </c>
-      <c r="D48">
+      <c r="D48" s="11">
         <f>'By Round'!C85</f>
         <v/>
       </c>
-      <c r="E48">
+      <c r="E48" s="11">
         <f>'By Round'!D85</f>
         <v/>
       </c>
-      <c r="F48" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F48" s="11">
+        <f>IF(ISBLANK('By Round'!F85),"",'By Round'!F85)</f>
+        <v/>
       </c>
       <c r="G48">
         <f>IF(ISBLANK('By Round'!G85),"",'By Round'!G85)</f>
@@ -9114,26 +9068,25 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49">
+      <c r="B49" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C49">
+      <c r="C49" s="11">
         <f>'By Round'!B97</f>
         <v/>
       </c>
-      <c r="D49">
+      <c r="D49" s="11">
         <f>'By Round'!C97</f>
         <v/>
       </c>
-      <c r="E49">
+      <c r="E49" s="11">
         <f>'By Round'!D97</f>
         <v/>
       </c>
-      <c r="F49" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F49" s="11">
+        <f>IF(ISBLANK('By Round'!F97),"",'By Round'!F97)</f>
+        <v/>
       </c>
       <c r="G49">
         <f>IF(ISBLANK('By Round'!G97),"",'By Round'!G97)</f>
@@ -9285,26 +9238,25 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50">
+      <c r="B50" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C50">
+      <c r="C50" s="11">
         <f>'By Round'!B109</f>
         <v/>
       </c>
-      <c r="D50">
+      <c r="D50" s="11">
         <f>'By Round'!C109</f>
         <v/>
       </c>
-      <c r="E50">
+      <c r="E50" s="11">
         <f>'By Round'!D109</f>
         <v/>
       </c>
-      <c r="F50" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F50" s="11">
+        <f>IF(ISBLANK('By Round'!F109),"",'By Round'!F109)</f>
+        <v/>
       </c>
       <c r="G50">
         <f>IF(ISBLANK('By Round'!G109),"",'By Round'!G109)</f>
@@ -9457,26 +9409,25 @@
     </row>
     <row r="51">
       <c r="A51" s="15" t="n"/>
-      <c r="B51" s="15">
+      <c r="B51" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="16">
         <f>'By Round'!B177</f>
         <v/>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="16">
         <f>'By Round'!C177</f>
         <v/>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="16">
         <f>'By Round'!D177</f>
         <v/>
       </c>
-      <c r="F51" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F51" s="16">
+        <f>IF(ISBLANK('By Round'!F177),"",'By Round'!F177)</f>
+        <v/>
       </c>
       <c r="G51" s="15">
         <f>IF(ISBLANK('By Round'!G177),"",'By Round'!G177)</f>
@@ -9628,48 +9579,47 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C52">
+      <c r="C52" s="11">
         <f>'By Round'!B7</f>
         <v/>
       </c>
-      <c r="D52">
+      <c r="D52" s="11">
         <f>'By Round'!C7</f>
         <v/>
       </c>
-      <c r="E52">
+      <c r="E52" s="11">
         <f>'By Round'!D7</f>
         <v/>
       </c>
-      <c r="F52" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F52" s="11">
+        <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
+        <v/>
       </c>
       <c r="G52">
-        <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
+        <f>IF(ISBLANK('By Round'!G8),"",'By Round'!G8)</f>
         <v/>
       </c>
       <c r="H52">
-        <f>IF(ISBLANK('By Round'!H7),"",'By Round'!H7)</f>
+        <f>IF(ISBLANK('By Round'!H8),"",'By Round'!H8)</f>
         <v/>
       </c>
       <c r="I52">
-        <f>IF(ISBLANK('By Round'!I7),"",'By Round'!I7)</f>
+        <f>IF(ISBLANK('By Round'!I8),"",'By Round'!I8)</f>
         <v/>
       </c>
       <c r="J52">
-        <f>IF(ISBLANK('By Round'!J7),"",'By Round'!J7)</f>
+        <f>IF(ISBLANK('By Round'!J8),"",'By Round'!J8)</f>
         <v/>
       </c>
       <c r="K52">
-        <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
+        <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
         <v/>
       </c>
       <c r="L52" s="12">
@@ -9802,45 +9752,44 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53">
+      <c r="B53" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C53">
+      <c r="C53" s="11">
         <f>'By Round'!B19</f>
         <v/>
       </c>
-      <c r="D53">
+      <c r="D53" s="11">
         <f>'By Round'!C19</f>
         <v/>
       </c>
-      <c r="E53">
+      <c r="E53" s="11">
         <f>'By Round'!D19</f>
         <v/>
       </c>
-      <c r="F53" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F53" s="11">
+        <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
+        <v/>
       </c>
       <c r="G53">
-        <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
+        <f>IF(ISBLANK('By Round'!G20),"",'By Round'!G20)</f>
         <v/>
       </c>
       <c r="H53">
-        <f>IF(ISBLANK('By Round'!H19),"",'By Round'!H19)</f>
+        <f>IF(ISBLANK('By Round'!H20),"",'By Round'!H20)</f>
         <v/>
       </c>
       <c r="I53">
-        <f>IF(ISBLANK('By Round'!I19),"",'By Round'!I19)</f>
+        <f>IF(ISBLANK('By Round'!I20),"",'By Round'!I20)</f>
         <v/>
       </c>
       <c r="J53">
-        <f>IF(ISBLANK('By Round'!J19),"",'By Round'!J19)</f>
+        <f>IF(ISBLANK('By Round'!J20),"",'By Round'!J20)</f>
         <v/>
       </c>
       <c r="K53">
-        <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
+        <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
         <v/>
       </c>
       <c r="L53" s="12">
@@ -9973,45 +9922,44 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54">
+      <c r="B54" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C54">
+      <c r="C54" s="11">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D54">
+      <c r="D54" s="11">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E54">
+      <c r="E54" s="11">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F54" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F54" s="11">
+        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
+        <v/>
       </c>
       <c r="G54">
-        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
+        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
         <v/>
       </c>
       <c r="H54">
-        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
+        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
         <v/>
       </c>
       <c r="I54">
-        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
+        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
         <v/>
       </c>
       <c r="J54">
-        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
+        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
         <v/>
       </c>
       <c r="K54">
-        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
+        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
         <v/>
       </c>
       <c r="L54" s="12">
@@ -10144,45 +10092,44 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55">
+      <c r="B55" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C55">
+      <c r="C55" s="11">
         <f>'By Round'!B85</f>
         <v/>
       </c>
-      <c r="D55">
+      <c r="D55" s="11">
         <f>'By Round'!C85</f>
         <v/>
       </c>
-      <c r="E55">
+      <c r="E55" s="11">
         <f>'By Round'!D85</f>
         <v/>
       </c>
-      <c r="F55" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F55" s="11">
+        <f>IF(ISBLANK('By Round'!F86),"",'By Round'!F86)</f>
+        <v/>
       </c>
       <c r="G55">
-        <f>IF(ISBLANK('By Round'!G85),"",'By Round'!G85)</f>
+        <f>IF(ISBLANK('By Round'!G86),"",'By Round'!G86)</f>
         <v/>
       </c>
       <c r="H55">
-        <f>IF(ISBLANK('By Round'!H85),"",'By Round'!H85)</f>
+        <f>IF(ISBLANK('By Round'!H86),"",'By Round'!H86)</f>
         <v/>
       </c>
       <c r="I55">
-        <f>IF(ISBLANK('By Round'!I85),"",'By Round'!I85)</f>
+        <f>IF(ISBLANK('By Round'!I86),"",'By Round'!I86)</f>
         <v/>
       </c>
       <c r="J55">
-        <f>IF(ISBLANK('By Round'!J85),"",'By Round'!J85)</f>
+        <f>IF(ISBLANK('By Round'!J86),"",'By Round'!J86)</f>
         <v/>
       </c>
       <c r="K55">
-        <f>IF(ISBLANK('By Round'!K85),"",'By Round'!K85)</f>
+        <f>IF(ISBLANK('By Round'!K86),"",'By Round'!K86)</f>
         <v/>
       </c>
       <c r="L55" s="12">
@@ -10315,45 +10262,44 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56">
+      <c r="B56" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C56">
+      <c r="C56" s="11">
         <f>'By Round'!B97</f>
         <v/>
       </c>
-      <c r="D56">
+      <c r="D56" s="11">
         <f>'By Round'!C97</f>
         <v/>
       </c>
-      <c r="E56">
+      <c r="E56" s="11">
         <f>'By Round'!D97</f>
         <v/>
       </c>
-      <c r="F56" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F56" s="11">
+        <f>IF(ISBLANK('By Round'!F98),"",'By Round'!F98)</f>
+        <v/>
       </c>
       <c r="G56">
-        <f>IF(ISBLANK('By Round'!G97),"",'By Round'!G97)</f>
+        <f>IF(ISBLANK('By Round'!G98),"",'By Round'!G98)</f>
         <v/>
       </c>
       <c r="H56">
-        <f>IF(ISBLANK('By Round'!H97),"",'By Round'!H97)</f>
+        <f>IF(ISBLANK('By Round'!H98),"",'By Round'!H98)</f>
         <v/>
       </c>
       <c r="I56">
-        <f>IF(ISBLANK('By Round'!I97),"",'By Round'!I97)</f>
+        <f>IF(ISBLANK('By Round'!I98),"",'By Round'!I98)</f>
         <v/>
       </c>
       <c r="J56">
-        <f>IF(ISBLANK('By Round'!J97),"",'By Round'!J97)</f>
+        <f>IF(ISBLANK('By Round'!J98),"",'By Round'!J98)</f>
         <v/>
       </c>
       <c r="K56">
-        <f>IF(ISBLANK('By Round'!K97),"",'By Round'!K97)</f>
+        <f>IF(ISBLANK('By Round'!K98),"",'By Round'!K98)</f>
         <v/>
       </c>
       <c r="L56" s="12">
@@ -10486,45 +10432,44 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57">
+      <c r="B57" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C57">
+      <c r="C57" s="11">
         <f>'By Round'!B109</f>
         <v/>
       </c>
-      <c r="D57">
+      <c r="D57" s="11">
         <f>'By Round'!C109</f>
         <v/>
       </c>
-      <c r="E57">
+      <c r="E57" s="11">
         <f>'By Round'!D109</f>
         <v/>
       </c>
-      <c r="F57" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F57" s="11">
+        <f>IF(ISBLANK('By Round'!F110),"",'By Round'!F110)</f>
+        <v/>
       </c>
       <c r="G57">
-        <f>IF(ISBLANK('By Round'!G109),"",'By Round'!G109)</f>
+        <f>IF(ISBLANK('By Round'!G110),"",'By Round'!G110)</f>
         <v/>
       </c>
       <c r="H57">
-        <f>IF(ISBLANK('By Round'!H109),"",'By Round'!H109)</f>
+        <f>IF(ISBLANK('By Round'!H110),"",'By Round'!H110)</f>
         <v/>
       </c>
       <c r="I57">
-        <f>IF(ISBLANK('By Round'!I109),"",'By Round'!I109)</f>
+        <f>IF(ISBLANK('By Round'!I110),"",'By Round'!I110)</f>
         <v/>
       </c>
       <c r="J57">
-        <f>IF(ISBLANK('By Round'!J109),"",'By Round'!J109)</f>
+        <f>IF(ISBLANK('By Round'!J110),"",'By Round'!J110)</f>
         <v/>
       </c>
       <c r="K57">
-        <f>IF(ISBLANK('By Round'!K109),"",'By Round'!K109)</f>
+        <f>IF(ISBLANK('By Round'!K110),"",'By Round'!K110)</f>
         <v/>
       </c>
       <c r="L57" s="12">
@@ -10658,45 +10603,44 @@
     </row>
     <row r="58">
       <c r="A58" s="15" t="n"/>
-      <c r="B58" s="15">
+      <c r="B58" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="16">
         <f>'By Round'!B177</f>
         <v/>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="16">
         <f>'By Round'!C177</f>
         <v/>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="16">
         <f>'By Round'!D177</f>
         <v/>
       </c>
-      <c r="F58" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F58" s="16">
+        <f>IF(ISBLANK('By Round'!F178),"",'By Round'!F178)</f>
+        <v/>
       </c>
       <c r="G58" s="15">
-        <f>IF(ISBLANK('By Round'!G177),"",'By Round'!G177)</f>
+        <f>IF(ISBLANK('By Round'!G178),"",'By Round'!G178)</f>
         <v/>
       </c>
       <c r="H58" s="15">
-        <f>IF(ISBLANK('By Round'!H177),"",'By Round'!H177)</f>
+        <f>IF(ISBLANK('By Round'!H178),"",'By Round'!H178)</f>
         <v/>
       </c>
       <c r="I58" s="15">
-        <f>IF(ISBLANK('By Round'!I177),"",'By Round'!I177)</f>
+        <f>IF(ISBLANK('By Round'!I178),"",'By Round'!I178)</f>
         <v/>
       </c>
       <c r="J58" s="15">
-        <f>IF(ISBLANK('By Round'!J177),"",'By Round'!J177)</f>
+        <f>IF(ISBLANK('By Round'!J178),"",'By Round'!J178)</f>
         <v/>
       </c>
       <c r="K58" s="15">
-        <f>IF(ISBLANK('By Round'!K177),"",'By Round'!K177)</f>
+        <f>IF(ISBLANK('By Round'!K178),"",'By Round'!K178)</f>
         <v/>
       </c>
       <c r="L58" s="17">
@@ -10829,29 +10773,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C59">
+      <c r="C59" s="11">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D59">
+      <c r="D59" s="11">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E59">
+      <c r="E59" s="11">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F59" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F59" s="11">
+        <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
+        <v/>
       </c>
       <c r="G59">
         <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
@@ -11003,26 +10946,25 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60">
+      <c r="B60" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C60">
+      <c r="C60" s="11">
         <f>'By Round'!B21</f>
         <v/>
       </c>
-      <c r="D60">
+      <c r="D60" s="11">
         <f>'By Round'!C21</f>
         <v/>
       </c>
-      <c r="E60">
+      <c r="E60" s="11">
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F60" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F60" s="11">
+        <f>IF(ISBLANK('By Round'!F21),"",'By Round'!F21)</f>
+        <v/>
       </c>
       <c r="G60">
         <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
@@ -11174,26 +11116,25 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61">
+      <c r="B61" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C61">
+      <c r="C61" s="11">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D61">
+      <c r="D61" s="11">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E61">
+      <c r="E61" s="11">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F61" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F61" s="11">
+        <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
+        <v/>
       </c>
       <c r="G61">
         <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
@@ -11345,26 +11286,25 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62">
+      <c r="B62" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C62">
+      <c r="C62" s="11">
         <f>'By Round'!B59</f>
         <v/>
       </c>
-      <c r="D62">
+      <c r="D62" s="11">
         <f>'By Round'!C59</f>
         <v/>
       </c>
-      <c r="E62">
+      <c r="E62" s="11">
         <f>'By Round'!D59</f>
         <v/>
       </c>
-      <c r="F62" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F62" s="11">
+        <f>IF(ISBLANK('By Round'!F59),"",'By Round'!F59)</f>
+        <v/>
       </c>
       <c r="G62">
         <f>IF(ISBLANK('By Round'!G59),"",'By Round'!G59)</f>
@@ -11516,26 +11456,25 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63">
+      <c r="B63" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C63">
+      <c r="C63" s="11">
         <f>'By Round'!B99</f>
         <v/>
       </c>
-      <c r="D63">
+      <c r="D63" s="11">
         <f>'By Round'!C99</f>
         <v/>
       </c>
-      <c r="E63">
+      <c r="E63" s="11">
         <f>'By Round'!D99</f>
         <v/>
       </c>
-      <c r="F63" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F63" s="11">
+        <f>IF(ISBLANK('By Round'!F99),"",'By Round'!F99)</f>
+        <v/>
       </c>
       <c r="G63">
         <f>IF(ISBLANK('By Round'!G99),"",'By Round'!G99)</f>
@@ -11687,26 +11626,25 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64">
+      <c r="B64" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C64">
+      <c r="C64" s="11">
         <f>'By Round'!B111</f>
         <v/>
       </c>
-      <c r="D64">
+      <c r="D64" s="11">
         <f>'By Round'!C111</f>
         <v/>
       </c>
-      <c r="E64">
+      <c r="E64" s="11">
         <f>'By Round'!D111</f>
         <v/>
       </c>
-      <c r="F64" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F64" s="11">
+        <f>IF(ISBLANK('By Round'!F111),"",'By Round'!F111)</f>
+        <v/>
       </c>
       <c r="G64">
         <f>IF(ISBLANK('By Round'!G111),"",'By Round'!G111)</f>
@@ -11859,26 +11797,25 @@
     </row>
     <row r="65">
       <c r="A65" s="15" t="n"/>
-      <c r="B65" s="15">
+      <c r="B65" s="16">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="16">
         <f>'By Round'!B123</f>
         <v/>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="16">
         <f>'By Round'!C123</f>
         <v/>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="16">
         <f>'By Round'!D123</f>
         <v/>
       </c>
-      <c r="F65" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F65" s="16">
+        <f>IF(ISBLANK('By Round'!F123),"",'By Round'!F123)</f>
+        <v/>
       </c>
       <c r="G65" s="15">
         <f>IF(ISBLANK('By Round'!G123),"",'By Round'!G123)</f>
@@ -12030,48 +11967,47 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C66">
+      <c r="C66" s="11">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D66">
+      <c r="D66" s="11">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E66">
+      <c r="E66" s="11">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F66" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F66" s="11">
+        <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
+        <v/>
       </c>
       <c r="G66">
-        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
+        <f>IF(ISBLANK('By Round'!G10),"",'By Round'!G10)</f>
         <v/>
       </c>
       <c r="H66">
-        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
+        <f>IF(ISBLANK('By Round'!H10),"",'By Round'!H10)</f>
         <v/>
       </c>
       <c r="I66">
-        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
+        <f>IF(ISBLANK('By Round'!I10),"",'By Round'!I10)</f>
         <v/>
       </c>
       <c r="J66">
-        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
+        <f>IF(ISBLANK('By Round'!J10),"",'By Round'!J10)</f>
         <v/>
       </c>
       <c r="K66">
-        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
+        <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
         <v/>
       </c>
       <c r="L66" s="12">
@@ -12204,45 +12140,44 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67">
+      <c r="B67" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C67">
+      <c r="C67" s="11">
         <f>'By Round'!B21</f>
         <v/>
       </c>
-      <c r="D67">
+      <c r="D67" s="11">
         <f>'By Round'!C21</f>
         <v/>
       </c>
-      <c r="E67">
+      <c r="E67" s="11">
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F67" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F67" s="11">
+        <f>IF(ISBLANK('By Round'!F22),"",'By Round'!F22)</f>
+        <v/>
       </c>
       <c r="G67">
-        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
+        <f>IF(ISBLANK('By Round'!G22),"",'By Round'!G22)</f>
         <v/>
       </c>
       <c r="H67">
-        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
+        <f>IF(ISBLANK('By Round'!H22),"",'By Round'!H22)</f>
         <v/>
       </c>
       <c r="I67">
-        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
+        <f>IF(ISBLANK('By Round'!I22),"",'By Round'!I22)</f>
         <v/>
       </c>
       <c r="J67">
-        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
+        <f>IF(ISBLANK('By Round'!J22),"",'By Round'!J22)</f>
         <v/>
       </c>
       <c r="K67">
-        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
+        <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
         <v/>
       </c>
       <c r="L67" s="12">
@@ -12375,45 +12310,44 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68">
+      <c r="B68" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C68">
+      <c r="C68" s="11">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D68">
+      <c r="D68" s="11">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E68">
+      <c r="E68" s="11">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F68" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F68" s="11">
+        <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
+        <v/>
       </c>
       <c r="G68">
-        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
+        <f>IF(ISBLANK('By Round'!G34),"",'By Round'!G34)</f>
         <v/>
       </c>
       <c r="H68">
-        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
+        <f>IF(ISBLANK('By Round'!H34),"",'By Round'!H34)</f>
         <v/>
       </c>
       <c r="I68">
-        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
+        <f>IF(ISBLANK('By Round'!I34),"",'By Round'!I34)</f>
         <v/>
       </c>
       <c r="J68">
-        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
+        <f>IF(ISBLANK('By Round'!J34),"",'By Round'!J34)</f>
         <v/>
       </c>
       <c r="K68">
-        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
+        <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
         <v/>
       </c>
       <c r="L68" s="12">
@@ -12546,45 +12480,44 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69">
+      <c r="B69" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C69">
+      <c r="C69" s="11">
         <f>'By Round'!B59</f>
         <v/>
       </c>
-      <c r="D69">
+      <c r="D69" s="11">
         <f>'By Round'!C59</f>
         <v/>
       </c>
-      <c r="E69">
+      <c r="E69" s="11">
         <f>'By Round'!D59</f>
         <v/>
       </c>
-      <c r="F69" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F69" s="11">
+        <f>IF(ISBLANK('By Round'!F60),"",'By Round'!F60)</f>
+        <v/>
       </c>
       <c r="G69">
-        <f>IF(ISBLANK('By Round'!G59),"",'By Round'!G59)</f>
+        <f>IF(ISBLANK('By Round'!G60),"",'By Round'!G60)</f>
         <v/>
       </c>
       <c r="H69">
-        <f>IF(ISBLANK('By Round'!H59),"",'By Round'!H59)</f>
+        <f>IF(ISBLANK('By Round'!H60),"",'By Round'!H60)</f>
         <v/>
       </c>
       <c r="I69">
-        <f>IF(ISBLANK('By Round'!I59),"",'By Round'!I59)</f>
+        <f>IF(ISBLANK('By Round'!I60),"",'By Round'!I60)</f>
         <v/>
       </c>
       <c r="J69">
-        <f>IF(ISBLANK('By Round'!J59),"",'By Round'!J59)</f>
+        <f>IF(ISBLANK('By Round'!J60),"",'By Round'!J60)</f>
         <v/>
       </c>
       <c r="K69">
-        <f>IF(ISBLANK('By Round'!K59),"",'By Round'!K59)</f>
+        <f>IF(ISBLANK('By Round'!K60),"",'By Round'!K60)</f>
         <v/>
       </c>
       <c r="L69" s="12">
@@ -12717,45 +12650,44 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70">
+      <c r="B70" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C70">
+      <c r="C70" s="11">
         <f>'By Round'!B99</f>
         <v/>
       </c>
-      <c r="D70">
+      <c r="D70" s="11">
         <f>'By Round'!C99</f>
         <v/>
       </c>
-      <c r="E70">
+      <c r="E70" s="11">
         <f>'By Round'!D99</f>
         <v/>
       </c>
-      <c r="F70" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F70" s="11">
+        <f>IF(ISBLANK('By Round'!F100),"",'By Round'!F100)</f>
+        <v/>
       </c>
       <c r="G70">
-        <f>IF(ISBLANK('By Round'!G99),"",'By Round'!G99)</f>
+        <f>IF(ISBLANK('By Round'!G100),"",'By Round'!G100)</f>
         <v/>
       </c>
       <c r="H70">
-        <f>IF(ISBLANK('By Round'!H99),"",'By Round'!H99)</f>
+        <f>IF(ISBLANK('By Round'!H100),"",'By Round'!H100)</f>
         <v/>
       </c>
       <c r="I70">
-        <f>IF(ISBLANK('By Round'!I99),"",'By Round'!I99)</f>
+        <f>IF(ISBLANK('By Round'!I100),"",'By Round'!I100)</f>
         <v/>
       </c>
       <c r="J70">
-        <f>IF(ISBLANK('By Round'!J99),"",'By Round'!J99)</f>
+        <f>IF(ISBLANK('By Round'!J100),"",'By Round'!J100)</f>
         <v/>
       </c>
       <c r="K70">
-        <f>IF(ISBLANK('By Round'!K99),"",'By Round'!K99)</f>
+        <f>IF(ISBLANK('By Round'!K100),"",'By Round'!K100)</f>
         <v/>
       </c>
       <c r="L70" s="12">
@@ -12888,45 +12820,44 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71">
+      <c r="B71" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C71">
+      <c r="C71" s="11">
         <f>'By Round'!B111</f>
         <v/>
       </c>
-      <c r="D71">
+      <c r="D71" s="11">
         <f>'By Round'!C111</f>
         <v/>
       </c>
-      <c r="E71">
+      <c r="E71" s="11">
         <f>'By Round'!D111</f>
         <v/>
       </c>
-      <c r="F71" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F71" s="11">
+        <f>IF(ISBLANK('By Round'!F112),"",'By Round'!F112)</f>
+        <v/>
       </c>
       <c r="G71">
-        <f>IF(ISBLANK('By Round'!G111),"",'By Round'!G111)</f>
+        <f>IF(ISBLANK('By Round'!G112),"",'By Round'!G112)</f>
         <v/>
       </c>
       <c r="H71">
-        <f>IF(ISBLANK('By Round'!H111),"",'By Round'!H111)</f>
+        <f>IF(ISBLANK('By Round'!H112),"",'By Round'!H112)</f>
         <v/>
       </c>
       <c r="I71">
-        <f>IF(ISBLANK('By Round'!I111),"",'By Round'!I111)</f>
+        <f>IF(ISBLANK('By Round'!I112),"",'By Round'!I112)</f>
         <v/>
       </c>
       <c r="J71">
-        <f>IF(ISBLANK('By Round'!J111),"",'By Round'!J111)</f>
+        <f>IF(ISBLANK('By Round'!J112),"",'By Round'!J112)</f>
         <v/>
       </c>
       <c r="K71">
-        <f>IF(ISBLANK('By Round'!K111),"",'By Round'!K111)</f>
+        <f>IF(ISBLANK('By Round'!K112),"",'By Round'!K112)</f>
         <v/>
       </c>
       <c r="L71" s="12">
@@ -13060,45 +12991,44 @@
     </row>
     <row r="72">
       <c r="A72" s="15" t="n"/>
-      <c r="B72" s="15">
+      <c r="B72" s="16">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="16">
         <f>'By Round'!B123</f>
         <v/>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="16">
         <f>'By Round'!C123</f>
         <v/>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="16">
         <f>'By Round'!D123</f>
         <v/>
       </c>
-      <c r="F72" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F72" s="16">
+        <f>IF(ISBLANK('By Round'!F124),"",'By Round'!F124)</f>
+        <v/>
       </c>
       <c r="G72" s="15">
-        <f>IF(ISBLANK('By Round'!G123),"",'By Round'!G123)</f>
+        <f>IF(ISBLANK('By Round'!G124),"",'By Round'!G124)</f>
         <v/>
       </c>
       <c r="H72" s="15">
-        <f>IF(ISBLANK('By Round'!H123),"",'By Round'!H123)</f>
+        <f>IF(ISBLANK('By Round'!H124),"",'By Round'!H124)</f>
         <v/>
       </c>
       <c r="I72" s="15">
-        <f>IF(ISBLANK('By Round'!I123),"",'By Round'!I123)</f>
+        <f>IF(ISBLANK('By Round'!I124),"",'By Round'!I124)</f>
         <v/>
       </c>
       <c r="J72" s="15">
-        <f>IF(ISBLANK('By Round'!J123),"",'By Round'!J123)</f>
+        <f>IF(ISBLANK('By Round'!J124),"",'By Round'!J124)</f>
         <v/>
       </c>
       <c r="K72" s="15">
-        <f>IF(ISBLANK('By Round'!K123),"",'By Round'!K123)</f>
+        <f>IF(ISBLANK('By Round'!K124),"",'By Round'!K124)</f>
         <v/>
       </c>
       <c r="L72" s="17">
@@ -13231,29 +13161,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C73">
+      <c r="C73" s="11">
         <f>'By Round'!B23</f>
         <v/>
       </c>
-      <c r="D73">
+      <c r="D73" s="11">
         <f>'By Round'!C23</f>
         <v/>
       </c>
-      <c r="E73">
+      <c r="E73" s="11">
         <f>'By Round'!D23</f>
         <v/>
       </c>
-      <c r="F73" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F73" s="11">
+        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
+        <v/>
       </c>
       <c r="G73">
         <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
@@ -13405,26 +13334,25 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74">
+      <c r="B74" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C74">
+      <c r="C74" s="11">
         <f>'By Round'!B35</f>
         <v/>
       </c>
-      <c r="D74">
+      <c r="D74" s="11">
         <f>'By Round'!C35</f>
         <v/>
       </c>
-      <c r="E74">
+      <c r="E74" s="11">
         <f>'By Round'!D35</f>
         <v/>
       </c>
-      <c r="F74" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F74" s="11">
+        <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
+        <v/>
       </c>
       <c r="G74">
         <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
@@ -13576,26 +13504,25 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75">
+      <c r="B75" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C75">
+      <c r="C75" s="11">
         <f>'By Round'!B47</f>
         <v/>
       </c>
-      <c r="D75">
+      <c r="D75" s="11">
         <f>'By Round'!C47</f>
         <v/>
       </c>
-      <c r="E75">
+      <c r="E75" s="11">
         <f>'By Round'!D47</f>
         <v/>
       </c>
-      <c r="F75" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F75" s="11">
+        <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
+        <v/>
       </c>
       <c r="G75">
         <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
@@ -13747,26 +13674,25 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76">
+      <c r="B76" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C76">
+      <c r="C76" s="11">
         <f>'By Round'!B73</f>
         <v/>
       </c>
-      <c r="D76">
+      <c r="D76" s="11">
         <f>'By Round'!C73</f>
         <v/>
       </c>
-      <c r="E76">
+      <c r="E76" s="11">
         <f>'By Round'!D73</f>
         <v/>
       </c>
-      <c r="F76" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F76" s="11">
+        <f>IF(ISBLANK('By Round'!F73),"",'By Round'!F73)</f>
+        <v/>
       </c>
       <c r="G76">
         <f>IF(ISBLANK('By Round'!G73),"",'By Round'!G73)</f>
@@ -13918,26 +13844,25 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77">
+      <c r="B77" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C77">
+      <c r="C77" s="11">
         <f>'By Round'!B113</f>
         <v/>
       </c>
-      <c r="D77">
+      <c r="D77" s="11">
         <f>'By Round'!C113</f>
         <v/>
       </c>
-      <c r="E77">
+      <c r="E77" s="11">
         <f>'By Round'!D113</f>
         <v/>
       </c>
-      <c r="F77" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F77" s="11">
+        <f>IF(ISBLANK('By Round'!F113),"",'By Round'!F113)</f>
+        <v/>
       </c>
       <c r="G77">
         <f>IF(ISBLANK('By Round'!G113),"",'By Round'!G113)</f>
@@ -14089,26 +14014,25 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78">
+      <c r="B78" s="11">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C78">
+      <c r="C78" s="11">
         <f>'By Round'!B125</f>
         <v/>
       </c>
-      <c r="D78">
+      <c r="D78" s="11">
         <f>'By Round'!C125</f>
         <v/>
       </c>
-      <c r="E78">
+      <c r="E78" s="11">
         <f>'By Round'!D125</f>
         <v/>
       </c>
-      <c r="F78" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F78" s="11">
+        <f>IF(ISBLANK('By Round'!F125),"",'By Round'!F125)</f>
+        <v/>
       </c>
       <c r="G78">
         <f>IF(ISBLANK('By Round'!G125),"",'By Round'!G125)</f>
@@ -14261,26 +14185,25 @@
     </row>
     <row r="79">
       <c r="A79" s="15" t="n"/>
-      <c r="B79" s="15">
+      <c r="B79" s="16">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="16">
         <f>'By Round'!B137</f>
         <v/>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="16">
         <f>'By Round'!C137</f>
         <v/>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="16">
         <f>'By Round'!D137</f>
         <v/>
       </c>
-      <c r="F79" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F79" s="16">
+        <f>IF(ISBLANK('By Round'!F137),"",'By Round'!F137)</f>
+        <v/>
       </c>
       <c r="G79" s="15">
         <f>IF(ISBLANK('By Round'!G137),"",'By Round'!G137)</f>
@@ -14432,48 +14355,47 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C80">
+      <c r="C80" s="11">
         <f>'By Round'!B23</f>
         <v/>
       </c>
-      <c r="D80">
+      <c r="D80" s="11">
         <f>'By Round'!C23</f>
         <v/>
       </c>
-      <c r="E80">
+      <c r="E80" s="11">
         <f>'By Round'!D23</f>
         <v/>
       </c>
-      <c r="F80" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F80" s="11">
+        <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
+        <v/>
       </c>
       <c r="G80">
-        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
+        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
         <v/>
       </c>
       <c r="H80">
-        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
+        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
         <v/>
       </c>
       <c r="I80">
-        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
+        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
         <v/>
       </c>
       <c r="J80">
-        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
+        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
         <v/>
       </c>
       <c r="K80">
-        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
+        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
       <c r="L80" s="12">
@@ -14606,45 +14528,44 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81">
+      <c r="B81" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C81">
+      <c r="C81" s="11">
         <f>'By Round'!B35</f>
         <v/>
       </c>
-      <c r="D81">
+      <c r="D81" s="11">
         <f>'By Round'!C35</f>
         <v/>
       </c>
-      <c r="E81">
+      <c r="E81" s="11">
         <f>'By Round'!D35</f>
         <v/>
       </c>
-      <c r="F81" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F81" s="11">
+        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
+        <v/>
       </c>
       <c r="G81">
-        <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
+        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
         <v/>
       </c>
       <c r="H81">
-        <f>IF(ISBLANK('By Round'!H35),"",'By Round'!H35)</f>
+        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
         <v/>
       </c>
       <c r="I81">
-        <f>IF(ISBLANK('By Round'!I35),"",'By Round'!I35)</f>
+        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
         <v/>
       </c>
       <c r="J81">
-        <f>IF(ISBLANK('By Round'!J35),"",'By Round'!J35)</f>
+        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
         <v/>
       </c>
       <c r="K81">
-        <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
+        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
       <c r="L81" s="12">
@@ -14777,45 +14698,44 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82">
+      <c r="B82" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C82">
+      <c r="C82" s="11">
         <f>'By Round'!B47</f>
         <v/>
       </c>
-      <c r="D82">
+      <c r="D82" s="11">
         <f>'By Round'!C47</f>
         <v/>
       </c>
-      <c r="E82">
+      <c r="E82" s="11">
         <f>'By Round'!D47</f>
         <v/>
       </c>
-      <c r="F82" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F82" s="11">
+        <f>IF(ISBLANK('By Round'!F48),"",'By Round'!F48)</f>
+        <v/>
       </c>
       <c r="G82">
-        <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
+        <f>IF(ISBLANK('By Round'!G48),"",'By Round'!G48)</f>
         <v/>
       </c>
       <c r="H82">
-        <f>IF(ISBLANK('By Round'!H47),"",'By Round'!H47)</f>
+        <f>IF(ISBLANK('By Round'!H48),"",'By Round'!H48)</f>
         <v/>
       </c>
       <c r="I82">
-        <f>IF(ISBLANK('By Round'!I47),"",'By Round'!I47)</f>
+        <f>IF(ISBLANK('By Round'!I48),"",'By Round'!I48)</f>
         <v/>
       </c>
       <c r="J82">
-        <f>IF(ISBLANK('By Round'!J47),"",'By Round'!J47)</f>
+        <f>IF(ISBLANK('By Round'!J48),"",'By Round'!J48)</f>
         <v/>
       </c>
       <c r="K82">
-        <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
+        <f>IF(ISBLANK('By Round'!K48),"",'By Round'!K48)</f>
         <v/>
       </c>
       <c r="L82" s="12">
@@ -14948,45 +14868,44 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83">
+      <c r="B83" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C83">
+      <c r="C83" s="11">
         <f>'By Round'!B73</f>
         <v/>
       </c>
-      <c r="D83">
+      <c r="D83" s="11">
         <f>'By Round'!C73</f>
         <v/>
       </c>
-      <c r="E83">
+      <c r="E83" s="11">
         <f>'By Round'!D73</f>
         <v/>
       </c>
-      <c r="F83" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F83" s="11">
+        <f>IF(ISBLANK('By Round'!F74),"",'By Round'!F74)</f>
+        <v/>
       </c>
       <c r="G83">
-        <f>IF(ISBLANK('By Round'!G73),"",'By Round'!G73)</f>
+        <f>IF(ISBLANK('By Round'!G74),"",'By Round'!G74)</f>
         <v/>
       </c>
       <c r="H83">
-        <f>IF(ISBLANK('By Round'!H73),"",'By Round'!H73)</f>
+        <f>IF(ISBLANK('By Round'!H74),"",'By Round'!H74)</f>
         <v/>
       </c>
       <c r="I83">
-        <f>IF(ISBLANK('By Round'!I73),"",'By Round'!I73)</f>
+        <f>IF(ISBLANK('By Round'!I74),"",'By Round'!I74)</f>
         <v/>
       </c>
       <c r="J83">
-        <f>IF(ISBLANK('By Round'!J73),"",'By Round'!J73)</f>
+        <f>IF(ISBLANK('By Round'!J74),"",'By Round'!J74)</f>
         <v/>
       </c>
       <c r="K83">
-        <f>IF(ISBLANK('By Round'!K73),"",'By Round'!K73)</f>
+        <f>IF(ISBLANK('By Round'!K74),"",'By Round'!K74)</f>
         <v/>
       </c>
       <c r="L83" s="12">
@@ -15119,45 +15038,44 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84">
+      <c r="B84" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C84">
+      <c r="C84" s="11">
         <f>'By Round'!B113</f>
         <v/>
       </c>
-      <c r="D84">
+      <c r="D84" s="11">
         <f>'By Round'!C113</f>
         <v/>
       </c>
-      <c r="E84">
+      <c r="E84" s="11">
         <f>'By Round'!D113</f>
         <v/>
       </c>
-      <c r="F84" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F84" s="11">
+        <f>IF(ISBLANK('By Round'!F114),"",'By Round'!F114)</f>
+        <v/>
       </c>
       <c r="G84">
-        <f>IF(ISBLANK('By Round'!G113),"",'By Round'!G113)</f>
+        <f>IF(ISBLANK('By Round'!G114),"",'By Round'!G114)</f>
         <v/>
       </c>
       <c r="H84">
-        <f>IF(ISBLANK('By Round'!H113),"",'By Round'!H113)</f>
+        <f>IF(ISBLANK('By Round'!H114),"",'By Round'!H114)</f>
         <v/>
       </c>
       <c r="I84">
-        <f>IF(ISBLANK('By Round'!I113),"",'By Round'!I113)</f>
+        <f>IF(ISBLANK('By Round'!I114),"",'By Round'!I114)</f>
         <v/>
       </c>
       <c r="J84">
-        <f>IF(ISBLANK('By Round'!J113),"",'By Round'!J113)</f>
+        <f>IF(ISBLANK('By Round'!J114),"",'By Round'!J114)</f>
         <v/>
       </c>
       <c r="K84">
-        <f>IF(ISBLANK('By Round'!K113),"",'By Round'!K113)</f>
+        <f>IF(ISBLANK('By Round'!K114),"",'By Round'!K114)</f>
         <v/>
       </c>
       <c r="L84" s="12">
@@ -15290,45 +15208,44 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85">
+      <c r="B85" s="11">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C85">
+      <c r="C85" s="11">
         <f>'By Round'!B125</f>
         <v/>
       </c>
-      <c r="D85">
+      <c r="D85" s="11">
         <f>'By Round'!C125</f>
         <v/>
       </c>
-      <c r="E85">
+      <c r="E85" s="11">
         <f>'By Round'!D125</f>
         <v/>
       </c>
-      <c r="F85" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F85" s="11">
+        <f>IF(ISBLANK('By Round'!F126),"",'By Round'!F126)</f>
+        <v/>
       </c>
       <c r="G85">
-        <f>IF(ISBLANK('By Round'!G125),"",'By Round'!G125)</f>
+        <f>IF(ISBLANK('By Round'!G126),"",'By Round'!G126)</f>
         <v/>
       </c>
       <c r="H85">
-        <f>IF(ISBLANK('By Round'!H125),"",'By Round'!H125)</f>
+        <f>IF(ISBLANK('By Round'!H126),"",'By Round'!H126)</f>
         <v/>
       </c>
       <c r="I85">
-        <f>IF(ISBLANK('By Round'!I125),"",'By Round'!I125)</f>
+        <f>IF(ISBLANK('By Round'!I126),"",'By Round'!I126)</f>
         <v/>
       </c>
       <c r="J85">
-        <f>IF(ISBLANK('By Round'!J125),"",'By Round'!J125)</f>
+        <f>IF(ISBLANK('By Round'!J126),"",'By Round'!J126)</f>
         <v/>
       </c>
       <c r="K85">
-        <f>IF(ISBLANK('By Round'!K125),"",'By Round'!K125)</f>
+        <f>IF(ISBLANK('By Round'!K126),"",'By Round'!K126)</f>
         <v/>
       </c>
       <c r="L85" s="12">
@@ -15462,45 +15379,44 @@
     </row>
     <row r="86">
       <c r="A86" s="15" t="n"/>
-      <c r="B86" s="15">
+      <c r="B86" s="16">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="16">
         <f>'By Round'!B137</f>
         <v/>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="16">
         <f>'By Round'!C137</f>
         <v/>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="16">
         <f>'By Round'!D137</f>
         <v/>
       </c>
-      <c r="F86" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F86" s="16">
+        <f>IF(ISBLANK('By Round'!F138),"",'By Round'!F138)</f>
+        <v/>
       </c>
       <c r="G86" s="15">
-        <f>IF(ISBLANK('By Round'!G137),"",'By Round'!G137)</f>
+        <f>IF(ISBLANK('By Round'!G138),"",'By Round'!G138)</f>
         <v/>
       </c>
       <c r="H86" s="15">
-        <f>IF(ISBLANK('By Round'!H137),"",'By Round'!H137)</f>
+        <f>IF(ISBLANK('By Round'!H138),"",'By Round'!H138)</f>
         <v/>
       </c>
       <c r="I86" s="15">
-        <f>IF(ISBLANK('By Round'!I137),"",'By Round'!I137)</f>
+        <f>IF(ISBLANK('By Round'!I138),"",'By Round'!I138)</f>
         <v/>
       </c>
       <c r="J86" s="15">
-        <f>IF(ISBLANK('By Round'!J137),"",'By Round'!J137)</f>
+        <f>IF(ISBLANK('By Round'!J138),"",'By Round'!J138)</f>
         <v/>
       </c>
       <c r="K86" s="15">
-        <f>IF(ISBLANK('By Round'!K137),"",'By Round'!K137)</f>
+        <f>IF(ISBLANK('By Round'!K138),"",'By Round'!K138)</f>
         <v/>
       </c>
       <c r="L86" s="17">
@@ -15633,29 +15549,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C87">
+      <c r="C87" s="11">
         <f>'By Round'!B37</f>
         <v/>
       </c>
-      <c r="D87">
+      <c r="D87" s="11">
         <f>'By Round'!C37</f>
         <v/>
       </c>
-      <c r="E87">
+      <c r="E87" s="11">
         <f>'By Round'!D37</f>
         <v/>
       </c>
-      <c r="F87" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F87" s="11">
+        <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
+        <v/>
       </c>
       <c r="G87">
         <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
@@ -15807,26 +15722,25 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88">
+      <c r="B88" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C88">
+      <c r="C88" s="11">
         <f>'By Round'!B49</f>
         <v/>
       </c>
-      <c r="D88">
+      <c r="D88" s="11">
         <f>'By Round'!C49</f>
         <v/>
       </c>
-      <c r="E88">
+      <c r="E88" s="11">
         <f>'By Round'!D49</f>
         <v/>
       </c>
-      <c r="F88" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F88" s="11">
+        <f>IF(ISBLANK('By Round'!F49),"",'By Round'!F49)</f>
+        <v/>
       </c>
       <c r="G88">
         <f>IF(ISBLANK('By Round'!G49),"",'By Round'!G49)</f>
@@ -15978,26 +15892,25 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89">
+      <c r="B89" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C89">
+      <c r="C89" s="11">
         <f>'By Round'!B61</f>
         <v/>
       </c>
-      <c r="D89">
+      <c r="D89" s="11">
         <f>'By Round'!C61</f>
         <v/>
       </c>
-      <c r="E89">
+      <c r="E89" s="11">
         <f>'By Round'!D61</f>
         <v/>
       </c>
-      <c r="F89" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F89" s="11">
+        <f>IF(ISBLANK('By Round'!F61),"",'By Round'!F61)</f>
+        <v/>
       </c>
       <c r="G89">
         <f>IF(ISBLANK('By Round'!G61),"",'By Round'!G61)</f>
@@ -16149,26 +16062,25 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90">
+      <c r="B90" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C90">
+      <c r="C90" s="11">
         <f>'By Round'!B87</f>
         <v/>
       </c>
-      <c r="D90">
+      <c r="D90" s="11">
         <f>'By Round'!C87</f>
         <v/>
       </c>
-      <c r="E90">
+      <c r="E90" s="11">
         <f>'By Round'!D87</f>
         <v/>
       </c>
-      <c r="F90" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F90" s="11">
+        <f>IF(ISBLANK('By Round'!F87),"",'By Round'!F87)</f>
+        <v/>
       </c>
       <c r="G90">
         <f>IF(ISBLANK('By Round'!G87),"",'By Round'!G87)</f>
@@ -16320,26 +16232,25 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91">
+      <c r="B91" s="11">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C91">
+      <c r="C91" s="11">
         <f>'By Round'!B127</f>
         <v/>
       </c>
-      <c r="D91">
+      <c r="D91" s="11">
         <f>'By Round'!C127</f>
         <v/>
       </c>
-      <c r="E91">
+      <c r="E91" s="11">
         <f>'By Round'!D127</f>
         <v/>
       </c>
-      <c r="F91" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F91" s="11">
+        <f>IF(ISBLANK('By Round'!F127),"",'By Round'!F127)</f>
+        <v/>
       </c>
       <c r="G91">
         <f>IF(ISBLANK('By Round'!G127),"",'By Round'!G127)</f>
@@ -16491,26 +16402,25 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92">
+      <c r="B92" s="11">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C92">
+      <c r="C92" s="11">
         <f>'By Round'!B139</f>
         <v/>
       </c>
-      <c r="D92">
+      <c r="D92" s="11">
         <f>'By Round'!C139</f>
         <v/>
       </c>
-      <c r="E92">
+      <c r="E92" s="11">
         <f>'By Round'!D139</f>
         <v/>
       </c>
-      <c r="F92" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F92" s="11">
+        <f>IF(ISBLANK('By Round'!F139),"",'By Round'!F139)</f>
+        <v/>
       </c>
       <c r="G92">
         <f>IF(ISBLANK('By Round'!G139),"",'By Round'!G139)</f>
@@ -16663,26 +16573,25 @@
     </row>
     <row r="93">
       <c r="A93" s="15" t="n"/>
-      <c r="B93" s="15">
+      <c r="B93" s="16">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="16">
         <f>'By Round'!B151</f>
         <v/>
       </c>
-      <c r="D93" s="15">
+      <c r="D93" s="16">
         <f>'By Round'!C151</f>
         <v/>
       </c>
-      <c r="E93" s="15">
+      <c r="E93" s="16">
         <f>'By Round'!D151</f>
         <v/>
       </c>
-      <c r="F93" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F93" s="16">
+        <f>IF(ISBLANK('By Round'!F151),"",'By Round'!F151)</f>
+        <v/>
       </c>
       <c r="G93" s="15">
         <f>IF(ISBLANK('By Round'!G151),"",'By Round'!G151)</f>
@@ -16834,48 +16743,47 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C94">
+      <c r="C94" s="11">
         <f>'By Round'!B37</f>
         <v/>
       </c>
-      <c r="D94">
+      <c r="D94" s="11">
         <f>'By Round'!C37</f>
         <v/>
       </c>
-      <c r="E94">
+      <c r="E94" s="11">
         <f>'By Round'!D37</f>
         <v/>
       </c>
-      <c r="F94" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F94" s="11">
+        <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
+        <v/>
       </c>
       <c r="G94">
-        <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
+        <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
         <v/>
       </c>
       <c r="H94">
-        <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
+        <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
         <v/>
       </c>
       <c r="I94">
-        <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
+        <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
         <v/>
       </c>
       <c r="J94">
-        <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
+        <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
         <v/>
       </c>
       <c r="K94">
-        <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
+        <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
         <v/>
       </c>
       <c r="L94" s="12">
@@ -17008,45 +16916,44 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95">
+      <c r="B95" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C95">
+      <c r="C95" s="11">
         <f>'By Round'!B49</f>
         <v/>
       </c>
-      <c r="D95">
+      <c r="D95" s="11">
         <f>'By Round'!C49</f>
         <v/>
       </c>
-      <c r="E95">
+      <c r="E95" s="11">
         <f>'By Round'!D49</f>
         <v/>
       </c>
-      <c r="F95" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F95" s="11">
+        <f>IF(ISBLANK('By Round'!F50),"",'By Round'!F50)</f>
+        <v/>
       </c>
       <c r="G95">
-        <f>IF(ISBLANK('By Round'!G49),"",'By Round'!G49)</f>
+        <f>IF(ISBLANK('By Round'!G50),"",'By Round'!G50)</f>
         <v/>
       </c>
       <c r="H95">
-        <f>IF(ISBLANK('By Round'!H49),"",'By Round'!H49)</f>
+        <f>IF(ISBLANK('By Round'!H50),"",'By Round'!H50)</f>
         <v/>
       </c>
       <c r="I95">
-        <f>IF(ISBLANK('By Round'!I49),"",'By Round'!I49)</f>
+        <f>IF(ISBLANK('By Round'!I50),"",'By Round'!I50)</f>
         <v/>
       </c>
       <c r="J95">
-        <f>IF(ISBLANK('By Round'!J49),"",'By Round'!J49)</f>
+        <f>IF(ISBLANK('By Round'!J50),"",'By Round'!J50)</f>
         <v/>
       </c>
       <c r="K95">
-        <f>IF(ISBLANK('By Round'!K49),"",'By Round'!K49)</f>
+        <f>IF(ISBLANK('By Round'!K50),"",'By Round'!K50)</f>
         <v/>
       </c>
       <c r="L95" s="12">
@@ -17179,45 +17086,44 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96">
+      <c r="B96" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C96">
+      <c r="C96" s="11">
         <f>'By Round'!B61</f>
         <v/>
       </c>
-      <c r="D96">
+      <c r="D96" s="11">
         <f>'By Round'!C61</f>
         <v/>
       </c>
-      <c r="E96">
+      <c r="E96" s="11">
         <f>'By Round'!D61</f>
         <v/>
       </c>
-      <c r="F96" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F96" s="11">
+        <f>IF(ISBLANK('By Round'!F62),"",'By Round'!F62)</f>
+        <v/>
       </c>
       <c r="G96">
-        <f>IF(ISBLANK('By Round'!G61),"",'By Round'!G61)</f>
+        <f>IF(ISBLANK('By Round'!G62),"",'By Round'!G62)</f>
         <v/>
       </c>
       <c r="H96">
-        <f>IF(ISBLANK('By Round'!H61),"",'By Round'!H61)</f>
+        <f>IF(ISBLANK('By Round'!H62),"",'By Round'!H62)</f>
         <v/>
       </c>
       <c r="I96">
-        <f>IF(ISBLANK('By Round'!I61),"",'By Round'!I61)</f>
+        <f>IF(ISBLANK('By Round'!I62),"",'By Round'!I62)</f>
         <v/>
       </c>
       <c r="J96">
-        <f>IF(ISBLANK('By Round'!J61),"",'By Round'!J61)</f>
+        <f>IF(ISBLANK('By Round'!J62),"",'By Round'!J62)</f>
         <v/>
       </c>
       <c r="K96">
-        <f>IF(ISBLANK('By Round'!K61),"",'By Round'!K61)</f>
+        <f>IF(ISBLANK('By Round'!K62),"",'By Round'!K62)</f>
         <v/>
       </c>
       <c r="L96" s="12">
@@ -17350,45 +17256,44 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97">
+      <c r="B97" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C97">
+      <c r="C97" s="11">
         <f>'By Round'!B87</f>
         <v/>
       </c>
-      <c r="D97">
+      <c r="D97" s="11">
         <f>'By Round'!C87</f>
         <v/>
       </c>
-      <c r="E97">
+      <c r="E97" s="11">
         <f>'By Round'!D87</f>
         <v/>
       </c>
-      <c r="F97" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F97" s="11">
+        <f>IF(ISBLANK('By Round'!F88),"",'By Round'!F88)</f>
+        <v/>
       </c>
       <c r="G97">
-        <f>IF(ISBLANK('By Round'!G87),"",'By Round'!G87)</f>
+        <f>IF(ISBLANK('By Round'!G88),"",'By Round'!G88)</f>
         <v/>
       </c>
       <c r="H97">
-        <f>IF(ISBLANK('By Round'!H87),"",'By Round'!H87)</f>
+        <f>IF(ISBLANK('By Round'!H88),"",'By Round'!H88)</f>
         <v/>
       </c>
       <c r="I97">
-        <f>IF(ISBLANK('By Round'!I87),"",'By Round'!I87)</f>
+        <f>IF(ISBLANK('By Round'!I88),"",'By Round'!I88)</f>
         <v/>
       </c>
       <c r="J97">
-        <f>IF(ISBLANK('By Round'!J87),"",'By Round'!J87)</f>
+        <f>IF(ISBLANK('By Round'!J88),"",'By Round'!J88)</f>
         <v/>
       </c>
       <c r="K97">
-        <f>IF(ISBLANK('By Round'!K87),"",'By Round'!K87)</f>
+        <f>IF(ISBLANK('By Round'!K88),"",'By Round'!K88)</f>
         <v/>
       </c>
       <c r="L97" s="12">
@@ -17521,45 +17426,44 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98">
+      <c r="B98" s="11">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C98">
+      <c r="C98" s="11">
         <f>'By Round'!B127</f>
         <v/>
       </c>
-      <c r="D98">
+      <c r="D98" s="11">
         <f>'By Round'!C127</f>
         <v/>
       </c>
-      <c r="E98">
+      <c r="E98" s="11">
         <f>'By Round'!D127</f>
         <v/>
       </c>
-      <c r="F98" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F98" s="11">
+        <f>IF(ISBLANK('By Round'!F128),"",'By Round'!F128)</f>
+        <v/>
       </c>
       <c r="G98">
-        <f>IF(ISBLANK('By Round'!G127),"",'By Round'!G127)</f>
+        <f>IF(ISBLANK('By Round'!G128),"",'By Round'!G128)</f>
         <v/>
       </c>
       <c r="H98">
-        <f>IF(ISBLANK('By Round'!H127),"",'By Round'!H127)</f>
+        <f>IF(ISBLANK('By Round'!H128),"",'By Round'!H128)</f>
         <v/>
       </c>
       <c r="I98">
-        <f>IF(ISBLANK('By Round'!I127),"",'By Round'!I127)</f>
+        <f>IF(ISBLANK('By Round'!I128),"",'By Round'!I128)</f>
         <v/>
       </c>
       <c r="J98">
-        <f>IF(ISBLANK('By Round'!J127),"",'By Round'!J127)</f>
+        <f>IF(ISBLANK('By Round'!J128),"",'By Round'!J128)</f>
         <v/>
       </c>
       <c r="K98">
-        <f>IF(ISBLANK('By Round'!K127),"",'By Round'!K127)</f>
+        <f>IF(ISBLANK('By Round'!K128),"",'By Round'!K128)</f>
         <v/>
       </c>
       <c r="L98" s="12">
@@ -17692,45 +17596,44 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99">
+      <c r="B99" s="11">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C99">
+      <c r="C99" s="11">
         <f>'By Round'!B139</f>
         <v/>
       </c>
-      <c r="D99">
+      <c r="D99" s="11">
         <f>'By Round'!C139</f>
         <v/>
       </c>
-      <c r="E99">
+      <c r="E99" s="11">
         <f>'By Round'!D139</f>
         <v/>
       </c>
-      <c r="F99" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F99" s="11">
+        <f>IF(ISBLANK('By Round'!F140),"",'By Round'!F140)</f>
+        <v/>
       </c>
       <c r="G99">
-        <f>IF(ISBLANK('By Round'!G139),"",'By Round'!G139)</f>
+        <f>IF(ISBLANK('By Round'!G140),"",'By Round'!G140)</f>
         <v/>
       </c>
       <c r="H99">
-        <f>IF(ISBLANK('By Round'!H139),"",'By Round'!H139)</f>
+        <f>IF(ISBLANK('By Round'!H140),"",'By Round'!H140)</f>
         <v/>
       </c>
       <c r="I99">
-        <f>IF(ISBLANK('By Round'!I139),"",'By Round'!I139)</f>
+        <f>IF(ISBLANK('By Round'!I140),"",'By Round'!I140)</f>
         <v/>
       </c>
       <c r="J99">
-        <f>IF(ISBLANK('By Round'!J139),"",'By Round'!J139)</f>
+        <f>IF(ISBLANK('By Round'!J140),"",'By Round'!J140)</f>
         <v/>
       </c>
       <c r="K99">
-        <f>IF(ISBLANK('By Round'!K139),"",'By Round'!K139)</f>
+        <f>IF(ISBLANK('By Round'!K140),"",'By Round'!K140)</f>
         <v/>
       </c>
       <c r="L99" s="12">
@@ -17864,45 +17767,44 @@
     </row>
     <row r="100">
       <c r="A100" s="15" t="n"/>
-      <c r="B100" s="15">
+      <c r="B100" s="16">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C100" s="15">
+      <c r="C100" s="16">
         <f>'By Round'!B151</f>
         <v/>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="16">
         <f>'By Round'!C151</f>
         <v/>
       </c>
-      <c r="E100" s="15">
+      <c r="E100" s="16">
         <f>'By Round'!D151</f>
         <v/>
       </c>
-      <c r="F100" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F100" s="16">
+        <f>IF(ISBLANK('By Round'!F152),"",'By Round'!F152)</f>
+        <v/>
       </c>
       <c r="G100" s="15">
-        <f>IF(ISBLANK('By Round'!G151),"",'By Round'!G151)</f>
+        <f>IF(ISBLANK('By Round'!G152),"",'By Round'!G152)</f>
         <v/>
       </c>
       <c r="H100" s="15">
-        <f>IF(ISBLANK('By Round'!H151),"",'By Round'!H151)</f>
+        <f>IF(ISBLANK('By Round'!H152),"",'By Round'!H152)</f>
         <v/>
       </c>
       <c r="I100" s="15">
-        <f>IF(ISBLANK('By Round'!I151),"",'By Round'!I151)</f>
+        <f>IF(ISBLANK('By Round'!I152),"",'By Round'!I152)</f>
         <v/>
       </c>
       <c r="J100" s="15">
-        <f>IF(ISBLANK('By Round'!J151),"",'By Round'!J151)</f>
+        <f>IF(ISBLANK('By Round'!J152),"",'By Round'!J152)</f>
         <v/>
       </c>
       <c r="K100" s="15">
-        <f>IF(ISBLANK('By Round'!K151),"",'By Round'!K151)</f>
+        <f>IF(ISBLANK('By Round'!K152),"",'By Round'!K152)</f>
         <v/>
       </c>
       <c r="L100" s="17">
@@ -18035,29 +17937,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C101">
+      <c r="C101" s="11">
         <f>'By Round'!B51</f>
         <v/>
       </c>
-      <c r="D101">
+      <c r="D101" s="11">
         <f>'By Round'!C51</f>
         <v/>
       </c>
-      <c r="E101">
+      <c r="E101" s="11">
         <f>'By Round'!D51</f>
         <v/>
       </c>
-      <c r="F101" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F101" s="11">
+        <f>IF(ISBLANK('By Round'!F51),"",'By Round'!F51)</f>
+        <v/>
       </c>
       <c r="G101">
         <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
@@ -18209,26 +18110,25 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102">
+      <c r="B102" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C102">
+      <c r="C102" s="11">
         <f>'By Round'!B63</f>
         <v/>
       </c>
-      <c r="D102">
+      <c r="D102" s="11">
         <f>'By Round'!C63</f>
         <v/>
       </c>
-      <c r="E102">
+      <c r="E102" s="11">
         <f>'By Round'!D63</f>
         <v/>
       </c>
-      <c r="F102" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F102" s="11">
+        <f>IF(ISBLANK('By Round'!F63),"",'By Round'!F63)</f>
+        <v/>
       </c>
       <c r="G102">
         <f>IF(ISBLANK('By Round'!G63),"",'By Round'!G63)</f>
@@ -18380,26 +18280,25 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103">
+      <c r="B103" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C103">
+      <c r="C103" s="11">
         <f>'By Round'!B75</f>
         <v/>
       </c>
-      <c r="D103">
+      <c r="D103" s="11">
         <f>'By Round'!C75</f>
         <v/>
       </c>
-      <c r="E103">
+      <c r="E103" s="11">
         <f>'By Round'!D75</f>
         <v/>
       </c>
-      <c r="F103" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F103" s="11">
+        <f>IF(ISBLANK('By Round'!F75),"",'By Round'!F75)</f>
+        <v/>
       </c>
       <c r="G103">
         <f>IF(ISBLANK('By Round'!G75),"",'By Round'!G75)</f>
@@ -18551,26 +18450,25 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104">
+      <c r="B104" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C104">
+      <c r="C104" s="11">
         <f>'By Round'!B101</f>
         <v/>
       </c>
-      <c r="D104">
+      <c r="D104" s="11">
         <f>'By Round'!C101</f>
         <v/>
       </c>
-      <c r="E104">
+      <c r="E104" s="11">
         <f>'By Round'!D101</f>
         <v/>
       </c>
-      <c r="F104" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F104" s="11">
+        <f>IF(ISBLANK('By Round'!F101),"",'By Round'!F101)</f>
+        <v/>
       </c>
       <c r="G104">
         <f>IF(ISBLANK('By Round'!G101),"",'By Round'!G101)</f>
@@ -18722,26 +18620,25 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105">
+      <c r="B105" s="11">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C105">
+      <c r="C105" s="11">
         <f>'By Round'!B141</f>
         <v/>
       </c>
-      <c r="D105">
+      <c r="D105" s="11">
         <f>'By Round'!C141</f>
         <v/>
       </c>
-      <c r="E105">
+      <c r="E105" s="11">
         <f>'By Round'!D141</f>
         <v/>
       </c>
-      <c r="F105" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F105" s="11">
+        <f>IF(ISBLANK('By Round'!F141),"",'By Round'!F141)</f>
+        <v/>
       </c>
       <c r="G105">
         <f>IF(ISBLANK('By Round'!G141),"",'By Round'!G141)</f>
@@ -18893,26 +18790,25 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106">
+      <c r="B106" s="11">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C106">
+      <c r="C106" s="11">
         <f>'By Round'!B153</f>
         <v/>
       </c>
-      <c r="D106">
+      <c r="D106" s="11">
         <f>'By Round'!C153</f>
         <v/>
       </c>
-      <c r="E106">
+      <c r="E106" s="11">
         <f>'By Round'!D153</f>
         <v/>
       </c>
-      <c r="F106" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F106" s="11">
+        <f>IF(ISBLANK('By Round'!F153),"",'By Round'!F153)</f>
+        <v/>
       </c>
       <c r="G106">
         <f>IF(ISBLANK('By Round'!G153),"",'By Round'!G153)</f>
@@ -19065,26 +18961,25 @@
     </row>
     <row r="107">
       <c r="A107" s="15" t="n"/>
-      <c r="B107" s="15">
+      <c r="B107" s="16">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C107" s="15">
+      <c r="C107" s="16">
         <f>'By Round'!B165</f>
         <v/>
       </c>
-      <c r="D107" s="15">
+      <c r="D107" s="16">
         <f>'By Round'!C165</f>
         <v/>
       </c>
-      <c r="E107" s="15">
+      <c r="E107" s="16">
         <f>'By Round'!D165</f>
         <v/>
       </c>
-      <c r="F107" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F107" s="16">
+        <f>IF(ISBLANK('By Round'!F165),"",'By Round'!F165)</f>
+        <v/>
       </c>
       <c r="G107" s="15">
         <f>IF(ISBLANK('By Round'!G165),"",'By Round'!G165)</f>
@@ -19236,48 +19131,47 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C108">
+      <c r="C108" s="11">
         <f>'By Round'!B51</f>
         <v/>
       </c>
-      <c r="D108">
+      <c r="D108" s="11">
         <f>'By Round'!C51</f>
         <v/>
       </c>
-      <c r="E108">
+      <c r="E108" s="11">
         <f>'By Round'!D51</f>
         <v/>
       </c>
-      <c r="F108" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F108" s="11">
+        <f>IF(ISBLANK('By Round'!F52),"",'By Round'!F52)</f>
+        <v/>
       </c>
       <c r="G108">
-        <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
+        <f>IF(ISBLANK('By Round'!G52),"",'By Round'!G52)</f>
         <v/>
       </c>
       <c r="H108">
-        <f>IF(ISBLANK('By Round'!H51),"",'By Round'!H51)</f>
+        <f>IF(ISBLANK('By Round'!H52),"",'By Round'!H52)</f>
         <v/>
       </c>
       <c r="I108">
-        <f>IF(ISBLANK('By Round'!I51),"",'By Round'!I51)</f>
+        <f>IF(ISBLANK('By Round'!I52),"",'By Round'!I52)</f>
         <v/>
       </c>
       <c r="J108">
-        <f>IF(ISBLANK('By Round'!J51),"",'By Round'!J51)</f>
+        <f>IF(ISBLANK('By Round'!J52),"",'By Round'!J52)</f>
         <v/>
       </c>
       <c r="K108">
-        <f>IF(ISBLANK('By Round'!K51),"",'By Round'!K51)</f>
+        <f>IF(ISBLANK('By Round'!K52),"",'By Round'!K52)</f>
         <v/>
       </c>
       <c r="L108" s="12">
@@ -19410,45 +19304,44 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109">
+      <c r="B109" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C109">
+      <c r="C109" s="11">
         <f>'By Round'!B63</f>
         <v/>
       </c>
-      <c r="D109">
+      <c r="D109" s="11">
         <f>'By Round'!C63</f>
         <v/>
       </c>
-      <c r="E109">
+      <c r="E109" s="11">
         <f>'By Round'!D63</f>
         <v/>
       </c>
-      <c r="F109" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F109" s="11">
+        <f>IF(ISBLANK('By Round'!F64),"",'By Round'!F64)</f>
+        <v/>
       </c>
       <c r="G109">
-        <f>IF(ISBLANK('By Round'!G63),"",'By Round'!G63)</f>
+        <f>IF(ISBLANK('By Round'!G64),"",'By Round'!G64)</f>
         <v/>
       </c>
       <c r="H109">
-        <f>IF(ISBLANK('By Round'!H63),"",'By Round'!H63)</f>
+        <f>IF(ISBLANK('By Round'!H64),"",'By Round'!H64)</f>
         <v/>
       </c>
       <c r="I109">
-        <f>IF(ISBLANK('By Round'!I63),"",'By Round'!I63)</f>
+        <f>IF(ISBLANK('By Round'!I64),"",'By Round'!I64)</f>
         <v/>
       </c>
       <c r="J109">
-        <f>IF(ISBLANK('By Round'!J63),"",'By Round'!J63)</f>
+        <f>IF(ISBLANK('By Round'!J64),"",'By Round'!J64)</f>
         <v/>
       </c>
       <c r="K109">
-        <f>IF(ISBLANK('By Round'!K63),"",'By Round'!K63)</f>
+        <f>IF(ISBLANK('By Round'!K64),"",'By Round'!K64)</f>
         <v/>
       </c>
       <c r="L109" s="12">
@@ -19581,45 +19474,44 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110">
+      <c r="B110" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C110">
+      <c r="C110" s="11">
         <f>'By Round'!B75</f>
         <v/>
       </c>
-      <c r="D110">
+      <c r="D110" s="11">
         <f>'By Round'!C75</f>
         <v/>
       </c>
-      <c r="E110">
+      <c r="E110" s="11">
         <f>'By Round'!D75</f>
         <v/>
       </c>
-      <c r="F110" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F110" s="11">
+        <f>IF(ISBLANK('By Round'!F76),"",'By Round'!F76)</f>
+        <v/>
       </c>
       <c r="G110">
-        <f>IF(ISBLANK('By Round'!G75),"",'By Round'!G75)</f>
+        <f>IF(ISBLANK('By Round'!G76),"",'By Round'!G76)</f>
         <v/>
       </c>
       <c r="H110">
-        <f>IF(ISBLANK('By Round'!H75),"",'By Round'!H75)</f>
+        <f>IF(ISBLANK('By Round'!H76),"",'By Round'!H76)</f>
         <v/>
       </c>
       <c r="I110">
-        <f>IF(ISBLANK('By Round'!I75),"",'By Round'!I75)</f>
+        <f>IF(ISBLANK('By Round'!I76),"",'By Round'!I76)</f>
         <v/>
       </c>
       <c r="J110">
-        <f>IF(ISBLANK('By Round'!J75),"",'By Round'!J75)</f>
+        <f>IF(ISBLANK('By Round'!J76),"",'By Round'!J76)</f>
         <v/>
       </c>
       <c r="K110">
-        <f>IF(ISBLANK('By Round'!K75),"",'By Round'!K75)</f>
+        <f>IF(ISBLANK('By Round'!K76),"",'By Round'!K76)</f>
         <v/>
       </c>
       <c r="L110" s="12">
@@ -19752,45 +19644,44 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111">
+      <c r="B111" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C111">
+      <c r="C111" s="11">
         <f>'By Round'!B101</f>
         <v/>
       </c>
-      <c r="D111">
+      <c r="D111" s="11">
         <f>'By Round'!C101</f>
         <v/>
       </c>
-      <c r="E111">
+      <c r="E111" s="11">
         <f>'By Round'!D101</f>
         <v/>
       </c>
-      <c r="F111" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F111" s="11">
+        <f>IF(ISBLANK('By Round'!F102),"",'By Round'!F102)</f>
+        <v/>
       </c>
       <c r="G111">
-        <f>IF(ISBLANK('By Round'!G101),"",'By Round'!G101)</f>
+        <f>IF(ISBLANK('By Round'!G102),"",'By Round'!G102)</f>
         <v/>
       </c>
       <c r="H111">
-        <f>IF(ISBLANK('By Round'!H101),"",'By Round'!H101)</f>
+        <f>IF(ISBLANK('By Round'!H102),"",'By Round'!H102)</f>
         <v/>
       </c>
       <c r="I111">
-        <f>IF(ISBLANK('By Round'!I101),"",'By Round'!I101)</f>
+        <f>IF(ISBLANK('By Round'!I102),"",'By Round'!I102)</f>
         <v/>
       </c>
       <c r="J111">
-        <f>IF(ISBLANK('By Round'!J101),"",'By Round'!J101)</f>
+        <f>IF(ISBLANK('By Round'!J102),"",'By Round'!J102)</f>
         <v/>
       </c>
       <c r="K111">
-        <f>IF(ISBLANK('By Round'!K101),"",'By Round'!K101)</f>
+        <f>IF(ISBLANK('By Round'!K102),"",'By Round'!K102)</f>
         <v/>
       </c>
       <c r="L111" s="12">
@@ -19923,45 +19814,44 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112">
+      <c r="B112" s="11">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C112">
+      <c r="C112" s="11">
         <f>'By Round'!B141</f>
         <v/>
       </c>
-      <c r="D112">
+      <c r="D112" s="11">
         <f>'By Round'!C141</f>
         <v/>
       </c>
-      <c r="E112">
+      <c r="E112" s="11">
         <f>'By Round'!D141</f>
         <v/>
       </c>
-      <c r="F112" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F112" s="11">
+        <f>IF(ISBLANK('By Round'!F142),"",'By Round'!F142)</f>
+        <v/>
       </c>
       <c r="G112">
-        <f>IF(ISBLANK('By Round'!G141),"",'By Round'!G141)</f>
+        <f>IF(ISBLANK('By Round'!G142),"",'By Round'!G142)</f>
         <v/>
       </c>
       <c r="H112">
-        <f>IF(ISBLANK('By Round'!H141),"",'By Round'!H141)</f>
+        <f>IF(ISBLANK('By Round'!H142),"",'By Round'!H142)</f>
         <v/>
       </c>
       <c r="I112">
-        <f>IF(ISBLANK('By Round'!I141),"",'By Round'!I141)</f>
+        <f>IF(ISBLANK('By Round'!I142),"",'By Round'!I142)</f>
         <v/>
       </c>
       <c r="J112">
-        <f>IF(ISBLANK('By Round'!J141),"",'By Round'!J141)</f>
+        <f>IF(ISBLANK('By Round'!J142),"",'By Round'!J142)</f>
         <v/>
       </c>
       <c r="K112">
-        <f>IF(ISBLANK('By Round'!K141),"",'By Round'!K141)</f>
+        <f>IF(ISBLANK('By Round'!K142),"",'By Round'!K142)</f>
         <v/>
       </c>
       <c r="L112" s="12">
@@ -20094,45 +19984,44 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113">
+      <c r="B113" s="11">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C113">
+      <c r="C113" s="11">
         <f>'By Round'!B153</f>
         <v/>
       </c>
-      <c r="D113">
+      <c r="D113" s="11">
         <f>'By Round'!C153</f>
         <v/>
       </c>
-      <c r="E113">
+      <c r="E113" s="11">
         <f>'By Round'!D153</f>
         <v/>
       </c>
-      <c r="F113" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F113" s="11">
+        <f>IF(ISBLANK('By Round'!F154),"",'By Round'!F154)</f>
+        <v/>
       </c>
       <c r="G113">
-        <f>IF(ISBLANK('By Round'!G153),"",'By Round'!G153)</f>
+        <f>IF(ISBLANK('By Round'!G154),"",'By Round'!G154)</f>
         <v/>
       </c>
       <c r="H113">
-        <f>IF(ISBLANK('By Round'!H153),"",'By Round'!H153)</f>
+        <f>IF(ISBLANK('By Round'!H154),"",'By Round'!H154)</f>
         <v/>
       </c>
       <c r="I113">
-        <f>IF(ISBLANK('By Round'!I153),"",'By Round'!I153)</f>
+        <f>IF(ISBLANK('By Round'!I154),"",'By Round'!I154)</f>
         <v/>
       </c>
       <c r="J113">
-        <f>IF(ISBLANK('By Round'!J153),"",'By Round'!J153)</f>
+        <f>IF(ISBLANK('By Round'!J154),"",'By Round'!J154)</f>
         <v/>
       </c>
       <c r="K113">
-        <f>IF(ISBLANK('By Round'!K153),"",'By Round'!K153)</f>
+        <f>IF(ISBLANK('By Round'!K154),"",'By Round'!K154)</f>
         <v/>
       </c>
       <c r="L113" s="12">
@@ -20266,45 +20155,44 @@
     </row>
     <row r="114">
       <c r="A114" s="15" t="n"/>
-      <c r="B114" s="15">
+      <c r="B114" s="16">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C114" s="15">
+      <c r="C114" s="16">
         <f>'By Round'!B165</f>
         <v/>
       </c>
-      <c r="D114" s="15">
+      <c r="D114" s="16">
         <f>'By Round'!C165</f>
         <v/>
       </c>
-      <c r="E114" s="15">
+      <c r="E114" s="16">
         <f>'By Round'!D165</f>
         <v/>
       </c>
-      <c r="F114" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F114" s="16">
+        <f>IF(ISBLANK('By Round'!F166),"",'By Round'!F166)</f>
+        <v/>
       </c>
       <c r="G114" s="15">
-        <f>IF(ISBLANK('By Round'!G165),"",'By Round'!G165)</f>
+        <f>IF(ISBLANK('By Round'!G166),"",'By Round'!G166)</f>
         <v/>
       </c>
       <c r="H114" s="15">
-        <f>IF(ISBLANK('By Round'!H165),"",'By Round'!H165)</f>
+        <f>IF(ISBLANK('By Round'!H166),"",'By Round'!H166)</f>
         <v/>
       </c>
       <c r="I114" s="15">
-        <f>IF(ISBLANK('By Round'!I165),"",'By Round'!I165)</f>
+        <f>IF(ISBLANK('By Round'!I166),"",'By Round'!I166)</f>
         <v/>
       </c>
       <c r="J114" s="15">
-        <f>IF(ISBLANK('By Round'!J165),"",'By Round'!J165)</f>
+        <f>IF(ISBLANK('By Round'!J166),"",'By Round'!J166)</f>
         <v/>
       </c>
       <c r="K114" s="15">
-        <f>IF(ISBLANK('By Round'!K165),"",'By Round'!K165)</f>
+        <f>IF(ISBLANK('By Round'!K166),"",'By Round'!K166)</f>
         <v/>
       </c>
       <c r="L114" s="17">
@@ -20437,29 +20325,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C115">
+      <c r="C115" s="11">
         <f>'By Round'!B65</f>
         <v/>
       </c>
-      <c r="D115">
+      <c r="D115" s="11">
         <f>'By Round'!C65</f>
         <v/>
       </c>
-      <c r="E115">
+      <c r="E115" s="11">
         <f>'By Round'!D65</f>
         <v/>
       </c>
-      <c r="F115" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F115" s="11">
+        <f>IF(ISBLANK('By Round'!F65),"",'By Round'!F65)</f>
+        <v/>
       </c>
       <c r="G115">
         <f>IF(ISBLANK('By Round'!G65),"",'By Round'!G65)</f>
@@ -20611,26 +20498,25 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116">
+      <c r="B116" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C116">
+      <c r="C116" s="11">
         <f>'By Round'!B77</f>
         <v/>
       </c>
-      <c r="D116">
+      <c r="D116" s="11">
         <f>'By Round'!C77</f>
         <v/>
       </c>
-      <c r="E116">
+      <c r="E116" s="11">
         <f>'By Round'!D77</f>
         <v/>
       </c>
-      <c r="F116" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F116" s="11">
+        <f>IF(ISBLANK('By Round'!F77),"",'By Round'!F77)</f>
+        <v/>
       </c>
       <c r="G116">
         <f>IF(ISBLANK('By Round'!G77),"",'By Round'!G77)</f>
@@ -20782,26 +20668,25 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117">
+      <c r="B117" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C117">
+      <c r="C117" s="11">
         <f>'By Round'!B89</f>
         <v/>
       </c>
-      <c r="D117">
+      <c r="D117" s="11">
         <f>'By Round'!C89</f>
         <v/>
       </c>
-      <c r="E117">
+      <c r="E117" s="11">
         <f>'By Round'!D89</f>
         <v/>
       </c>
-      <c r="F117" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F117" s="11">
+        <f>IF(ISBLANK('By Round'!F89),"",'By Round'!F89)</f>
+        <v/>
       </c>
       <c r="G117">
         <f>IF(ISBLANK('By Round'!G89),"",'By Round'!G89)</f>
@@ -20953,26 +20838,25 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118">
+      <c r="B118" s="11">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C118">
+      <c r="C118" s="11">
         <f>'By Round'!B115</f>
         <v/>
       </c>
-      <c r="D118">
+      <c r="D118" s="11">
         <f>'By Round'!C115</f>
         <v/>
       </c>
-      <c r="E118">
+      <c r="E118" s="11">
         <f>'By Round'!D115</f>
         <v/>
       </c>
-      <c r="F118" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F118" s="11">
+        <f>IF(ISBLANK('By Round'!F115),"",'By Round'!F115)</f>
+        <v/>
       </c>
       <c r="G118">
         <f>IF(ISBLANK('By Round'!G115),"",'By Round'!G115)</f>
@@ -21124,26 +21008,25 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119">
+      <c r="B119" s="11">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C119">
+      <c r="C119" s="11">
         <f>'By Round'!B155</f>
         <v/>
       </c>
-      <c r="D119">
+      <c r="D119" s="11">
         <f>'By Round'!C155</f>
         <v/>
       </c>
-      <c r="E119">
+      <c r="E119" s="11">
         <f>'By Round'!D155</f>
         <v/>
       </c>
-      <c r="F119" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F119" s="11">
+        <f>IF(ISBLANK('By Round'!F155),"",'By Round'!F155)</f>
+        <v/>
       </c>
       <c r="G119">
         <f>IF(ISBLANK('By Round'!G155),"",'By Round'!G155)</f>
@@ -21295,26 +21178,25 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120">
+      <c r="B120" s="11">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C120">
+      <c r="C120" s="11">
         <f>'By Round'!B167</f>
         <v/>
       </c>
-      <c r="D120">
+      <c r="D120" s="11">
         <f>'By Round'!C167</f>
         <v/>
       </c>
-      <c r="E120">
+      <c r="E120" s="11">
         <f>'By Round'!D167</f>
         <v/>
       </c>
-      <c r="F120" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F120" s="11">
+        <f>IF(ISBLANK('By Round'!F167),"",'By Round'!F167)</f>
+        <v/>
       </c>
       <c r="G120">
         <f>IF(ISBLANK('By Round'!G167),"",'By Round'!G167)</f>
@@ -21467,26 +21349,25 @@
     </row>
     <row r="121">
       <c r="A121" s="15" t="n"/>
-      <c r="B121" s="15">
+      <c r="B121" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C121" s="15">
+      <c r="C121" s="16">
         <f>'By Round'!B179</f>
         <v/>
       </c>
-      <c r="D121" s="15">
+      <c r="D121" s="16">
         <f>'By Round'!C179</f>
         <v/>
       </c>
-      <c r="E121" s="15">
+      <c r="E121" s="16">
         <f>'By Round'!D179</f>
         <v/>
       </c>
-      <c r="F121" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F121" s="16">
+        <f>IF(ISBLANK('By Round'!F179),"",'By Round'!F179)</f>
+        <v/>
       </c>
       <c r="G121" s="15">
         <f>IF(ISBLANK('By Round'!G179),"",'By Round'!G179)</f>
@@ -21638,48 +21519,47 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="11">
         <f>'By Round'!A59</f>
         <v/>
       </c>
-      <c r="C122">
+      <c r="C122" s="11">
         <f>'By Round'!B65</f>
         <v/>
       </c>
-      <c r="D122">
+      <c r="D122" s="11">
         <f>'By Round'!C65</f>
         <v/>
       </c>
-      <c r="E122">
+      <c r="E122" s="11">
         <f>'By Round'!D65</f>
         <v/>
       </c>
-      <c r="F122" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F122" s="11">
+        <f>IF(ISBLANK('By Round'!F66),"",'By Round'!F66)</f>
+        <v/>
       </c>
       <c r="G122">
-        <f>IF(ISBLANK('By Round'!G65),"",'By Round'!G65)</f>
+        <f>IF(ISBLANK('By Round'!G66),"",'By Round'!G66)</f>
         <v/>
       </c>
       <c r="H122">
-        <f>IF(ISBLANK('By Round'!H65),"",'By Round'!H65)</f>
+        <f>IF(ISBLANK('By Round'!H66),"",'By Round'!H66)</f>
         <v/>
       </c>
       <c r="I122">
-        <f>IF(ISBLANK('By Round'!I65),"",'By Round'!I65)</f>
+        <f>IF(ISBLANK('By Round'!I66),"",'By Round'!I66)</f>
         <v/>
       </c>
       <c r="J122">
-        <f>IF(ISBLANK('By Round'!J65),"",'By Round'!J65)</f>
+        <f>IF(ISBLANK('By Round'!J66),"",'By Round'!J66)</f>
         <v/>
       </c>
       <c r="K122">
-        <f>IF(ISBLANK('By Round'!K65),"",'By Round'!K65)</f>
+        <f>IF(ISBLANK('By Round'!K66),"",'By Round'!K66)</f>
         <v/>
       </c>
       <c r="L122" s="12">
@@ -21812,45 +21692,44 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123">
+      <c r="B123" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C123">
+      <c r="C123" s="11">
         <f>'By Round'!B77</f>
         <v/>
       </c>
-      <c r="D123">
+      <c r="D123" s="11">
         <f>'By Round'!C77</f>
         <v/>
       </c>
-      <c r="E123">
+      <c r="E123" s="11">
         <f>'By Round'!D77</f>
         <v/>
       </c>
-      <c r="F123" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F123" s="11">
+        <f>IF(ISBLANK('By Round'!F78),"",'By Round'!F78)</f>
+        <v/>
       </c>
       <c r="G123">
-        <f>IF(ISBLANK('By Round'!G77),"",'By Round'!G77)</f>
+        <f>IF(ISBLANK('By Round'!G78),"",'By Round'!G78)</f>
         <v/>
       </c>
       <c r="H123">
-        <f>IF(ISBLANK('By Round'!H77),"",'By Round'!H77)</f>
+        <f>IF(ISBLANK('By Round'!H78),"",'By Round'!H78)</f>
         <v/>
       </c>
       <c r="I123">
-        <f>IF(ISBLANK('By Round'!I77),"",'By Round'!I77)</f>
+        <f>IF(ISBLANK('By Round'!I78),"",'By Round'!I78)</f>
         <v/>
       </c>
       <c r="J123">
-        <f>IF(ISBLANK('By Round'!J77),"",'By Round'!J77)</f>
+        <f>IF(ISBLANK('By Round'!J78),"",'By Round'!J78)</f>
         <v/>
       </c>
       <c r="K123">
-        <f>IF(ISBLANK('By Round'!K77),"",'By Round'!K77)</f>
+        <f>IF(ISBLANK('By Round'!K78),"",'By Round'!K78)</f>
         <v/>
       </c>
       <c r="L123" s="12">
@@ -21983,45 +21862,44 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124">
+      <c r="B124" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C124">
+      <c r="C124" s="11">
         <f>'By Round'!B89</f>
         <v/>
       </c>
-      <c r="D124">
+      <c r="D124" s="11">
         <f>'By Round'!C89</f>
         <v/>
       </c>
-      <c r="E124">
+      <c r="E124" s="11">
         <f>'By Round'!D89</f>
         <v/>
       </c>
-      <c r="F124" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F124" s="11">
+        <f>IF(ISBLANK('By Round'!F90),"",'By Round'!F90)</f>
+        <v/>
       </c>
       <c r="G124">
-        <f>IF(ISBLANK('By Round'!G89),"",'By Round'!G89)</f>
+        <f>IF(ISBLANK('By Round'!G90),"",'By Round'!G90)</f>
         <v/>
       </c>
       <c r="H124">
-        <f>IF(ISBLANK('By Round'!H89),"",'By Round'!H89)</f>
+        <f>IF(ISBLANK('By Round'!H90),"",'By Round'!H90)</f>
         <v/>
       </c>
       <c r="I124">
-        <f>IF(ISBLANK('By Round'!I89),"",'By Round'!I89)</f>
+        <f>IF(ISBLANK('By Round'!I90),"",'By Round'!I90)</f>
         <v/>
       </c>
       <c r="J124">
-        <f>IF(ISBLANK('By Round'!J89),"",'By Round'!J89)</f>
+        <f>IF(ISBLANK('By Round'!J90),"",'By Round'!J90)</f>
         <v/>
       </c>
       <c r="K124">
-        <f>IF(ISBLANK('By Round'!K89),"",'By Round'!K89)</f>
+        <f>IF(ISBLANK('By Round'!K90),"",'By Round'!K90)</f>
         <v/>
       </c>
       <c r="L124" s="12">
@@ -22154,45 +22032,44 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125">
+      <c r="B125" s="11">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C125">
+      <c r="C125" s="11">
         <f>'By Round'!B115</f>
         <v/>
       </c>
-      <c r="D125">
+      <c r="D125" s="11">
         <f>'By Round'!C115</f>
         <v/>
       </c>
-      <c r="E125">
+      <c r="E125" s="11">
         <f>'By Round'!D115</f>
         <v/>
       </c>
-      <c r="F125" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F125" s="11">
+        <f>IF(ISBLANK('By Round'!F116),"",'By Round'!F116)</f>
+        <v/>
       </c>
       <c r="G125">
-        <f>IF(ISBLANK('By Round'!G115),"",'By Round'!G115)</f>
+        <f>IF(ISBLANK('By Round'!G116),"",'By Round'!G116)</f>
         <v/>
       </c>
       <c r="H125">
-        <f>IF(ISBLANK('By Round'!H115),"",'By Round'!H115)</f>
+        <f>IF(ISBLANK('By Round'!H116),"",'By Round'!H116)</f>
         <v/>
       </c>
       <c r="I125">
-        <f>IF(ISBLANK('By Round'!I115),"",'By Round'!I115)</f>
+        <f>IF(ISBLANK('By Round'!I116),"",'By Round'!I116)</f>
         <v/>
       </c>
       <c r="J125">
-        <f>IF(ISBLANK('By Round'!J115),"",'By Round'!J115)</f>
+        <f>IF(ISBLANK('By Round'!J116),"",'By Round'!J116)</f>
         <v/>
       </c>
       <c r="K125">
-        <f>IF(ISBLANK('By Round'!K115),"",'By Round'!K115)</f>
+        <f>IF(ISBLANK('By Round'!K116),"",'By Round'!K116)</f>
         <v/>
       </c>
       <c r="L125" s="12">
@@ -22325,45 +22202,44 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126">
+      <c r="B126" s="11">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C126">
+      <c r="C126" s="11">
         <f>'By Round'!B155</f>
         <v/>
       </c>
-      <c r="D126">
+      <c r="D126" s="11">
         <f>'By Round'!C155</f>
         <v/>
       </c>
-      <c r="E126">
+      <c r="E126" s="11">
         <f>'By Round'!D155</f>
         <v/>
       </c>
-      <c r="F126" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F126" s="11">
+        <f>IF(ISBLANK('By Round'!F156),"",'By Round'!F156)</f>
+        <v/>
       </c>
       <c r="G126">
-        <f>IF(ISBLANK('By Round'!G155),"",'By Round'!G155)</f>
+        <f>IF(ISBLANK('By Round'!G156),"",'By Round'!G156)</f>
         <v/>
       </c>
       <c r="H126">
-        <f>IF(ISBLANK('By Round'!H155),"",'By Round'!H155)</f>
+        <f>IF(ISBLANK('By Round'!H156),"",'By Round'!H156)</f>
         <v/>
       </c>
       <c r="I126">
-        <f>IF(ISBLANK('By Round'!I155),"",'By Round'!I155)</f>
+        <f>IF(ISBLANK('By Round'!I156),"",'By Round'!I156)</f>
         <v/>
       </c>
       <c r="J126">
-        <f>IF(ISBLANK('By Round'!J155),"",'By Round'!J155)</f>
+        <f>IF(ISBLANK('By Round'!J156),"",'By Round'!J156)</f>
         <v/>
       </c>
       <c r="K126">
-        <f>IF(ISBLANK('By Round'!K155),"",'By Round'!K155)</f>
+        <f>IF(ISBLANK('By Round'!K156),"",'By Round'!K156)</f>
         <v/>
       </c>
       <c r="L126" s="12">
@@ -22496,45 +22372,44 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127">
+      <c r="B127" s="11">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C127">
+      <c r="C127" s="11">
         <f>'By Round'!B167</f>
         <v/>
       </c>
-      <c r="D127">
+      <c r="D127" s="11">
         <f>'By Round'!C167</f>
         <v/>
       </c>
-      <c r="E127">
+      <c r="E127" s="11">
         <f>'By Round'!D167</f>
         <v/>
       </c>
-      <c r="F127" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F127" s="11">
+        <f>IF(ISBLANK('By Round'!F168),"",'By Round'!F168)</f>
+        <v/>
       </c>
       <c r="G127">
-        <f>IF(ISBLANK('By Round'!G167),"",'By Round'!G167)</f>
+        <f>IF(ISBLANK('By Round'!G168),"",'By Round'!G168)</f>
         <v/>
       </c>
       <c r="H127">
-        <f>IF(ISBLANK('By Round'!H167),"",'By Round'!H167)</f>
+        <f>IF(ISBLANK('By Round'!H168),"",'By Round'!H168)</f>
         <v/>
       </c>
       <c r="I127">
-        <f>IF(ISBLANK('By Round'!I167),"",'By Round'!I167)</f>
+        <f>IF(ISBLANK('By Round'!I168),"",'By Round'!I168)</f>
         <v/>
       </c>
       <c r="J127">
-        <f>IF(ISBLANK('By Round'!J167),"",'By Round'!J167)</f>
+        <f>IF(ISBLANK('By Round'!J168),"",'By Round'!J168)</f>
         <v/>
       </c>
       <c r="K127">
-        <f>IF(ISBLANK('By Round'!K167),"",'By Round'!K167)</f>
+        <f>IF(ISBLANK('By Round'!K168),"",'By Round'!K168)</f>
         <v/>
       </c>
       <c r="L127" s="12">
@@ -22668,45 +22543,44 @@
     </row>
     <row r="128">
       <c r="A128" s="15" t="n"/>
-      <c r="B128" s="15">
+      <c r="B128" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C128" s="15">
+      <c r="C128" s="16">
         <f>'By Round'!B179</f>
         <v/>
       </c>
-      <c r="D128" s="15">
+      <c r="D128" s="16">
         <f>'By Round'!C179</f>
         <v/>
       </c>
-      <c r="E128" s="15">
+      <c r="E128" s="16">
         <f>'By Round'!D179</f>
         <v/>
       </c>
-      <c r="F128" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F128" s="16">
+        <f>IF(ISBLANK('By Round'!F180),"",'By Round'!F180)</f>
+        <v/>
       </c>
       <c r="G128" s="15">
-        <f>IF(ISBLANK('By Round'!G179),"",'By Round'!G179)</f>
+        <f>IF(ISBLANK('By Round'!G180),"",'By Round'!G180)</f>
         <v/>
       </c>
       <c r="H128" s="15">
-        <f>IF(ISBLANK('By Round'!H179),"",'By Round'!H179)</f>
+        <f>IF(ISBLANK('By Round'!H180),"",'By Round'!H180)</f>
         <v/>
       </c>
       <c r="I128" s="15">
-        <f>IF(ISBLANK('By Round'!I179),"",'By Round'!I179)</f>
+        <f>IF(ISBLANK('By Round'!I180),"",'By Round'!I180)</f>
         <v/>
       </c>
       <c r="J128" s="15">
-        <f>IF(ISBLANK('By Round'!J179),"",'By Round'!J179)</f>
+        <f>IF(ISBLANK('By Round'!J180),"",'By Round'!J180)</f>
         <v/>
       </c>
       <c r="K128" s="15">
-        <f>IF(ISBLANK('By Round'!K179),"",'By Round'!K179)</f>
+        <f>IF(ISBLANK('By Round'!K180),"",'By Round'!K180)</f>
         <v/>
       </c>
       <c r="L128" s="17">
@@ -22839,29 +22713,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C129">
+      <c r="C129" s="11">
         <f>'By Round'!B11</f>
         <v/>
       </c>
-      <c r="D129">
+      <c r="D129" s="11">
         <f>'By Round'!C11</f>
         <v/>
       </c>
-      <c r="E129">
+      <c r="E129" s="11">
         <f>'By Round'!D11</f>
         <v/>
       </c>
-      <c r="F129" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F129" s="11">
+        <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
+        <v/>
       </c>
       <c r="G129">
         <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
@@ -23013,26 +22886,25 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130">
+      <c r="B130" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C130">
+      <c r="C130" s="11">
         <f>'By Round'!B79</f>
         <v/>
       </c>
-      <c r="D130">
+      <c r="D130" s="11">
         <f>'By Round'!C79</f>
         <v/>
       </c>
-      <c r="E130">
+      <c r="E130" s="11">
         <f>'By Round'!D79</f>
         <v/>
       </c>
-      <c r="F130" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F130" s="11">
+        <f>IF(ISBLANK('By Round'!F79),"",'By Round'!F79)</f>
+        <v/>
       </c>
       <c r="G130">
         <f>IF(ISBLANK('By Round'!G79),"",'By Round'!G79)</f>
@@ -23184,26 +23056,25 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131">
+      <c r="B131" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C131">
+      <c r="C131" s="11">
         <f>'By Round'!B91</f>
         <v/>
       </c>
-      <c r="D131">
+      <c r="D131" s="11">
         <f>'By Round'!C91</f>
         <v/>
       </c>
-      <c r="E131">
+      <c r="E131" s="11">
         <f>'By Round'!D91</f>
         <v/>
       </c>
-      <c r="F131" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F131" s="11">
+        <f>IF(ISBLANK('By Round'!F91),"",'By Round'!F91)</f>
+        <v/>
       </c>
       <c r="G131">
         <f>IF(ISBLANK('By Round'!G91),"",'By Round'!G91)</f>
@@ -23355,26 +23226,25 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132">
+      <c r="B132" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C132">
+      <c r="C132" s="11">
         <f>'By Round'!B103</f>
         <v/>
       </c>
-      <c r="D132">
+      <c r="D132" s="11">
         <f>'By Round'!C103</f>
         <v/>
       </c>
-      <c r="E132">
+      <c r="E132" s="11">
         <f>'By Round'!D103</f>
         <v/>
       </c>
-      <c r="F132" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F132" s="11">
+        <f>IF(ISBLANK('By Round'!F103),"",'By Round'!F103)</f>
+        <v/>
       </c>
       <c r="G132">
         <f>IF(ISBLANK('By Round'!G103),"",'By Round'!G103)</f>
@@ -23526,26 +23396,25 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133">
+      <c r="B133" s="11">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C133">
+      <c r="C133" s="11">
         <f>'By Round'!B129</f>
         <v/>
       </c>
-      <c r="D133">
+      <c r="D133" s="11">
         <f>'By Round'!C129</f>
         <v/>
       </c>
-      <c r="E133">
+      <c r="E133" s="11">
         <f>'By Round'!D129</f>
         <v/>
       </c>
-      <c r="F133" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F133" s="11">
+        <f>IF(ISBLANK('By Round'!F129),"",'By Round'!F129)</f>
+        <v/>
       </c>
       <c r="G133">
         <f>IF(ISBLANK('By Round'!G129),"",'By Round'!G129)</f>
@@ -23697,26 +23566,25 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134">
+      <c r="B134" s="11">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C134">
+      <c r="C134" s="11">
         <f>'By Round'!B169</f>
         <v/>
       </c>
-      <c r="D134">
+      <c r="D134" s="11">
         <f>'By Round'!C169</f>
         <v/>
       </c>
-      <c r="E134">
+      <c r="E134" s="11">
         <f>'By Round'!D169</f>
         <v/>
       </c>
-      <c r="F134" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F134" s="11">
+        <f>IF(ISBLANK('By Round'!F169),"",'By Round'!F169)</f>
+        <v/>
       </c>
       <c r="G134">
         <f>IF(ISBLANK('By Round'!G169),"",'By Round'!G169)</f>
@@ -23869,26 +23737,25 @@
     </row>
     <row r="135">
       <c r="A135" s="15" t="n"/>
-      <c r="B135" s="15">
+      <c r="B135" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C135" s="15">
+      <c r="C135" s="16">
         <f>'By Round'!B181</f>
         <v/>
       </c>
-      <c r="D135" s="15">
+      <c r="D135" s="16">
         <f>'By Round'!C181</f>
         <v/>
       </c>
-      <c r="E135" s="15">
+      <c r="E135" s="16">
         <f>'By Round'!D181</f>
         <v/>
       </c>
-      <c r="F135" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F135" s="16">
+        <f>IF(ISBLANK('By Round'!F181),"",'By Round'!F181)</f>
+        <v/>
       </c>
       <c r="G135" s="15">
         <f>IF(ISBLANK('By Round'!G181),"",'By Round'!G181)</f>
@@ -24040,48 +23907,47 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C136">
+      <c r="C136" s="11">
         <f>'By Round'!B11</f>
         <v/>
       </c>
-      <c r="D136">
+      <c r="D136" s="11">
         <f>'By Round'!C11</f>
         <v/>
       </c>
-      <c r="E136">
+      <c r="E136" s="11">
         <f>'By Round'!D11</f>
         <v/>
       </c>
-      <c r="F136" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F136" s="11">
+        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
+        <v/>
       </c>
       <c r="G136">
-        <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
+        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
         <v/>
       </c>
       <c r="H136">
-        <f>IF(ISBLANK('By Round'!H11),"",'By Round'!H11)</f>
+        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
         <v/>
       </c>
       <c r="I136">
-        <f>IF(ISBLANK('By Round'!I11),"",'By Round'!I11)</f>
+        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
         <v/>
       </c>
       <c r="J136">
-        <f>IF(ISBLANK('By Round'!J11),"",'By Round'!J11)</f>
+        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
         <v/>
       </c>
       <c r="K136">
-        <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
+        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
       <c r="L136" s="12">
@@ -24214,45 +24080,44 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137">
+      <c r="B137" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C137">
+      <c r="C137" s="11">
         <f>'By Round'!B79</f>
         <v/>
       </c>
-      <c r="D137">
+      <c r="D137" s="11">
         <f>'By Round'!C79</f>
         <v/>
       </c>
-      <c r="E137">
+      <c r="E137" s="11">
         <f>'By Round'!D79</f>
         <v/>
       </c>
-      <c r="F137" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F137" s="11">
+        <f>IF(ISBLANK('By Round'!F80),"",'By Round'!F80)</f>
+        <v/>
       </c>
       <c r="G137">
-        <f>IF(ISBLANK('By Round'!G79),"",'By Round'!G79)</f>
+        <f>IF(ISBLANK('By Round'!G80),"",'By Round'!G80)</f>
         <v/>
       </c>
       <c r="H137">
-        <f>IF(ISBLANK('By Round'!H79),"",'By Round'!H79)</f>
+        <f>IF(ISBLANK('By Round'!H80),"",'By Round'!H80)</f>
         <v/>
       </c>
       <c r="I137">
-        <f>IF(ISBLANK('By Round'!I79),"",'By Round'!I79)</f>
+        <f>IF(ISBLANK('By Round'!I80),"",'By Round'!I80)</f>
         <v/>
       </c>
       <c r="J137">
-        <f>IF(ISBLANK('By Round'!J79),"",'By Round'!J79)</f>
+        <f>IF(ISBLANK('By Round'!J80),"",'By Round'!J80)</f>
         <v/>
       </c>
       <c r="K137">
-        <f>IF(ISBLANK('By Round'!K79),"",'By Round'!K79)</f>
+        <f>IF(ISBLANK('By Round'!K80),"",'By Round'!K80)</f>
         <v/>
       </c>
       <c r="L137" s="12">
@@ -24385,45 +24250,44 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138">
+      <c r="B138" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C138">
+      <c r="C138" s="11">
         <f>'By Round'!B91</f>
         <v/>
       </c>
-      <c r="D138">
+      <c r="D138" s="11">
         <f>'By Round'!C91</f>
         <v/>
       </c>
-      <c r="E138">
+      <c r="E138" s="11">
         <f>'By Round'!D91</f>
         <v/>
       </c>
-      <c r="F138" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F138" s="11">
+        <f>IF(ISBLANK('By Round'!F92),"",'By Round'!F92)</f>
+        <v/>
       </c>
       <c r="G138">
-        <f>IF(ISBLANK('By Round'!G91),"",'By Round'!G91)</f>
+        <f>IF(ISBLANK('By Round'!G92),"",'By Round'!G92)</f>
         <v/>
       </c>
       <c r="H138">
-        <f>IF(ISBLANK('By Round'!H91),"",'By Round'!H91)</f>
+        <f>IF(ISBLANK('By Round'!H92),"",'By Round'!H92)</f>
         <v/>
       </c>
       <c r="I138">
-        <f>IF(ISBLANK('By Round'!I91),"",'By Round'!I91)</f>
+        <f>IF(ISBLANK('By Round'!I92),"",'By Round'!I92)</f>
         <v/>
       </c>
       <c r="J138">
-        <f>IF(ISBLANK('By Round'!J91),"",'By Round'!J91)</f>
+        <f>IF(ISBLANK('By Round'!J92),"",'By Round'!J92)</f>
         <v/>
       </c>
       <c r="K138">
-        <f>IF(ISBLANK('By Round'!K91),"",'By Round'!K91)</f>
+        <f>IF(ISBLANK('By Round'!K92),"",'By Round'!K92)</f>
         <v/>
       </c>
       <c r="L138" s="12">
@@ -24556,45 +24420,44 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139">
+      <c r="B139" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C139">
+      <c r="C139" s="11">
         <f>'By Round'!B103</f>
         <v/>
       </c>
-      <c r="D139">
+      <c r="D139" s="11">
         <f>'By Round'!C103</f>
         <v/>
       </c>
-      <c r="E139">
+      <c r="E139" s="11">
         <f>'By Round'!D103</f>
         <v/>
       </c>
-      <c r="F139" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F139" s="11">
+        <f>IF(ISBLANK('By Round'!F104),"",'By Round'!F104)</f>
+        <v/>
       </c>
       <c r="G139">
-        <f>IF(ISBLANK('By Round'!G103),"",'By Round'!G103)</f>
+        <f>IF(ISBLANK('By Round'!G104),"",'By Round'!G104)</f>
         <v/>
       </c>
       <c r="H139">
-        <f>IF(ISBLANK('By Round'!H103),"",'By Round'!H103)</f>
+        <f>IF(ISBLANK('By Round'!H104),"",'By Round'!H104)</f>
         <v/>
       </c>
       <c r="I139">
-        <f>IF(ISBLANK('By Round'!I103),"",'By Round'!I103)</f>
+        <f>IF(ISBLANK('By Round'!I104),"",'By Round'!I104)</f>
         <v/>
       </c>
       <c r="J139">
-        <f>IF(ISBLANK('By Round'!J103),"",'By Round'!J103)</f>
+        <f>IF(ISBLANK('By Round'!J104),"",'By Round'!J104)</f>
         <v/>
       </c>
       <c r="K139">
-        <f>IF(ISBLANK('By Round'!K103),"",'By Round'!K103)</f>
+        <f>IF(ISBLANK('By Round'!K104),"",'By Round'!K104)</f>
         <v/>
       </c>
       <c r="L139" s="12">
@@ -24727,45 +24590,44 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140">
+      <c r="B140" s="11">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C140">
+      <c r="C140" s="11">
         <f>'By Round'!B129</f>
         <v/>
       </c>
-      <c r="D140">
+      <c r="D140" s="11">
         <f>'By Round'!C129</f>
         <v/>
       </c>
-      <c r="E140">
+      <c r="E140" s="11">
         <f>'By Round'!D129</f>
         <v/>
       </c>
-      <c r="F140" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F140" s="11">
+        <f>IF(ISBLANK('By Round'!F130),"",'By Round'!F130)</f>
+        <v/>
       </c>
       <c r="G140">
-        <f>IF(ISBLANK('By Round'!G129),"",'By Round'!G129)</f>
+        <f>IF(ISBLANK('By Round'!G130),"",'By Round'!G130)</f>
         <v/>
       </c>
       <c r="H140">
-        <f>IF(ISBLANK('By Round'!H129),"",'By Round'!H129)</f>
+        <f>IF(ISBLANK('By Round'!H130),"",'By Round'!H130)</f>
         <v/>
       </c>
       <c r="I140">
-        <f>IF(ISBLANK('By Round'!I129),"",'By Round'!I129)</f>
+        <f>IF(ISBLANK('By Round'!I130),"",'By Round'!I130)</f>
         <v/>
       </c>
       <c r="J140">
-        <f>IF(ISBLANK('By Round'!J129),"",'By Round'!J129)</f>
+        <f>IF(ISBLANK('By Round'!J130),"",'By Round'!J130)</f>
         <v/>
       </c>
       <c r="K140">
-        <f>IF(ISBLANK('By Round'!K129),"",'By Round'!K129)</f>
+        <f>IF(ISBLANK('By Round'!K130),"",'By Round'!K130)</f>
         <v/>
       </c>
       <c r="L140" s="12">
@@ -24898,45 +24760,44 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141">
+      <c r="B141" s="11">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C141">
+      <c r="C141" s="11">
         <f>'By Round'!B169</f>
         <v/>
       </c>
-      <c r="D141">
+      <c r="D141" s="11">
         <f>'By Round'!C169</f>
         <v/>
       </c>
-      <c r="E141">
+      <c r="E141" s="11">
         <f>'By Round'!D169</f>
         <v/>
       </c>
-      <c r="F141" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F141" s="11">
+        <f>IF(ISBLANK('By Round'!F170),"",'By Round'!F170)</f>
+        <v/>
       </c>
       <c r="G141">
-        <f>IF(ISBLANK('By Round'!G169),"",'By Round'!G169)</f>
+        <f>IF(ISBLANK('By Round'!G170),"",'By Round'!G170)</f>
         <v/>
       </c>
       <c r="H141">
-        <f>IF(ISBLANK('By Round'!H169),"",'By Round'!H169)</f>
+        <f>IF(ISBLANK('By Round'!H170),"",'By Round'!H170)</f>
         <v/>
       </c>
       <c r="I141">
-        <f>IF(ISBLANK('By Round'!I169),"",'By Round'!I169)</f>
+        <f>IF(ISBLANK('By Round'!I170),"",'By Round'!I170)</f>
         <v/>
       </c>
       <c r="J141">
-        <f>IF(ISBLANK('By Round'!J169),"",'By Round'!J169)</f>
+        <f>IF(ISBLANK('By Round'!J170),"",'By Round'!J170)</f>
         <v/>
       </c>
       <c r="K141">
-        <f>IF(ISBLANK('By Round'!K169),"",'By Round'!K169)</f>
+        <f>IF(ISBLANK('By Round'!K170),"",'By Round'!K170)</f>
         <v/>
       </c>
       <c r="L141" s="12">
@@ -25070,45 +24931,44 @@
     </row>
     <row r="142">
       <c r="A142" s="15" t="n"/>
-      <c r="B142" s="15">
+      <c r="B142" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C142" s="15">
+      <c r="C142" s="16">
         <f>'By Round'!B181</f>
         <v/>
       </c>
-      <c r="D142" s="15">
+      <c r="D142" s="16">
         <f>'By Round'!C181</f>
         <v/>
       </c>
-      <c r="E142" s="15">
+      <c r="E142" s="16">
         <f>'By Round'!D181</f>
         <v/>
       </c>
-      <c r="F142" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F142" s="16">
+        <f>IF(ISBLANK('By Round'!F182),"",'By Round'!F182)</f>
+        <v/>
       </c>
       <c r="G142" s="15">
-        <f>IF(ISBLANK('By Round'!G181),"",'By Round'!G181)</f>
+        <f>IF(ISBLANK('By Round'!G182),"",'By Round'!G182)</f>
         <v/>
       </c>
       <c r="H142" s="15">
-        <f>IF(ISBLANK('By Round'!H181),"",'By Round'!H181)</f>
+        <f>IF(ISBLANK('By Round'!H182),"",'By Round'!H182)</f>
         <v/>
       </c>
       <c r="I142" s="15">
-        <f>IF(ISBLANK('By Round'!I181),"",'By Round'!I181)</f>
+        <f>IF(ISBLANK('By Round'!I182),"",'By Round'!I182)</f>
         <v/>
       </c>
       <c r="J142" s="15">
-        <f>IF(ISBLANK('By Round'!J181),"",'By Round'!J181)</f>
+        <f>IF(ISBLANK('By Round'!J182),"",'By Round'!J182)</f>
         <v/>
       </c>
       <c r="K142" s="15">
-        <f>IF(ISBLANK('By Round'!K181),"",'By Round'!K181)</f>
+        <f>IF(ISBLANK('By Round'!K182),"",'By Round'!K182)</f>
         <v/>
       </c>
       <c r="L142" s="17">
@@ -25241,29 +25101,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C143">
+      <c r="C143" s="11">
         <f>'By Round'!B13</f>
         <v/>
       </c>
-      <c r="D143">
+      <c r="D143" s="11">
         <f>'By Round'!C13</f>
         <v/>
       </c>
-      <c r="E143">
+      <c r="E143" s="11">
         <f>'By Round'!D13</f>
         <v/>
       </c>
-      <c r="F143" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F143" s="11">
+        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
+        <v/>
       </c>
       <c r="G143">
         <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
@@ -25415,26 +25274,25 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144">
+      <c r="B144" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C144">
+      <c r="C144" s="11">
         <f>'By Round'!B25</f>
         <v/>
       </c>
-      <c r="D144">
+      <c r="D144" s="11">
         <f>'By Round'!C25</f>
         <v/>
       </c>
-      <c r="E144">
+      <c r="E144" s="11">
         <f>'By Round'!D25</f>
         <v/>
       </c>
-      <c r="F144" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F144" s="11">
+        <f>IF(ISBLANK('By Round'!F25),"",'By Round'!F25)</f>
+        <v/>
       </c>
       <c r="G144">
         <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
@@ -25586,26 +25444,25 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145">
+      <c r="B145" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C145">
+      <c r="C145" s="11">
         <f>'By Round'!B93</f>
         <v/>
       </c>
-      <c r="D145">
+      <c r="D145" s="11">
         <f>'By Round'!C93</f>
         <v/>
       </c>
-      <c r="E145">
+      <c r="E145" s="11">
         <f>'By Round'!D93</f>
         <v/>
       </c>
-      <c r="F145" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F145" s="11">
+        <f>IF(ISBLANK('By Round'!F93),"",'By Round'!F93)</f>
+        <v/>
       </c>
       <c r="G145">
         <f>IF(ISBLANK('By Round'!G93),"",'By Round'!G93)</f>
@@ -25757,26 +25614,25 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146">
+      <c r="B146" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C146">
+      <c r="C146" s="11">
         <f>'By Round'!B105</f>
         <v/>
       </c>
-      <c r="D146">
+      <c r="D146" s="11">
         <f>'By Round'!C105</f>
         <v/>
       </c>
-      <c r="E146">
+      <c r="E146" s="11">
         <f>'By Round'!D105</f>
         <v/>
       </c>
-      <c r="F146" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F146" s="11">
+        <f>IF(ISBLANK('By Round'!F105),"",'By Round'!F105)</f>
+        <v/>
       </c>
       <c r="G146">
         <f>IF(ISBLANK('By Round'!G105),"",'By Round'!G105)</f>
@@ -25928,26 +25784,25 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147">
+      <c r="B147" s="11">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C147">
+      <c r="C147" s="11">
         <f>'By Round'!B117</f>
         <v/>
       </c>
-      <c r="D147">
+      <c r="D147" s="11">
         <f>'By Round'!C117</f>
         <v/>
       </c>
-      <c r="E147">
+      <c r="E147" s="11">
         <f>'By Round'!D117</f>
         <v/>
       </c>
-      <c r="F147" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F147" s="11">
+        <f>IF(ISBLANK('By Round'!F117),"",'By Round'!F117)</f>
+        <v/>
       </c>
       <c r="G147">
         <f>IF(ISBLANK('By Round'!G117),"",'By Round'!G117)</f>
@@ -26099,26 +25954,25 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148">
+      <c r="B148" s="11">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C148">
+      <c r="C148" s="11">
         <f>'By Round'!B143</f>
         <v/>
       </c>
-      <c r="D148">
+      <c r="D148" s="11">
         <f>'By Round'!C143</f>
         <v/>
       </c>
-      <c r="E148">
+      <c r="E148" s="11">
         <f>'By Round'!D143</f>
         <v/>
       </c>
-      <c r="F148" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F148" s="11">
+        <f>IF(ISBLANK('By Round'!F143),"",'By Round'!F143)</f>
+        <v/>
       </c>
       <c r="G148">
         <f>IF(ISBLANK('By Round'!G143),"",'By Round'!G143)</f>
@@ -26271,26 +26125,25 @@
     </row>
     <row r="149">
       <c r="A149" s="15" t="n"/>
-      <c r="B149" s="15">
+      <c r="B149" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C149" s="15">
+      <c r="C149" s="16">
         <f>'By Round'!B183</f>
         <v/>
       </c>
-      <c r="D149" s="15">
+      <c r="D149" s="16">
         <f>'By Round'!C183</f>
         <v/>
       </c>
-      <c r="E149" s="15">
+      <c r="E149" s="16">
         <f>'By Round'!D183</f>
         <v/>
       </c>
-      <c r="F149" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F149" s="16">
+        <f>IF(ISBLANK('By Round'!F183),"",'By Round'!F183)</f>
+        <v/>
       </c>
       <c r="G149" s="15">
         <f>IF(ISBLANK('By Round'!G183),"",'By Round'!G183)</f>
@@ -26442,48 +26295,47 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C150">
+      <c r="C150" s="11">
         <f>'By Round'!B13</f>
         <v/>
       </c>
-      <c r="D150">
+      <c r="D150" s="11">
         <f>'By Round'!C13</f>
         <v/>
       </c>
-      <c r="E150">
+      <c r="E150" s="11">
         <f>'By Round'!D13</f>
         <v/>
       </c>
-      <c r="F150" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F150" s="11">
+        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
+        <v/>
       </c>
       <c r="G150">
-        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
+        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
         <v/>
       </c>
       <c r="H150">
-        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
+        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
         <v/>
       </c>
       <c r="I150">
-        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
+        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
         <v/>
       </c>
       <c r="J150">
-        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
+        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
         <v/>
       </c>
       <c r="K150">
-        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
+        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
         <v/>
       </c>
       <c r="L150" s="12">
@@ -26616,45 +26468,44 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151">
+      <c r="B151" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C151">
+      <c r="C151" s="11">
         <f>'By Round'!B25</f>
         <v/>
       </c>
-      <c r="D151">
+      <c r="D151" s="11">
         <f>'By Round'!C25</f>
         <v/>
       </c>
-      <c r="E151">
+      <c r="E151" s="11">
         <f>'By Round'!D25</f>
         <v/>
       </c>
-      <c r="F151" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F151" s="11">
+        <f>IF(ISBLANK('By Round'!F26),"",'By Round'!F26)</f>
+        <v/>
       </c>
       <c r="G151">
-        <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
+        <f>IF(ISBLANK('By Round'!G26),"",'By Round'!G26)</f>
         <v/>
       </c>
       <c r="H151">
-        <f>IF(ISBLANK('By Round'!H25),"",'By Round'!H25)</f>
+        <f>IF(ISBLANK('By Round'!H26),"",'By Round'!H26)</f>
         <v/>
       </c>
       <c r="I151">
-        <f>IF(ISBLANK('By Round'!I25),"",'By Round'!I25)</f>
+        <f>IF(ISBLANK('By Round'!I26),"",'By Round'!I26)</f>
         <v/>
       </c>
       <c r="J151">
-        <f>IF(ISBLANK('By Round'!J25),"",'By Round'!J25)</f>
+        <f>IF(ISBLANK('By Round'!J26),"",'By Round'!J26)</f>
         <v/>
       </c>
       <c r="K151">
-        <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
+        <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
         <v/>
       </c>
       <c r="L151" s="12">
@@ -26787,45 +26638,44 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152">
+      <c r="B152" s="11">
         <f>'By Round'!A87</f>
         <v/>
       </c>
-      <c r="C152">
+      <c r="C152" s="11">
         <f>'By Round'!B93</f>
         <v/>
       </c>
-      <c r="D152">
+      <c r="D152" s="11">
         <f>'By Round'!C93</f>
         <v/>
       </c>
-      <c r="E152">
+      <c r="E152" s="11">
         <f>'By Round'!D93</f>
         <v/>
       </c>
-      <c r="F152" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F152" s="11">
+        <f>IF(ISBLANK('By Round'!F94),"",'By Round'!F94)</f>
+        <v/>
       </c>
       <c r="G152">
-        <f>IF(ISBLANK('By Round'!G93),"",'By Round'!G93)</f>
+        <f>IF(ISBLANK('By Round'!G94),"",'By Round'!G94)</f>
         <v/>
       </c>
       <c r="H152">
-        <f>IF(ISBLANK('By Round'!H93),"",'By Round'!H93)</f>
+        <f>IF(ISBLANK('By Round'!H94),"",'By Round'!H94)</f>
         <v/>
       </c>
       <c r="I152">
-        <f>IF(ISBLANK('By Round'!I93),"",'By Round'!I93)</f>
+        <f>IF(ISBLANK('By Round'!I94),"",'By Round'!I94)</f>
         <v/>
       </c>
       <c r="J152">
-        <f>IF(ISBLANK('By Round'!J93),"",'By Round'!J93)</f>
+        <f>IF(ISBLANK('By Round'!J94),"",'By Round'!J94)</f>
         <v/>
       </c>
       <c r="K152">
-        <f>IF(ISBLANK('By Round'!K93),"",'By Round'!K93)</f>
+        <f>IF(ISBLANK('By Round'!K94),"",'By Round'!K94)</f>
         <v/>
       </c>
       <c r="L152" s="12">
@@ -26958,45 +26808,44 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153">
+      <c r="B153" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C153">
+      <c r="C153" s="11">
         <f>'By Round'!B105</f>
         <v/>
       </c>
-      <c r="D153">
+      <c r="D153" s="11">
         <f>'By Round'!C105</f>
         <v/>
       </c>
-      <c r="E153">
+      <c r="E153" s="11">
         <f>'By Round'!D105</f>
         <v/>
       </c>
-      <c r="F153" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F153" s="11">
+        <f>IF(ISBLANK('By Round'!F106),"",'By Round'!F106)</f>
+        <v/>
       </c>
       <c r="G153">
-        <f>IF(ISBLANK('By Round'!G105),"",'By Round'!G105)</f>
+        <f>IF(ISBLANK('By Round'!G106),"",'By Round'!G106)</f>
         <v/>
       </c>
       <c r="H153">
-        <f>IF(ISBLANK('By Round'!H105),"",'By Round'!H105)</f>
+        <f>IF(ISBLANK('By Round'!H106),"",'By Round'!H106)</f>
         <v/>
       </c>
       <c r="I153">
-        <f>IF(ISBLANK('By Round'!I105),"",'By Round'!I105)</f>
+        <f>IF(ISBLANK('By Round'!I106),"",'By Round'!I106)</f>
         <v/>
       </c>
       <c r="J153">
-        <f>IF(ISBLANK('By Round'!J105),"",'By Round'!J105)</f>
+        <f>IF(ISBLANK('By Round'!J106),"",'By Round'!J106)</f>
         <v/>
       </c>
       <c r="K153">
-        <f>IF(ISBLANK('By Round'!K105),"",'By Round'!K105)</f>
+        <f>IF(ISBLANK('By Round'!K106),"",'By Round'!K106)</f>
         <v/>
       </c>
       <c r="L153" s="12">
@@ -27129,45 +26978,44 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154">
+      <c r="B154" s="11">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C154">
+      <c r="C154" s="11">
         <f>'By Round'!B117</f>
         <v/>
       </c>
-      <c r="D154">
+      <c r="D154" s="11">
         <f>'By Round'!C117</f>
         <v/>
       </c>
-      <c r="E154">
+      <c r="E154" s="11">
         <f>'By Round'!D117</f>
         <v/>
       </c>
-      <c r="F154" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F154" s="11">
+        <f>IF(ISBLANK('By Round'!F118),"",'By Round'!F118)</f>
+        <v/>
       </c>
       <c r="G154">
-        <f>IF(ISBLANK('By Round'!G117),"",'By Round'!G117)</f>
+        <f>IF(ISBLANK('By Round'!G118),"",'By Round'!G118)</f>
         <v/>
       </c>
       <c r="H154">
-        <f>IF(ISBLANK('By Round'!H117),"",'By Round'!H117)</f>
+        <f>IF(ISBLANK('By Round'!H118),"",'By Round'!H118)</f>
         <v/>
       </c>
       <c r="I154">
-        <f>IF(ISBLANK('By Round'!I117),"",'By Round'!I117)</f>
+        <f>IF(ISBLANK('By Round'!I118),"",'By Round'!I118)</f>
         <v/>
       </c>
       <c r="J154">
-        <f>IF(ISBLANK('By Round'!J117),"",'By Round'!J117)</f>
+        <f>IF(ISBLANK('By Round'!J118),"",'By Round'!J118)</f>
         <v/>
       </c>
       <c r="K154">
-        <f>IF(ISBLANK('By Round'!K117),"",'By Round'!K117)</f>
+        <f>IF(ISBLANK('By Round'!K118),"",'By Round'!K118)</f>
         <v/>
       </c>
       <c r="L154" s="12">
@@ -27300,45 +27148,44 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155">
+      <c r="B155" s="11">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C155">
+      <c r="C155" s="11">
         <f>'By Round'!B143</f>
         <v/>
       </c>
-      <c r="D155">
+      <c r="D155" s="11">
         <f>'By Round'!C143</f>
         <v/>
       </c>
-      <c r="E155">
+      <c r="E155" s="11">
         <f>'By Round'!D143</f>
         <v/>
       </c>
-      <c r="F155" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F155" s="11">
+        <f>IF(ISBLANK('By Round'!F144),"",'By Round'!F144)</f>
+        <v/>
       </c>
       <c r="G155">
-        <f>IF(ISBLANK('By Round'!G143),"",'By Round'!G143)</f>
+        <f>IF(ISBLANK('By Round'!G144),"",'By Round'!G144)</f>
         <v/>
       </c>
       <c r="H155">
-        <f>IF(ISBLANK('By Round'!H143),"",'By Round'!H143)</f>
+        <f>IF(ISBLANK('By Round'!H144),"",'By Round'!H144)</f>
         <v/>
       </c>
       <c r="I155">
-        <f>IF(ISBLANK('By Round'!I143),"",'By Round'!I143)</f>
+        <f>IF(ISBLANK('By Round'!I144),"",'By Round'!I144)</f>
         <v/>
       </c>
       <c r="J155">
-        <f>IF(ISBLANK('By Round'!J143),"",'By Round'!J143)</f>
+        <f>IF(ISBLANK('By Round'!J144),"",'By Round'!J144)</f>
         <v/>
       </c>
       <c r="K155">
-        <f>IF(ISBLANK('By Round'!K143),"",'By Round'!K143)</f>
+        <f>IF(ISBLANK('By Round'!K144),"",'By Round'!K144)</f>
         <v/>
       </c>
       <c r="L155" s="12">
@@ -27472,45 +27319,44 @@
     </row>
     <row r="156">
       <c r="A156" s="15" t="n"/>
-      <c r="B156" s="15">
+      <c r="B156" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C156" s="15">
+      <c r="C156" s="16">
         <f>'By Round'!B183</f>
         <v/>
       </c>
-      <c r="D156" s="15">
+      <c r="D156" s="16">
         <f>'By Round'!C183</f>
         <v/>
       </c>
-      <c r="E156" s="15">
+      <c r="E156" s="16">
         <f>'By Round'!D183</f>
         <v/>
       </c>
-      <c r="F156" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F156" s="16">
+        <f>IF(ISBLANK('By Round'!F184),"",'By Round'!F184)</f>
+        <v/>
       </c>
       <c r="G156" s="15">
-        <f>IF(ISBLANK('By Round'!G183),"",'By Round'!G183)</f>
+        <f>IF(ISBLANK('By Round'!G184),"",'By Round'!G184)</f>
         <v/>
       </c>
       <c r="H156" s="15">
-        <f>IF(ISBLANK('By Round'!H183),"",'By Round'!H183)</f>
+        <f>IF(ISBLANK('By Round'!H184),"",'By Round'!H184)</f>
         <v/>
       </c>
       <c r="I156" s="15">
-        <f>IF(ISBLANK('By Round'!I183),"",'By Round'!I183)</f>
+        <f>IF(ISBLANK('By Round'!I184),"",'By Round'!I184)</f>
         <v/>
       </c>
       <c r="J156" s="15">
-        <f>IF(ISBLANK('By Round'!J183),"",'By Round'!J183)</f>
+        <f>IF(ISBLANK('By Round'!J184),"",'By Round'!J184)</f>
         <v/>
       </c>
       <c r="K156" s="15">
-        <f>IF(ISBLANK('By Round'!K183),"",'By Round'!K183)</f>
+        <f>IF(ISBLANK('By Round'!K184),"",'By Round'!K184)</f>
         <v/>
       </c>
       <c r="L156" s="17">
@@ -27643,29 +27489,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C157">
+      <c r="C157" s="11">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D157">
+      <c r="D157" s="11">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E157">
+      <c r="E157" s="11">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F157" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F157" s="11">
+        <f>IF(ISBLANK('By Round'!F15),"",'By Round'!F15)</f>
+        <v/>
       </c>
       <c r="G157">
         <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
@@ -27817,26 +27662,25 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158">
+      <c r="B158" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C158">
+      <c r="C158" s="11">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D158">
+      <c r="D158" s="11">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E158">
+      <c r="E158" s="11">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F158" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F158" s="11">
+        <f>IF(ISBLANK('By Round'!F27),"",'By Round'!F27)</f>
+        <v/>
       </c>
       <c r="G158">
         <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
@@ -27988,26 +27832,25 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159">
+      <c r="B159" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C159">
+      <c r="C159" s="11">
         <f>'By Round'!B39</f>
         <v/>
       </c>
-      <c r="D159">
+      <c r="D159" s="11">
         <f>'By Round'!C39</f>
         <v/>
       </c>
-      <c r="E159">
+      <c r="E159" s="11">
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F159" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F159" s="11">
+        <f>IF(ISBLANK('By Round'!F39),"",'By Round'!F39)</f>
+        <v/>
       </c>
       <c r="G159">
         <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
@@ -28159,26 +28002,25 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160">
+      <c r="B160" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C160">
+      <c r="C160" s="11">
         <f>'By Round'!B107</f>
         <v/>
       </c>
-      <c r="D160">
+      <c r="D160" s="11">
         <f>'By Round'!C107</f>
         <v/>
       </c>
-      <c r="E160">
+      <c r="E160" s="11">
         <f>'By Round'!D107</f>
         <v/>
       </c>
-      <c r="F160" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F160" s="11">
+        <f>IF(ISBLANK('By Round'!F107),"",'By Round'!F107)</f>
+        <v/>
       </c>
       <c r="G160">
         <f>IF(ISBLANK('By Round'!G107),"",'By Round'!G107)</f>
@@ -28330,26 +28172,25 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161">
+      <c r="B161" s="11">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C161">
+      <c r="C161" s="11">
         <f>'By Round'!B119</f>
         <v/>
       </c>
-      <c r="D161">
+      <c r="D161" s="11">
         <f>'By Round'!C119</f>
         <v/>
       </c>
-      <c r="E161">
+      <c r="E161" s="11">
         <f>'By Round'!D119</f>
         <v/>
       </c>
-      <c r="F161" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F161" s="11">
+        <f>IF(ISBLANK('By Round'!F119),"",'By Round'!F119)</f>
+        <v/>
       </c>
       <c r="G161">
         <f>IF(ISBLANK('By Round'!G119),"",'By Round'!G119)</f>
@@ -28501,26 +28342,25 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162">
+      <c r="B162" s="11">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C162">
+      <c r="C162" s="11">
         <f>'By Round'!B131</f>
         <v/>
       </c>
-      <c r="D162">
+      <c r="D162" s="11">
         <f>'By Round'!C131</f>
         <v/>
       </c>
-      <c r="E162">
+      <c r="E162" s="11">
         <f>'By Round'!D131</f>
         <v/>
       </c>
-      <c r="F162" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F162" s="11">
+        <f>IF(ISBLANK('By Round'!F131),"",'By Round'!F131)</f>
+        <v/>
       </c>
       <c r="G162">
         <f>IF(ISBLANK('By Round'!G131),"",'By Round'!G131)</f>
@@ -28673,26 +28513,25 @@
     </row>
     <row r="163">
       <c r="A163" s="15" t="n"/>
-      <c r="B163" s="15">
+      <c r="B163" s="16">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C163" s="15">
+      <c r="C163" s="16">
         <f>'By Round'!B157</f>
         <v/>
       </c>
-      <c r="D163" s="15">
+      <c r="D163" s="16">
         <f>'By Round'!C157</f>
         <v/>
       </c>
-      <c r="E163" s="15">
+      <c r="E163" s="16">
         <f>'By Round'!D157</f>
         <v/>
       </c>
-      <c r="F163" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F163" s="16">
+        <f>IF(ISBLANK('By Round'!F157),"",'By Round'!F157)</f>
+        <v/>
       </c>
       <c r="G163" s="15">
         <f>IF(ISBLANK('By Round'!G157),"",'By Round'!G157)</f>
@@ -28844,48 +28683,47 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
+      <c r="A164" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C164">
+      <c r="C164" s="11">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D164">
+      <c r="D164" s="11">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E164">
+      <c r="E164" s="11">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F164" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F164" s="11">
+        <f>IF(ISBLANK('By Round'!F16),"",'By Round'!F16)</f>
+        <v/>
       </c>
       <c r="G164">
-        <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
+        <f>IF(ISBLANK('By Round'!G16),"",'By Round'!G16)</f>
         <v/>
       </c>
       <c r="H164">
-        <f>IF(ISBLANK('By Round'!H15),"",'By Round'!H15)</f>
+        <f>IF(ISBLANK('By Round'!H16),"",'By Round'!H16)</f>
         <v/>
       </c>
       <c r="I164">
-        <f>IF(ISBLANK('By Round'!I15),"",'By Round'!I15)</f>
+        <f>IF(ISBLANK('By Round'!I16),"",'By Round'!I16)</f>
         <v/>
       </c>
       <c r="J164">
-        <f>IF(ISBLANK('By Round'!J15),"",'By Round'!J15)</f>
+        <f>IF(ISBLANK('By Round'!J16),"",'By Round'!J16)</f>
         <v/>
       </c>
       <c r="K164">
-        <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
+        <f>IF(ISBLANK('By Round'!K16),"",'By Round'!K16)</f>
         <v/>
       </c>
       <c r="L164" s="12">
@@ -29018,45 +28856,44 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165">
+      <c r="B165" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C165">
+      <c r="C165" s="11">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D165">
+      <c r="D165" s="11">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E165">
+      <c r="E165" s="11">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F165" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F165" s="11">
+        <f>IF(ISBLANK('By Round'!F28),"",'By Round'!F28)</f>
+        <v/>
       </c>
       <c r="G165">
-        <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
+        <f>IF(ISBLANK('By Round'!G28),"",'By Round'!G28)</f>
         <v/>
       </c>
       <c r="H165">
-        <f>IF(ISBLANK('By Round'!H27),"",'By Round'!H27)</f>
+        <f>IF(ISBLANK('By Round'!H28),"",'By Round'!H28)</f>
         <v/>
       </c>
       <c r="I165">
-        <f>IF(ISBLANK('By Round'!I27),"",'By Round'!I27)</f>
+        <f>IF(ISBLANK('By Round'!I28),"",'By Round'!I28)</f>
         <v/>
       </c>
       <c r="J165">
-        <f>IF(ISBLANK('By Round'!J27),"",'By Round'!J27)</f>
+        <f>IF(ISBLANK('By Round'!J28),"",'By Round'!J28)</f>
         <v/>
       </c>
       <c r="K165">
-        <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
+        <f>IF(ISBLANK('By Round'!K28),"",'By Round'!K28)</f>
         <v/>
       </c>
       <c r="L165" s="12">
@@ -29189,45 +29026,44 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166">
+      <c r="B166" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C166">
+      <c r="C166" s="11">
         <f>'By Round'!B39</f>
         <v/>
       </c>
-      <c r="D166">
+      <c r="D166" s="11">
         <f>'By Round'!C39</f>
         <v/>
       </c>
-      <c r="E166">
+      <c r="E166" s="11">
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F166" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F166" s="11">
+        <f>IF(ISBLANK('By Round'!F40),"",'By Round'!F40)</f>
+        <v/>
       </c>
       <c r="G166">
-        <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
+        <f>IF(ISBLANK('By Round'!G40),"",'By Round'!G40)</f>
         <v/>
       </c>
       <c r="H166">
-        <f>IF(ISBLANK('By Round'!H39),"",'By Round'!H39)</f>
+        <f>IF(ISBLANK('By Round'!H40),"",'By Round'!H40)</f>
         <v/>
       </c>
       <c r="I166">
-        <f>IF(ISBLANK('By Round'!I39),"",'By Round'!I39)</f>
+        <f>IF(ISBLANK('By Round'!I40),"",'By Round'!I40)</f>
         <v/>
       </c>
       <c r="J166">
-        <f>IF(ISBLANK('By Round'!J39),"",'By Round'!J39)</f>
+        <f>IF(ISBLANK('By Round'!J40),"",'By Round'!J40)</f>
         <v/>
       </c>
       <c r="K166">
-        <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
+        <f>IF(ISBLANK('By Round'!K40),"",'By Round'!K40)</f>
         <v/>
       </c>
       <c r="L166" s="12">
@@ -29360,45 +29196,44 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167">
+      <c r="B167" s="11">
         <f>'By Round'!A101</f>
         <v/>
       </c>
-      <c r="C167">
+      <c r="C167" s="11">
         <f>'By Round'!B107</f>
         <v/>
       </c>
-      <c r="D167">
+      <c r="D167" s="11">
         <f>'By Round'!C107</f>
         <v/>
       </c>
-      <c r="E167">
+      <c r="E167" s="11">
         <f>'By Round'!D107</f>
         <v/>
       </c>
-      <c r="F167" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F167" s="11">
+        <f>IF(ISBLANK('By Round'!F108),"",'By Round'!F108)</f>
+        <v/>
       </c>
       <c r="G167">
-        <f>IF(ISBLANK('By Round'!G107),"",'By Round'!G107)</f>
+        <f>IF(ISBLANK('By Round'!G108),"",'By Round'!G108)</f>
         <v/>
       </c>
       <c r="H167">
-        <f>IF(ISBLANK('By Round'!H107),"",'By Round'!H107)</f>
+        <f>IF(ISBLANK('By Round'!H108),"",'By Round'!H108)</f>
         <v/>
       </c>
       <c r="I167">
-        <f>IF(ISBLANK('By Round'!I107),"",'By Round'!I107)</f>
+        <f>IF(ISBLANK('By Round'!I108),"",'By Round'!I108)</f>
         <v/>
       </c>
       <c r="J167">
-        <f>IF(ISBLANK('By Round'!J107),"",'By Round'!J107)</f>
+        <f>IF(ISBLANK('By Round'!J108),"",'By Round'!J108)</f>
         <v/>
       </c>
       <c r="K167">
-        <f>IF(ISBLANK('By Round'!K107),"",'By Round'!K107)</f>
+        <f>IF(ISBLANK('By Round'!K108),"",'By Round'!K108)</f>
         <v/>
       </c>
       <c r="L167" s="12">
@@ -29531,45 +29366,44 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168">
+      <c r="B168" s="11">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C168">
+      <c r="C168" s="11">
         <f>'By Round'!B119</f>
         <v/>
       </c>
-      <c r="D168">
+      <c r="D168" s="11">
         <f>'By Round'!C119</f>
         <v/>
       </c>
-      <c r="E168">
+      <c r="E168" s="11">
         <f>'By Round'!D119</f>
         <v/>
       </c>
-      <c r="F168" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F168" s="11">
+        <f>IF(ISBLANK('By Round'!F120),"",'By Round'!F120)</f>
+        <v/>
       </c>
       <c r="G168">
-        <f>IF(ISBLANK('By Round'!G119),"",'By Round'!G119)</f>
+        <f>IF(ISBLANK('By Round'!G120),"",'By Round'!G120)</f>
         <v/>
       </c>
       <c r="H168">
-        <f>IF(ISBLANK('By Round'!H119),"",'By Round'!H119)</f>
+        <f>IF(ISBLANK('By Round'!H120),"",'By Round'!H120)</f>
         <v/>
       </c>
       <c r="I168">
-        <f>IF(ISBLANK('By Round'!I119),"",'By Round'!I119)</f>
+        <f>IF(ISBLANK('By Round'!I120),"",'By Round'!I120)</f>
         <v/>
       </c>
       <c r="J168">
-        <f>IF(ISBLANK('By Round'!J119),"",'By Round'!J119)</f>
+        <f>IF(ISBLANK('By Round'!J120),"",'By Round'!J120)</f>
         <v/>
       </c>
       <c r="K168">
-        <f>IF(ISBLANK('By Round'!K119),"",'By Round'!K119)</f>
+        <f>IF(ISBLANK('By Round'!K120),"",'By Round'!K120)</f>
         <v/>
       </c>
       <c r="L168" s="12">
@@ -29702,45 +29536,44 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169">
+      <c r="B169" s="11">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C169">
+      <c r="C169" s="11">
         <f>'By Round'!B131</f>
         <v/>
       </c>
-      <c r="D169">
+      <c r="D169" s="11">
         <f>'By Round'!C131</f>
         <v/>
       </c>
-      <c r="E169">
+      <c r="E169" s="11">
         <f>'By Round'!D131</f>
         <v/>
       </c>
-      <c r="F169" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F169" s="11">
+        <f>IF(ISBLANK('By Round'!F132),"",'By Round'!F132)</f>
+        <v/>
       </c>
       <c r="G169">
-        <f>IF(ISBLANK('By Round'!G131),"",'By Round'!G131)</f>
+        <f>IF(ISBLANK('By Round'!G132),"",'By Round'!G132)</f>
         <v/>
       </c>
       <c r="H169">
-        <f>IF(ISBLANK('By Round'!H131),"",'By Round'!H131)</f>
+        <f>IF(ISBLANK('By Round'!H132),"",'By Round'!H132)</f>
         <v/>
       </c>
       <c r="I169">
-        <f>IF(ISBLANK('By Round'!I131),"",'By Round'!I131)</f>
+        <f>IF(ISBLANK('By Round'!I132),"",'By Round'!I132)</f>
         <v/>
       </c>
       <c r="J169">
-        <f>IF(ISBLANK('By Round'!J131),"",'By Round'!J131)</f>
+        <f>IF(ISBLANK('By Round'!J132),"",'By Round'!J132)</f>
         <v/>
       </c>
       <c r="K169">
-        <f>IF(ISBLANK('By Round'!K131),"",'By Round'!K131)</f>
+        <f>IF(ISBLANK('By Round'!K132),"",'By Round'!K132)</f>
         <v/>
       </c>
       <c r="L169" s="12">
@@ -29874,45 +29707,44 @@
     </row>
     <row r="170">
       <c r="A170" s="15" t="n"/>
-      <c r="B170" s="15">
+      <c r="B170" s="16">
         <f>'By Round'!A157</f>
         <v/>
       </c>
-      <c r="C170" s="15">
+      <c r="C170" s="16">
         <f>'By Round'!B157</f>
         <v/>
       </c>
-      <c r="D170" s="15">
+      <c r="D170" s="16">
         <f>'By Round'!C157</f>
         <v/>
       </c>
-      <c r="E170" s="15">
+      <c r="E170" s="16">
         <f>'By Round'!D157</f>
         <v/>
       </c>
-      <c r="F170" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F170" s="16">
+        <f>IF(ISBLANK('By Round'!F158),"",'By Round'!F158)</f>
+        <v/>
       </c>
       <c r="G170" s="15">
-        <f>IF(ISBLANK('By Round'!G157),"",'By Round'!G157)</f>
+        <f>IF(ISBLANK('By Round'!G158),"",'By Round'!G158)</f>
         <v/>
       </c>
       <c r="H170" s="15">
-        <f>IF(ISBLANK('By Round'!H157),"",'By Round'!H157)</f>
+        <f>IF(ISBLANK('By Round'!H158),"",'By Round'!H158)</f>
         <v/>
       </c>
       <c r="I170" s="15">
-        <f>IF(ISBLANK('By Round'!I157),"",'By Round'!I157)</f>
+        <f>IF(ISBLANK('By Round'!I158),"",'By Round'!I158)</f>
         <v/>
       </c>
       <c r="J170" s="15">
-        <f>IF(ISBLANK('By Round'!J157),"",'By Round'!J157)</f>
+        <f>IF(ISBLANK('By Round'!J158),"",'By Round'!J158)</f>
         <v/>
       </c>
       <c r="K170" s="15">
-        <f>IF(ISBLANK('By Round'!K157),"",'By Round'!K157)</f>
+        <f>IF(ISBLANK('By Round'!K158),"",'By Round'!K158)</f>
         <v/>
       </c>
       <c r="L170" s="17">
@@ -30045,29 +29877,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C171">
+      <c r="C171" s="11">
         <f>'By Round'!B29</f>
         <v/>
       </c>
-      <c r="D171">
+      <c r="D171" s="11">
         <f>'By Round'!C29</f>
         <v/>
       </c>
-      <c r="E171">
+      <c r="E171" s="11">
         <f>'By Round'!D29</f>
         <v/>
       </c>
-      <c r="F171" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F171" s="11">
+        <f>IF(ISBLANK('By Round'!F29),"",'By Round'!F29)</f>
+        <v/>
       </c>
       <c r="G171">
         <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
@@ -30219,26 +30050,25 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172">
+      <c r="B172" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C172">
+      <c r="C172" s="11">
         <f>'By Round'!B41</f>
         <v/>
       </c>
-      <c r="D172">
+      <c r="D172" s="11">
         <f>'By Round'!C41</f>
         <v/>
       </c>
-      <c r="E172">
+      <c r="E172" s="11">
         <f>'By Round'!D41</f>
         <v/>
       </c>
-      <c r="F172" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F172" s="11">
+        <f>IF(ISBLANK('By Round'!F41),"",'By Round'!F41)</f>
+        <v/>
       </c>
       <c r="G172">
         <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
@@ -30390,26 +30220,25 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173">
+      <c r="B173" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C173">
+      <c r="C173" s="11">
         <f>'By Round'!B53</f>
         <v/>
       </c>
-      <c r="D173">
+      <c r="D173" s="11">
         <f>'By Round'!C53</f>
         <v/>
       </c>
-      <c r="E173">
+      <c r="E173" s="11">
         <f>'By Round'!D53</f>
         <v/>
       </c>
-      <c r="F173" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F173" s="11">
+        <f>IF(ISBLANK('By Round'!F53),"",'By Round'!F53)</f>
+        <v/>
       </c>
       <c r="G173">
         <f>IF(ISBLANK('By Round'!G53),"",'By Round'!G53)</f>
@@ -30561,26 +30390,25 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174">
+      <c r="B174" s="11">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C174">
+      <c r="C174" s="11">
         <f>'By Round'!B121</f>
         <v/>
       </c>
-      <c r="D174">
+      <c r="D174" s="11">
         <f>'By Round'!C121</f>
         <v/>
       </c>
-      <c r="E174">
+      <c r="E174" s="11">
         <f>'By Round'!D121</f>
         <v/>
       </c>
-      <c r="F174" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F174" s="11">
+        <f>IF(ISBLANK('By Round'!F121),"",'By Round'!F121)</f>
+        <v/>
       </c>
       <c r="G174">
         <f>IF(ISBLANK('By Round'!G121),"",'By Round'!G121)</f>
@@ -30732,26 +30560,25 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175">
+      <c r="B175" s="11">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C175">
+      <c r="C175" s="11">
         <f>'By Round'!B133</f>
         <v/>
       </c>
-      <c r="D175">
+      <c r="D175" s="11">
         <f>'By Round'!C133</f>
         <v/>
       </c>
-      <c r="E175">
+      <c r="E175" s="11">
         <f>'By Round'!D133</f>
         <v/>
       </c>
-      <c r="F175" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F175" s="11">
+        <f>IF(ISBLANK('By Round'!F133),"",'By Round'!F133)</f>
+        <v/>
       </c>
       <c r="G175">
         <f>IF(ISBLANK('By Round'!G133),"",'By Round'!G133)</f>
@@ -30903,26 +30730,25 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176">
+      <c r="B176" s="11">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C176">
+      <c r="C176" s="11">
         <f>'By Round'!B145</f>
         <v/>
       </c>
-      <c r="D176">
+      <c r="D176" s="11">
         <f>'By Round'!C145</f>
         <v/>
       </c>
-      <c r="E176">
+      <c r="E176" s="11">
         <f>'By Round'!D145</f>
         <v/>
       </c>
-      <c r="F176" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F176" s="11">
+        <f>IF(ISBLANK('By Round'!F145),"",'By Round'!F145)</f>
+        <v/>
       </c>
       <c r="G176">
         <f>IF(ISBLANK('By Round'!G145),"",'By Round'!G145)</f>
@@ -31075,26 +30901,25 @@
     </row>
     <row r="177">
       <c r="A177" s="15" t="n"/>
-      <c r="B177" s="15">
+      <c r="B177" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C177" s="15">
+      <c r="C177" s="16">
         <f>'By Round'!B171</f>
         <v/>
       </c>
-      <c r="D177" s="15">
+      <c r="D177" s="16">
         <f>'By Round'!C171</f>
         <v/>
       </c>
-      <c r="E177" s="15">
+      <c r="E177" s="16">
         <f>'By Round'!D171</f>
         <v/>
       </c>
-      <c r="F177" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F177" s="16">
+        <f>IF(ISBLANK('By Round'!F171),"",'By Round'!F171)</f>
+        <v/>
       </c>
       <c r="G177" s="15">
         <f>IF(ISBLANK('By Round'!G171),"",'By Round'!G171)</f>
@@ -31246,48 +31071,47 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="11">
         <f>'By Round'!A17</f>
         <v/>
       </c>
-      <c r="C178">
+      <c r="C178" s="11">
         <f>'By Round'!B29</f>
         <v/>
       </c>
-      <c r="D178">
+      <c r="D178" s="11">
         <f>'By Round'!C29</f>
         <v/>
       </c>
-      <c r="E178">
+      <c r="E178" s="11">
         <f>'By Round'!D29</f>
         <v/>
       </c>
-      <c r="F178" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F178" s="11">
+        <f>IF(ISBLANK('By Round'!F30),"",'By Round'!F30)</f>
+        <v/>
       </c>
       <c r="G178">
-        <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
+        <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
         <v/>
       </c>
       <c r="H178">
-        <f>IF(ISBLANK('By Round'!H29),"",'By Round'!H29)</f>
+        <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
         <v/>
       </c>
       <c r="I178">
-        <f>IF(ISBLANK('By Round'!I29),"",'By Round'!I29)</f>
+        <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
         <v/>
       </c>
       <c r="J178">
-        <f>IF(ISBLANK('By Round'!J29),"",'By Round'!J29)</f>
+        <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
         <v/>
       </c>
       <c r="K178">
-        <f>IF(ISBLANK('By Round'!K29),"",'By Round'!K29)</f>
+        <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
         <v/>
       </c>
       <c r="L178" s="12">
@@ -31420,45 +31244,44 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179">
+      <c r="B179" s="11">
         <f>'By Round'!A31</f>
         <v/>
       </c>
-      <c r="C179">
+      <c r="C179" s="11">
         <f>'By Round'!B41</f>
         <v/>
       </c>
-      <c r="D179">
+      <c r="D179" s="11">
         <f>'By Round'!C41</f>
         <v/>
       </c>
-      <c r="E179">
+      <c r="E179" s="11">
         <f>'By Round'!D41</f>
         <v/>
       </c>
-      <c r="F179" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F179" s="11">
+        <f>IF(ISBLANK('By Round'!F42),"",'By Round'!F42)</f>
+        <v/>
       </c>
       <c r="G179">
-        <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
+        <f>IF(ISBLANK('By Round'!G42),"",'By Round'!G42)</f>
         <v/>
       </c>
       <c r="H179">
-        <f>IF(ISBLANK('By Round'!H41),"",'By Round'!H41)</f>
+        <f>IF(ISBLANK('By Round'!H42),"",'By Round'!H42)</f>
         <v/>
       </c>
       <c r="I179">
-        <f>IF(ISBLANK('By Round'!I41),"",'By Round'!I41)</f>
+        <f>IF(ISBLANK('By Round'!I42),"",'By Round'!I42)</f>
         <v/>
       </c>
       <c r="J179">
-        <f>IF(ISBLANK('By Round'!J41),"",'By Round'!J41)</f>
+        <f>IF(ISBLANK('By Round'!J42),"",'By Round'!J42)</f>
         <v/>
       </c>
       <c r="K179">
-        <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
+        <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
         <v/>
       </c>
       <c r="L179" s="12">
@@ -31591,45 +31414,44 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180">
+      <c r="B180" s="11">
         <f>'By Round'!A45</f>
         <v/>
       </c>
-      <c r="C180">
+      <c r="C180" s="11">
         <f>'By Round'!B53</f>
         <v/>
       </c>
-      <c r="D180">
+      <c r="D180" s="11">
         <f>'By Round'!C53</f>
         <v/>
       </c>
-      <c r="E180">
+      <c r="E180" s="11">
         <f>'By Round'!D53</f>
         <v/>
       </c>
-      <c r="F180" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F180" s="11">
+        <f>IF(ISBLANK('By Round'!F54),"",'By Round'!F54)</f>
+        <v/>
       </c>
       <c r="G180">
-        <f>IF(ISBLANK('By Round'!G53),"",'By Round'!G53)</f>
+        <f>IF(ISBLANK('By Round'!G54),"",'By Round'!G54)</f>
         <v/>
       </c>
       <c r="H180">
-        <f>IF(ISBLANK('By Round'!H53),"",'By Round'!H53)</f>
+        <f>IF(ISBLANK('By Round'!H54),"",'By Round'!H54)</f>
         <v/>
       </c>
       <c r="I180">
-        <f>IF(ISBLANK('By Round'!I53),"",'By Round'!I53)</f>
+        <f>IF(ISBLANK('By Round'!I54),"",'By Round'!I54)</f>
         <v/>
       </c>
       <c r="J180">
-        <f>IF(ISBLANK('By Round'!J53),"",'By Round'!J53)</f>
+        <f>IF(ISBLANK('By Round'!J54),"",'By Round'!J54)</f>
         <v/>
       </c>
       <c r="K180">
-        <f>IF(ISBLANK('By Round'!K53),"",'By Round'!K53)</f>
+        <f>IF(ISBLANK('By Round'!K54),"",'By Round'!K54)</f>
         <v/>
       </c>
       <c r="L180" s="12">
@@ -31762,45 +31584,44 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181">
+      <c r="B181" s="11">
         <f>'By Round'!A115</f>
         <v/>
       </c>
-      <c r="C181">
+      <c r="C181" s="11">
         <f>'By Round'!B121</f>
         <v/>
       </c>
-      <c r="D181">
+      <c r="D181" s="11">
         <f>'By Round'!C121</f>
         <v/>
       </c>
-      <c r="E181">
+      <c r="E181" s="11">
         <f>'By Round'!D121</f>
         <v/>
       </c>
-      <c r="F181" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F181" s="11">
+        <f>IF(ISBLANK('By Round'!F122),"",'By Round'!F122)</f>
+        <v/>
       </c>
       <c r="G181">
-        <f>IF(ISBLANK('By Round'!G121),"",'By Round'!G121)</f>
+        <f>IF(ISBLANK('By Round'!G122),"",'By Round'!G122)</f>
         <v/>
       </c>
       <c r="H181">
-        <f>IF(ISBLANK('By Round'!H121),"",'By Round'!H121)</f>
+        <f>IF(ISBLANK('By Round'!H122),"",'By Round'!H122)</f>
         <v/>
       </c>
       <c r="I181">
-        <f>IF(ISBLANK('By Round'!I121),"",'By Round'!I121)</f>
+        <f>IF(ISBLANK('By Round'!I122),"",'By Round'!I122)</f>
         <v/>
       </c>
       <c r="J181">
-        <f>IF(ISBLANK('By Round'!J121),"",'By Round'!J121)</f>
+        <f>IF(ISBLANK('By Round'!J122),"",'By Round'!J122)</f>
         <v/>
       </c>
       <c r="K181">
-        <f>IF(ISBLANK('By Round'!K121),"",'By Round'!K121)</f>
+        <f>IF(ISBLANK('By Round'!K122),"",'By Round'!K122)</f>
         <v/>
       </c>
       <c r="L181" s="12">
@@ -31933,45 +31754,44 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182">
+      <c r="B182" s="11">
         <f>'By Round'!A129</f>
         <v/>
       </c>
-      <c r="C182">
+      <c r="C182" s="11">
         <f>'By Round'!B133</f>
         <v/>
       </c>
-      <c r="D182">
+      <c r="D182" s="11">
         <f>'By Round'!C133</f>
         <v/>
       </c>
-      <c r="E182">
+      <c r="E182" s="11">
         <f>'By Round'!D133</f>
         <v/>
       </c>
-      <c r="F182" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F182" s="11">
+        <f>IF(ISBLANK('By Round'!F134),"",'By Round'!F134)</f>
+        <v/>
       </c>
       <c r="G182">
-        <f>IF(ISBLANK('By Round'!G133),"",'By Round'!G133)</f>
+        <f>IF(ISBLANK('By Round'!G134),"",'By Round'!G134)</f>
         <v/>
       </c>
       <c r="H182">
-        <f>IF(ISBLANK('By Round'!H133),"",'By Round'!H133)</f>
+        <f>IF(ISBLANK('By Round'!H134),"",'By Round'!H134)</f>
         <v/>
       </c>
       <c r="I182">
-        <f>IF(ISBLANK('By Round'!I133),"",'By Round'!I133)</f>
+        <f>IF(ISBLANK('By Round'!I134),"",'By Round'!I134)</f>
         <v/>
       </c>
       <c r="J182">
-        <f>IF(ISBLANK('By Round'!J133),"",'By Round'!J133)</f>
+        <f>IF(ISBLANK('By Round'!J134),"",'By Round'!J134)</f>
         <v/>
       </c>
       <c r="K182">
-        <f>IF(ISBLANK('By Round'!K133),"",'By Round'!K133)</f>
+        <f>IF(ISBLANK('By Round'!K134),"",'By Round'!K134)</f>
         <v/>
       </c>
       <c r="L182" s="12">
@@ -32104,45 +31924,44 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183">
+      <c r="B183" s="11">
         <f>'By Round'!A143</f>
         <v/>
       </c>
-      <c r="C183">
+      <c r="C183" s="11">
         <f>'By Round'!B145</f>
         <v/>
       </c>
-      <c r="D183">
+      <c r="D183" s="11">
         <f>'By Round'!C145</f>
         <v/>
       </c>
-      <c r="E183">
+      <c r="E183" s="11">
         <f>'By Round'!D145</f>
         <v/>
       </c>
-      <c r="F183" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F183" s="11">
+        <f>IF(ISBLANK('By Round'!F146),"",'By Round'!F146)</f>
+        <v/>
       </c>
       <c r="G183">
-        <f>IF(ISBLANK('By Round'!G145),"",'By Round'!G145)</f>
+        <f>IF(ISBLANK('By Round'!G146),"",'By Round'!G146)</f>
         <v/>
       </c>
       <c r="H183">
-        <f>IF(ISBLANK('By Round'!H145),"",'By Round'!H145)</f>
+        <f>IF(ISBLANK('By Round'!H146),"",'By Round'!H146)</f>
         <v/>
       </c>
       <c r="I183">
-        <f>IF(ISBLANK('By Round'!I145),"",'By Round'!I145)</f>
+        <f>IF(ISBLANK('By Round'!I146),"",'By Round'!I146)</f>
         <v/>
       </c>
       <c r="J183">
-        <f>IF(ISBLANK('By Round'!J145),"",'By Round'!J145)</f>
+        <f>IF(ISBLANK('By Round'!J146),"",'By Round'!J146)</f>
         <v/>
       </c>
       <c r="K183">
-        <f>IF(ISBLANK('By Round'!K145),"",'By Round'!K145)</f>
+        <f>IF(ISBLANK('By Round'!K146),"",'By Round'!K146)</f>
         <v/>
       </c>
       <c r="L183" s="12">
@@ -32276,45 +32095,44 @@
     </row>
     <row r="184">
       <c r="A184" s="15" t="n"/>
-      <c r="B184" s="15">
+      <c r="B184" s="16">
         <f>'By Round'!A171</f>
         <v/>
       </c>
-      <c r="C184" s="15">
+      <c r="C184" s="16">
         <f>'By Round'!B171</f>
         <v/>
       </c>
-      <c r="D184" s="15">
+      <c r="D184" s="16">
         <f>'By Round'!C171</f>
         <v/>
       </c>
-      <c r="E184" s="15">
+      <c r="E184" s="16">
         <f>'By Round'!D171</f>
         <v/>
       </c>
-      <c r="F184" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F184" s="16">
+        <f>IF(ISBLANK('By Round'!F172),"",'By Round'!F172)</f>
+        <v/>
       </c>
       <c r="G184" s="15">
-        <f>IF(ISBLANK('By Round'!G171),"",'By Round'!G171)</f>
+        <f>IF(ISBLANK('By Round'!G172),"",'By Round'!G172)</f>
         <v/>
       </c>
       <c r="H184" s="15">
-        <f>IF(ISBLANK('By Round'!H171),"",'By Round'!H171)</f>
+        <f>IF(ISBLANK('By Round'!H172),"",'By Round'!H172)</f>
         <v/>
       </c>
       <c r="I184" s="15">
-        <f>IF(ISBLANK('By Round'!I171),"",'By Round'!I171)</f>
+        <f>IF(ISBLANK('By Round'!I172),"",'By Round'!I172)</f>
         <v/>
       </c>
       <c r="J184" s="15">
-        <f>IF(ISBLANK('By Round'!J171),"",'By Round'!J171)</f>
+        <f>IF(ISBLANK('By Round'!J172),"",'By Round'!J172)</f>
         <v/>
       </c>
       <c r="K184" s="15">
-        <f>IF(ISBLANK('By Round'!K171),"",'By Round'!K171)</f>
+        <f>IF(ISBLANK('By Round'!K172),"",'By Round'!K172)</f>
         <v/>
       </c>
       <c r="L184" s="17">

--- a/howell13.xlsx
+++ b/howell13.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 10, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 44</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 68</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 86</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 72</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 62</t>
+          <t>Name 77</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 52</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 32</t>
+          <t>Name 65</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 16</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,152 +710,152 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 54</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
+        <is>
+          <t>Name 84</t>
+        </is>
+      </c>
+      <c r="D15" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=6",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=6",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E15" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=6",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=6",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Name 28</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Name 49</t>
+        </is>
+      </c>
+      <c r="D16" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=7",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=7",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E16" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=7",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=7",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Name 78</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Name 33</t>
+        </is>
+      </c>
+      <c r="D17" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=8",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=8",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E17" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=8",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=8",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Name 89</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Name 14</t>
+        </is>
+      </c>
+      <c r="D18" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=9",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=9",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E18" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=9",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=9",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Name 52</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Name 18</t>
+        </is>
+      </c>
+      <c r="D19" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=10",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=10",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E19" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=10",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=10",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Name 25</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Name 90</t>
+        </is>
+      </c>
+      <c r="D20" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=11",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=11",'By Board'!$O$3:$O$170)/24</f>
+        <v/>
+      </c>
+      <c r="E20" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=11",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=11",'By Board'!$M$3:$M$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Name 71</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Name 67</t>
         </is>
       </c>
-      <c r="D15" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=6",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=6",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-      <c r="E15" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=6",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=6",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Name 66</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Name 24</t>
-        </is>
-      </c>
-      <c r="D16" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=7",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=7",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-      <c r="E16" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=7",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=7",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Name 68</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Name 62</t>
-        </is>
-      </c>
-      <c r="D17" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=8",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=8",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-      <c r="E17" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=8",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=8",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Name 70</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Name 38</t>
-        </is>
-      </c>
-      <c r="D18" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=9",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=9",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-      <c r="E18" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=9",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=9",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Name 83</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Name 20</t>
-        </is>
-      </c>
-      <c r="D19" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=10",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=10",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-      <c r="E19" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=10",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=10",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Name 47</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Name 88</t>
-        </is>
-      </c>
-      <c r="D20" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=11",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=11",'By Board'!$O$3:$O$170)/24</f>
-        <v/>
-      </c>
-      <c r="E20" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=11",'By Board'!$L$3:$L$170)+SUMIF('By Board'!$E$3:$E$170,"=11",'By Board'!$M$3:$M$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Name 55</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Name 25</t>
-        </is>
-      </c>
       <c r="D21" s="4">
         <f>SUMIF('By Board'!$D$3:$D$170,"=12",'By Board'!$N$3:$N$170)/24+SUMIF('By Board'!$E$3:$E$170,"=12",'By Board'!$O$3:$O$170)/24</f>
         <v/>
@@ -871,12 +871,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Name 66</t>
+          <t>Name 41</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="D22" s="4">

--- a/howell13.xlsx
+++ b/howell13.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 12, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 40</t>
+          <t>Name 55</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 18</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 52</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 60</t>
+          <t>Name 74</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 57</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 82</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 68</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 78</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 34</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 41</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 42</t>
+          <t>Name 64</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 87</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 40</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -784,7 +784,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 68</t>
+          <t>Name 60</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -802,12 +802,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 17</t>
+          <t>Name 11</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 69</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -825,12 +825,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 69</t>
+          <t>Name 30</t>
         </is>
       </c>
       <c r="D20" s="4">
@@ -848,12 +848,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 30</t>
         </is>
       </c>
       <c r="D21" s="4">
@@ -871,12 +871,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Name 54</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="D22" s="4">

--- a/howell13.xlsx
+++ b/howell13.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 13, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 19, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 75</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 90</t>
+          <t>Name 51</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,219 +618,219 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 68</t>
+          <t>Name 13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
+        <is>
+          <t>Name 86</t>
+        </is>
+      </c>
+      <c r="D11" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=2",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=2",'By Board'!$P$3:$P$170)/24</f>
+        <v/>
+      </c>
+      <c r="E11" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=2",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=2",'By Board'!$N$3:$N$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Name 62</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Name 87</t>
+        </is>
+      </c>
+      <c r="D12" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=3",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=3",'By Board'!$P$3:$P$170)/24</f>
+        <v/>
+      </c>
+      <c r="E12" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=3",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=3",'By Board'!$N$3:$N$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Name 57</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Name 38</t>
+        </is>
+      </c>
+      <c r="D13" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=4",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=4",'By Board'!$P$3:$P$170)/24</f>
+        <v/>
+      </c>
+      <c r="E13" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=4",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=4",'By Board'!$N$3:$N$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Name 58</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Name 51</t>
+        </is>
+      </c>
+      <c r="D14" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=5",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=5",'By Board'!$P$3:$P$170)/24</f>
+        <v/>
+      </c>
+      <c r="E14" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=5",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=5",'By Board'!$N$3:$N$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Name 71</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Name 28</t>
         </is>
       </c>
-      <c r="D11" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=2",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=2",'By Board'!$P$3:$P$170)/24</f>
-        <v/>
-      </c>
-      <c r="E11" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=2",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=2",'By Board'!$N$3:$N$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="D15" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=6",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=6",'By Board'!$P$3:$P$170)/24</f>
+        <v/>
+      </c>
+      <c r="E15" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=6",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=6",'By Board'!$N$3:$N$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Name 83</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Name 75</t>
+        </is>
+      </c>
+      <c r="D16" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=7",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=7",'By Board'!$P$3:$P$170)/24</f>
+        <v/>
+      </c>
+      <c r="E16" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=7",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=7",'By Board'!$N$3:$N$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Name 88</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Name 41</t>
+        </is>
+      </c>
+      <c r="D17" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=8",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=8",'By Board'!$P$3:$P$170)/24</f>
+        <v/>
+      </c>
+      <c r="E17" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=8",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=8",'By Board'!$N$3:$N$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Name 74</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Name 56</t>
+        </is>
+      </c>
+      <c r="D18" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=9",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=9",'By Board'!$P$3:$P$170)/24</f>
+        <v/>
+      </c>
+      <c r="E18" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=9",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=9",'By Board'!$N$3:$N$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Name 60</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Name 63</t>
+        </is>
+      </c>
+      <c r="D19" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=10",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=10",'By Board'!$P$3:$P$170)/24</f>
+        <v/>
+      </c>
+      <c r="E19" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$170,"=10",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=10",'By Board'!$N$3:$N$170)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Name 28</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Name 48</t>
-        </is>
-      </c>
-      <c r="D12" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=3",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=3",'By Board'!$P$3:$P$170)/24</f>
-        <v/>
-      </c>
-      <c r="E12" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=3",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=3",'By Board'!$N$3:$N$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Name 27</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Name 32</t>
-        </is>
-      </c>
-      <c r="D13" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=4",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=4",'By Board'!$P$3:$P$170)/24</f>
-        <v/>
-      </c>
-      <c r="E13" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=4",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=4",'By Board'!$N$3:$N$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Name 14</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Name 12</t>
-        </is>
-      </c>
-      <c r="D14" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=5",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=5",'By Board'!$P$3:$P$170)/24</f>
-        <v/>
-      </c>
-      <c r="E14" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=5",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=5",'By Board'!$N$3:$N$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Name 74</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Name 22</t>
-        </is>
-      </c>
-      <c r="D15" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=6",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=6",'By Board'!$P$3:$P$170)/24</f>
-        <v/>
-      </c>
-      <c r="E15" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=6",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=6",'By Board'!$N$3:$N$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Name 63</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Name 47</t>
-        </is>
-      </c>
-      <c r="D16" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=7",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=7",'By Board'!$P$3:$P$170)/24</f>
-        <v/>
-      </c>
-      <c r="E16" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=7",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=7",'By Board'!$N$3:$N$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Name 45</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Name 52</t>
-        </is>
-      </c>
-      <c r="D17" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=8",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=8",'By Board'!$P$3:$P$170)/24</f>
-        <v/>
-      </c>
-      <c r="E17" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=8",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=8",'By Board'!$N$3:$N$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Name 84</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Name 30</t>
-        </is>
-      </c>
-      <c r="D18" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=9",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=9",'By Board'!$P$3:$P$170)/24</f>
-        <v/>
-      </c>
-      <c r="E18" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=9",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=9",'By Board'!$N$3:$N$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Name 89</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Name 30</t>
-        </is>
-      </c>
-      <c r="D19" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=10",'By Board'!$O$3:$O$170)/24+SUMIF('By Board'!$E$3:$E$170,"=10",'By Board'!$P$3:$P$170)/24</f>
-        <v/>
-      </c>
-      <c r="E19" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$170,"=10",'By Board'!$M$3:$M$170)+SUMIF('By Board'!$E$3:$E$170,"=10",'By Board'!$N$3:$N$170)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Name 39</t>
-        </is>
-      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 73</t>
         </is>
       </c>
       <c r="D20" s="4">
@@ -848,12 +848,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="D21" s="4">
@@ -871,12 +871,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 60</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="D22" s="4">
